--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1852,7 +1852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1862,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="B469" sqref="B416:B469"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6278,26 +6278,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="5" t="s">
+    <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A416" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C416" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="5" t="s">
+      <c r="C416" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A417" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C417" s="4">
-        <v>0</v>
+      <c r="C417" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6998,7 +6998,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>SUM(C6:C481)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1486,7 +1486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,6 +1496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,6 +1551,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1852,7 +1866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1862,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6454,15 +6468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="5" t="s">
+    <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A432" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B432" s="6" t="s">
+      <c r="B432" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C432" s="4">
-        <v>0</v>
+      <c r="C432" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
@@ -6998,7 +7012,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>SUM(C6:C481)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="780" yWindow="936" windowWidth="23256" windowHeight="13176"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1417,13 +1417,16 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Maximum Number of Events That Can Be Attended</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1485,8 +1488,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,6 +1523,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1515,11 +1538,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,8 +1583,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1866,7 +1895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1876,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5436,10 +5465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="7"/>
-      <c r="C335" s="4">
-        <v>0</v>
+    <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
+      <c r="A335" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C335" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="21">
@@ -7012,7 +7046,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>SUM(C6:C481)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7463,6 +7497,7 @@
     <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
     <hyperlink ref="B356" r:id="rId445"/>
     <hyperlink ref="B2" r:id="rId446"/>
+    <hyperlink ref="B335" r:id="rId447"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1420,13 +1420,19 @@
   </si>
   <si>
     <t>Maximum Number of Events That Can Be Attended</t>
+  </si>
+  <si>
+    <t>Not a subset sum</t>
+  </si>
+  <si>
+    <t>Finding 1st Missing positive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1503,6 +1509,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1543,7 +1571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,6 +1615,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1903,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B340" sqref="B340"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1937,8 +1974,16 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:3" s="22" customFormat="1" ht="21">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -3022,26 +3067,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="14" customFormat="1" ht="21">
+    <row r="107" spans="1:3" s="24" customFormat="1" ht="23.4">
       <c r="A107" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C107" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A108" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C108" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -3049,7 +3094,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3060,7 +3105,7 @@
         <v>95</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3071,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3082,7 +3127,7 @@
         <v>95</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3093,7 +3138,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3104,7 +3149,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3115,7 +3160,7 @@
         <v>95</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3126,7 +3171,7 @@
         <v>95</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3137,7 +3182,7 @@
         <v>95</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3148,7 +3193,7 @@
         <v>95</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3159,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3170,7 +3215,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3181,7 +3226,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3192,7 +3237,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3203,7 +3248,7 @@
         <v>95</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3214,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3225,7 +3270,7 @@
         <v>95</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3236,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3247,7 +3292,7 @@
         <v>95</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3258,7 +3303,7 @@
         <v>95</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3269,7 +3314,7 @@
         <v>95</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3280,7 +3325,7 @@
         <v>95</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3291,7 +3336,7 @@
         <v>95</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3302,7 +3347,7 @@
         <v>95</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3313,7 +3358,7 @@
         <v>95</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3324,7 +3369,7 @@
         <v>95</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3335,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -3346,30 +3391,30 @@
         <v>95</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21">
+      <c r="A137" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
       <c r="C137" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
+    <row r="138" spans="1:3">
       <c r="C138" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="4">
         <v>0</v>
       </c>
@@ -3379,7 +3424,7 @@
         <v>132</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -3390,7 +3435,7 @@
         <v>132</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -3401,7 +3446,7 @@
         <v>132</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="4">
         <v>0</v>
@@ -3412,7 +3457,7 @@
         <v>132</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3423,7 +3468,7 @@
         <v>132</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3434,7 +3479,7 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3445,7 +3490,7 @@
         <v>132</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3456,7 +3501,7 @@
         <v>132</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3467,7 +3512,7 @@
         <v>132</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3478,7 +3523,7 @@
         <v>132</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3489,7 +3534,7 @@
         <v>132</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3500,7 +3545,7 @@
         <v>132</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3511,7 +3556,7 @@
         <v>132</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3522,7 +3567,7 @@
         <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3533,7 +3578,7 @@
         <v>132</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3544,7 +3589,7 @@
         <v>132</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3555,7 +3600,7 @@
         <v>132</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3566,7 +3611,7 @@
         <v>132</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3577,7 +3622,7 @@
         <v>132</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3588,7 +3633,7 @@
         <v>132</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3599,7 +3644,7 @@
         <v>132</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3610,7 +3655,7 @@
         <v>132</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3621,7 +3666,7 @@
         <v>132</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3632,7 +3677,7 @@
         <v>132</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3642,8 +3687,8 @@
       <c r="A164" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>158</v>
+      <c r="B164" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3654,7 +3699,7 @@
         <v>132</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3664,8 +3709,8 @@
       <c r="A166" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>160</v>
+      <c r="B166" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3676,7 +3721,7 @@
         <v>132</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3687,7 +3732,7 @@
         <v>132</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3698,7 +3743,7 @@
         <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3709,7 +3754,7 @@
         <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3720,7 +3765,7 @@
         <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3731,7 +3776,7 @@
         <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3742,7 +3787,7 @@
         <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4">
         <v>0</v>
@@ -3753,30 +3798,30 @@
         <v>132</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21">
+      <c r="A175" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
       <c r="C175" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="7"/>
+    <row r="176" spans="1:3">
       <c r="C176" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="B177" s="7"/>
       <c r="C177" s="4">
         <v>0</v>
       </c>
@@ -3786,7 +3831,7 @@
         <v>169</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3797,7 +3842,7 @@
         <v>169</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3808,7 +3853,7 @@
         <v>169</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4">
         <v>0</v>
@@ -3819,7 +3864,7 @@
         <v>169</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4">
         <v>0</v>
@@ -3830,7 +3875,7 @@
         <v>169</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4">
         <v>0</v>
@@ -3841,7 +3886,7 @@
         <v>169</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4">
         <v>0</v>
@@ -3852,7 +3897,7 @@
         <v>169</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4">
         <v>0</v>
@@ -3863,7 +3908,7 @@
         <v>169</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4">
         <v>0</v>
@@ -3874,7 +3919,7 @@
         <v>169</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3885,7 +3930,7 @@
         <v>169</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3896,7 +3941,7 @@
         <v>169</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3907,7 +3952,7 @@
         <v>169</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3918,7 +3963,7 @@
         <v>169</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -3929,7 +3974,7 @@
         <v>169</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3940,7 +3985,7 @@
         <v>169</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3951,7 +3996,7 @@
         <v>169</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -3962,7 +4007,7 @@
         <v>169</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -3973,7 +4018,7 @@
         <v>169</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -3984,7 +4029,7 @@
         <v>169</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -3995,7 +4040,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4006,7 +4051,7 @@
         <v>169</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4017,7 +4062,7 @@
         <v>169</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4028,7 +4073,7 @@
         <v>169</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4039,7 +4084,7 @@
         <v>169</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4050,7 +4095,7 @@
         <v>169</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4061,7 +4106,7 @@
         <v>169</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4072,7 +4117,7 @@
         <v>169</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4083,7 +4128,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4094,7 +4139,7 @@
         <v>169</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4105,7 +4150,7 @@
         <v>169</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4116,7 +4161,7 @@
         <v>169</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4127,7 +4172,7 @@
         <v>169</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4138,7 +4183,7 @@
         <v>169</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -4149,15 +4194,19 @@
         <v>169</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="21">
+      <c r="A212" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
       <c r="C212" s="4">
         <v>0</v>
       </c>
@@ -4170,12 +4219,8 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="7"/>
       <c r="C214" s="4">
         <v>0</v>
       </c>
@@ -4185,7 +4230,7 @@
         <v>205</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4196,7 +4241,7 @@
         <v>205</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4207,7 +4252,7 @@
         <v>205</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4218,7 +4263,7 @@
         <v>205</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4229,7 +4274,7 @@
         <v>205</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4239,8 +4284,8 @@
       <c r="A220" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>212</v>
+      <c r="B220" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4250,8 +4295,8 @@
       <c r="A221" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>213</v>
+      <c r="B221" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4262,7 +4307,7 @@
         <v>205</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4273,7 +4318,7 @@
         <v>205</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4284,7 +4329,7 @@
         <v>205</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4295,7 +4340,7 @@
         <v>205</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4306,7 +4351,7 @@
         <v>205</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4317,7 +4362,7 @@
         <v>205</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4328,7 +4373,7 @@
         <v>205</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4339,7 +4384,7 @@
         <v>205</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4350,7 +4395,7 @@
         <v>205</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4361,7 +4406,7 @@
         <v>205</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4372,7 +4417,7 @@
         <v>205</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4383,7 +4428,7 @@
         <v>205</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4394,7 +4439,7 @@
         <v>205</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4405,14 +4450,19 @@
         <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="21">
+      <c r="A236" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C235" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="B236" s="7"/>
       <c r="C236" s="4">
         <v>0</v>
       </c>
@@ -4424,12 +4474,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="B238" s="7"/>
       <c r="C238" s="4">
         <v>0</v>
       </c>
@@ -4439,7 +4484,7 @@
         <v>228</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4450,7 +4495,7 @@
         <v>228</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4461,7 +4506,7 @@
         <v>228</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4472,7 +4517,7 @@
         <v>228</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4483,7 +4528,7 @@
         <v>228</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4494,7 +4539,7 @@
         <v>228</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4505,7 +4550,7 @@
         <v>228</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4516,7 +4561,7 @@
         <v>228</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4527,7 +4572,7 @@
         <v>228</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4538,7 +4583,7 @@
         <v>228</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4549,7 +4594,7 @@
         <v>228</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4560,7 +4605,7 @@
         <v>228</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4571,7 +4616,7 @@
         <v>228</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4582,7 +4627,7 @@
         <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4593,7 +4638,7 @@
         <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4604,7 +4649,7 @@
         <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4615,7 +4660,7 @@
         <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4626,7 +4671,7 @@
         <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4637,7 +4682,7 @@
         <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4648,7 +4693,7 @@
         <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4659,7 +4704,7 @@
         <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4670,7 +4715,7 @@
         <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4681,7 +4726,7 @@
         <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4692,7 +4737,7 @@
         <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4703,7 +4748,7 @@
         <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4714,7 +4759,7 @@
         <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4725,7 +4770,7 @@
         <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4736,7 +4781,7 @@
         <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4747,7 +4792,7 @@
         <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4758,7 +4803,7 @@
         <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4769,7 +4814,7 @@
         <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4780,7 +4825,7 @@
         <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4791,7 +4836,7 @@
         <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="C271" s="4">
         <v>0</v>
@@ -4802,14 +4847,19 @@
         <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="21">
+      <c r="A273" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C272" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="7"/>
       <c r="C273" s="4">
         <v>0</v>
       </c>
@@ -4821,12 +4871,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="B275" s="7"/>
       <c r="C275" s="4">
         <v>0</v>
       </c>
@@ -4836,7 +4881,7 @@
         <v>263</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -4847,7 +4892,7 @@
         <v>263</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -4858,7 +4903,7 @@
         <v>263</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -4869,7 +4914,7 @@
         <v>263</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -4880,7 +4925,7 @@
         <v>263</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -4891,7 +4936,7 @@
         <v>263</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -4902,7 +4947,7 @@
         <v>263</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -4913,7 +4958,7 @@
         <v>263</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -4924,7 +4969,7 @@
         <v>263</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -4935,7 +4980,7 @@
         <v>263</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -4946,7 +4991,7 @@
         <v>263</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -4957,7 +5002,7 @@
         <v>263</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -4968,7 +5013,7 @@
         <v>263</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -4979,7 +5024,7 @@
         <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -4990,7 +5035,7 @@
         <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5001,7 +5046,7 @@
         <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5012,7 +5057,7 @@
         <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5023,14 +5068,19 @@
         <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="21">
+      <c r="A294" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C293" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="7"/>
       <c r="C294" s="4">
         <v>0</v>
       </c>
@@ -5042,12 +5092,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>284</v>
-      </c>
+      <c r="B296" s="7"/>
       <c r="C296" s="4">
         <v>0</v>
       </c>
@@ -5057,7 +5102,7 @@
         <v>283</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5068,7 +5113,7 @@
         <v>283</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5079,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5090,7 +5135,7 @@
         <v>283</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5101,7 +5146,7 @@
         <v>283</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5112,7 +5157,7 @@
         <v>283</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5123,7 +5168,7 @@
         <v>283</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5134,7 +5179,7 @@
         <v>283</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5145,7 +5190,7 @@
         <v>283</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5156,7 +5201,7 @@
         <v>283</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5167,7 +5212,7 @@
         <v>283</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5178,7 +5223,7 @@
         <v>283</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5188,8 +5233,8 @@
       <c r="A309" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B309" s="9" t="s">
-        <v>297</v>
+      <c r="B309" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5199,8 +5244,8 @@
       <c r="A310" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B310" s="6" t="s">
-        <v>298</v>
+      <c r="B310" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5211,7 +5256,7 @@
         <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5222,7 +5267,7 @@
         <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5233,7 +5278,7 @@
         <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5244,7 +5289,7 @@
         <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5255,7 +5300,7 @@
         <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5266,7 +5311,7 @@
         <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5277,7 +5322,7 @@
         <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5288,7 +5333,7 @@
         <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5299,7 +5344,7 @@
         <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5310,7 +5355,7 @@
         <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5321,7 +5366,7 @@
         <v>283</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5332,7 +5377,7 @@
         <v>283</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5343,7 +5388,7 @@
         <v>283</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5354,7 +5399,7 @@
         <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5365,7 +5410,7 @@
         <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5376,7 +5421,7 @@
         <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5387,7 +5432,7 @@
         <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5398,7 +5443,7 @@
         <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5409,7 +5454,7 @@
         <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5420,7 +5465,7 @@
         <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5431,7 +5476,7 @@
         <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5442,7 +5487,7 @@
         <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5453,38 +5498,38 @@
         <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="21">
+      <c r="A334" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B334" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C333" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="7"/>
       <c r="C334" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
-      <c r="A335" s="19" t="s">
+    <row r="335" spans="1:3" ht="21">
+      <c r="B335" s="7"/>
+      <c r="C335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" s="20" customFormat="1" ht="18">
+      <c r="A336" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B335" s="20" t="s">
+      <c r="B336" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C335" s="19">
+      <c r="C336" s="19">
         <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C336" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
@@ -5492,7 +5537,7 @@
         <v>322</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5503,7 +5548,7 @@
         <v>322</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5514,7 +5559,7 @@
         <v>322</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5525,7 +5570,7 @@
         <v>322</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5536,7 +5581,7 @@
         <v>322</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5547,7 +5592,7 @@
         <v>322</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5558,7 +5603,7 @@
         <v>322</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5568,8 +5613,8 @@
       <c r="A344" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B344" s="9" t="s">
-        <v>331</v>
+      <c r="B344" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5579,8 +5624,8 @@
       <c r="A345" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B345" s="6" t="s">
-        <v>332</v>
+      <c r="B345" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5591,7 +5636,7 @@
         <v>322</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5602,7 +5647,7 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5613,7 +5658,7 @@
         <v>322</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5624,7 +5669,7 @@
         <v>322</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5635,7 +5680,7 @@
         <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5646,7 +5691,7 @@
         <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5657,7 +5702,7 @@
         <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5668,14 +5713,19 @@
         <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="21">
+      <c r="A354" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B354" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C353" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="7"/>
       <c r="C354" s="4">
         <v>0</v>
       </c>
@@ -5687,12 +5737,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>342</v>
-      </c>
+      <c r="B356" s="7"/>
       <c r="C356" s="4">
         <v>0</v>
       </c>
@@ -5702,7 +5747,7 @@
         <v>341</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5713,7 +5758,7 @@
         <v>341</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5724,7 +5769,7 @@
         <v>341</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5735,7 +5780,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5746,7 +5791,7 @@
         <v>341</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5757,7 +5802,7 @@
         <v>341</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5768,7 +5813,7 @@
         <v>341</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5779,7 +5824,7 @@
         <v>341</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5790,7 +5835,7 @@
         <v>341</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5801,7 +5846,7 @@
         <v>341</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5812,7 +5857,7 @@
         <v>341</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5823,7 +5868,7 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -5834,7 +5879,7 @@
         <v>341</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -5845,7 +5890,7 @@
         <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -5856,7 +5901,7 @@
         <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -5867,7 +5912,7 @@
         <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -5878,7 +5923,7 @@
         <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -5889,7 +5934,7 @@
         <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -5900,7 +5945,7 @@
         <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -5911,7 +5956,7 @@
         <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -5922,7 +5967,7 @@
         <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -5933,7 +5978,7 @@
         <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -5944,7 +5989,7 @@
         <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -5955,7 +6000,7 @@
         <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -5966,7 +6011,7 @@
         <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -5977,7 +6022,7 @@
         <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -5988,7 +6033,7 @@
         <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -5999,7 +6044,7 @@
         <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6010,7 +6055,7 @@
         <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6021,7 +6066,7 @@
         <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6032,7 +6077,7 @@
         <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6043,7 +6088,7 @@
         <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6054,7 +6099,7 @@
         <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6076,7 +6121,7 @@
         <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6087,7 +6132,7 @@
         <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6098,7 +6143,7 @@
         <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6109,7 +6154,7 @@
         <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6120,7 +6165,7 @@
         <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6131,7 +6176,7 @@
         <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6142,7 +6187,7 @@
         <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6153,7 +6198,7 @@
         <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6164,14 +6209,19 @@
         <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C399" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="21">
+      <c r="A400" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B400" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C399" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="7"/>
       <c r="C400" s="4">
         <v>0</v>
       </c>
@@ -6183,12 +6233,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="B402" s="7"/>
       <c r="C402" s="4">
         <v>0</v>
       </c>
@@ -6198,7 +6243,7 @@
         <v>385</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6209,7 +6254,7 @@
         <v>385</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6220,7 +6265,7 @@
         <v>385</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6231,7 +6276,7 @@
         <v>385</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6242,14 +6287,19 @@
         <v>385</v>
       </c>
       <c r="B407" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C407" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="21">
+      <c r="A408" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B408" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C407" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="7"/>
       <c r="C408" s="4">
         <v>0</v>
       </c>
@@ -6260,15 +6310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A410" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B410" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C410" s="13">
-        <v>1</v>
+    <row r="410" spans="1:3" ht="21">
+      <c r="B410" s="7"/>
+      <c r="C410" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
@@ -6276,7 +6321,7 @@
         <v>391</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6287,7 +6332,7 @@
         <v>391</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6298,7 +6343,7 @@
         <v>391</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6309,7 +6354,7 @@
         <v>391</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6320,7 +6365,7 @@
         <v>391</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6331,7 +6376,7 @@
         <v>391</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6342,21 +6387,21 @@
         <v>391</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="5" t="s">
+    <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A418" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B418" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C418" s="4">
-        <v>0</v>
+      <c r="B418" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C418" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
@@ -6364,7 +6409,7 @@
         <v>391</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C419" s="4">
         <v>0</v>
@@ -6375,7 +6420,7 @@
         <v>391</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C420" s="4">
         <v>0</v>
@@ -6386,7 +6431,7 @@
         <v>391</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C421" s="4">
         <v>0</v>
@@ -6397,7 +6442,7 @@
         <v>391</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C422" s="4">
         <v>0</v>
@@ -6408,7 +6453,7 @@
         <v>391</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C423" s="4">
         <v>0</v>
@@ -6419,7 +6464,7 @@
         <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C424" s="4">
         <v>0</v>
@@ -6430,7 +6475,7 @@
         <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C425" s="4">
         <v>0</v>
@@ -6441,7 +6486,7 @@
         <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C426" s="4">
         <v>0</v>
@@ -6452,7 +6497,7 @@
         <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C427" s="4">
         <v>0</v>
@@ -6463,7 +6508,7 @@
         <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C428" s="4">
         <v>0</v>
@@ -6474,7 +6519,7 @@
         <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C429" s="4">
         <v>0</v>
@@ -6485,7 +6530,7 @@
         <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C430" s="4">
         <v>0</v>
@@ -6496,32 +6541,32 @@
         <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="21">
+      <c r="A432" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B432" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C431" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A432" s="15" t="s">
+      <c r="C432" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A433" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B432" s="16" t="s">
+      <c r="B433" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C432" s="17">
+      <c r="C433" s="17">
         <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C433" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6529,7 +6574,7 @@
         <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C434" s="4">
         <v>0</v>
@@ -6540,7 +6585,7 @@
         <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C435" s="4">
         <v>0</v>
@@ -6551,7 +6596,7 @@
         <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C436" s="4">
         <v>0</v>
@@ -6562,7 +6607,7 @@
         <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C437" s="4">
         <v>0</v>
@@ -6573,7 +6618,7 @@
         <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C438" s="4">
         <v>0</v>
@@ -6584,7 +6629,7 @@
         <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C439" s="4">
         <v>0</v>
@@ -6595,7 +6640,7 @@
         <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C440" s="4">
         <v>0</v>
@@ -6606,7 +6651,7 @@
         <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C441" s="4">
         <v>0</v>
@@ -6617,7 +6662,7 @@
         <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C442" s="4">
         <v>0</v>
@@ -6628,7 +6673,7 @@
         <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C443" s="4">
         <v>0</v>
@@ -6639,7 +6684,7 @@
         <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C444" s="4">
         <v>0</v>
@@ -6650,7 +6695,7 @@
         <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C445" s="4">
         <v>0</v>
@@ -6661,7 +6706,7 @@
         <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C446" s="4">
         <v>0</v>
@@ -6672,7 +6717,7 @@
         <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C447" s="4">
         <v>0</v>
@@ -6683,7 +6728,7 @@
         <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C448" s="4">
         <v>0</v>
@@ -6694,7 +6739,7 @@
         <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C449" s="4">
         <v>0</v>
@@ -6705,7 +6750,7 @@
         <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C450" s="4">
         <v>0</v>
@@ -6716,7 +6761,7 @@
         <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C451" s="4">
         <v>0</v>
@@ -6727,7 +6772,7 @@
         <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C452" s="4">
         <v>0</v>
@@ -6738,7 +6783,7 @@
         <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C453" s="4">
         <v>0</v>
@@ -6749,7 +6794,7 @@
         <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C454" s="4">
         <v>0</v>
@@ -6760,7 +6805,7 @@
         <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C455" s="4">
         <v>0</v>
@@ -6771,7 +6816,7 @@
         <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C456" s="4">
         <v>0</v>
@@ -6782,7 +6827,7 @@
         <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C457" s="4">
         <v>0</v>
@@ -6793,7 +6838,7 @@
         <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C458" s="4">
         <v>0</v>
@@ -6804,7 +6849,7 @@
         <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C459" s="4">
         <v>0</v>
@@ -6815,7 +6860,7 @@
         <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C460" s="4">
         <v>0</v>
@@ -6826,7 +6871,7 @@
         <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6837,7 +6882,7 @@
         <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6848,7 +6893,7 @@
         <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6859,7 +6904,7 @@
         <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6870,7 +6915,7 @@
         <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6881,7 +6926,7 @@
         <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -6892,7 +6937,7 @@
         <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -6903,7 +6948,7 @@
         <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C468" s="4">
         <v>0</v>
@@ -6914,32 +6959,32 @@
         <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C469" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21">
+      <c r="A470" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B470" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C469" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7"/>
       <c r="C470" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>452</v>
-      </c>
+      <c r="A472" s="8"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="4">
         <v>0</v>
       </c>
@@ -6949,7 +6994,7 @@
         <v>451</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="4">
         <v>0</v>
@@ -6960,7 +7005,7 @@
         <v>451</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -6971,7 +7016,7 @@
         <v>451</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="4">
         <v>0</v>
@@ -6982,7 +7027,7 @@
         <v>451</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -6993,7 +7038,7 @@
         <v>451</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7004,7 +7049,7 @@
         <v>451</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7015,7 +7060,7 @@
         <v>451</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7026,7 +7071,7 @@
         <v>451</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7037,16 +7082,27 @@
         <v>451</v>
       </c>
       <c r="B481" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C481" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="21">
+      <c r="A482" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B482" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C481" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="C482">
-        <f>SUM(C6:C481)</f>
-        <v>12</v>
+      <c r="C482" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="C483">
+        <f>SUM(C6:C482)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7144,360 +7200,362 @@
     <hyperlink ref="B103" r:id="rId91"/>
     <hyperlink ref="B104" r:id="rId92"/>
     <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId94"/>
-    <hyperlink ref="B108" r:id="rId95"/>
-    <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
-    <hyperlink ref="B111" r:id="rId98"/>
-    <hyperlink ref="B113" r:id="rId99"/>
-    <hyperlink ref="B114" r:id="rId100"/>
-    <hyperlink ref="B115" r:id="rId101"/>
-    <hyperlink ref="B116" r:id="rId102"/>
-    <hyperlink ref="B117" r:id="rId103"/>
-    <hyperlink ref="B118" r:id="rId104"/>
-    <hyperlink ref="B119" r:id="rId105"/>
-    <hyperlink ref="B120" r:id="rId106"/>
-    <hyperlink ref="B121" r:id="rId107"/>
-    <hyperlink ref="B122" r:id="rId108"/>
-    <hyperlink ref="B123" r:id="rId109"/>
-    <hyperlink ref="B124" r:id="rId110"/>
-    <hyperlink ref="B125" r:id="rId111"/>
-    <hyperlink ref="B126" r:id="rId112"/>
-    <hyperlink ref="B127" r:id="rId113"/>
-    <hyperlink ref="B128" r:id="rId114"/>
-    <hyperlink ref="B129" r:id="rId115"/>
-    <hyperlink ref="B130" r:id="rId116"/>
-    <hyperlink ref="B131" r:id="rId117"/>
-    <hyperlink ref="B132" r:id="rId118"/>
-    <hyperlink ref="B133" r:id="rId119"/>
-    <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B136" r:id="rId122"/>
+    <hyperlink ref="B108" r:id="rId94"/>
+    <hyperlink ref="B109" r:id="rId95"/>
+    <hyperlink ref="B110" r:id="rId96"/>
+    <hyperlink ref="B111" r:id="rId97"/>
+    <hyperlink ref="B112" r:id="rId98"/>
+    <hyperlink ref="B114" r:id="rId99"/>
+    <hyperlink ref="B115" r:id="rId100"/>
+    <hyperlink ref="B116" r:id="rId101"/>
+    <hyperlink ref="B117" r:id="rId102"/>
+    <hyperlink ref="B118" r:id="rId103"/>
+    <hyperlink ref="B119" r:id="rId104"/>
+    <hyperlink ref="B120" r:id="rId105"/>
+    <hyperlink ref="B121" r:id="rId106"/>
+    <hyperlink ref="B122" r:id="rId107"/>
+    <hyperlink ref="B123" r:id="rId108"/>
+    <hyperlink ref="B124" r:id="rId109"/>
+    <hyperlink ref="B125" r:id="rId110"/>
+    <hyperlink ref="B126" r:id="rId111"/>
+    <hyperlink ref="B127" r:id="rId112"/>
+    <hyperlink ref="B128" r:id="rId113"/>
+    <hyperlink ref="B129" r:id="rId114"/>
+    <hyperlink ref="B130" r:id="rId115"/>
+    <hyperlink ref="B131" r:id="rId116"/>
+    <hyperlink ref="B132" r:id="rId117"/>
+    <hyperlink ref="B133" r:id="rId118"/>
+    <hyperlink ref="B134" r:id="rId119"/>
+    <hyperlink ref="B135" r:id="rId120"/>
+    <hyperlink ref="B136" r:id="rId121"/>
+    <hyperlink ref="B137" r:id="rId122"/>
     <hyperlink ref="B105" r:id="rId123"/>
-    <hyperlink ref="B112" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B155" r:id="rId141"/>
-    <hyperlink ref="B156" r:id="rId142"/>
-    <hyperlink ref="B157" r:id="rId143"/>
-    <hyperlink ref="B158" r:id="rId144"/>
-    <hyperlink ref="B159" r:id="rId145"/>
-    <hyperlink ref="B160" r:id="rId146"/>
-    <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
-    <hyperlink ref="B163" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B167" r:id="rId151"/>
-    <hyperlink ref="B168" r:id="rId152"/>
-    <hyperlink ref="B169" r:id="rId153"/>
-    <hyperlink ref="B170" r:id="rId154"/>
-    <hyperlink ref="B171" r:id="rId155"/>
-    <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
-    <hyperlink ref="B174" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171"/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId186"/>
-    <hyperlink ref="B205" r:id="rId187"/>
-    <hyperlink ref="B206" r:id="rId188"/>
-    <hyperlink ref="B207" r:id="rId189"/>
-    <hyperlink ref="B208" r:id="rId190"/>
-    <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
-    <hyperlink ref="B211" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B228" r:id="rId208"/>
-    <hyperlink ref="B229" r:id="rId209"/>
-    <hyperlink ref="B230" r:id="rId210"/>
-    <hyperlink ref="B231" r:id="rId211"/>
-    <hyperlink ref="B232" r:id="rId212"/>
-    <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
-    <hyperlink ref="B235" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227"/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B265" r:id="rId243"/>
-    <hyperlink ref="B266" r:id="rId244"/>
-    <hyperlink ref="B267" r:id="rId245"/>
-    <hyperlink ref="B268" r:id="rId246"/>
-    <hyperlink ref="B269" r:id="rId247"/>
-    <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
-    <hyperlink ref="B272" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B286" r:id="rId262"/>
-    <hyperlink ref="B287" r:id="rId263"/>
-    <hyperlink ref="B288" r:id="rId264"/>
-    <hyperlink ref="B289" r:id="rId265"/>
-    <hyperlink ref="B290" r:id="rId266"/>
-    <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
-    <hyperlink ref="B293" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272"/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B326" r:id="rId300"/>
-    <hyperlink ref="B327" r:id="rId301"/>
-    <hyperlink ref="B328" r:id="rId302"/>
-    <hyperlink ref="B329" r:id="rId303"/>
-    <hyperlink ref="B330" r:id="rId304"/>
-    <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
-    <hyperlink ref="B333" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B346" r:id="rId318"/>
-    <hyperlink ref="B347" r:id="rId319"/>
-    <hyperlink ref="B348" r:id="rId320"/>
-    <hyperlink ref="B349" r:id="rId321"/>
-    <hyperlink ref="B350" r:id="rId322"/>
-    <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
-    <hyperlink ref="B353" r:id="rId325"/>
-    <hyperlink ref="B357" r:id="rId326"/>
-    <hyperlink ref="B358" r:id="rId327"/>
-    <hyperlink ref="B359" r:id="rId328"/>
-    <hyperlink ref="B360" r:id="rId329"/>
-    <hyperlink ref="B361" r:id="rId330"/>
-    <hyperlink ref="B362" r:id="rId331"/>
-    <hyperlink ref="B363" r:id="rId332"/>
-    <hyperlink ref="B364" r:id="rId333"/>
-    <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
-    <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340"/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId445"/>
+    <hyperlink ref="B113" r:id="rId124"/>
+    <hyperlink ref="B140" r:id="rId125"/>
+    <hyperlink ref="B141" r:id="rId126"/>
+    <hyperlink ref="B142" r:id="rId127"/>
+    <hyperlink ref="B143" r:id="rId128"/>
+    <hyperlink ref="B144" r:id="rId129"/>
+    <hyperlink ref="B145" r:id="rId130"/>
+    <hyperlink ref="B146" r:id="rId131"/>
+    <hyperlink ref="B147" r:id="rId132"/>
+    <hyperlink ref="B148" r:id="rId133"/>
+    <hyperlink ref="B149" r:id="rId134"/>
+    <hyperlink ref="B150" r:id="rId135"/>
+    <hyperlink ref="B151" r:id="rId136"/>
+    <hyperlink ref="B152" r:id="rId137"/>
+    <hyperlink ref="B153" r:id="rId138"/>
+    <hyperlink ref="B154" r:id="rId139"/>
+    <hyperlink ref="B155" r:id="rId140"/>
+    <hyperlink ref="B156" r:id="rId141"/>
+    <hyperlink ref="B157" r:id="rId142"/>
+    <hyperlink ref="B158" r:id="rId143"/>
+    <hyperlink ref="B159" r:id="rId144"/>
+    <hyperlink ref="B160" r:id="rId145"/>
+    <hyperlink ref="B161" r:id="rId146"/>
+    <hyperlink ref="B162" r:id="rId147"/>
+    <hyperlink ref="B163" r:id="rId148"/>
+    <hyperlink ref="B164" r:id="rId149"/>
+    <hyperlink ref="B167" r:id="rId150"/>
+    <hyperlink ref="B168" r:id="rId151"/>
+    <hyperlink ref="B169" r:id="rId152"/>
+    <hyperlink ref="B170" r:id="rId153"/>
+    <hyperlink ref="B171" r:id="rId154"/>
+    <hyperlink ref="B172" r:id="rId155"/>
+    <hyperlink ref="B173" r:id="rId156"/>
+    <hyperlink ref="B174" r:id="rId157"/>
+    <hyperlink ref="B175" r:id="rId158"/>
+    <hyperlink ref="B178" r:id="rId159"/>
+    <hyperlink ref="B179" r:id="rId160"/>
+    <hyperlink ref="B180" r:id="rId161"/>
+    <hyperlink ref="B181" r:id="rId162"/>
+    <hyperlink ref="B182" r:id="rId163"/>
+    <hyperlink ref="B183" r:id="rId164"/>
+    <hyperlink ref="B184" r:id="rId165"/>
+    <hyperlink ref="B185" r:id="rId166"/>
+    <hyperlink ref="B186" r:id="rId167"/>
+    <hyperlink ref="B187" r:id="rId168"/>
+    <hyperlink ref="B188" r:id="rId169"/>
+    <hyperlink ref="B189" r:id="rId170"/>
+    <hyperlink ref="B190" r:id="rId171"/>
+    <hyperlink ref="B191" r:id="rId172"/>
+    <hyperlink ref="B192" r:id="rId173"/>
+    <hyperlink ref="B193" r:id="rId174"/>
+    <hyperlink ref="B194" r:id="rId175"/>
+    <hyperlink ref="B195" r:id="rId176"/>
+    <hyperlink ref="B196" r:id="rId177"/>
+    <hyperlink ref="B197" r:id="rId178"/>
+    <hyperlink ref="B198" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B199" r:id="rId180"/>
+    <hyperlink ref="B200" r:id="rId181"/>
+    <hyperlink ref="B201" r:id="rId182"/>
+    <hyperlink ref="B202" r:id="rId183"/>
+    <hyperlink ref="B203" r:id="rId184"/>
+    <hyperlink ref="B204" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B205" r:id="rId186"/>
+    <hyperlink ref="B206" r:id="rId187"/>
+    <hyperlink ref="B207" r:id="rId188"/>
+    <hyperlink ref="B208" r:id="rId189"/>
+    <hyperlink ref="B209" r:id="rId190"/>
+    <hyperlink ref="B210" r:id="rId191"/>
+    <hyperlink ref="B211" r:id="rId192"/>
+    <hyperlink ref="B212" r:id="rId193"/>
+    <hyperlink ref="B215" r:id="rId194"/>
+    <hyperlink ref="B216" r:id="rId195"/>
+    <hyperlink ref="B217" r:id="rId196"/>
+    <hyperlink ref="B218" r:id="rId197"/>
+    <hyperlink ref="B219" r:id="rId198"/>
+    <hyperlink ref="B220" r:id="rId199"/>
+    <hyperlink ref="B221" r:id="rId200"/>
+    <hyperlink ref="B222" r:id="rId201"/>
+    <hyperlink ref="B223" r:id="rId202"/>
+    <hyperlink ref="B224" r:id="rId203"/>
+    <hyperlink ref="B225" r:id="rId204"/>
+    <hyperlink ref="B226" r:id="rId205"/>
+    <hyperlink ref="B227" r:id="rId206"/>
+    <hyperlink ref="B228" r:id="rId207"/>
+    <hyperlink ref="B229" r:id="rId208"/>
+    <hyperlink ref="B230" r:id="rId209"/>
+    <hyperlink ref="B231" r:id="rId210"/>
+    <hyperlink ref="B232" r:id="rId211"/>
+    <hyperlink ref="B233" r:id="rId212"/>
+    <hyperlink ref="B234" r:id="rId213"/>
+    <hyperlink ref="B235" r:id="rId214"/>
+    <hyperlink ref="B236" r:id="rId215"/>
+    <hyperlink ref="B239" r:id="rId216"/>
+    <hyperlink ref="B240" r:id="rId217"/>
+    <hyperlink ref="B241" r:id="rId218"/>
+    <hyperlink ref="B242" r:id="rId219"/>
+    <hyperlink ref="B243" r:id="rId220"/>
+    <hyperlink ref="B244" r:id="rId221"/>
+    <hyperlink ref="B245" r:id="rId222"/>
+    <hyperlink ref="B246" r:id="rId223"/>
+    <hyperlink ref="B247" r:id="rId224"/>
+    <hyperlink ref="B248" r:id="rId225"/>
+    <hyperlink ref="B249" r:id="rId226"/>
+    <hyperlink ref="B250" r:id="rId227"/>
+    <hyperlink ref="B251" r:id="rId228"/>
+    <hyperlink ref="B252" r:id="rId229"/>
+    <hyperlink ref="B253" r:id="rId230"/>
+    <hyperlink ref="B254" r:id="rId231"/>
+    <hyperlink ref="B255" r:id="rId232"/>
+    <hyperlink ref="B256" r:id="rId233"/>
+    <hyperlink ref="B257" r:id="rId234"/>
+    <hyperlink ref="B258" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B259" r:id="rId236"/>
+    <hyperlink ref="B260" r:id="rId237"/>
+    <hyperlink ref="B261" r:id="rId238"/>
+    <hyperlink ref="B262" r:id="rId239"/>
+    <hyperlink ref="B263" r:id="rId240"/>
+    <hyperlink ref="B264" r:id="rId241"/>
+    <hyperlink ref="B265" r:id="rId242"/>
+    <hyperlink ref="B266" r:id="rId243"/>
+    <hyperlink ref="B267" r:id="rId244"/>
+    <hyperlink ref="B268" r:id="rId245"/>
+    <hyperlink ref="B269" r:id="rId246"/>
+    <hyperlink ref="B270" r:id="rId247"/>
+    <hyperlink ref="B271" r:id="rId248"/>
+    <hyperlink ref="B272" r:id="rId249"/>
+    <hyperlink ref="B273" r:id="rId250"/>
+    <hyperlink ref="B276" r:id="rId251"/>
+    <hyperlink ref="B277" r:id="rId252"/>
+    <hyperlink ref="B278" r:id="rId253"/>
+    <hyperlink ref="B279" r:id="rId254"/>
+    <hyperlink ref="B280" r:id="rId255"/>
+    <hyperlink ref="B281" r:id="rId256"/>
+    <hyperlink ref="B282" r:id="rId257"/>
+    <hyperlink ref="B283" r:id="rId258"/>
+    <hyperlink ref="B284" r:id="rId259"/>
+    <hyperlink ref="B285" r:id="rId260"/>
+    <hyperlink ref="B286" r:id="rId261"/>
+    <hyperlink ref="B287" r:id="rId262"/>
+    <hyperlink ref="B288" r:id="rId263"/>
+    <hyperlink ref="B289" r:id="rId264"/>
+    <hyperlink ref="B290" r:id="rId265"/>
+    <hyperlink ref="B291" r:id="rId266"/>
+    <hyperlink ref="B292" r:id="rId267"/>
+    <hyperlink ref="B293" r:id="rId268"/>
+    <hyperlink ref="B294" r:id="rId269"/>
+    <hyperlink ref="B297" r:id="rId270"/>
+    <hyperlink ref="B298" r:id="rId271"/>
+    <hyperlink ref="B299" r:id="rId272"/>
+    <hyperlink ref="B300" r:id="rId273"/>
+    <hyperlink ref="B301" r:id="rId274"/>
+    <hyperlink ref="B302" r:id="rId275"/>
+    <hyperlink ref="B303" r:id="rId276"/>
+    <hyperlink ref="B304" r:id="rId277"/>
+    <hyperlink ref="B305" r:id="rId278"/>
+    <hyperlink ref="B306" r:id="rId279"/>
+    <hyperlink ref="B307" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B308" r:id="rId281"/>
+    <hyperlink ref="B309" r:id="rId282"/>
+    <hyperlink ref="B310" r:id="rId283"/>
+    <hyperlink ref="B311" r:id="rId284"/>
+    <hyperlink ref="B312" r:id="rId285"/>
+    <hyperlink ref="B313" r:id="rId286"/>
+    <hyperlink ref="B314" r:id="rId287"/>
+    <hyperlink ref="B315" r:id="rId288"/>
+    <hyperlink ref="B316" r:id="rId289"/>
+    <hyperlink ref="B317" r:id="rId290"/>
+    <hyperlink ref="B318" r:id="rId291"/>
+    <hyperlink ref="B319" r:id="rId292"/>
+    <hyperlink ref="B320" r:id="rId293"/>
+    <hyperlink ref="B321" r:id="rId294"/>
+    <hyperlink ref="B322" r:id="rId295"/>
+    <hyperlink ref="B323" r:id="rId296"/>
+    <hyperlink ref="B324" r:id="rId297"/>
+    <hyperlink ref="B325" r:id="rId298"/>
+    <hyperlink ref="B326" r:id="rId299"/>
+    <hyperlink ref="B327" r:id="rId300"/>
+    <hyperlink ref="B328" r:id="rId301"/>
+    <hyperlink ref="B329" r:id="rId302"/>
+    <hyperlink ref="B330" r:id="rId303"/>
+    <hyperlink ref="B331" r:id="rId304"/>
+    <hyperlink ref="B332" r:id="rId305"/>
+    <hyperlink ref="B333" r:id="rId306"/>
+    <hyperlink ref="B334" r:id="rId307"/>
+    <hyperlink ref="B337" r:id="rId308"/>
+    <hyperlink ref="B338" r:id="rId309"/>
+    <hyperlink ref="B339" r:id="rId310"/>
+    <hyperlink ref="B340" r:id="rId311"/>
+    <hyperlink ref="B341" r:id="rId312"/>
+    <hyperlink ref="B342" r:id="rId313"/>
+    <hyperlink ref="B343" r:id="rId314"/>
+    <hyperlink ref="B344" r:id="rId315"/>
+    <hyperlink ref="B345" r:id="rId316"/>
+    <hyperlink ref="B346" r:id="rId317"/>
+    <hyperlink ref="B347" r:id="rId318"/>
+    <hyperlink ref="B348" r:id="rId319"/>
+    <hyperlink ref="B349" r:id="rId320"/>
+    <hyperlink ref="B350" r:id="rId321"/>
+    <hyperlink ref="B351" r:id="rId322"/>
+    <hyperlink ref="B352" r:id="rId323"/>
+    <hyperlink ref="B353" r:id="rId324"/>
+    <hyperlink ref="B354" r:id="rId325"/>
+    <hyperlink ref="B358" r:id="rId326"/>
+    <hyperlink ref="B359" r:id="rId327"/>
+    <hyperlink ref="B360" r:id="rId328"/>
+    <hyperlink ref="B361" r:id="rId329"/>
+    <hyperlink ref="B362" r:id="rId330"/>
+    <hyperlink ref="B363" r:id="rId331"/>
+    <hyperlink ref="B364" r:id="rId332"/>
+    <hyperlink ref="B365" r:id="rId333"/>
+    <hyperlink ref="B366" r:id="rId334"/>
+    <hyperlink ref="B367" r:id="rId335"/>
+    <hyperlink ref="B368" r:id="rId336"/>
+    <hyperlink ref="B369" r:id="rId337"/>
+    <hyperlink ref="B370" r:id="rId338"/>
+    <hyperlink ref="B371" r:id="rId339"/>
+    <hyperlink ref="B372" r:id="rId340"/>
+    <hyperlink ref="B373" r:id="rId341"/>
+    <hyperlink ref="B374" r:id="rId342"/>
+    <hyperlink ref="B375" r:id="rId343"/>
+    <hyperlink ref="B376" r:id="rId344"/>
+    <hyperlink ref="B377" r:id="rId345"/>
+    <hyperlink ref="B378" r:id="rId346"/>
+    <hyperlink ref="B379" r:id="rId347"/>
+    <hyperlink ref="B380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B381" r:id="rId349"/>
+    <hyperlink ref="B382" r:id="rId350"/>
+    <hyperlink ref="B383" r:id="rId351"/>
+    <hyperlink ref="B384" r:id="rId352"/>
+    <hyperlink ref="B385" r:id="rId353"/>
+    <hyperlink ref="B386" r:id="rId354"/>
+    <hyperlink ref="B387" r:id="rId355"/>
+    <hyperlink ref="B388" r:id="rId356"/>
+    <hyperlink ref="B389" r:id="rId357"/>
+    <hyperlink ref="B390" r:id="rId358"/>
+    <hyperlink ref="B391" r:id="rId359"/>
+    <hyperlink ref="B392" r:id="rId360"/>
+    <hyperlink ref="B393" r:id="rId361"/>
+    <hyperlink ref="B394" r:id="rId362"/>
+    <hyperlink ref="B395" r:id="rId363"/>
+    <hyperlink ref="B397" r:id="rId364"/>
+    <hyperlink ref="B396" r:id="rId365"/>
+    <hyperlink ref="B398" r:id="rId366"/>
+    <hyperlink ref="B399" r:id="rId367"/>
+    <hyperlink ref="B400" r:id="rId368"/>
+    <hyperlink ref="B403" r:id="rId369"/>
+    <hyperlink ref="B404" r:id="rId370"/>
+    <hyperlink ref="B405" r:id="rId371"/>
+    <hyperlink ref="B406" r:id="rId372"/>
+    <hyperlink ref="B407" r:id="rId373"/>
+    <hyperlink ref="B408" r:id="rId374"/>
+    <hyperlink ref="B411" r:id="rId375"/>
+    <hyperlink ref="B412" r:id="rId376"/>
+    <hyperlink ref="B413" r:id="rId377"/>
+    <hyperlink ref="B414" r:id="rId378"/>
+    <hyperlink ref="B415" r:id="rId379"/>
+    <hyperlink ref="B416" r:id="rId380"/>
+    <hyperlink ref="B417" r:id="rId381"/>
+    <hyperlink ref="B418" r:id="rId382"/>
+    <hyperlink ref="B419" r:id="rId383"/>
+    <hyperlink ref="B420" r:id="rId384"/>
+    <hyperlink ref="B421" r:id="rId385"/>
+    <hyperlink ref="B422" r:id="rId386"/>
+    <hyperlink ref="B423" r:id="rId387"/>
+    <hyperlink ref="B424" r:id="rId388"/>
+    <hyperlink ref="B425" r:id="rId389"/>
+    <hyperlink ref="B426" r:id="rId390"/>
+    <hyperlink ref="B427" r:id="rId391"/>
+    <hyperlink ref="B428" r:id="rId392"/>
+    <hyperlink ref="B429" r:id="rId393"/>
+    <hyperlink ref="B430" r:id="rId394"/>
+    <hyperlink ref="B431" r:id="rId395"/>
+    <hyperlink ref="B432" r:id="rId396"/>
+    <hyperlink ref="B433" r:id="rId397"/>
+    <hyperlink ref="B434" r:id="rId398"/>
+    <hyperlink ref="B435" r:id="rId399"/>
+    <hyperlink ref="B436" r:id="rId400"/>
+    <hyperlink ref="B437" r:id="rId401"/>
+    <hyperlink ref="B438" r:id="rId402"/>
+    <hyperlink ref="B439" r:id="rId403"/>
+    <hyperlink ref="B440" r:id="rId404"/>
+    <hyperlink ref="B441" r:id="rId405"/>
+    <hyperlink ref="B442" r:id="rId406"/>
+    <hyperlink ref="B443" r:id="rId407"/>
+    <hyperlink ref="B444" r:id="rId408"/>
+    <hyperlink ref="B445" r:id="rId409"/>
+    <hyperlink ref="B446" r:id="rId410"/>
+    <hyperlink ref="B447" r:id="rId411"/>
+    <hyperlink ref="B448" r:id="rId412"/>
+    <hyperlink ref="B449" r:id="rId413"/>
+    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B452" r:id="rId415"/>
+    <hyperlink ref="B451" r:id="rId416"/>
+    <hyperlink ref="B453" r:id="rId417"/>
+    <hyperlink ref="B454" r:id="rId418"/>
+    <hyperlink ref="B455" r:id="rId419"/>
+    <hyperlink ref="B456" r:id="rId420"/>
+    <hyperlink ref="B457" r:id="rId421"/>
+    <hyperlink ref="B458" r:id="rId422"/>
+    <hyperlink ref="B459" r:id="rId423"/>
+    <hyperlink ref="B460" r:id="rId424"/>
+    <hyperlink ref="B461" r:id="rId425"/>
+    <hyperlink ref="B462" r:id="rId426"/>
+    <hyperlink ref="B463" r:id="rId427"/>
+    <hyperlink ref="B470" r:id="rId428"/>
+    <hyperlink ref="B469" r:id="rId429"/>
+    <hyperlink ref="B468" r:id="rId430"/>
+    <hyperlink ref="B467" r:id="rId431"/>
+    <hyperlink ref="B466" r:id="rId432"/>
+    <hyperlink ref="B465" r:id="rId433"/>
+    <hyperlink ref="B464" r:id="rId434"/>
+    <hyperlink ref="B473" r:id="rId435"/>
+    <hyperlink ref="B474" r:id="rId436"/>
+    <hyperlink ref="B475" r:id="rId437"/>
+    <hyperlink ref="B476" r:id="rId438"/>
+    <hyperlink ref="B477" r:id="rId439"/>
+    <hyperlink ref="B478" r:id="rId440"/>
+    <hyperlink ref="B479" r:id="rId441"/>
+    <hyperlink ref="B482" r:id="rId442"/>
+    <hyperlink ref="B480" r:id="rId443"/>
+    <hyperlink ref="B481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B357" r:id="rId445"/>
     <hyperlink ref="B2" r:id="rId446"/>
-    <hyperlink ref="B335" r:id="rId447"/>
+    <hyperlink ref="B336" r:id="rId447"/>
+    <hyperlink ref="B5" r:id="rId448"/>
+    <hyperlink ref="B107" r:id="rId449"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>Find the Union and Intersection of the two sorted arrays.</t>
   </si>
   <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
@@ -1426,13 +1417,16 @@
   </si>
   <si>
     <t>Finding 1st Missing positive</t>
+  </si>
+  <si>
+    <t>Rotate an array by d elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1531,6 +1525,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1571,7 +1572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1615,15 +1616,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1932,7 +1936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1940,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C483"/>
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1960,7 +1964,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1971,29 +1975,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="22" customFormat="1" ht="21">
-      <c r="A5" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="25" customFormat="1" ht="21">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" s="25" customFormat="1" ht="21">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+      <c r="B6" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -2001,32 +2005,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
+      <c r="C9" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -2034,7 +2038,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -2045,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -2056,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -2067,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -2078,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -2089,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -2100,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -2111,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2122,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -2133,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -2144,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -2155,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -2166,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -2177,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -2188,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -2199,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -2210,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -2221,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -2232,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -2243,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -2254,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -2265,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -2276,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -2287,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -2298,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2309,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2320,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2331,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2342,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2353,53 +2357,53 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21">
+      <c r="B40" s="7"/>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21">
+      <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21">
+      <c r="A43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="7"/>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
       <c r="C43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2407,10 +2411,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2429,10 +2433,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2440,10 +2444,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2451,10 +2455,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2462,10 +2466,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2473,55 +2477,55 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
-      <c r="A52" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21">
+      <c r="A55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
       <c r="C55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -2529,10 +2533,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2540,10 +2544,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2551,10 +2555,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2562,10 +2566,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2573,10 +2577,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2584,10 +2588,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2595,10 +2599,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2606,10 +2610,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -2617,10 +2621,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -2628,10 +2632,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2639,10 +2643,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2650,10 +2654,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2672,10 +2676,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -2683,10 +2687,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2694,10 +2698,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -2705,10 +2709,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -2716,10 +2720,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -2727,10 +2731,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2738,10 +2742,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -2749,10 +2753,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -2760,10 +2764,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -2771,10 +2775,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2782,10 +2786,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -2793,10 +2797,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
@@ -2804,10 +2808,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2815,10 +2819,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2826,10 +2830,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2837,10 +2841,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2848,10 +2852,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -2859,10 +2863,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2870,10 +2874,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2881,10 +2885,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -2892,10 +2896,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2903,10 +2907,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -2914,10 +2918,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -2925,10 +2929,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -2936,10 +2940,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -2947,10 +2951,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
@@ -2958,55 +2962,55 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="21">
+      <c r="A98" s="8"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="21">
+      <c r="A99" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="21">
+      <c r="A100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="C99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
       <c r="C100" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -3014,10 +3018,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="4">
         <v>0</v>
@@ -3025,10 +3029,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
@@ -3036,65 +3040,65 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="22" customFormat="1" ht="23.4">
+      <c r="A105" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A106" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="C106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21">
+      <c r="A107" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="21">
+      <c r="A108" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="24" customFormat="1" ht="23.4">
-      <c r="A107" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C107" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A108" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C108" s="13">
-        <v>1</v>
+      <c r="C108" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3102,10 +3106,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3113,10 +3117,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3124,10 +3128,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3135,10 +3139,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3146,10 +3150,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3157,10 +3161,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3168,10 +3172,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3179,10 +3183,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3190,10 +3194,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3201,10 +3205,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3212,10 +3216,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3223,10 +3227,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3234,10 +3238,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3245,10 +3249,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3256,10 +3260,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3267,10 +3271,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3278,10 +3282,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3289,10 +3293,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3300,10 +3304,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3311,10 +3315,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3322,10 +3326,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3333,10 +3337,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3344,10 +3348,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3355,10 +3359,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3366,10 +3370,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3377,54 +3381,54 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21">
+      <c r="B137" s="7"/>
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="21">
+      <c r="A138" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="21">
+      <c r="A139" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="C138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="B139" s="7"/>
       <c r="C139" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -3432,10 +3436,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -3443,10 +3447,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="4">
         <v>0</v>
@@ -3454,10 +3458,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3465,10 +3469,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3476,10 +3480,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3487,10 +3491,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3498,10 +3502,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3520,10 +3524,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3531,10 +3535,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3542,10 +3546,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3553,10 +3557,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3564,10 +3568,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3575,10 +3579,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3586,10 +3590,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3597,10 +3601,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3608,10 +3612,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3619,10 +3623,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3630,10 +3634,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3641,10 +3645,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3652,10 +3656,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3663,10 +3667,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3674,10 +3678,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3685,10 +3689,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3696,10 +3700,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>158</v>
+        <v>129</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3707,10 +3711,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3718,10 +3722,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3729,10 +3733,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3740,10 +3744,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3751,10 +3755,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3762,10 +3766,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3773,10 +3777,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3784,54 +3788,54 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21">
+      <c r="B175" s="7"/>
+      <c r="C175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="21">
+      <c r="A176" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B174" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="21">
-      <c r="A175" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="C176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="21">
+      <c r="A177" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="C176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="21">
-      <c r="B177" s="7"/>
       <c r="C177" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3839,10 +3843,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3850,10 +3854,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C180" s="4">
         <v>0</v>
@@ -3861,10 +3865,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C181" s="4">
         <v>0</v>
@@ -3872,10 +3876,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C182" s="4">
         <v>0</v>
@@ -3883,10 +3887,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C183" s="4">
         <v>0</v>
@@ -3894,10 +3898,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C184" s="4">
         <v>0</v>
@@ -3905,10 +3909,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C185" s="4">
         <v>0</v>
@@ -3916,10 +3920,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3927,10 +3931,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3938,10 +3942,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3949,10 +3953,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3960,10 +3964,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -3971,10 +3975,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3982,10 +3986,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3993,10 +3997,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4004,10 +4008,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4015,10 +4019,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4026,10 +4030,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4037,10 +4041,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4048,10 +4052,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4059,10 +4063,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4070,10 +4074,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4081,10 +4085,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4092,10 +4096,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4103,10 +4107,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4114,10 +4118,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4125,10 +4129,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4136,10 +4140,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4147,10 +4151,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4158,10 +4162,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4169,10 +4173,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4180,57 +4184,57 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B210" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="21">
+      <c r="A211" s="8"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="21">
+      <c r="A212" s="8"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="21">
+      <c r="A213" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C210" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B211" s="6" t="s">
+      <c r="B213" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B212" s="6" t="s">
+      <c r="C213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="21">
+      <c r="A214" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="8"/>
-      <c r="B214" s="7"/>
       <c r="C214" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4238,10 +4242,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4249,10 +4253,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4260,10 +4264,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4271,10 +4275,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4282,10 +4286,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4293,10 +4297,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4304,10 +4308,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4315,10 +4319,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4326,10 +4330,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4337,10 +4341,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4348,10 +4352,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4359,10 +4363,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4370,10 +4374,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4381,10 +4385,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4392,10 +4396,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4403,10 +4407,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4414,10 +4418,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4425,10 +4429,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4436,55 +4440,55 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="21">
+      <c r="B235" s="7"/>
+      <c r="C235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="21">
+      <c r="B236" s="7"/>
+      <c r="C236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="21">
+      <c r="A237" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C234" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B235" s="6" t="s">
+      <c r="B237" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C235" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B236" s="6" t="s">
+      <c r="C237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="21">
+      <c r="A238" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C236" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="7"/>
-      <c r="C237" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="B238" s="7"/>
       <c r="C238" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4492,10 +4496,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4503,10 +4507,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4514,10 +4518,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4525,10 +4529,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4536,10 +4540,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4547,10 +4551,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4569,10 +4573,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4580,10 +4584,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4591,10 +4595,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4602,10 +4606,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4613,10 +4617,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4624,10 +4628,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4635,10 +4639,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4646,10 +4650,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4657,10 +4661,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4668,10 +4672,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4679,10 +4683,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4690,10 +4694,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4701,10 +4705,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4712,10 +4716,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4723,10 +4727,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4734,10 +4738,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4745,10 +4749,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4756,10 +4760,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4767,10 +4771,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4778,10 +4782,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4789,10 +4793,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4811,10 +4815,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4822,10 +4826,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4833,55 +4837,55 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="21">
+      <c r="B272" s="7"/>
+      <c r="C272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="21">
+      <c r="B273" s="7"/>
+      <c r="C273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="21">
+      <c r="A274" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C271" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C272" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="21">
-      <c r="A273" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B273" s="6" t="s">
+      <c r="C274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="21">
+      <c r="A275" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C273" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="7"/>
-      <c r="C274" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="21">
-      <c r="B275" s="7"/>
       <c r="C275" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -4889,10 +4893,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -4900,10 +4904,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -4911,10 +4915,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -4922,10 +4926,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -4933,10 +4937,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -4944,10 +4948,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -4955,10 +4959,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -4966,10 +4970,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -4977,10 +4981,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -4988,10 +4992,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -4999,10 +5003,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5010,10 +5014,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5021,10 +5025,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5032,10 +5036,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5043,10 +5047,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5054,55 +5058,55 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="21">
+      <c r="B293" s="7"/>
+      <c r="C293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="21">
+      <c r="B294" s="7"/>
+      <c r="C294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="21">
+      <c r="A295" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C292" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B293" s="6" t="s">
+      <c r="B295" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C293" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="A294" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B294" s="6" t="s">
+      <c r="C295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="21">
+      <c r="A296" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C294" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="7"/>
-      <c r="C295" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="21">
-      <c r="B296" s="7"/>
       <c r="C296" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5110,10 +5114,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5121,10 +5125,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5132,10 +5136,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5143,10 +5147,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5154,10 +5158,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5165,10 +5169,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5176,10 +5180,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5187,10 +5191,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5198,10 +5202,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5209,10 +5213,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5220,10 +5224,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5231,10 +5235,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5242,10 +5246,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5253,10 +5257,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5264,10 +5268,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5275,10 +5279,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5286,10 +5290,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5297,10 +5301,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5308,10 +5312,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5319,10 +5323,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5330,10 +5334,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5352,10 +5356,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5363,10 +5367,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5374,10 +5378,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5385,10 +5389,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5396,10 +5400,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5407,10 +5411,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5418,10 +5422,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5429,10 +5433,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5440,10 +5444,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5451,10 +5455,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5462,10 +5466,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5473,10 +5477,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5484,60 +5488,60 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B332" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="21">
+      <c r="B333" s="7"/>
+      <c r="C333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="20" customFormat="1" ht="18">
+      <c r="A334" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C332" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
-      <c r="A333" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B333" s="6" t="s">
+      <c r="B334" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C334" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="21">
+      <c r="A335" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C333" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="A334" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B334" s="6" t="s">
+      <c r="C335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="21">
+      <c r="A336" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C334" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="7"/>
-      <c r="C335" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" s="20" customFormat="1" ht="18">
-      <c r="A336" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B336" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C336" s="19">
-        <v>1</v>
+      <c r="C336" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5545,10 +5549,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5556,10 +5560,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5567,10 +5571,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5578,10 +5582,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5589,10 +5593,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5600,10 +5604,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>329</v>
+        <v>319</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5611,10 +5615,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5622,10 +5626,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5633,10 +5637,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5644,10 +5648,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5655,10 +5659,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5666,10 +5670,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5677,10 +5681,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5688,10 +5692,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5699,55 +5703,55 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B352" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="21">
+      <c r="B353" s="7"/>
+      <c r="C353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="21">
+      <c r="B354" s="7"/>
+      <c r="C354" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="21">
+      <c r="A355" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C352" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B353" s="6" t="s">
+      <c r="B355" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C353" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="A354" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B354" s="6" t="s">
+      <c r="C355" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="21">
+      <c r="A356" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C354" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
-      <c r="C355" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="21">
-      <c r="B356" s="7"/>
       <c r="C356" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5755,10 +5759,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5766,10 +5770,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5777,10 +5781,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5788,10 +5792,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5799,10 +5803,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5810,10 +5814,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5821,10 +5825,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5832,10 +5836,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5843,10 +5847,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5854,10 +5858,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5865,10 +5869,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -5876,10 +5880,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -5887,10 +5891,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -5898,10 +5902,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -5909,10 +5913,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -5920,10 +5924,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -5931,10 +5935,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -5942,10 +5946,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -5953,10 +5957,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -5964,10 +5968,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -5975,10 +5979,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -5986,10 +5990,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -5997,10 +6001,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6008,10 +6012,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6019,10 +6023,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6030,10 +6034,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6041,10 +6045,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6052,10 +6056,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6063,10 +6067,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6074,10 +6078,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6085,10 +6089,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6096,10 +6100,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6107,10 +6111,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6118,10 +6122,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6129,10 +6133,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6140,10 +6144,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6151,10 +6155,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6162,10 +6166,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6173,10 +6177,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6184,10 +6188,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6195,55 +6199,55 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B398" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C398" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="21">
+      <c r="B399" s="7"/>
+      <c r="C399" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="21">
+      <c r="B400" s="7"/>
+      <c r="C400" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="21">
+      <c r="A401" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C398" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B399" s="6" t="s">
+      <c r="B401" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C399" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="A400" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B400" s="6" t="s">
+      <c r="C401" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="21">
+      <c r="A402" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C400" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="7"/>
-      <c r="C401" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="21">
-      <c r="B402" s="7"/>
       <c r="C402" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6251,10 +6255,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>387</v>
+        <v>84</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6262,10 +6266,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6273,55 +6277,55 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="7"/>
+      <c r="C407" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="21">
+      <c r="B408" s="7"/>
+      <c r="C408" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A409" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B409" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C407" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="A408" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B408" s="6" t="s">
+      <c r="C409" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A410" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B410" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C408" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="7"/>
-      <c r="C409" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="21">
-      <c r="B410" s="7"/>
-      <c r="C410" s="4">
-        <v>0</v>
+      <c r="C410" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B411" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6329,10 +6333,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6340,10 +6344,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6351,10 +6355,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6362,10 +6366,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6373,43 +6377,43 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A417" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C417" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A418" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B418" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C418" s="13">
-        <v>1</v>
+    <row r="417" spans="1:3" ht="21">
+      <c r="A417" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C417" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21">
+      <c r="A418" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C418" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C419" s="4">
         <v>0</v>
@@ -6417,10 +6421,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C420" s="4">
         <v>0</v>
@@ -6428,10 +6432,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C421" s="4">
         <v>0</v>
@@ -6439,10 +6443,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C422" s="4">
         <v>0</v>
@@ -6450,10 +6454,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C423" s="4">
         <v>0</v>
@@ -6461,10 +6465,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C424" s="4">
         <v>0</v>
@@ -6472,10 +6476,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C425" s="4">
         <v>0</v>
@@ -6483,10 +6487,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C426" s="4">
         <v>0</v>
@@ -6494,10 +6498,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C427" s="4">
         <v>0</v>
@@ -6505,10 +6509,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C428" s="4">
         <v>0</v>
@@ -6516,10 +6520,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C429" s="4">
         <v>0</v>
@@ -6527,54 +6531,54 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B430" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C430" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A431" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B431" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C430" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C431" s="4">
-        <v>0</v>
+      <c r="C431" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B432" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C432" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="21">
+      <c r="A433" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B433" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C432" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A433" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="B433" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C433" s="17">
-        <v>1</v>
+      <c r="C433" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C434" s="4">
         <v>0</v>
@@ -6582,10 +6586,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C435" s="4">
         <v>0</v>
@@ -6593,10 +6597,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C436" s="4">
         <v>0</v>
@@ -6604,10 +6608,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C437" s="4">
         <v>0</v>
@@ -6615,10 +6619,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C438" s="4">
         <v>0</v>
@@ -6626,10 +6630,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C439" s="4">
         <v>0</v>
@@ -6637,10 +6641,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C440" s="4">
         <v>0</v>
@@ -6648,10 +6652,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C441" s="4">
         <v>0</v>
@@ -6659,10 +6663,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C442" s="4">
         <v>0</v>
@@ -6670,10 +6674,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C443" s="4">
         <v>0</v>
@@ -6681,10 +6685,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C444" s="4">
         <v>0</v>
@@ -6692,10 +6696,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C445" s="4">
         <v>0</v>
@@ -6703,10 +6707,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C446" s="4">
         <v>0</v>
@@ -6714,10 +6718,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C447" s="4">
         <v>0</v>
@@ -6725,10 +6729,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C448" s="4">
         <v>0</v>
@@ -6736,10 +6740,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C449" s="4">
         <v>0</v>
@@ -6747,10 +6751,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C450" s="4">
         <v>0</v>
@@ -6758,10 +6762,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C451" s="4">
         <v>0</v>
@@ -6769,10 +6773,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C452" s="4">
         <v>0</v>
@@ -6780,10 +6784,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C453" s="4">
         <v>0</v>
@@ -6791,10 +6795,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C454" s="4">
         <v>0</v>
@@ -6802,10 +6806,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C455" s="4">
         <v>0</v>
@@ -6813,10 +6817,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C456" s="4">
         <v>0</v>
@@ -6824,10 +6828,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C457" s="4">
         <v>0</v>
@@ -6835,10 +6839,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C458" s="4">
         <v>0</v>
@@ -6846,10 +6850,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C459" s="4">
         <v>0</v>
@@ -6857,10 +6861,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C460" s="4">
         <v>0</v>
@@ -6868,10 +6872,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6879,10 +6883,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6890,10 +6894,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6901,10 +6905,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6912,10 +6916,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6923,10 +6927,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -6934,10 +6938,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -6945,56 +6949,56 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B468" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C468" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="21">
+      <c r="B469" s="7"/>
+      <c r="C469" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21">
+      <c r="A470" s="8"/>
+      <c r="B470" s="7"/>
+      <c r="C470" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="21">
+      <c r="A471" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C468" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B469" s="6" t="s">
+      <c r="B471" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C469" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="A470" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B470" s="6" t="s">
+      <c r="C471" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="21">
+      <c r="A472" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C470" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="21">
-      <c r="B471" s="7"/>
-      <c r="C471" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="8"/>
-      <c r="B472" s="7"/>
       <c r="C472" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C473" s="4">
         <v>0</v>
@@ -7002,10 +7006,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -7013,10 +7017,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C475" s="4">
         <v>0</v>
@@ -7024,10 +7028,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7035,10 +7039,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7046,10 +7050,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7057,10 +7061,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7068,494 +7072,470 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C481" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="21">
-      <c r="A482" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C482" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="C483">
-        <f>SUM(C6:C482)</f>
+    <row r="481" spans="3:3">
+      <c r="C481">
+        <f>SUM(C7:C480)</f>
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
-    <hyperlink ref="B98" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B108" r:id="rId94"/>
-    <hyperlink ref="B109" r:id="rId95"/>
-    <hyperlink ref="B110" r:id="rId96"/>
-    <hyperlink ref="B111" r:id="rId97"/>
-    <hyperlink ref="B112" r:id="rId98"/>
-    <hyperlink ref="B114" r:id="rId99"/>
-    <hyperlink ref="B115" r:id="rId100"/>
-    <hyperlink ref="B116" r:id="rId101"/>
-    <hyperlink ref="B117" r:id="rId102"/>
-    <hyperlink ref="B118" r:id="rId103"/>
-    <hyperlink ref="B119" r:id="rId104"/>
-    <hyperlink ref="B120" r:id="rId105"/>
-    <hyperlink ref="B121" r:id="rId106"/>
-    <hyperlink ref="B122" r:id="rId107"/>
-    <hyperlink ref="B123" r:id="rId108"/>
-    <hyperlink ref="B124" r:id="rId109"/>
-    <hyperlink ref="B125" r:id="rId110"/>
-    <hyperlink ref="B126" r:id="rId111"/>
-    <hyperlink ref="B127" r:id="rId112"/>
-    <hyperlink ref="B128" r:id="rId113"/>
-    <hyperlink ref="B129" r:id="rId114"/>
-    <hyperlink ref="B130" r:id="rId115"/>
-    <hyperlink ref="B131" r:id="rId116"/>
-    <hyperlink ref="B132" r:id="rId117"/>
-    <hyperlink ref="B133" r:id="rId118"/>
-    <hyperlink ref="B134" r:id="rId119"/>
-    <hyperlink ref="B135" r:id="rId120"/>
-    <hyperlink ref="B136" r:id="rId121"/>
-    <hyperlink ref="B137" r:id="rId122"/>
-    <hyperlink ref="B105" r:id="rId123"/>
-    <hyperlink ref="B113" r:id="rId124"/>
-    <hyperlink ref="B140" r:id="rId125"/>
-    <hyperlink ref="B141" r:id="rId126"/>
-    <hyperlink ref="B142" r:id="rId127"/>
-    <hyperlink ref="B143" r:id="rId128"/>
-    <hyperlink ref="B144" r:id="rId129"/>
-    <hyperlink ref="B145" r:id="rId130"/>
-    <hyperlink ref="B146" r:id="rId131"/>
-    <hyperlink ref="B147" r:id="rId132"/>
-    <hyperlink ref="B148" r:id="rId133"/>
-    <hyperlink ref="B149" r:id="rId134"/>
-    <hyperlink ref="B150" r:id="rId135"/>
-    <hyperlink ref="B151" r:id="rId136"/>
-    <hyperlink ref="B152" r:id="rId137"/>
-    <hyperlink ref="B153" r:id="rId138"/>
-    <hyperlink ref="B154" r:id="rId139"/>
-    <hyperlink ref="B155" r:id="rId140"/>
-    <hyperlink ref="B156" r:id="rId141"/>
-    <hyperlink ref="B157" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143"/>
-    <hyperlink ref="B159" r:id="rId144"/>
-    <hyperlink ref="B160" r:id="rId145"/>
-    <hyperlink ref="B161" r:id="rId146"/>
-    <hyperlink ref="B162" r:id="rId147"/>
-    <hyperlink ref="B163" r:id="rId148"/>
-    <hyperlink ref="B164" r:id="rId149"/>
-    <hyperlink ref="B167" r:id="rId150"/>
-    <hyperlink ref="B168" r:id="rId151"/>
-    <hyperlink ref="B169" r:id="rId152"/>
-    <hyperlink ref="B170" r:id="rId153"/>
-    <hyperlink ref="B171" r:id="rId154"/>
-    <hyperlink ref="B172" r:id="rId155"/>
-    <hyperlink ref="B173" r:id="rId156"/>
-    <hyperlink ref="B174" r:id="rId157"/>
-    <hyperlink ref="B175" r:id="rId158"/>
-    <hyperlink ref="B178" r:id="rId159"/>
-    <hyperlink ref="B179" r:id="rId160"/>
-    <hyperlink ref="B180" r:id="rId161"/>
-    <hyperlink ref="B181" r:id="rId162"/>
-    <hyperlink ref="B182" r:id="rId163"/>
-    <hyperlink ref="B183" r:id="rId164"/>
-    <hyperlink ref="B184" r:id="rId165"/>
-    <hyperlink ref="B185" r:id="rId166"/>
-    <hyperlink ref="B186" r:id="rId167"/>
-    <hyperlink ref="B187" r:id="rId168"/>
-    <hyperlink ref="B188" r:id="rId169"/>
-    <hyperlink ref="B189" r:id="rId170"/>
-    <hyperlink ref="B190" r:id="rId171"/>
-    <hyperlink ref="B191" r:id="rId172"/>
-    <hyperlink ref="B192" r:id="rId173"/>
-    <hyperlink ref="B193" r:id="rId174"/>
-    <hyperlink ref="B194" r:id="rId175"/>
-    <hyperlink ref="B195" r:id="rId176"/>
-    <hyperlink ref="B196" r:id="rId177"/>
-    <hyperlink ref="B197" r:id="rId178"/>
-    <hyperlink ref="B198" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B199" r:id="rId180"/>
-    <hyperlink ref="B200" r:id="rId181"/>
-    <hyperlink ref="B201" r:id="rId182"/>
-    <hyperlink ref="B202" r:id="rId183"/>
-    <hyperlink ref="B203" r:id="rId184"/>
-    <hyperlink ref="B204" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B205" r:id="rId186"/>
-    <hyperlink ref="B206" r:id="rId187"/>
-    <hyperlink ref="B207" r:id="rId188"/>
-    <hyperlink ref="B208" r:id="rId189"/>
-    <hyperlink ref="B209" r:id="rId190"/>
-    <hyperlink ref="B210" r:id="rId191"/>
-    <hyperlink ref="B211" r:id="rId192"/>
-    <hyperlink ref="B212" r:id="rId193"/>
-    <hyperlink ref="B215" r:id="rId194"/>
-    <hyperlink ref="B216" r:id="rId195"/>
-    <hyperlink ref="B217" r:id="rId196"/>
-    <hyperlink ref="B218" r:id="rId197"/>
-    <hyperlink ref="B219" r:id="rId198"/>
-    <hyperlink ref="B220" r:id="rId199"/>
-    <hyperlink ref="B221" r:id="rId200"/>
-    <hyperlink ref="B222" r:id="rId201"/>
-    <hyperlink ref="B223" r:id="rId202"/>
-    <hyperlink ref="B224" r:id="rId203"/>
-    <hyperlink ref="B225" r:id="rId204"/>
-    <hyperlink ref="B226" r:id="rId205"/>
-    <hyperlink ref="B227" r:id="rId206"/>
-    <hyperlink ref="B228" r:id="rId207"/>
-    <hyperlink ref="B229" r:id="rId208"/>
-    <hyperlink ref="B230" r:id="rId209"/>
-    <hyperlink ref="B231" r:id="rId210"/>
-    <hyperlink ref="B232" r:id="rId211"/>
-    <hyperlink ref="B233" r:id="rId212"/>
-    <hyperlink ref="B234" r:id="rId213"/>
-    <hyperlink ref="B235" r:id="rId214"/>
-    <hyperlink ref="B236" r:id="rId215"/>
-    <hyperlink ref="B239" r:id="rId216"/>
-    <hyperlink ref="B240" r:id="rId217"/>
-    <hyperlink ref="B241" r:id="rId218"/>
-    <hyperlink ref="B242" r:id="rId219"/>
-    <hyperlink ref="B243" r:id="rId220"/>
-    <hyperlink ref="B244" r:id="rId221"/>
-    <hyperlink ref="B245" r:id="rId222"/>
-    <hyperlink ref="B246" r:id="rId223"/>
-    <hyperlink ref="B247" r:id="rId224"/>
-    <hyperlink ref="B248" r:id="rId225"/>
-    <hyperlink ref="B249" r:id="rId226"/>
-    <hyperlink ref="B250" r:id="rId227"/>
-    <hyperlink ref="B251" r:id="rId228"/>
-    <hyperlink ref="B252" r:id="rId229"/>
-    <hyperlink ref="B253" r:id="rId230"/>
-    <hyperlink ref="B254" r:id="rId231"/>
-    <hyperlink ref="B255" r:id="rId232"/>
-    <hyperlink ref="B256" r:id="rId233"/>
-    <hyperlink ref="B257" r:id="rId234"/>
-    <hyperlink ref="B258" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B259" r:id="rId236"/>
-    <hyperlink ref="B260" r:id="rId237"/>
-    <hyperlink ref="B261" r:id="rId238"/>
-    <hyperlink ref="B262" r:id="rId239"/>
-    <hyperlink ref="B263" r:id="rId240"/>
-    <hyperlink ref="B264" r:id="rId241"/>
-    <hyperlink ref="B265" r:id="rId242"/>
-    <hyperlink ref="B266" r:id="rId243"/>
-    <hyperlink ref="B267" r:id="rId244"/>
-    <hyperlink ref="B268" r:id="rId245"/>
-    <hyperlink ref="B269" r:id="rId246"/>
-    <hyperlink ref="B270" r:id="rId247"/>
-    <hyperlink ref="B271" r:id="rId248"/>
-    <hyperlink ref="B272" r:id="rId249"/>
-    <hyperlink ref="B273" r:id="rId250"/>
-    <hyperlink ref="B276" r:id="rId251"/>
-    <hyperlink ref="B277" r:id="rId252"/>
-    <hyperlink ref="B278" r:id="rId253"/>
-    <hyperlink ref="B279" r:id="rId254"/>
-    <hyperlink ref="B280" r:id="rId255"/>
-    <hyperlink ref="B281" r:id="rId256"/>
-    <hyperlink ref="B282" r:id="rId257"/>
-    <hyperlink ref="B283" r:id="rId258"/>
-    <hyperlink ref="B284" r:id="rId259"/>
-    <hyperlink ref="B285" r:id="rId260"/>
-    <hyperlink ref="B286" r:id="rId261"/>
-    <hyperlink ref="B287" r:id="rId262"/>
-    <hyperlink ref="B288" r:id="rId263"/>
-    <hyperlink ref="B289" r:id="rId264"/>
-    <hyperlink ref="B290" r:id="rId265"/>
-    <hyperlink ref="B291" r:id="rId266"/>
-    <hyperlink ref="B292" r:id="rId267"/>
-    <hyperlink ref="B293" r:id="rId268"/>
-    <hyperlink ref="B294" r:id="rId269"/>
-    <hyperlink ref="B297" r:id="rId270"/>
-    <hyperlink ref="B298" r:id="rId271"/>
-    <hyperlink ref="B299" r:id="rId272"/>
-    <hyperlink ref="B300" r:id="rId273"/>
-    <hyperlink ref="B301" r:id="rId274"/>
-    <hyperlink ref="B302" r:id="rId275"/>
-    <hyperlink ref="B303" r:id="rId276"/>
-    <hyperlink ref="B304" r:id="rId277"/>
-    <hyperlink ref="B305" r:id="rId278"/>
-    <hyperlink ref="B306" r:id="rId279"/>
-    <hyperlink ref="B307" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B308" r:id="rId281"/>
-    <hyperlink ref="B309" r:id="rId282"/>
-    <hyperlink ref="B310" r:id="rId283"/>
-    <hyperlink ref="B311" r:id="rId284"/>
-    <hyperlink ref="B312" r:id="rId285"/>
-    <hyperlink ref="B313" r:id="rId286"/>
-    <hyperlink ref="B314" r:id="rId287"/>
-    <hyperlink ref="B315" r:id="rId288"/>
-    <hyperlink ref="B316" r:id="rId289"/>
-    <hyperlink ref="B317" r:id="rId290"/>
-    <hyperlink ref="B318" r:id="rId291"/>
-    <hyperlink ref="B319" r:id="rId292"/>
-    <hyperlink ref="B320" r:id="rId293"/>
-    <hyperlink ref="B321" r:id="rId294"/>
-    <hyperlink ref="B322" r:id="rId295"/>
-    <hyperlink ref="B323" r:id="rId296"/>
-    <hyperlink ref="B324" r:id="rId297"/>
-    <hyperlink ref="B325" r:id="rId298"/>
-    <hyperlink ref="B326" r:id="rId299"/>
-    <hyperlink ref="B327" r:id="rId300"/>
-    <hyperlink ref="B328" r:id="rId301"/>
-    <hyperlink ref="B329" r:id="rId302"/>
-    <hyperlink ref="B330" r:id="rId303"/>
-    <hyperlink ref="B331" r:id="rId304"/>
-    <hyperlink ref="B332" r:id="rId305"/>
-    <hyperlink ref="B333" r:id="rId306"/>
-    <hyperlink ref="B334" r:id="rId307"/>
-    <hyperlink ref="B337" r:id="rId308"/>
-    <hyperlink ref="B338" r:id="rId309"/>
-    <hyperlink ref="B339" r:id="rId310"/>
-    <hyperlink ref="B340" r:id="rId311"/>
-    <hyperlink ref="B341" r:id="rId312"/>
-    <hyperlink ref="B342" r:id="rId313"/>
-    <hyperlink ref="B343" r:id="rId314"/>
-    <hyperlink ref="B344" r:id="rId315"/>
-    <hyperlink ref="B345" r:id="rId316"/>
-    <hyperlink ref="B346" r:id="rId317"/>
-    <hyperlink ref="B347" r:id="rId318"/>
-    <hyperlink ref="B348" r:id="rId319"/>
-    <hyperlink ref="B349" r:id="rId320"/>
-    <hyperlink ref="B350" r:id="rId321"/>
-    <hyperlink ref="B351" r:id="rId322"/>
-    <hyperlink ref="B352" r:id="rId323"/>
-    <hyperlink ref="B353" r:id="rId324"/>
-    <hyperlink ref="B354" r:id="rId325"/>
-    <hyperlink ref="B358" r:id="rId326"/>
-    <hyperlink ref="B359" r:id="rId327"/>
-    <hyperlink ref="B360" r:id="rId328"/>
-    <hyperlink ref="B361" r:id="rId329"/>
-    <hyperlink ref="B362" r:id="rId330"/>
-    <hyperlink ref="B363" r:id="rId331"/>
-    <hyperlink ref="B364" r:id="rId332"/>
-    <hyperlink ref="B365" r:id="rId333"/>
-    <hyperlink ref="B366" r:id="rId334"/>
-    <hyperlink ref="B367" r:id="rId335"/>
-    <hyperlink ref="B368" r:id="rId336"/>
-    <hyperlink ref="B369" r:id="rId337"/>
-    <hyperlink ref="B370" r:id="rId338"/>
-    <hyperlink ref="B371" r:id="rId339"/>
-    <hyperlink ref="B372" r:id="rId340"/>
-    <hyperlink ref="B373" r:id="rId341"/>
-    <hyperlink ref="B374" r:id="rId342"/>
-    <hyperlink ref="B375" r:id="rId343"/>
-    <hyperlink ref="B376" r:id="rId344"/>
-    <hyperlink ref="B377" r:id="rId345"/>
-    <hyperlink ref="B378" r:id="rId346"/>
-    <hyperlink ref="B379" r:id="rId347"/>
-    <hyperlink ref="B380" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B381" r:id="rId349"/>
-    <hyperlink ref="B382" r:id="rId350"/>
-    <hyperlink ref="B383" r:id="rId351"/>
-    <hyperlink ref="B384" r:id="rId352"/>
-    <hyperlink ref="B385" r:id="rId353"/>
-    <hyperlink ref="B386" r:id="rId354"/>
-    <hyperlink ref="B387" r:id="rId355"/>
-    <hyperlink ref="B388" r:id="rId356"/>
-    <hyperlink ref="B389" r:id="rId357"/>
-    <hyperlink ref="B390" r:id="rId358"/>
-    <hyperlink ref="B391" r:id="rId359"/>
-    <hyperlink ref="B392" r:id="rId360"/>
-    <hyperlink ref="B393" r:id="rId361"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="B15" r:id="rId9"/>
+    <hyperlink ref="B16" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12"/>
+    <hyperlink ref="B19" r:id="rId13"/>
+    <hyperlink ref="B20" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
+    <hyperlink ref="B25" r:id="rId19"/>
+    <hyperlink ref="B26" r:id="rId20"/>
+    <hyperlink ref="B27" r:id="rId21"/>
+    <hyperlink ref="B28" r:id="rId22"/>
+    <hyperlink ref="B29" r:id="rId23"/>
+    <hyperlink ref="B30" r:id="rId24"/>
+    <hyperlink ref="B31" r:id="rId25"/>
+    <hyperlink ref="B32" r:id="rId26"/>
+    <hyperlink ref="B33" r:id="rId27"/>
+    <hyperlink ref="B34" r:id="rId28"/>
+    <hyperlink ref="B35" r:id="rId29"/>
+    <hyperlink ref="B36" r:id="rId30"/>
+    <hyperlink ref="B37" r:id="rId31"/>
+    <hyperlink ref="B38" r:id="rId32"/>
+    <hyperlink ref="B39" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B43" r:id="rId35"/>
+    <hyperlink ref="B44" r:id="rId36"/>
+    <hyperlink ref="B45" r:id="rId37"/>
+    <hyperlink ref="B46" r:id="rId38"/>
+    <hyperlink ref="B47" r:id="rId39"/>
+    <hyperlink ref="B48" r:id="rId40"/>
+    <hyperlink ref="B49" r:id="rId41"/>
+    <hyperlink ref="B50" r:id="rId42"/>
+    <hyperlink ref="B51" r:id="rId43"/>
+    <hyperlink ref="B54" r:id="rId44"/>
+    <hyperlink ref="B55" r:id="rId45"/>
+    <hyperlink ref="B56" r:id="rId46"/>
+    <hyperlink ref="B58" r:id="rId47"/>
+    <hyperlink ref="B59" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="B61" r:id="rId50"/>
+    <hyperlink ref="B62" r:id="rId51"/>
+    <hyperlink ref="B63" r:id="rId52"/>
+    <hyperlink ref="B64" r:id="rId53"/>
+    <hyperlink ref="B65" r:id="rId54"/>
+    <hyperlink ref="B66" r:id="rId55"/>
+    <hyperlink ref="B67" r:id="rId56"/>
+    <hyperlink ref="B68" r:id="rId57"/>
+    <hyperlink ref="B69" r:id="rId58"/>
+    <hyperlink ref="B70" r:id="rId59"/>
+    <hyperlink ref="B71" r:id="rId60"/>
+    <hyperlink ref="B72" r:id="rId61"/>
+    <hyperlink ref="B73" r:id="rId62"/>
+    <hyperlink ref="B74" r:id="rId63"/>
+    <hyperlink ref="B75" r:id="rId64"/>
+    <hyperlink ref="B76" r:id="rId65"/>
+    <hyperlink ref="B77" r:id="rId66"/>
+    <hyperlink ref="B78" r:id="rId67"/>
+    <hyperlink ref="B79" r:id="rId68"/>
+    <hyperlink ref="B80" r:id="rId69"/>
+    <hyperlink ref="B81" r:id="rId70"/>
+    <hyperlink ref="B82" r:id="rId71"/>
+    <hyperlink ref="B83" r:id="rId72"/>
+    <hyperlink ref="B84" r:id="rId73"/>
+    <hyperlink ref="B85" r:id="rId74"/>
+    <hyperlink ref="B86" r:id="rId75"/>
+    <hyperlink ref="B87" r:id="rId76"/>
+    <hyperlink ref="B88" r:id="rId77"/>
+    <hyperlink ref="B89" r:id="rId78"/>
+    <hyperlink ref="B90" r:id="rId79"/>
+    <hyperlink ref="B91" r:id="rId80"/>
+    <hyperlink ref="B92" r:id="rId81"/>
+    <hyperlink ref="B93" r:id="rId82"/>
+    <hyperlink ref="B94" r:id="rId83"/>
+    <hyperlink ref="B95" r:id="rId84"/>
+    <hyperlink ref="B96" r:id="rId85"/>
+    <hyperlink ref="B99" r:id="rId86"/>
+    <hyperlink ref="B100" r:id="rId87"/>
+    <hyperlink ref="B101" r:id="rId88"/>
+    <hyperlink ref="B102" r:id="rId89"/>
+    <hyperlink ref="B104" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B106" r:id="rId91"/>
+    <hyperlink ref="B107" r:id="rId92"/>
+    <hyperlink ref="B108" r:id="rId93"/>
+    <hyperlink ref="B109" r:id="rId94"/>
+    <hyperlink ref="B110" r:id="rId95"/>
+    <hyperlink ref="B112" r:id="rId96"/>
+    <hyperlink ref="B113" r:id="rId97"/>
+    <hyperlink ref="B114" r:id="rId98"/>
+    <hyperlink ref="B115" r:id="rId99"/>
+    <hyperlink ref="B116" r:id="rId100"/>
+    <hyperlink ref="B117" r:id="rId101"/>
+    <hyperlink ref="B118" r:id="rId102"/>
+    <hyperlink ref="B119" r:id="rId103"/>
+    <hyperlink ref="B120" r:id="rId104"/>
+    <hyperlink ref="B121" r:id="rId105"/>
+    <hyperlink ref="B122" r:id="rId106"/>
+    <hyperlink ref="B123" r:id="rId107"/>
+    <hyperlink ref="B124" r:id="rId108"/>
+    <hyperlink ref="B125" r:id="rId109"/>
+    <hyperlink ref="B126" r:id="rId110"/>
+    <hyperlink ref="B127" r:id="rId111"/>
+    <hyperlink ref="B128" r:id="rId112"/>
+    <hyperlink ref="B129" r:id="rId113"/>
+    <hyperlink ref="B130" r:id="rId114"/>
+    <hyperlink ref="B131" r:id="rId115"/>
+    <hyperlink ref="B132" r:id="rId116"/>
+    <hyperlink ref="B133" r:id="rId117"/>
+    <hyperlink ref="B134" r:id="rId118"/>
+    <hyperlink ref="B135" r:id="rId119"/>
+    <hyperlink ref="B103" r:id="rId120"/>
+    <hyperlink ref="B111" r:id="rId121"/>
+    <hyperlink ref="B138" r:id="rId122"/>
+    <hyperlink ref="B139" r:id="rId123"/>
+    <hyperlink ref="B140" r:id="rId124"/>
+    <hyperlink ref="B141" r:id="rId125"/>
+    <hyperlink ref="B142" r:id="rId126"/>
+    <hyperlink ref="B143" r:id="rId127"/>
+    <hyperlink ref="B144" r:id="rId128"/>
+    <hyperlink ref="B145" r:id="rId129"/>
+    <hyperlink ref="B146" r:id="rId130"/>
+    <hyperlink ref="B147" r:id="rId131"/>
+    <hyperlink ref="B148" r:id="rId132"/>
+    <hyperlink ref="B149" r:id="rId133"/>
+    <hyperlink ref="B150" r:id="rId134"/>
+    <hyperlink ref="B151" r:id="rId135"/>
+    <hyperlink ref="B152" r:id="rId136"/>
+    <hyperlink ref="B153" r:id="rId137"/>
+    <hyperlink ref="B154" r:id="rId138"/>
+    <hyperlink ref="B155" r:id="rId139"/>
+    <hyperlink ref="B156" r:id="rId140"/>
+    <hyperlink ref="B157" r:id="rId141"/>
+    <hyperlink ref="B158" r:id="rId142"/>
+    <hyperlink ref="B159" r:id="rId143"/>
+    <hyperlink ref="B160" r:id="rId144"/>
+    <hyperlink ref="B161" r:id="rId145"/>
+    <hyperlink ref="B162" r:id="rId146"/>
+    <hyperlink ref="B165" r:id="rId147"/>
+    <hyperlink ref="B166" r:id="rId148"/>
+    <hyperlink ref="B167" r:id="rId149"/>
+    <hyperlink ref="B168" r:id="rId150"/>
+    <hyperlink ref="B169" r:id="rId151"/>
+    <hyperlink ref="B170" r:id="rId152"/>
+    <hyperlink ref="B171" r:id="rId153"/>
+    <hyperlink ref="B172" r:id="rId154"/>
+    <hyperlink ref="B173" r:id="rId155"/>
+    <hyperlink ref="B176" r:id="rId156"/>
+    <hyperlink ref="B177" r:id="rId157"/>
+    <hyperlink ref="B178" r:id="rId158"/>
+    <hyperlink ref="B179" r:id="rId159"/>
+    <hyperlink ref="B180" r:id="rId160"/>
+    <hyperlink ref="B181" r:id="rId161"/>
+    <hyperlink ref="B182" r:id="rId162"/>
+    <hyperlink ref="B183" r:id="rId163"/>
+    <hyperlink ref="B184" r:id="rId164"/>
+    <hyperlink ref="B185" r:id="rId165"/>
+    <hyperlink ref="B186" r:id="rId166"/>
+    <hyperlink ref="B187" r:id="rId167"/>
+    <hyperlink ref="B188" r:id="rId168"/>
+    <hyperlink ref="B189" r:id="rId169"/>
+    <hyperlink ref="B190" r:id="rId170"/>
+    <hyperlink ref="B191" r:id="rId171"/>
+    <hyperlink ref="B192" r:id="rId172"/>
+    <hyperlink ref="B193" r:id="rId173"/>
+    <hyperlink ref="B194" r:id="rId174"/>
+    <hyperlink ref="B195" r:id="rId175"/>
+    <hyperlink ref="B196" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B197" r:id="rId177"/>
+    <hyperlink ref="B198" r:id="rId178"/>
+    <hyperlink ref="B199" r:id="rId179"/>
+    <hyperlink ref="B200" r:id="rId180"/>
+    <hyperlink ref="B201" r:id="rId181"/>
+    <hyperlink ref="B202" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B203" r:id="rId183"/>
+    <hyperlink ref="B204" r:id="rId184"/>
+    <hyperlink ref="B205" r:id="rId185"/>
+    <hyperlink ref="B206" r:id="rId186"/>
+    <hyperlink ref="B207" r:id="rId187"/>
+    <hyperlink ref="B208" r:id="rId188"/>
+    <hyperlink ref="B209" r:id="rId189"/>
+    <hyperlink ref="B210" r:id="rId190"/>
+    <hyperlink ref="B213" r:id="rId191"/>
+    <hyperlink ref="B214" r:id="rId192"/>
+    <hyperlink ref="B215" r:id="rId193"/>
+    <hyperlink ref="B216" r:id="rId194"/>
+    <hyperlink ref="B217" r:id="rId195"/>
+    <hyperlink ref="B218" r:id="rId196"/>
+    <hyperlink ref="B219" r:id="rId197"/>
+    <hyperlink ref="B220" r:id="rId198"/>
+    <hyperlink ref="B221" r:id="rId199"/>
+    <hyperlink ref="B222" r:id="rId200"/>
+    <hyperlink ref="B223" r:id="rId201"/>
+    <hyperlink ref="B224" r:id="rId202"/>
+    <hyperlink ref="B225" r:id="rId203"/>
+    <hyperlink ref="B226" r:id="rId204"/>
+    <hyperlink ref="B227" r:id="rId205"/>
+    <hyperlink ref="B228" r:id="rId206"/>
+    <hyperlink ref="B229" r:id="rId207"/>
+    <hyperlink ref="B230" r:id="rId208"/>
+    <hyperlink ref="B231" r:id="rId209"/>
+    <hyperlink ref="B232" r:id="rId210"/>
+    <hyperlink ref="B233" r:id="rId211"/>
+    <hyperlink ref="B234" r:id="rId212"/>
+    <hyperlink ref="B237" r:id="rId213"/>
+    <hyperlink ref="B238" r:id="rId214"/>
+    <hyperlink ref="B239" r:id="rId215"/>
+    <hyperlink ref="B240" r:id="rId216"/>
+    <hyperlink ref="B241" r:id="rId217"/>
+    <hyperlink ref="B242" r:id="rId218"/>
+    <hyperlink ref="B243" r:id="rId219"/>
+    <hyperlink ref="B244" r:id="rId220"/>
+    <hyperlink ref="B245" r:id="rId221"/>
+    <hyperlink ref="B246" r:id="rId222"/>
+    <hyperlink ref="B247" r:id="rId223"/>
+    <hyperlink ref="B248" r:id="rId224"/>
+    <hyperlink ref="B249" r:id="rId225"/>
+    <hyperlink ref="B250" r:id="rId226"/>
+    <hyperlink ref="B251" r:id="rId227"/>
+    <hyperlink ref="B252" r:id="rId228"/>
+    <hyperlink ref="B253" r:id="rId229"/>
+    <hyperlink ref="B254" r:id="rId230"/>
+    <hyperlink ref="B255" r:id="rId231"/>
+    <hyperlink ref="B256" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B257" r:id="rId233"/>
+    <hyperlink ref="B258" r:id="rId234"/>
+    <hyperlink ref="B259" r:id="rId235"/>
+    <hyperlink ref="B260" r:id="rId236"/>
+    <hyperlink ref="B261" r:id="rId237"/>
+    <hyperlink ref="B262" r:id="rId238"/>
+    <hyperlink ref="B263" r:id="rId239"/>
+    <hyperlink ref="B264" r:id="rId240"/>
+    <hyperlink ref="B265" r:id="rId241"/>
+    <hyperlink ref="B266" r:id="rId242"/>
+    <hyperlink ref="B267" r:id="rId243"/>
+    <hyperlink ref="B268" r:id="rId244"/>
+    <hyperlink ref="B269" r:id="rId245"/>
+    <hyperlink ref="B270" r:id="rId246"/>
+    <hyperlink ref="B271" r:id="rId247"/>
+    <hyperlink ref="B274" r:id="rId248"/>
+    <hyperlink ref="B275" r:id="rId249"/>
+    <hyperlink ref="B276" r:id="rId250"/>
+    <hyperlink ref="B277" r:id="rId251"/>
+    <hyperlink ref="B278" r:id="rId252"/>
+    <hyperlink ref="B279" r:id="rId253"/>
+    <hyperlink ref="B280" r:id="rId254"/>
+    <hyperlink ref="B281" r:id="rId255"/>
+    <hyperlink ref="B282" r:id="rId256"/>
+    <hyperlink ref="B283" r:id="rId257"/>
+    <hyperlink ref="B284" r:id="rId258"/>
+    <hyperlink ref="B285" r:id="rId259"/>
+    <hyperlink ref="B286" r:id="rId260"/>
+    <hyperlink ref="B287" r:id="rId261"/>
+    <hyperlink ref="B288" r:id="rId262"/>
+    <hyperlink ref="B289" r:id="rId263"/>
+    <hyperlink ref="B290" r:id="rId264"/>
+    <hyperlink ref="B291" r:id="rId265"/>
+    <hyperlink ref="B292" r:id="rId266"/>
+    <hyperlink ref="B295" r:id="rId267"/>
+    <hyperlink ref="B296" r:id="rId268"/>
+    <hyperlink ref="B297" r:id="rId269"/>
+    <hyperlink ref="B298" r:id="rId270"/>
+    <hyperlink ref="B299" r:id="rId271"/>
+    <hyperlink ref="B300" r:id="rId272"/>
+    <hyperlink ref="B301" r:id="rId273"/>
+    <hyperlink ref="B302" r:id="rId274"/>
+    <hyperlink ref="B303" r:id="rId275"/>
+    <hyperlink ref="B304" r:id="rId276"/>
+    <hyperlink ref="B305" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B306" r:id="rId278"/>
+    <hyperlink ref="B307" r:id="rId279"/>
+    <hyperlink ref="B308" r:id="rId280"/>
+    <hyperlink ref="B309" r:id="rId281"/>
+    <hyperlink ref="B310" r:id="rId282"/>
+    <hyperlink ref="B311" r:id="rId283"/>
+    <hyperlink ref="B312" r:id="rId284"/>
+    <hyperlink ref="B313" r:id="rId285"/>
+    <hyperlink ref="B314" r:id="rId286"/>
+    <hyperlink ref="B315" r:id="rId287"/>
+    <hyperlink ref="B316" r:id="rId288"/>
+    <hyperlink ref="B317" r:id="rId289"/>
+    <hyperlink ref="B318" r:id="rId290"/>
+    <hyperlink ref="B319" r:id="rId291"/>
+    <hyperlink ref="B320" r:id="rId292"/>
+    <hyperlink ref="B321" r:id="rId293"/>
+    <hyperlink ref="B322" r:id="rId294"/>
+    <hyperlink ref="B323" r:id="rId295"/>
+    <hyperlink ref="B324" r:id="rId296"/>
+    <hyperlink ref="B325" r:id="rId297"/>
+    <hyperlink ref="B326" r:id="rId298"/>
+    <hyperlink ref="B327" r:id="rId299"/>
+    <hyperlink ref="B328" r:id="rId300"/>
+    <hyperlink ref="B329" r:id="rId301"/>
+    <hyperlink ref="B330" r:id="rId302"/>
+    <hyperlink ref="B331" r:id="rId303"/>
+    <hyperlink ref="B332" r:id="rId304"/>
+    <hyperlink ref="B335" r:id="rId305"/>
+    <hyperlink ref="B336" r:id="rId306"/>
+    <hyperlink ref="B337" r:id="rId307"/>
+    <hyperlink ref="B338" r:id="rId308"/>
+    <hyperlink ref="B339" r:id="rId309"/>
+    <hyperlink ref="B340" r:id="rId310"/>
+    <hyperlink ref="B341" r:id="rId311"/>
+    <hyperlink ref="B342" r:id="rId312"/>
+    <hyperlink ref="B343" r:id="rId313"/>
+    <hyperlink ref="B344" r:id="rId314"/>
+    <hyperlink ref="B345" r:id="rId315"/>
+    <hyperlink ref="B346" r:id="rId316"/>
+    <hyperlink ref="B347" r:id="rId317"/>
+    <hyperlink ref="B348" r:id="rId318"/>
+    <hyperlink ref="B349" r:id="rId319"/>
+    <hyperlink ref="B350" r:id="rId320"/>
+    <hyperlink ref="B351" r:id="rId321"/>
+    <hyperlink ref="B352" r:id="rId322"/>
+    <hyperlink ref="B356" r:id="rId323"/>
+    <hyperlink ref="B357" r:id="rId324"/>
+    <hyperlink ref="B358" r:id="rId325"/>
+    <hyperlink ref="B359" r:id="rId326"/>
+    <hyperlink ref="B360" r:id="rId327"/>
+    <hyperlink ref="B361" r:id="rId328"/>
+    <hyperlink ref="B362" r:id="rId329"/>
+    <hyperlink ref="B363" r:id="rId330"/>
+    <hyperlink ref="B364" r:id="rId331"/>
+    <hyperlink ref="B365" r:id="rId332"/>
+    <hyperlink ref="B366" r:id="rId333"/>
+    <hyperlink ref="B367" r:id="rId334"/>
+    <hyperlink ref="B368" r:id="rId335"/>
+    <hyperlink ref="B369" r:id="rId336"/>
+    <hyperlink ref="B370" r:id="rId337"/>
+    <hyperlink ref="B371" r:id="rId338"/>
+    <hyperlink ref="B372" r:id="rId339"/>
+    <hyperlink ref="B373" r:id="rId340"/>
+    <hyperlink ref="B374" r:id="rId341"/>
+    <hyperlink ref="B375" r:id="rId342"/>
+    <hyperlink ref="B376" r:id="rId343"/>
+    <hyperlink ref="B377" r:id="rId344"/>
+    <hyperlink ref="B378" r:id="rId345" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B379" r:id="rId346"/>
+    <hyperlink ref="B380" r:id="rId347"/>
+    <hyperlink ref="B381" r:id="rId348"/>
+    <hyperlink ref="B382" r:id="rId349"/>
+    <hyperlink ref="B383" r:id="rId350"/>
+    <hyperlink ref="B384" r:id="rId351"/>
+    <hyperlink ref="B385" r:id="rId352"/>
+    <hyperlink ref="B386" r:id="rId353"/>
+    <hyperlink ref="B387" r:id="rId354"/>
+    <hyperlink ref="B388" r:id="rId355"/>
+    <hyperlink ref="B389" r:id="rId356"/>
+    <hyperlink ref="B390" r:id="rId357"/>
+    <hyperlink ref="B391" r:id="rId358"/>
+    <hyperlink ref="B392" r:id="rId359"/>
+    <hyperlink ref="B393" r:id="rId360"/>
+    <hyperlink ref="B395" r:id="rId361"/>
     <hyperlink ref="B394" r:id="rId362"/>
-    <hyperlink ref="B395" r:id="rId363"/>
+    <hyperlink ref="B396" r:id="rId363"/>
     <hyperlink ref="B397" r:id="rId364"/>
-    <hyperlink ref="B396" r:id="rId365"/>
-    <hyperlink ref="B398" r:id="rId366"/>
-    <hyperlink ref="B399" r:id="rId367"/>
-    <hyperlink ref="B400" r:id="rId368"/>
-    <hyperlink ref="B403" r:id="rId369"/>
-    <hyperlink ref="B404" r:id="rId370"/>
-    <hyperlink ref="B405" r:id="rId371"/>
-    <hyperlink ref="B406" r:id="rId372"/>
-    <hyperlink ref="B407" r:id="rId373"/>
-    <hyperlink ref="B408" r:id="rId374"/>
-    <hyperlink ref="B411" r:id="rId375"/>
-    <hyperlink ref="B412" r:id="rId376"/>
-    <hyperlink ref="B413" r:id="rId377"/>
-    <hyperlink ref="B414" r:id="rId378"/>
-    <hyperlink ref="B415" r:id="rId379"/>
-    <hyperlink ref="B416" r:id="rId380"/>
-    <hyperlink ref="B417" r:id="rId381"/>
-    <hyperlink ref="B418" r:id="rId382"/>
-    <hyperlink ref="B419" r:id="rId383"/>
-    <hyperlink ref="B420" r:id="rId384"/>
-    <hyperlink ref="B421" r:id="rId385"/>
-    <hyperlink ref="B422" r:id="rId386"/>
-    <hyperlink ref="B423" r:id="rId387"/>
-    <hyperlink ref="B424" r:id="rId388"/>
-    <hyperlink ref="B425" r:id="rId389"/>
-    <hyperlink ref="B426" r:id="rId390"/>
-    <hyperlink ref="B427" r:id="rId391"/>
-    <hyperlink ref="B428" r:id="rId392"/>
-    <hyperlink ref="B429" r:id="rId393"/>
-    <hyperlink ref="B430" r:id="rId394"/>
-    <hyperlink ref="B431" r:id="rId395"/>
-    <hyperlink ref="B432" r:id="rId396"/>
-    <hyperlink ref="B433" r:id="rId397"/>
-    <hyperlink ref="B434" r:id="rId398"/>
-    <hyperlink ref="B435" r:id="rId399"/>
-    <hyperlink ref="B436" r:id="rId400"/>
-    <hyperlink ref="B437" r:id="rId401"/>
-    <hyperlink ref="B438" r:id="rId402"/>
-    <hyperlink ref="B439" r:id="rId403"/>
-    <hyperlink ref="B440" r:id="rId404"/>
-    <hyperlink ref="B441" r:id="rId405"/>
-    <hyperlink ref="B442" r:id="rId406"/>
-    <hyperlink ref="B443" r:id="rId407"/>
-    <hyperlink ref="B444" r:id="rId408"/>
-    <hyperlink ref="B445" r:id="rId409"/>
-    <hyperlink ref="B446" r:id="rId410"/>
-    <hyperlink ref="B447" r:id="rId411"/>
-    <hyperlink ref="B448" r:id="rId412"/>
+    <hyperlink ref="B398" r:id="rId365"/>
+    <hyperlink ref="B401" r:id="rId366"/>
+    <hyperlink ref="B402" r:id="rId367"/>
+    <hyperlink ref="B403" r:id="rId368"/>
+    <hyperlink ref="B404" r:id="rId369"/>
+    <hyperlink ref="B405" r:id="rId370"/>
+    <hyperlink ref="B406" r:id="rId371"/>
+    <hyperlink ref="B409" r:id="rId372"/>
+    <hyperlink ref="B410" r:id="rId373"/>
+    <hyperlink ref="B411" r:id="rId374"/>
+    <hyperlink ref="B412" r:id="rId375"/>
+    <hyperlink ref="B413" r:id="rId376"/>
+    <hyperlink ref="B414" r:id="rId377"/>
+    <hyperlink ref="B415" r:id="rId378"/>
+    <hyperlink ref="B416" r:id="rId379"/>
+    <hyperlink ref="B417" r:id="rId380"/>
+    <hyperlink ref="B418" r:id="rId381"/>
+    <hyperlink ref="B419" r:id="rId382"/>
+    <hyperlink ref="B420" r:id="rId383"/>
+    <hyperlink ref="B421" r:id="rId384"/>
+    <hyperlink ref="B422" r:id="rId385"/>
+    <hyperlink ref="B423" r:id="rId386"/>
+    <hyperlink ref="B424" r:id="rId387"/>
+    <hyperlink ref="B425" r:id="rId388"/>
+    <hyperlink ref="B426" r:id="rId389"/>
+    <hyperlink ref="B427" r:id="rId390"/>
+    <hyperlink ref="B428" r:id="rId391"/>
+    <hyperlink ref="B429" r:id="rId392"/>
+    <hyperlink ref="B430" r:id="rId393"/>
+    <hyperlink ref="B431" r:id="rId394"/>
+    <hyperlink ref="B432" r:id="rId395"/>
+    <hyperlink ref="B433" r:id="rId396"/>
+    <hyperlink ref="B434" r:id="rId397"/>
+    <hyperlink ref="B435" r:id="rId398"/>
+    <hyperlink ref="B436" r:id="rId399"/>
+    <hyperlink ref="B437" r:id="rId400"/>
+    <hyperlink ref="B438" r:id="rId401"/>
+    <hyperlink ref="B439" r:id="rId402"/>
+    <hyperlink ref="B440" r:id="rId403"/>
+    <hyperlink ref="B441" r:id="rId404"/>
+    <hyperlink ref="B442" r:id="rId405"/>
+    <hyperlink ref="B443" r:id="rId406"/>
+    <hyperlink ref="B444" r:id="rId407"/>
+    <hyperlink ref="B445" r:id="rId408"/>
+    <hyperlink ref="B446" r:id="rId409"/>
+    <hyperlink ref="B447" r:id="rId410"/>
+    <hyperlink ref="B448" r:id="rId411"/>
+    <hyperlink ref="B450" r:id="rId412"/>
     <hyperlink ref="B449" r:id="rId413"/>
-    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B451" r:id="rId414"/>
     <hyperlink ref="B452" r:id="rId415"/>
-    <hyperlink ref="B451" r:id="rId416"/>
-    <hyperlink ref="B453" r:id="rId417"/>
-    <hyperlink ref="B454" r:id="rId418"/>
-    <hyperlink ref="B455" r:id="rId419"/>
-    <hyperlink ref="B456" r:id="rId420"/>
-    <hyperlink ref="B457" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B459" r:id="rId423"/>
-    <hyperlink ref="B460" r:id="rId424"/>
-    <hyperlink ref="B461" r:id="rId425"/>
-    <hyperlink ref="B462" r:id="rId426"/>
-    <hyperlink ref="B463" r:id="rId427"/>
-    <hyperlink ref="B470" r:id="rId428"/>
-    <hyperlink ref="B469" r:id="rId429"/>
-    <hyperlink ref="B468" r:id="rId430"/>
-    <hyperlink ref="B467" r:id="rId431"/>
-    <hyperlink ref="B466" r:id="rId432"/>
-    <hyperlink ref="B465" r:id="rId433"/>
-    <hyperlink ref="B464" r:id="rId434"/>
-    <hyperlink ref="B473" r:id="rId435"/>
-    <hyperlink ref="B474" r:id="rId436"/>
-    <hyperlink ref="B475" r:id="rId437"/>
-    <hyperlink ref="B476" r:id="rId438"/>
-    <hyperlink ref="B477" r:id="rId439"/>
+    <hyperlink ref="B453" r:id="rId416"/>
+    <hyperlink ref="B454" r:id="rId417"/>
+    <hyperlink ref="B455" r:id="rId418"/>
+    <hyperlink ref="B456" r:id="rId419"/>
+    <hyperlink ref="B457" r:id="rId420"/>
+    <hyperlink ref="B458" r:id="rId421"/>
+    <hyperlink ref="B459" r:id="rId422"/>
+    <hyperlink ref="B460" r:id="rId423"/>
+    <hyperlink ref="B461" r:id="rId424"/>
+    <hyperlink ref="B468" r:id="rId425"/>
+    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B466" r:id="rId427"/>
+    <hyperlink ref="B465" r:id="rId428"/>
+    <hyperlink ref="B464" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B462" r:id="rId431"/>
+    <hyperlink ref="B471" r:id="rId432"/>
+    <hyperlink ref="B472" r:id="rId433"/>
+    <hyperlink ref="B473" r:id="rId434"/>
+    <hyperlink ref="B474" r:id="rId435"/>
+    <hyperlink ref="B475" r:id="rId436"/>
+    <hyperlink ref="B476" r:id="rId437"/>
+    <hyperlink ref="B477" r:id="rId438"/>
+    <hyperlink ref="B480" r:id="rId439"/>
     <hyperlink ref="B478" r:id="rId440"/>
-    <hyperlink ref="B479" r:id="rId441"/>
-    <hyperlink ref="B482" r:id="rId442"/>
-    <hyperlink ref="B480" r:id="rId443"/>
-    <hyperlink ref="B481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B357" r:id="rId445"/>
-    <hyperlink ref="B2" r:id="rId446"/>
-    <hyperlink ref="B336" r:id="rId447"/>
-    <hyperlink ref="B5" r:id="rId448"/>
-    <hyperlink ref="B107" r:id="rId449"/>
+    <hyperlink ref="B479" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B355" r:id="rId442"/>
+    <hyperlink ref="B2" r:id="rId443"/>
+    <hyperlink ref="B334" r:id="rId444"/>
+    <hyperlink ref="B5" r:id="rId445"/>
+    <hyperlink ref="B105" r:id="rId446"/>
+    <hyperlink ref="B6" r:id="rId447" display="Rotate an array by k elemnts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1420,6 +1420,9 @@
   </si>
   <si>
     <t>Rotate an array by d elements</t>
+  </si>
+  <si>
+    <t>Kth Missing Elements</t>
   </si>
 </sst>
 </file>
@@ -1616,9 +1619,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1626,6 +1626,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1936,7 +1939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1944,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1978,19 +1981,19 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="25" customFormat="1" ht="21">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="25" customFormat="1" ht="21">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:3" s="24" customFormat="1" ht="21">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3038,48 +3041,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="21">
+      <c r="A105" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="22" customFormat="1" ht="23.4">
-      <c r="A105" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="C105" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="21" customFormat="1" ht="23.4">
       <c r="A106" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C106" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A107" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C107" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -3087,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -3098,7 +3101,7 @@
         <v>92</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3109,7 +3112,7 @@
         <v>92</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3120,7 +3123,7 @@
         <v>92</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3142,7 +3145,7 @@
         <v>92</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3153,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3164,7 +3167,7 @@
         <v>92</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3175,7 +3178,7 @@
         <v>92</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3186,7 +3189,7 @@
         <v>92</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3197,7 +3200,7 @@
         <v>92</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3208,7 +3211,7 @@
         <v>92</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3219,7 +3222,7 @@
         <v>92</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3230,7 +3233,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3241,7 +3244,7 @@
         <v>92</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3252,7 +3255,7 @@
         <v>92</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3263,7 +3266,7 @@
         <v>92</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3285,7 +3288,7 @@
         <v>92</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3296,7 +3299,7 @@
         <v>92</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3307,7 +3310,7 @@
         <v>92</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3318,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3329,7 +3332,7 @@
         <v>92</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3340,7 +3343,7 @@
         <v>92</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3351,7 +3354,7 @@
         <v>92</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3362,7 +3365,7 @@
         <v>92</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3373,7 +3376,7 @@
         <v>92</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3384,30 +3387,30 @@
         <v>92</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="21">
+      <c r="A136" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
       <c r="C136" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="21">
-      <c r="B137" s="7"/>
+    <row r="137" spans="1:3">
       <c r="C137" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
-      <c r="A138" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="B138" s="7"/>
       <c r="C138" s="4">
         <v>0</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>129</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="4">
         <v>0</v>
@@ -3428,7 +3431,7 @@
         <v>129</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -3439,7 +3442,7 @@
         <v>129</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -3450,7 +3453,7 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="4">
         <v>0</v>
@@ -3461,7 +3464,7 @@
         <v>129</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3472,7 +3475,7 @@
         <v>129</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3483,7 +3486,7 @@
         <v>129</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3494,7 +3497,7 @@
         <v>129</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3505,7 +3508,7 @@
         <v>129</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3516,7 +3519,7 @@
         <v>129</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3527,7 +3530,7 @@
         <v>129</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3538,7 +3541,7 @@
         <v>129</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3549,7 +3552,7 @@
         <v>129</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3560,7 +3563,7 @@
         <v>129</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3571,7 +3574,7 @@
         <v>129</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3582,7 +3585,7 @@
         <v>129</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3593,7 +3596,7 @@
         <v>129</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3604,7 +3607,7 @@
         <v>129</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3615,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3626,7 +3629,7 @@
         <v>129</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3637,7 +3640,7 @@
         <v>129</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>129</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3659,7 +3662,7 @@
         <v>129</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3670,7 +3673,7 @@
         <v>129</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3680,8 +3683,8 @@
       <c r="A163" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>155</v>
+      <c r="B163" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3692,7 +3695,7 @@
         <v>129</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3702,8 +3705,8 @@
       <c r="A165" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>157</v>
+      <c r="B165" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3714,7 +3717,7 @@
         <v>129</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3725,7 +3728,7 @@
         <v>129</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>129</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3747,7 +3750,7 @@
         <v>129</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3758,7 +3761,7 @@
         <v>129</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3769,7 +3772,7 @@
         <v>129</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3780,7 +3783,7 @@
         <v>129</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3791,30 +3794,30 @@
         <v>129</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="21">
+      <c r="A174" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
       <c r="C174" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="21">
-      <c r="B175" s="7"/>
+    <row r="175" spans="1:3">
       <c r="C175" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="B176" s="7"/>
       <c r="C176" s="4">
         <v>0</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>166</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="4">
         <v>0</v>
@@ -3835,7 +3838,7 @@
         <v>166</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3846,7 +3849,7 @@
         <v>166</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3857,7 +3860,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="4">
         <v>0</v>
@@ -3868,7 +3871,7 @@
         <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C181" s="4">
         <v>0</v>
@@ -3879,7 +3882,7 @@
         <v>166</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="4">
         <v>0</v>
@@ -3890,7 +3893,7 @@
         <v>166</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" s="4">
         <v>0</v>
@@ -3901,7 +3904,7 @@
         <v>166</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C184" s="4">
         <v>0</v>
@@ -3912,7 +3915,7 @@
         <v>166</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C185" s="4">
         <v>0</v>
@@ -3923,7 +3926,7 @@
         <v>166</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3934,7 +3937,7 @@
         <v>166</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3945,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3956,7 +3959,7 @@
         <v>166</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3967,7 +3970,7 @@
         <v>166</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -3978,7 +3981,7 @@
         <v>166</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3989,7 +3992,7 @@
         <v>166</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4000,7 +4003,7 @@
         <v>166</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4011,7 +4014,7 @@
         <v>166</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4022,7 +4025,7 @@
         <v>166</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4033,7 +4036,7 @@
         <v>166</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4044,7 +4047,7 @@
         <v>166</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4055,7 +4058,7 @@
         <v>166</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4066,7 +4069,7 @@
         <v>166</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4077,7 +4080,7 @@
         <v>166</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4088,7 +4091,7 @@
         <v>166</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4099,7 +4102,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4110,7 +4113,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4121,7 +4124,7 @@
         <v>166</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4132,7 +4135,7 @@
         <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4143,7 +4146,7 @@
         <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4154,7 +4157,7 @@
         <v>166</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4165,7 +4168,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4176,7 +4179,7 @@
         <v>166</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4187,15 +4190,19 @@
         <v>166</v>
       </c>
       <c r="B210" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="21">
+      <c r="A211" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C210" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="8"/>
-      <c r="B211" s="7"/>
       <c r="C211" s="4">
         <v>0</v>
       </c>
@@ -4208,12 +4215,8 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="A213" s="8"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="4">
         <v>0</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>202</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4234,7 +4237,7 @@
         <v>202</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4245,7 +4248,7 @@
         <v>202</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4256,7 +4259,7 @@
         <v>202</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4267,7 +4270,7 @@
         <v>202</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4277,8 +4280,8 @@
       <c r="A219" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B219" s="9" t="s">
-        <v>209</v>
+      <c r="B219" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4288,8 +4291,8 @@
       <c r="A220" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>210</v>
+      <c r="B220" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4300,7 +4303,7 @@
         <v>202</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4311,7 +4314,7 @@
         <v>202</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4322,7 +4325,7 @@
         <v>202</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4344,7 +4347,7 @@
         <v>202</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4355,7 +4358,7 @@
         <v>202</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4366,7 +4369,7 @@
         <v>202</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4377,7 +4380,7 @@
         <v>202</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4388,7 +4391,7 @@
         <v>202</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4399,7 +4402,7 @@
         <v>202</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4410,7 +4413,7 @@
         <v>202</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4421,7 +4424,7 @@
         <v>202</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4432,7 +4435,7 @@
         <v>202</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4443,14 +4446,19 @@
         <v>202</v>
       </c>
       <c r="B234" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="21">
+      <c r="A235" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C234" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
-      <c r="B235" s="7"/>
       <c r="C235" s="4">
         <v>0</v>
       </c>
@@ -4462,12 +4470,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="B237" s="7"/>
       <c r="C237" s="4">
         <v>0</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>225</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4488,7 +4491,7 @@
         <v>225</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4499,7 +4502,7 @@
         <v>225</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4510,7 +4513,7 @@
         <v>225</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4521,7 +4524,7 @@
         <v>225</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4532,7 +4535,7 @@
         <v>225</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4543,7 +4546,7 @@
         <v>225</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4554,7 +4557,7 @@
         <v>225</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4565,7 +4568,7 @@
         <v>225</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4576,7 +4579,7 @@
         <v>225</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4587,7 +4590,7 @@
         <v>225</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4598,7 +4601,7 @@
         <v>225</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4609,7 +4612,7 @@
         <v>225</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4620,7 +4623,7 @@
         <v>225</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4631,7 +4634,7 @@
         <v>225</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4642,7 +4645,7 @@
         <v>225</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4653,7 +4656,7 @@
         <v>225</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4664,7 +4667,7 @@
         <v>225</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4675,7 +4678,7 @@
         <v>225</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4686,7 +4689,7 @@
         <v>225</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4697,7 +4700,7 @@
         <v>225</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4708,7 +4711,7 @@
         <v>225</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4719,7 +4722,7 @@
         <v>225</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4730,7 +4733,7 @@
         <v>225</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4741,7 +4744,7 @@
         <v>225</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4752,7 +4755,7 @@
         <v>225</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4763,7 +4766,7 @@
         <v>225</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4774,7 +4777,7 @@
         <v>225</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4785,7 +4788,7 @@
         <v>225</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4796,7 +4799,7 @@
         <v>225</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4807,7 +4810,7 @@
         <v>225</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4818,7 +4821,7 @@
         <v>225</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4829,7 +4832,7 @@
         <v>225</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4840,14 +4843,19 @@
         <v>225</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="21">
+      <c r="A272" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C271" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="21">
-      <c r="B272" s="7"/>
       <c r="C272" s="4">
         <v>0</v>
       </c>
@@ -4859,12 +4867,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="21">
-      <c r="A274" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="B274" s="7"/>
       <c r="C274" s="4">
         <v>0</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>260</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -4885,7 +4888,7 @@
         <v>260</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -4896,7 +4899,7 @@
         <v>260</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -4907,7 +4910,7 @@
         <v>260</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -4918,7 +4921,7 @@
         <v>260</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -4929,7 +4932,7 @@
         <v>260</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -4940,7 +4943,7 @@
         <v>260</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -4951,7 +4954,7 @@
         <v>260</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -4962,7 +4965,7 @@
         <v>260</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -4973,7 +4976,7 @@
         <v>260</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -4984,7 +4987,7 @@
         <v>260</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -4995,7 +4998,7 @@
         <v>260</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5006,7 +5009,7 @@
         <v>260</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5017,7 +5020,7 @@
         <v>260</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5028,7 +5031,7 @@
         <v>260</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5039,7 +5042,7 @@
         <v>260</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5050,7 +5053,7 @@
         <v>260</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5061,14 +5064,19 @@
         <v>260</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="21">
+      <c r="A293" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C292" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
-      <c r="B293" s="7"/>
       <c r="C293" s="4">
         <v>0</v>
       </c>
@@ -5080,12 +5088,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="21">
-      <c r="A295" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>281</v>
-      </c>
+      <c r="B295" s="7"/>
       <c r="C295" s="4">
         <v>0</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>280</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5106,7 +5109,7 @@
         <v>280</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5117,7 +5120,7 @@
         <v>280</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5128,7 +5131,7 @@
         <v>280</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5139,7 +5142,7 @@
         <v>280</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5150,7 +5153,7 @@
         <v>280</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5161,7 +5164,7 @@
         <v>280</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5172,7 +5175,7 @@
         <v>280</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>280</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5194,7 +5197,7 @@
         <v>280</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5205,7 +5208,7 @@
         <v>280</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5216,7 +5219,7 @@
         <v>280</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5226,8 +5229,8 @@
       <c r="A308" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B308" s="9" t="s">
-        <v>294</v>
+      <c r="B308" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5237,8 +5240,8 @@
       <c r="A309" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>295</v>
+      <c r="B309" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5249,7 +5252,7 @@
         <v>280</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5260,7 +5263,7 @@
         <v>280</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5271,7 +5274,7 @@
         <v>280</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5282,7 +5285,7 @@
         <v>280</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5293,7 +5296,7 @@
         <v>280</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5304,7 +5307,7 @@
         <v>280</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5315,7 +5318,7 @@
         <v>280</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5326,7 +5329,7 @@
         <v>280</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5337,7 +5340,7 @@
         <v>280</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5348,7 +5351,7 @@
         <v>280</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5359,7 +5362,7 @@
         <v>280</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5370,7 +5373,7 @@
         <v>280</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5381,7 +5384,7 @@
         <v>280</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5392,7 +5395,7 @@
         <v>280</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5403,7 +5406,7 @@
         <v>280</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5414,7 +5417,7 @@
         <v>280</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5425,7 +5428,7 @@
         <v>280</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5436,7 +5439,7 @@
         <v>280</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5447,7 +5450,7 @@
         <v>280</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5458,7 +5461,7 @@
         <v>280</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5469,7 +5472,7 @@
         <v>280</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5480,7 +5483,7 @@
         <v>280</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5491,38 +5494,38 @@
         <v>280</v>
       </c>
       <c r="B332" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="21">
+      <c r="A333" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B333" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C332" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
-      <c r="B333" s="7"/>
       <c r="C333" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="20" customFormat="1" ht="18">
-      <c r="A334" s="19" t="s">
+    <row r="334" spans="1:3" ht="21">
+      <c r="B334" s="7"/>
+      <c r="C334" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
+      <c r="A335" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="B334" s="20" t="s">
+      <c r="B335" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="C334" s="19">
+      <c r="C335" s="19">
         <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="A335" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C335" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="21">
@@ -5530,7 +5533,7 @@
         <v>319</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5541,7 +5544,7 @@
         <v>319</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5552,7 +5555,7 @@
         <v>319</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5563,7 +5566,7 @@
         <v>319</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5574,7 +5577,7 @@
         <v>319</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5585,7 +5588,7 @@
         <v>319</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5596,7 +5599,7 @@
         <v>319</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5606,8 +5609,8 @@
       <c r="A343" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B343" s="9" t="s">
-        <v>328</v>
+      <c r="B343" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5617,8 +5620,8 @@
       <c r="A344" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B344" s="6" t="s">
-        <v>329</v>
+      <c r="B344" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5629,7 +5632,7 @@
         <v>319</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5640,7 +5643,7 @@
         <v>319</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5651,7 +5654,7 @@
         <v>319</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5662,7 +5665,7 @@
         <v>319</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5673,7 +5676,7 @@
         <v>319</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5684,7 +5687,7 @@
         <v>319</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5695,7 +5698,7 @@
         <v>319</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5706,14 +5709,19 @@
         <v>319</v>
       </c>
       <c r="B352" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="21">
+      <c r="A353" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B353" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C352" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="21">
-      <c r="B353" s="7"/>
       <c r="C353" s="4">
         <v>0</v>
       </c>
@@ -5725,12 +5733,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="21">
-      <c r="A355" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>339</v>
-      </c>
+      <c r="B355" s="7"/>
       <c r="C355" s="4">
         <v>0</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>338</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5751,7 +5754,7 @@
         <v>338</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5762,7 +5765,7 @@
         <v>338</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5773,7 +5776,7 @@
         <v>338</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5784,7 +5787,7 @@
         <v>338</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5795,7 +5798,7 @@
         <v>338</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5806,7 +5809,7 @@
         <v>338</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5817,7 +5820,7 @@
         <v>338</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5828,7 +5831,7 @@
         <v>338</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5839,7 +5842,7 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5850,7 +5853,7 @@
         <v>338</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5861,7 +5864,7 @@
         <v>338</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5872,7 +5875,7 @@
         <v>338</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -5883,7 +5886,7 @@
         <v>338</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -5894,7 +5897,7 @@
         <v>338</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -5905,7 +5908,7 @@
         <v>338</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -5916,7 +5919,7 @@
         <v>338</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -5927,7 +5930,7 @@
         <v>338</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -5938,7 +5941,7 @@
         <v>338</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -5949,7 +5952,7 @@
         <v>338</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -5960,7 +5963,7 @@
         <v>338</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -5971,7 +5974,7 @@
         <v>338</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -5982,7 +5985,7 @@
         <v>338</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -5993,7 +5996,7 @@
         <v>338</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6004,7 +6007,7 @@
         <v>338</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6015,7 +6018,7 @@
         <v>338</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6026,7 +6029,7 @@
         <v>338</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>338</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6048,7 +6051,7 @@
         <v>338</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6059,7 +6062,7 @@
         <v>338</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6070,7 +6073,7 @@
         <v>338</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6081,7 +6084,7 @@
         <v>338</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6092,7 +6095,7 @@
         <v>338</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6114,7 +6117,7 @@
         <v>338</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6125,7 +6128,7 @@
         <v>338</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6136,7 +6139,7 @@
         <v>338</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6147,7 +6150,7 @@
         <v>338</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6158,7 +6161,7 @@
         <v>338</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6169,7 +6172,7 @@
         <v>338</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6180,7 +6183,7 @@
         <v>338</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6191,7 +6194,7 @@
         <v>338</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6202,14 +6205,19 @@
         <v>338</v>
       </c>
       <c r="B398" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C398" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="21">
+      <c r="A399" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B399" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C398" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="B399" s="7"/>
       <c r="C399" s="4">
         <v>0</v>
       </c>
@@ -6221,12 +6229,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="A401" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>383</v>
-      </c>
+      <c r="B401" s="7"/>
       <c r="C401" s="4">
         <v>0</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>382</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6247,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6258,7 +6261,7 @@
         <v>382</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6269,7 +6272,7 @@
         <v>382</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6280,14 +6283,19 @@
         <v>382</v>
       </c>
       <c r="B406" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C406" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="21">
+      <c r="A407" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B407" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C406" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="21">
-      <c r="B407" s="7"/>
       <c r="C407" s="4">
         <v>0</v>
       </c>
@@ -6298,15 +6306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A409" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B409" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C409" s="13">
-        <v>1</v>
+    <row r="409" spans="1:3" ht="21">
+      <c r="B409" s="7"/>
+      <c r="C409" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
@@ -6314,7 +6317,7 @@
         <v>388</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6325,7 +6328,7 @@
         <v>388</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6336,7 +6339,7 @@
         <v>388</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6347,7 +6350,7 @@
         <v>388</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6358,7 +6361,7 @@
         <v>388</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6369,7 +6372,7 @@
         <v>388</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6380,21 +6383,21 @@
         <v>388</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="5" t="s">
+    <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A417" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B417" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C417" s="4">
-        <v>0</v>
+      <c r="B417" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C417" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6402,7 +6405,7 @@
         <v>388</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C418" s="4">
         <v>0</v>
@@ -6413,7 +6416,7 @@
         <v>388</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C419" s="4">
         <v>0</v>
@@ -6424,7 +6427,7 @@
         <v>388</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C420" s="4">
         <v>0</v>
@@ -6435,7 +6438,7 @@
         <v>388</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C421" s="4">
         <v>0</v>
@@ -6446,7 +6449,7 @@
         <v>388</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C422" s="4">
         <v>0</v>
@@ -6457,7 +6460,7 @@
         <v>388</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C423" s="4">
         <v>0</v>
@@ -6468,7 +6471,7 @@
         <v>388</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C424" s="4">
         <v>0</v>
@@ -6479,7 +6482,7 @@
         <v>388</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C425" s="4">
         <v>0</v>
@@ -6490,7 +6493,7 @@
         <v>388</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C426" s="4">
         <v>0</v>
@@ -6501,7 +6504,7 @@
         <v>388</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C427" s="4">
         <v>0</v>
@@ -6512,7 +6515,7 @@
         <v>388</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C428" s="4">
         <v>0</v>
@@ -6523,7 +6526,7 @@
         <v>388</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C429" s="4">
         <v>0</v>
@@ -6534,32 +6537,32 @@
         <v>388</v>
       </c>
       <c r="B430" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C430" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="21">
+      <c r="A431" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B431" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C430" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A431" s="15" t="s">
+      <c r="C431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A432" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B431" s="16" t="s">
+      <c r="B432" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C431" s="17">
+      <c r="C432" s="17">
         <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C432" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
@@ -6567,7 +6570,7 @@
         <v>388</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C433" s="4">
         <v>0</v>
@@ -6578,7 +6581,7 @@
         <v>388</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C434" s="4">
         <v>0</v>
@@ -6589,7 +6592,7 @@
         <v>388</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C435" s="4">
         <v>0</v>
@@ -6600,7 +6603,7 @@
         <v>388</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C436" s="4">
         <v>0</v>
@@ -6611,7 +6614,7 @@
         <v>388</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C437" s="4">
         <v>0</v>
@@ -6622,7 +6625,7 @@
         <v>388</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C438" s="4">
         <v>0</v>
@@ -6633,7 +6636,7 @@
         <v>388</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C439" s="4">
         <v>0</v>
@@ -6644,7 +6647,7 @@
         <v>388</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C440" s="4">
         <v>0</v>
@@ -6655,7 +6658,7 @@
         <v>388</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C441" s="4">
         <v>0</v>
@@ -6666,7 +6669,7 @@
         <v>388</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C442" s="4">
         <v>0</v>
@@ -6677,7 +6680,7 @@
         <v>388</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C443" s="4">
         <v>0</v>
@@ -6688,7 +6691,7 @@
         <v>388</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C444" s="4">
         <v>0</v>
@@ -6699,7 +6702,7 @@
         <v>388</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C445" s="4">
         <v>0</v>
@@ -6710,7 +6713,7 @@
         <v>388</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C446" s="4">
         <v>0</v>
@@ -6721,7 +6724,7 @@
         <v>388</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C447" s="4">
         <v>0</v>
@@ -6732,7 +6735,7 @@
         <v>388</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C448" s="4">
         <v>0</v>
@@ -6743,7 +6746,7 @@
         <v>388</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C449" s="4">
         <v>0</v>
@@ -6754,7 +6757,7 @@
         <v>388</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C450" s="4">
         <v>0</v>
@@ -6765,7 +6768,7 @@
         <v>388</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C451" s="4">
         <v>0</v>
@@ -6776,7 +6779,7 @@
         <v>388</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C452" s="4">
         <v>0</v>
@@ -6787,7 +6790,7 @@
         <v>388</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C453" s="4">
         <v>0</v>
@@ -6798,7 +6801,7 @@
         <v>388</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C454" s="4">
         <v>0</v>
@@ -6809,7 +6812,7 @@
         <v>388</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C455" s="4">
         <v>0</v>
@@ -6820,7 +6823,7 @@
         <v>388</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C456" s="4">
         <v>0</v>
@@ -6831,7 +6834,7 @@
         <v>388</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C457" s="4">
         <v>0</v>
@@ -6842,7 +6845,7 @@
         <v>388</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C458" s="4">
         <v>0</v>
@@ -6853,7 +6856,7 @@
         <v>388</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C459" s="4">
         <v>0</v>
@@ -6864,7 +6867,7 @@
         <v>388</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C460" s="4">
         <v>0</v>
@@ -6875,7 +6878,7 @@
         <v>388</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6886,7 +6889,7 @@
         <v>388</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6897,7 +6900,7 @@
         <v>388</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6908,7 +6911,7 @@
         <v>388</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6919,7 +6922,7 @@
         <v>388</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6930,7 +6933,7 @@
         <v>388</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -6941,7 +6944,7 @@
         <v>388</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -6952,32 +6955,32 @@
         <v>388</v>
       </c>
       <c r="B468" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C468" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="21">
+      <c r="A469" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B469" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C468" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
-      <c r="B469" s="7"/>
       <c r="C469" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="A470" s="8"/>
       <c r="B470" s="7"/>
       <c r="C470" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="A471" s="8"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="4">
         <v>0</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>448</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C472" s="4">
         <v>0</v>
@@ -6998,7 +7001,7 @@
         <v>448</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C473" s="4">
         <v>0</v>
@@ -7009,7 +7012,7 @@
         <v>448</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -7020,7 +7023,7 @@
         <v>448</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C475" s="4">
         <v>0</v>
@@ -7031,7 +7034,7 @@
         <v>448</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7042,7 +7045,7 @@
         <v>448</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7053,7 +7056,7 @@
         <v>448</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7064,7 +7067,7 @@
         <v>448</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7075,16 +7078,27 @@
         <v>448</v>
       </c>
       <c r="B480" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C480" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="21">
+      <c r="A481" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B481" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C480" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="3:3">
-      <c r="C481">
-        <f>SUM(C7:C480)</f>
-        <v>13</v>
+      <c r="C481" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="C482">
+        <f>SUM(C7:C481)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7178,364 +7192,365 @@
     <hyperlink ref="B100" r:id="rId87"/>
     <hyperlink ref="B101" r:id="rId88"/>
     <hyperlink ref="B102" r:id="rId89"/>
-    <hyperlink ref="B104" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B106" r:id="rId91"/>
-    <hyperlink ref="B107" r:id="rId92"/>
-    <hyperlink ref="B108" r:id="rId93"/>
-    <hyperlink ref="B109" r:id="rId94"/>
-    <hyperlink ref="B110" r:id="rId95"/>
-    <hyperlink ref="B112" r:id="rId96"/>
-    <hyperlink ref="B113" r:id="rId97"/>
-    <hyperlink ref="B114" r:id="rId98"/>
-    <hyperlink ref="B115" r:id="rId99"/>
-    <hyperlink ref="B116" r:id="rId100"/>
-    <hyperlink ref="B117" r:id="rId101"/>
-    <hyperlink ref="B118" r:id="rId102"/>
-    <hyperlink ref="B119" r:id="rId103"/>
-    <hyperlink ref="B120" r:id="rId104"/>
-    <hyperlink ref="B121" r:id="rId105"/>
-    <hyperlink ref="B122" r:id="rId106"/>
-    <hyperlink ref="B123" r:id="rId107"/>
-    <hyperlink ref="B124" r:id="rId108"/>
-    <hyperlink ref="B125" r:id="rId109"/>
-    <hyperlink ref="B126" r:id="rId110"/>
-    <hyperlink ref="B127" r:id="rId111"/>
-    <hyperlink ref="B128" r:id="rId112"/>
-    <hyperlink ref="B129" r:id="rId113"/>
-    <hyperlink ref="B130" r:id="rId114"/>
-    <hyperlink ref="B131" r:id="rId115"/>
-    <hyperlink ref="B132" r:id="rId116"/>
-    <hyperlink ref="B133" r:id="rId117"/>
-    <hyperlink ref="B134" r:id="rId118"/>
-    <hyperlink ref="B135" r:id="rId119"/>
+    <hyperlink ref="B105" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId91"/>
+    <hyperlink ref="B108" r:id="rId92"/>
+    <hyperlink ref="B109" r:id="rId93"/>
+    <hyperlink ref="B110" r:id="rId94"/>
+    <hyperlink ref="B111" r:id="rId95"/>
+    <hyperlink ref="B113" r:id="rId96"/>
+    <hyperlink ref="B114" r:id="rId97"/>
+    <hyperlink ref="B115" r:id="rId98"/>
+    <hyperlink ref="B116" r:id="rId99"/>
+    <hyperlink ref="B117" r:id="rId100"/>
+    <hyperlink ref="B118" r:id="rId101"/>
+    <hyperlink ref="B119" r:id="rId102"/>
+    <hyperlink ref="B120" r:id="rId103"/>
+    <hyperlink ref="B121" r:id="rId104"/>
+    <hyperlink ref="B122" r:id="rId105"/>
+    <hyperlink ref="B123" r:id="rId106"/>
+    <hyperlink ref="B124" r:id="rId107"/>
+    <hyperlink ref="B125" r:id="rId108"/>
+    <hyperlink ref="B126" r:id="rId109"/>
+    <hyperlink ref="B127" r:id="rId110"/>
+    <hyperlink ref="B128" r:id="rId111"/>
+    <hyperlink ref="B129" r:id="rId112"/>
+    <hyperlink ref="B130" r:id="rId113"/>
+    <hyperlink ref="B131" r:id="rId114"/>
+    <hyperlink ref="B132" r:id="rId115"/>
+    <hyperlink ref="B133" r:id="rId116"/>
+    <hyperlink ref="B134" r:id="rId117"/>
+    <hyperlink ref="B135" r:id="rId118"/>
+    <hyperlink ref="B136" r:id="rId119"/>
     <hyperlink ref="B103" r:id="rId120"/>
-    <hyperlink ref="B111" r:id="rId121"/>
-    <hyperlink ref="B138" r:id="rId122"/>
-    <hyperlink ref="B139" r:id="rId123"/>
-    <hyperlink ref="B140" r:id="rId124"/>
-    <hyperlink ref="B141" r:id="rId125"/>
-    <hyperlink ref="B142" r:id="rId126"/>
-    <hyperlink ref="B143" r:id="rId127"/>
-    <hyperlink ref="B144" r:id="rId128"/>
-    <hyperlink ref="B145" r:id="rId129"/>
-    <hyperlink ref="B146" r:id="rId130"/>
-    <hyperlink ref="B147" r:id="rId131"/>
-    <hyperlink ref="B148" r:id="rId132"/>
-    <hyperlink ref="B149" r:id="rId133"/>
-    <hyperlink ref="B150" r:id="rId134"/>
-    <hyperlink ref="B151" r:id="rId135"/>
-    <hyperlink ref="B152" r:id="rId136"/>
-    <hyperlink ref="B153" r:id="rId137"/>
-    <hyperlink ref="B154" r:id="rId138"/>
-    <hyperlink ref="B155" r:id="rId139"/>
-    <hyperlink ref="B156" r:id="rId140"/>
-    <hyperlink ref="B157" r:id="rId141"/>
-    <hyperlink ref="B158" r:id="rId142"/>
-    <hyperlink ref="B159" r:id="rId143"/>
-    <hyperlink ref="B160" r:id="rId144"/>
-    <hyperlink ref="B161" r:id="rId145"/>
-    <hyperlink ref="B162" r:id="rId146"/>
-    <hyperlink ref="B165" r:id="rId147"/>
-    <hyperlink ref="B166" r:id="rId148"/>
-    <hyperlink ref="B167" r:id="rId149"/>
-    <hyperlink ref="B168" r:id="rId150"/>
-    <hyperlink ref="B169" r:id="rId151"/>
-    <hyperlink ref="B170" r:id="rId152"/>
-    <hyperlink ref="B171" r:id="rId153"/>
-    <hyperlink ref="B172" r:id="rId154"/>
-    <hyperlink ref="B173" r:id="rId155"/>
-    <hyperlink ref="B176" r:id="rId156"/>
-    <hyperlink ref="B177" r:id="rId157"/>
-    <hyperlink ref="B178" r:id="rId158"/>
-    <hyperlink ref="B179" r:id="rId159"/>
-    <hyperlink ref="B180" r:id="rId160"/>
-    <hyperlink ref="B181" r:id="rId161"/>
-    <hyperlink ref="B182" r:id="rId162"/>
-    <hyperlink ref="B183" r:id="rId163"/>
-    <hyperlink ref="B184" r:id="rId164"/>
-    <hyperlink ref="B185" r:id="rId165"/>
-    <hyperlink ref="B186" r:id="rId166"/>
-    <hyperlink ref="B187" r:id="rId167"/>
-    <hyperlink ref="B188" r:id="rId168"/>
-    <hyperlink ref="B189" r:id="rId169"/>
-    <hyperlink ref="B190" r:id="rId170"/>
-    <hyperlink ref="B191" r:id="rId171"/>
-    <hyperlink ref="B192" r:id="rId172"/>
-    <hyperlink ref="B193" r:id="rId173"/>
-    <hyperlink ref="B194" r:id="rId174"/>
-    <hyperlink ref="B195" r:id="rId175"/>
-    <hyperlink ref="B196" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B197" r:id="rId177"/>
-    <hyperlink ref="B198" r:id="rId178"/>
-    <hyperlink ref="B199" r:id="rId179"/>
-    <hyperlink ref="B200" r:id="rId180"/>
-    <hyperlink ref="B201" r:id="rId181"/>
-    <hyperlink ref="B202" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B203" r:id="rId183"/>
-    <hyperlink ref="B204" r:id="rId184"/>
-    <hyperlink ref="B205" r:id="rId185"/>
-    <hyperlink ref="B206" r:id="rId186"/>
-    <hyperlink ref="B207" r:id="rId187"/>
-    <hyperlink ref="B208" r:id="rId188"/>
-    <hyperlink ref="B209" r:id="rId189"/>
-    <hyperlink ref="B210" r:id="rId190"/>
-    <hyperlink ref="B213" r:id="rId191"/>
-    <hyperlink ref="B214" r:id="rId192"/>
-    <hyperlink ref="B215" r:id="rId193"/>
-    <hyperlink ref="B216" r:id="rId194"/>
-    <hyperlink ref="B217" r:id="rId195"/>
-    <hyperlink ref="B218" r:id="rId196"/>
-    <hyperlink ref="B219" r:id="rId197"/>
-    <hyperlink ref="B220" r:id="rId198"/>
-    <hyperlink ref="B221" r:id="rId199"/>
-    <hyperlink ref="B222" r:id="rId200"/>
-    <hyperlink ref="B223" r:id="rId201"/>
-    <hyperlink ref="B224" r:id="rId202"/>
-    <hyperlink ref="B225" r:id="rId203"/>
-    <hyperlink ref="B226" r:id="rId204"/>
-    <hyperlink ref="B227" r:id="rId205"/>
-    <hyperlink ref="B228" r:id="rId206"/>
-    <hyperlink ref="B229" r:id="rId207"/>
-    <hyperlink ref="B230" r:id="rId208"/>
-    <hyperlink ref="B231" r:id="rId209"/>
-    <hyperlink ref="B232" r:id="rId210"/>
-    <hyperlink ref="B233" r:id="rId211"/>
-    <hyperlink ref="B234" r:id="rId212"/>
-    <hyperlink ref="B237" r:id="rId213"/>
-    <hyperlink ref="B238" r:id="rId214"/>
-    <hyperlink ref="B239" r:id="rId215"/>
-    <hyperlink ref="B240" r:id="rId216"/>
-    <hyperlink ref="B241" r:id="rId217"/>
-    <hyperlink ref="B242" r:id="rId218"/>
-    <hyperlink ref="B243" r:id="rId219"/>
-    <hyperlink ref="B244" r:id="rId220"/>
-    <hyperlink ref="B245" r:id="rId221"/>
-    <hyperlink ref="B246" r:id="rId222"/>
-    <hyperlink ref="B247" r:id="rId223"/>
-    <hyperlink ref="B248" r:id="rId224"/>
-    <hyperlink ref="B249" r:id="rId225"/>
-    <hyperlink ref="B250" r:id="rId226"/>
-    <hyperlink ref="B251" r:id="rId227"/>
-    <hyperlink ref="B252" r:id="rId228"/>
-    <hyperlink ref="B253" r:id="rId229"/>
-    <hyperlink ref="B254" r:id="rId230"/>
-    <hyperlink ref="B255" r:id="rId231"/>
-    <hyperlink ref="B256" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B257" r:id="rId233"/>
-    <hyperlink ref="B258" r:id="rId234"/>
-    <hyperlink ref="B259" r:id="rId235"/>
-    <hyperlink ref="B260" r:id="rId236"/>
-    <hyperlink ref="B261" r:id="rId237"/>
-    <hyperlink ref="B262" r:id="rId238"/>
-    <hyperlink ref="B263" r:id="rId239"/>
-    <hyperlink ref="B264" r:id="rId240"/>
-    <hyperlink ref="B265" r:id="rId241"/>
-    <hyperlink ref="B266" r:id="rId242"/>
-    <hyperlink ref="B267" r:id="rId243"/>
-    <hyperlink ref="B268" r:id="rId244"/>
-    <hyperlink ref="B269" r:id="rId245"/>
-    <hyperlink ref="B270" r:id="rId246"/>
-    <hyperlink ref="B271" r:id="rId247"/>
-    <hyperlink ref="B274" r:id="rId248"/>
-    <hyperlink ref="B275" r:id="rId249"/>
-    <hyperlink ref="B276" r:id="rId250"/>
-    <hyperlink ref="B277" r:id="rId251"/>
-    <hyperlink ref="B278" r:id="rId252"/>
-    <hyperlink ref="B279" r:id="rId253"/>
-    <hyperlink ref="B280" r:id="rId254"/>
-    <hyperlink ref="B281" r:id="rId255"/>
-    <hyperlink ref="B282" r:id="rId256"/>
-    <hyperlink ref="B283" r:id="rId257"/>
-    <hyperlink ref="B284" r:id="rId258"/>
-    <hyperlink ref="B285" r:id="rId259"/>
-    <hyperlink ref="B286" r:id="rId260"/>
-    <hyperlink ref="B287" r:id="rId261"/>
-    <hyperlink ref="B288" r:id="rId262"/>
-    <hyperlink ref="B289" r:id="rId263"/>
-    <hyperlink ref="B290" r:id="rId264"/>
-    <hyperlink ref="B291" r:id="rId265"/>
-    <hyperlink ref="B292" r:id="rId266"/>
-    <hyperlink ref="B295" r:id="rId267"/>
-    <hyperlink ref="B296" r:id="rId268"/>
-    <hyperlink ref="B297" r:id="rId269"/>
-    <hyperlink ref="B298" r:id="rId270"/>
-    <hyperlink ref="B299" r:id="rId271"/>
-    <hyperlink ref="B300" r:id="rId272"/>
-    <hyperlink ref="B301" r:id="rId273"/>
-    <hyperlink ref="B302" r:id="rId274"/>
-    <hyperlink ref="B303" r:id="rId275"/>
-    <hyperlink ref="B304" r:id="rId276"/>
-    <hyperlink ref="B305" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B306" r:id="rId278"/>
-    <hyperlink ref="B307" r:id="rId279"/>
-    <hyperlink ref="B308" r:id="rId280"/>
-    <hyperlink ref="B309" r:id="rId281"/>
-    <hyperlink ref="B310" r:id="rId282"/>
-    <hyperlink ref="B311" r:id="rId283"/>
-    <hyperlink ref="B312" r:id="rId284"/>
-    <hyperlink ref="B313" r:id="rId285"/>
-    <hyperlink ref="B314" r:id="rId286"/>
-    <hyperlink ref="B315" r:id="rId287"/>
-    <hyperlink ref="B316" r:id="rId288"/>
-    <hyperlink ref="B317" r:id="rId289"/>
-    <hyperlink ref="B318" r:id="rId290"/>
-    <hyperlink ref="B319" r:id="rId291"/>
-    <hyperlink ref="B320" r:id="rId292"/>
-    <hyperlink ref="B321" r:id="rId293"/>
-    <hyperlink ref="B322" r:id="rId294"/>
-    <hyperlink ref="B323" r:id="rId295"/>
-    <hyperlink ref="B324" r:id="rId296"/>
-    <hyperlink ref="B325" r:id="rId297"/>
-    <hyperlink ref="B326" r:id="rId298"/>
-    <hyperlink ref="B327" r:id="rId299"/>
-    <hyperlink ref="B328" r:id="rId300"/>
-    <hyperlink ref="B329" r:id="rId301"/>
-    <hyperlink ref="B330" r:id="rId302"/>
-    <hyperlink ref="B331" r:id="rId303"/>
-    <hyperlink ref="B332" r:id="rId304"/>
-    <hyperlink ref="B335" r:id="rId305"/>
-    <hyperlink ref="B336" r:id="rId306"/>
-    <hyperlink ref="B337" r:id="rId307"/>
-    <hyperlink ref="B338" r:id="rId308"/>
-    <hyperlink ref="B339" r:id="rId309"/>
-    <hyperlink ref="B340" r:id="rId310"/>
-    <hyperlink ref="B341" r:id="rId311"/>
-    <hyperlink ref="B342" r:id="rId312"/>
-    <hyperlink ref="B343" r:id="rId313"/>
-    <hyperlink ref="B344" r:id="rId314"/>
-    <hyperlink ref="B345" r:id="rId315"/>
-    <hyperlink ref="B346" r:id="rId316"/>
-    <hyperlink ref="B347" r:id="rId317"/>
-    <hyperlink ref="B348" r:id="rId318"/>
-    <hyperlink ref="B349" r:id="rId319"/>
-    <hyperlink ref="B350" r:id="rId320"/>
-    <hyperlink ref="B351" r:id="rId321"/>
-    <hyperlink ref="B352" r:id="rId322"/>
-    <hyperlink ref="B356" r:id="rId323"/>
-    <hyperlink ref="B357" r:id="rId324"/>
-    <hyperlink ref="B358" r:id="rId325"/>
-    <hyperlink ref="B359" r:id="rId326"/>
-    <hyperlink ref="B360" r:id="rId327"/>
-    <hyperlink ref="B361" r:id="rId328"/>
-    <hyperlink ref="B362" r:id="rId329"/>
-    <hyperlink ref="B363" r:id="rId330"/>
-    <hyperlink ref="B364" r:id="rId331"/>
-    <hyperlink ref="B365" r:id="rId332"/>
-    <hyperlink ref="B366" r:id="rId333"/>
-    <hyperlink ref="B367" r:id="rId334"/>
-    <hyperlink ref="B368" r:id="rId335"/>
-    <hyperlink ref="B369" r:id="rId336"/>
-    <hyperlink ref="B370" r:id="rId337"/>
-    <hyperlink ref="B371" r:id="rId338"/>
-    <hyperlink ref="B372" r:id="rId339"/>
-    <hyperlink ref="B373" r:id="rId340"/>
-    <hyperlink ref="B374" r:id="rId341"/>
-    <hyperlink ref="B375" r:id="rId342"/>
-    <hyperlink ref="B376" r:id="rId343"/>
-    <hyperlink ref="B377" r:id="rId344"/>
-    <hyperlink ref="B378" r:id="rId345" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B379" r:id="rId346"/>
-    <hyperlink ref="B380" r:id="rId347"/>
-    <hyperlink ref="B381" r:id="rId348"/>
-    <hyperlink ref="B382" r:id="rId349"/>
-    <hyperlink ref="B383" r:id="rId350"/>
-    <hyperlink ref="B384" r:id="rId351"/>
-    <hyperlink ref="B385" r:id="rId352"/>
-    <hyperlink ref="B386" r:id="rId353"/>
-    <hyperlink ref="B387" r:id="rId354"/>
-    <hyperlink ref="B388" r:id="rId355"/>
-    <hyperlink ref="B389" r:id="rId356"/>
-    <hyperlink ref="B390" r:id="rId357"/>
-    <hyperlink ref="B391" r:id="rId358"/>
-    <hyperlink ref="B392" r:id="rId359"/>
-    <hyperlink ref="B393" r:id="rId360"/>
-    <hyperlink ref="B395" r:id="rId361"/>
-    <hyperlink ref="B394" r:id="rId362"/>
-    <hyperlink ref="B396" r:id="rId363"/>
-    <hyperlink ref="B397" r:id="rId364"/>
-    <hyperlink ref="B398" r:id="rId365"/>
-    <hyperlink ref="B401" r:id="rId366"/>
-    <hyperlink ref="B402" r:id="rId367"/>
-    <hyperlink ref="B403" r:id="rId368"/>
-    <hyperlink ref="B404" r:id="rId369"/>
-    <hyperlink ref="B405" r:id="rId370"/>
-    <hyperlink ref="B406" r:id="rId371"/>
-    <hyperlink ref="B409" r:id="rId372"/>
-    <hyperlink ref="B410" r:id="rId373"/>
-    <hyperlink ref="B411" r:id="rId374"/>
-    <hyperlink ref="B412" r:id="rId375"/>
-    <hyperlink ref="B413" r:id="rId376"/>
-    <hyperlink ref="B414" r:id="rId377"/>
-    <hyperlink ref="B415" r:id="rId378"/>
-    <hyperlink ref="B416" r:id="rId379"/>
-    <hyperlink ref="B417" r:id="rId380"/>
-    <hyperlink ref="B418" r:id="rId381"/>
-    <hyperlink ref="B419" r:id="rId382"/>
-    <hyperlink ref="B420" r:id="rId383"/>
-    <hyperlink ref="B421" r:id="rId384"/>
-    <hyperlink ref="B422" r:id="rId385"/>
-    <hyperlink ref="B423" r:id="rId386"/>
-    <hyperlink ref="B424" r:id="rId387"/>
-    <hyperlink ref="B425" r:id="rId388"/>
-    <hyperlink ref="B426" r:id="rId389"/>
-    <hyperlink ref="B427" r:id="rId390"/>
-    <hyperlink ref="B428" r:id="rId391"/>
-    <hyperlink ref="B429" r:id="rId392"/>
-    <hyperlink ref="B430" r:id="rId393"/>
-    <hyperlink ref="B431" r:id="rId394"/>
-    <hyperlink ref="B432" r:id="rId395"/>
-    <hyperlink ref="B433" r:id="rId396"/>
-    <hyperlink ref="B434" r:id="rId397"/>
-    <hyperlink ref="B435" r:id="rId398"/>
-    <hyperlink ref="B436" r:id="rId399"/>
-    <hyperlink ref="B437" r:id="rId400"/>
-    <hyperlink ref="B438" r:id="rId401"/>
-    <hyperlink ref="B439" r:id="rId402"/>
-    <hyperlink ref="B440" r:id="rId403"/>
-    <hyperlink ref="B441" r:id="rId404"/>
-    <hyperlink ref="B442" r:id="rId405"/>
-    <hyperlink ref="B443" r:id="rId406"/>
-    <hyperlink ref="B444" r:id="rId407"/>
-    <hyperlink ref="B445" r:id="rId408"/>
-    <hyperlink ref="B446" r:id="rId409"/>
-    <hyperlink ref="B447" r:id="rId410"/>
-    <hyperlink ref="B448" r:id="rId411"/>
-    <hyperlink ref="B450" r:id="rId412"/>
-    <hyperlink ref="B449" r:id="rId413"/>
-    <hyperlink ref="B451" r:id="rId414"/>
-    <hyperlink ref="B452" r:id="rId415"/>
-    <hyperlink ref="B453" r:id="rId416"/>
-    <hyperlink ref="B454" r:id="rId417"/>
-    <hyperlink ref="B455" r:id="rId418"/>
-    <hyperlink ref="B456" r:id="rId419"/>
-    <hyperlink ref="B457" r:id="rId420"/>
-    <hyperlink ref="B458" r:id="rId421"/>
-    <hyperlink ref="B459" r:id="rId422"/>
-    <hyperlink ref="B460" r:id="rId423"/>
-    <hyperlink ref="B461" r:id="rId424"/>
-    <hyperlink ref="B468" r:id="rId425"/>
-    <hyperlink ref="B467" r:id="rId426"/>
-    <hyperlink ref="B466" r:id="rId427"/>
-    <hyperlink ref="B465" r:id="rId428"/>
-    <hyperlink ref="B464" r:id="rId429"/>
-    <hyperlink ref="B463" r:id="rId430"/>
-    <hyperlink ref="B462" r:id="rId431"/>
-    <hyperlink ref="B471" r:id="rId432"/>
-    <hyperlink ref="B472" r:id="rId433"/>
-    <hyperlink ref="B473" r:id="rId434"/>
-    <hyperlink ref="B474" r:id="rId435"/>
-    <hyperlink ref="B475" r:id="rId436"/>
-    <hyperlink ref="B476" r:id="rId437"/>
-    <hyperlink ref="B477" r:id="rId438"/>
-    <hyperlink ref="B480" r:id="rId439"/>
-    <hyperlink ref="B478" r:id="rId440"/>
-    <hyperlink ref="B479" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B355" r:id="rId442"/>
+    <hyperlink ref="B112" r:id="rId121"/>
+    <hyperlink ref="B139" r:id="rId122"/>
+    <hyperlink ref="B140" r:id="rId123"/>
+    <hyperlink ref="B141" r:id="rId124"/>
+    <hyperlink ref="B142" r:id="rId125"/>
+    <hyperlink ref="B143" r:id="rId126"/>
+    <hyperlink ref="B144" r:id="rId127"/>
+    <hyperlink ref="B145" r:id="rId128"/>
+    <hyperlink ref="B146" r:id="rId129"/>
+    <hyperlink ref="B147" r:id="rId130"/>
+    <hyperlink ref="B148" r:id="rId131"/>
+    <hyperlink ref="B149" r:id="rId132"/>
+    <hyperlink ref="B150" r:id="rId133"/>
+    <hyperlink ref="B151" r:id="rId134"/>
+    <hyperlink ref="B152" r:id="rId135"/>
+    <hyperlink ref="B153" r:id="rId136"/>
+    <hyperlink ref="B154" r:id="rId137"/>
+    <hyperlink ref="B155" r:id="rId138"/>
+    <hyperlink ref="B156" r:id="rId139"/>
+    <hyperlink ref="B157" r:id="rId140"/>
+    <hyperlink ref="B158" r:id="rId141"/>
+    <hyperlink ref="B159" r:id="rId142"/>
+    <hyperlink ref="B160" r:id="rId143"/>
+    <hyperlink ref="B161" r:id="rId144"/>
+    <hyperlink ref="B162" r:id="rId145"/>
+    <hyperlink ref="B163" r:id="rId146"/>
+    <hyperlink ref="B166" r:id="rId147"/>
+    <hyperlink ref="B167" r:id="rId148"/>
+    <hyperlink ref="B168" r:id="rId149"/>
+    <hyperlink ref="B169" r:id="rId150"/>
+    <hyperlink ref="B170" r:id="rId151"/>
+    <hyperlink ref="B171" r:id="rId152"/>
+    <hyperlink ref="B172" r:id="rId153"/>
+    <hyperlink ref="B173" r:id="rId154"/>
+    <hyperlink ref="B174" r:id="rId155"/>
+    <hyperlink ref="B177" r:id="rId156"/>
+    <hyperlink ref="B178" r:id="rId157"/>
+    <hyperlink ref="B179" r:id="rId158"/>
+    <hyperlink ref="B180" r:id="rId159"/>
+    <hyperlink ref="B181" r:id="rId160"/>
+    <hyperlink ref="B182" r:id="rId161"/>
+    <hyperlink ref="B183" r:id="rId162"/>
+    <hyperlink ref="B184" r:id="rId163"/>
+    <hyperlink ref="B185" r:id="rId164"/>
+    <hyperlink ref="B186" r:id="rId165"/>
+    <hyperlink ref="B187" r:id="rId166"/>
+    <hyperlink ref="B188" r:id="rId167"/>
+    <hyperlink ref="B189" r:id="rId168"/>
+    <hyperlink ref="B190" r:id="rId169"/>
+    <hyperlink ref="B191" r:id="rId170"/>
+    <hyperlink ref="B192" r:id="rId171"/>
+    <hyperlink ref="B193" r:id="rId172"/>
+    <hyperlink ref="B194" r:id="rId173"/>
+    <hyperlink ref="B195" r:id="rId174"/>
+    <hyperlink ref="B196" r:id="rId175"/>
+    <hyperlink ref="B197" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId177"/>
+    <hyperlink ref="B199" r:id="rId178"/>
+    <hyperlink ref="B200" r:id="rId179"/>
+    <hyperlink ref="B201" r:id="rId180"/>
+    <hyperlink ref="B202" r:id="rId181"/>
+    <hyperlink ref="B203" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId183"/>
+    <hyperlink ref="B205" r:id="rId184"/>
+    <hyperlink ref="B206" r:id="rId185"/>
+    <hyperlink ref="B207" r:id="rId186"/>
+    <hyperlink ref="B208" r:id="rId187"/>
+    <hyperlink ref="B209" r:id="rId188"/>
+    <hyperlink ref="B210" r:id="rId189"/>
+    <hyperlink ref="B211" r:id="rId190"/>
+    <hyperlink ref="B214" r:id="rId191"/>
+    <hyperlink ref="B215" r:id="rId192"/>
+    <hyperlink ref="B216" r:id="rId193"/>
+    <hyperlink ref="B217" r:id="rId194"/>
+    <hyperlink ref="B218" r:id="rId195"/>
+    <hyperlink ref="B219" r:id="rId196"/>
+    <hyperlink ref="B220" r:id="rId197"/>
+    <hyperlink ref="B221" r:id="rId198"/>
+    <hyperlink ref="B222" r:id="rId199"/>
+    <hyperlink ref="B223" r:id="rId200"/>
+    <hyperlink ref="B224" r:id="rId201"/>
+    <hyperlink ref="B225" r:id="rId202"/>
+    <hyperlink ref="B226" r:id="rId203"/>
+    <hyperlink ref="B227" r:id="rId204"/>
+    <hyperlink ref="B228" r:id="rId205"/>
+    <hyperlink ref="B229" r:id="rId206"/>
+    <hyperlink ref="B230" r:id="rId207"/>
+    <hyperlink ref="B231" r:id="rId208"/>
+    <hyperlink ref="B232" r:id="rId209"/>
+    <hyperlink ref="B233" r:id="rId210"/>
+    <hyperlink ref="B234" r:id="rId211"/>
+    <hyperlink ref="B235" r:id="rId212"/>
+    <hyperlink ref="B238" r:id="rId213"/>
+    <hyperlink ref="B239" r:id="rId214"/>
+    <hyperlink ref="B240" r:id="rId215"/>
+    <hyperlink ref="B241" r:id="rId216"/>
+    <hyperlink ref="B242" r:id="rId217"/>
+    <hyperlink ref="B243" r:id="rId218"/>
+    <hyperlink ref="B244" r:id="rId219"/>
+    <hyperlink ref="B245" r:id="rId220"/>
+    <hyperlink ref="B246" r:id="rId221"/>
+    <hyperlink ref="B247" r:id="rId222"/>
+    <hyperlink ref="B248" r:id="rId223"/>
+    <hyperlink ref="B249" r:id="rId224"/>
+    <hyperlink ref="B250" r:id="rId225"/>
+    <hyperlink ref="B251" r:id="rId226"/>
+    <hyperlink ref="B252" r:id="rId227"/>
+    <hyperlink ref="B253" r:id="rId228"/>
+    <hyperlink ref="B254" r:id="rId229"/>
+    <hyperlink ref="B255" r:id="rId230"/>
+    <hyperlink ref="B256" r:id="rId231"/>
+    <hyperlink ref="B257" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId233"/>
+    <hyperlink ref="B259" r:id="rId234"/>
+    <hyperlink ref="B260" r:id="rId235"/>
+    <hyperlink ref="B261" r:id="rId236"/>
+    <hyperlink ref="B262" r:id="rId237"/>
+    <hyperlink ref="B263" r:id="rId238"/>
+    <hyperlink ref="B264" r:id="rId239"/>
+    <hyperlink ref="B265" r:id="rId240"/>
+    <hyperlink ref="B266" r:id="rId241"/>
+    <hyperlink ref="B267" r:id="rId242"/>
+    <hyperlink ref="B268" r:id="rId243"/>
+    <hyperlink ref="B269" r:id="rId244"/>
+    <hyperlink ref="B270" r:id="rId245"/>
+    <hyperlink ref="B271" r:id="rId246"/>
+    <hyperlink ref="B272" r:id="rId247"/>
+    <hyperlink ref="B275" r:id="rId248"/>
+    <hyperlink ref="B276" r:id="rId249"/>
+    <hyperlink ref="B277" r:id="rId250"/>
+    <hyperlink ref="B278" r:id="rId251"/>
+    <hyperlink ref="B279" r:id="rId252"/>
+    <hyperlink ref="B280" r:id="rId253"/>
+    <hyperlink ref="B281" r:id="rId254"/>
+    <hyperlink ref="B282" r:id="rId255"/>
+    <hyperlink ref="B283" r:id="rId256"/>
+    <hyperlink ref="B284" r:id="rId257"/>
+    <hyperlink ref="B285" r:id="rId258"/>
+    <hyperlink ref="B286" r:id="rId259"/>
+    <hyperlink ref="B287" r:id="rId260"/>
+    <hyperlink ref="B288" r:id="rId261"/>
+    <hyperlink ref="B289" r:id="rId262"/>
+    <hyperlink ref="B290" r:id="rId263"/>
+    <hyperlink ref="B291" r:id="rId264"/>
+    <hyperlink ref="B292" r:id="rId265"/>
+    <hyperlink ref="B293" r:id="rId266"/>
+    <hyperlink ref="B296" r:id="rId267"/>
+    <hyperlink ref="B297" r:id="rId268"/>
+    <hyperlink ref="B298" r:id="rId269"/>
+    <hyperlink ref="B299" r:id="rId270"/>
+    <hyperlink ref="B300" r:id="rId271"/>
+    <hyperlink ref="B301" r:id="rId272"/>
+    <hyperlink ref="B302" r:id="rId273"/>
+    <hyperlink ref="B303" r:id="rId274"/>
+    <hyperlink ref="B304" r:id="rId275"/>
+    <hyperlink ref="B305" r:id="rId276"/>
+    <hyperlink ref="B306" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId278"/>
+    <hyperlink ref="B308" r:id="rId279"/>
+    <hyperlink ref="B309" r:id="rId280"/>
+    <hyperlink ref="B310" r:id="rId281"/>
+    <hyperlink ref="B311" r:id="rId282"/>
+    <hyperlink ref="B312" r:id="rId283"/>
+    <hyperlink ref="B313" r:id="rId284"/>
+    <hyperlink ref="B314" r:id="rId285"/>
+    <hyperlink ref="B315" r:id="rId286"/>
+    <hyperlink ref="B316" r:id="rId287"/>
+    <hyperlink ref="B317" r:id="rId288"/>
+    <hyperlink ref="B318" r:id="rId289"/>
+    <hyperlink ref="B319" r:id="rId290"/>
+    <hyperlink ref="B320" r:id="rId291"/>
+    <hyperlink ref="B321" r:id="rId292"/>
+    <hyperlink ref="B322" r:id="rId293"/>
+    <hyperlink ref="B323" r:id="rId294"/>
+    <hyperlink ref="B324" r:id="rId295"/>
+    <hyperlink ref="B325" r:id="rId296"/>
+    <hyperlink ref="B326" r:id="rId297"/>
+    <hyperlink ref="B327" r:id="rId298"/>
+    <hyperlink ref="B328" r:id="rId299"/>
+    <hyperlink ref="B329" r:id="rId300"/>
+    <hyperlink ref="B330" r:id="rId301"/>
+    <hyperlink ref="B331" r:id="rId302"/>
+    <hyperlink ref="B332" r:id="rId303"/>
+    <hyperlink ref="B333" r:id="rId304"/>
+    <hyperlink ref="B336" r:id="rId305"/>
+    <hyperlink ref="B337" r:id="rId306"/>
+    <hyperlink ref="B338" r:id="rId307"/>
+    <hyperlink ref="B339" r:id="rId308"/>
+    <hyperlink ref="B340" r:id="rId309"/>
+    <hyperlink ref="B341" r:id="rId310"/>
+    <hyperlink ref="B342" r:id="rId311"/>
+    <hyperlink ref="B343" r:id="rId312"/>
+    <hyperlink ref="B344" r:id="rId313"/>
+    <hyperlink ref="B345" r:id="rId314"/>
+    <hyperlink ref="B346" r:id="rId315"/>
+    <hyperlink ref="B347" r:id="rId316"/>
+    <hyperlink ref="B348" r:id="rId317"/>
+    <hyperlink ref="B349" r:id="rId318"/>
+    <hyperlink ref="B350" r:id="rId319"/>
+    <hyperlink ref="B351" r:id="rId320"/>
+    <hyperlink ref="B352" r:id="rId321"/>
+    <hyperlink ref="B353" r:id="rId322"/>
+    <hyperlink ref="B357" r:id="rId323"/>
+    <hyperlink ref="B358" r:id="rId324"/>
+    <hyperlink ref="B359" r:id="rId325"/>
+    <hyperlink ref="B360" r:id="rId326"/>
+    <hyperlink ref="B361" r:id="rId327"/>
+    <hyperlink ref="B362" r:id="rId328"/>
+    <hyperlink ref="B363" r:id="rId329"/>
+    <hyperlink ref="B364" r:id="rId330"/>
+    <hyperlink ref="B365" r:id="rId331"/>
+    <hyperlink ref="B366" r:id="rId332"/>
+    <hyperlink ref="B367" r:id="rId333"/>
+    <hyperlink ref="B368" r:id="rId334"/>
+    <hyperlink ref="B369" r:id="rId335"/>
+    <hyperlink ref="B370" r:id="rId336"/>
+    <hyperlink ref="B371" r:id="rId337"/>
+    <hyperlink ref="B372" r:id="rId338"/>
+    <hyperlink ref="B373" r:id="rId339"/>
+    <hyperlink ref="B374" r:id="rId340"/>
+    <hyperlink ref="B375" r:id="rId341"/>
+    <hyperlink ref="B376" r:id="rId342"/>
+    <hyperlink ref="B377" r:id="rId343"/>
+    <hyperlink ref="B378" r:id="rId344"/>
+    <hyperlink ref="B379" r:id="rId345" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId346"/>
+    <hyperlink ref="B381" r:id="rId347"/>
+    <hyperlink ref="B382" r:id="rId348"/>
+    <hyperlink ref="B383" r:id="rId349"/>
+    <hyperlink ref="B384" r:id="rId350"/>
+    <hyperlink ref="B385" r:id="rId351"/>
+    <hyperlink ref="B386" r:id="rId352"/>
+    <hyperlink ref="B387" r:id="rId353"/>
+    <hyperlink ref="B388" r:id="rId354"/>
+    <hyperlink ref="B389" r:id="rId355"/>
+    <hyperlink ref="B390" r:id="rId356"/>
+    <hyperlink ref="B391" r:id="rId357"/>
+    <hyperlink ref="B392" r:id="rId358"/>
+    <hyperlink ref="B393" r:id="rId359"/>
+    <hyperlink ref="B394" r:id="rId360"/>
+    <hyperlink ref="B396" r:id="rId361"/>
+    <hyperlink ref="B395" r:id="rId362"/>
+    <hyperlink ref="B397" r:id="rId363"/>
+    <hyperlink ref="B398" r:id="rId364"/>
+    <hyperlink ref="B399" r:id="rId365"/>
+    <hyperlink ref="B402" r:id="rId366"/>
+    <hyperlink ref="B403" r:id="rId367"/>
+    <hyperlink ref="B404" r:id="rId368"/>
+    <hyperlink ref="B405" r:id="rId369"/>
+    <hyperlink ref="B406" r:id="rId370"/>
+    <hyperlink ref="B407" r:id="rId371"/>
+    <hyperlink ref="B410" r:id="rId372"/>
+    <hyperlink ref="B411" r:id="rId373"/>
+    <hyperlink ref="B412" r:id="rId374"/>
+    <hyperlink ref="B413" r:id="rId375"/>
+    <hyperlink ref="B414" r:id="rId376"/>
+    <hyperlink ref="B415" r:id="rId377"/>
+    <hyperlink ref="B416" r:id="rId378"/>
+    <hyperlink ref="B417" r:id="rId379"/>
+    <hyperlink ref="B418" r:id="rId380"/>
+    <hyperlink ref="B419" r:id="rId381"/>
+    <hyperlink ref="B420" r:id="rId382"/>
+    <hyperlink ref="B421" r:id="rId383"/>
+    <hyperlink ref="B422" r:id="rId384"/>
+    <hyperlink ref="B423" r:id="rId385"/>
+    <hyperlink ref="B424" r:id="rId386"/>
+    <hyperlink ref="B425" r:id="rId387"/>
+    <hyperlink ref="B426" r:id="rId388"/>
+    <hyperlink ref="B427" r:id="rId389"/>
+    <hyperlink ref="B428" r:id="rId390"/>
+    <hyperlink ref="B429" r:id="rId391"/>
+    <hyperlink ref="B430" r:id="rId392"/>
+    <hyperlink ref="B431" r:id="rId393"/>
+    <hyperlink ref="B432" r:id="rId394"/>
+    <hyperlink ref="B433" r:id="rId395"/>
+    <hyperlink ref="B434" r:id="rId396"/>
+    <hyperlink ref="B435" r:id="rId397"/>
+    <hyperlink ref="B436" r:id="rId398"/>
+    <hyperlink ref="B437" r:id="rId399"/>
+    <hyperlink ref="B438" r:id="rId400"/>
+    <hyperlink ref="B439" r:id="rId401"/>
+    <hyperlink ref="B440" r:id="rId402"/>
+    <hyperlink ref="B441" r:id="rId403"/>
+    <hyperlink ref="B442" r:id="rId404"/>
+    <hyperlink ref="B443" r:id="rId405"/>
+    <hyperlink ref="B444" r:id="rId406"/>
+    <hyperlink ref="B445" r:id="rId407"/>
+    <hyperlink ref="B446" r:id="rId408"/>
+    <hyperlink ref="B447" r:id="rId409"/>
+    <hyperlink ref="B448" r:id="rId410"/>
+    <hyperlink ref="B449" r:id="rId411"/>
+    <hyperlink ref="B451" r:id="rId412"/>
+    <hyperlink ref="B450" r:id="rId413"/>
+    <hyperlink ref="B452" r:id="rId414"/>
+    <hyperlink ref="B453" r:id="rId415"/>
+    <hyperlink ref="B454" r:id="rId416"/>
+    <hyperlink ref="B455" r:id="rId417"/>
+    <hyperlink ref="B456" r:id="rId418"/>
+    <hyperlink ref="B457" r:id="rId419"/>
+    <hyperlink ref="B458" r:id="rId420"/>
+    <hyperlink ref="B459" r:id="rId421"/>
+    <hyperlink ref="B460" r:id="rId422"/>
+    <hyperlink ref="B461" r:id="rId423"/>
+    <hyperlink ref="B462" r:id="rId424"/>
+    <hyperlink ref="B469" r:id="rId425"/>
+    <hyperlink ref="B468" r:id="rId426"/>
+    <hyperlink ref="B467" r:id="rId427"/>
+    <hyperlink ref="B466" r:id="rId428"/>
+    <hyperlink ref="B465" r:id="rId429"/>
+    <hyperlink ref="B464" r:id="rId430"/>
+    <hyperlink ref="B463" r:id="rId431"/>
+    <hyperlink ref="B472" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433"/>
+    <hyperlink ref="B474" r:id="rId434"/>
+    <hyperlink ref="B475" r:id="rId435"/>
+    <hyperlink ref="B476" r:id="rId436"/>
+    <hyperlink ref="B477" r:id="rId437"/>
+    <hyperlink ref="B478" r:id="rId438"/>
+    <hyperlink ref="B481" r:id="rId439"/>
+    <hyperlink ref="B479" r:id="rId440"/>
+    <hyperlink ref="B480" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId442"/>
     <hyperlink ref="B2" r:id="rId443"/>
-    <hyperlink ref="B334" r:id="rId444"/>
+    <hyperlink ref="B335" r:id="rId444"/>
     <hyperlink ref="B5" r:id="rId445"/>
-    <hyperlink ref="B105" r:id="rId446"/>
+    <hyperlink ref="B106" r:id="rId446"/>
     <hyperlink ref="B6" r:id="rId447" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B104" r:id="rId448"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1536,7 +1536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1560,6 +1560,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1575,7 +1581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,6 +1637,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1949,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2124,15 +2141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
+      <c r="C18" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2201,15 +2218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
-        <v>0</v>
+      <c r="C25" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2501,36 +2518,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A54" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A55" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A56" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3448,15 +3465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A142" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="4">
-        <v>0</v>
+      <c r="C142" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3822,47 +3839,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A177" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="5" t="s">
+      <c r="C177" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A178" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
-      <c r="A179" s="5" t="s">
+      <c r="C178" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A179" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
-      <c r="A180" s="5" t="s">
+      <c r="C179" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A180" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3943,15 +3960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A188" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C188" s="4">
-        <v>0</v>
+      <c r="C188" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -7098,7 +7115,7 @@
     <row r="482" spans="1:3">
       <c r="C482">
         <f>SUM(C7:C481)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>Edit Distance</t>
   </si>
   <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
     <t>Gold Mine Problem</t>
   </si>
   <si>
@@ -1423,6 +1420,12 @@
   </si>
   <si>
     <t>Kth Missing Elements</t>
+  </si>
+  <si>
+    <t>Count of permutations such that sum of K numbers from given range is even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem </t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1584,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1648,6 +1651,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1956,7 +1962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1964,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1984,7 +1990,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1995,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2003,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2014,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -3063,7 +3069,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3085,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -5539,7 +5545,7 @@
         <v>319</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -6417,37 +6423,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="5" t="s">
+    <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A418" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C418" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A419" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A420" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B420" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C418" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
-      <c r="A419" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C419" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
-      <c r="A420" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C420" s="4">
-        <v>0</v>
+      <c r="C420" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
@@ -6455,7 +6461,7 @@
         <v>388</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C421" s="4">
         <v>0</v>
@@ -6466,7 +6472,7 @@
         <v>388</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C422" s="4">
         <v>0</v>
@@ -6477,7 +6483,7 @@
         <v>388</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C423" s="4">
         <v>0</v>
@@ -6488,7 +6494,7 @@
         <v>388</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C424" s="4">
         <v>0</v>
@@ -6499,7 +6505,7 @@
         <v>388</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C425" s="4">
         <v>0</v>
@@ -6510,7 +6516,7 @@
         <v>388</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C426" s="4">
         <v>0</v>
@@ -6521,7 +6527,7 @@
         <v>388</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C427" s="4">
         <v>0</v>
@@ -6532,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C428" s="4">
         <v>0</v>
@@ -6543,7 +6549,7 @@
         <v>388</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C429" s="4">
         <v>0</v>
@@ -6554,7 +6560,7 @@
         <v>388</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C430" s="4">
         <v>0</v>
@@ -6565,32 +6571,32 @@
         <v>388</v>
       </c>
       <c r="B431" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="21">
+      <c r="A432" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C432" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A433" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B433" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C431" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A432" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="B432" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C432" s="17">
+      <c r="C433" s="17">
         <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C433" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6598,7 +6604,7 @@
         <v>388</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C434" s="4">
         <v>0</v>
@@ -6609,7 +6615,7 @@
         <v>388</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C435" s="4">
         <v>0</v>
@@ -6620,7 +6626,7 @@
         <v>388</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C436" s="4">
         <v>0</v>
@@ -6631,7 +6637,7 @@
         <v>388</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C437" s="4">
         <v>0</v>
@@ -6642,7 +6648,7 @@
         <v>388</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C438" s="4">
         <v>0</v>
@@ -6653,7 +6659,7 @@
         <v>388</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C439" s="4">
         <v>0</v>
@@ -6664,7 +6670,7 @@
         <v>388</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C440" s="4">
         <v>0</v>
@@ -6675,7 +6681,7 @@
         <v>388</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C441" s="4">
         <v>0</v>
@@ -6686,7 +6692,7 @@
         <v>388</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C442" s="4">
         <v>0</v>
@@ -6697,7 +6703,7 @@
         <v>388</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C443" s="4">
         <v>0</v>
@@ -6708,7 +6714,7 @@
         <v>388</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C444" s="4">
         <v>0</v>
@@ -6719,7 +6725,7 @@
         <v>388</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C445" s="4">
         <v>0</v>
@@ -6730,7 +6736,7 @@
         <v>388</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C446" s="4">
         <v>0</v>
@@ -6741,7 +6747,7 @@
         <v>388</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C447" s="4">
         <v>0</v>
@@ -6752,7 +6758,7 @@
         <v>388</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C448" s="4">
         <v>0</v>
@@ -6763,7 +6769,7 @@
         <v>388</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C449" s="4">
         <v>0</v>
@@ -6774,7 +6780,7 @@
         <v>388</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C450" s="4">
         <v>0</v>
@@ -6785,7 +6791,7 @@
         <v>388</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C451" s="4">
         <v>0</v>
@@ -6796,7 +6802,7 @@
         <v>388</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C452" s="4">
         <v>0</v>
@@ -6807,7 +6813,7 @@
         <v>388</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C453" s="4">
         <v>0</v>
@@ -6818,7 +6824,7 @@
         <v>388</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C454" s="4">
         <v>0</v>
@@ -6829,7 +6835,7 @@
         <v>388</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C455" s="4">
         <v>0</v>
@@ -6840,7 +6846,7 @@
         <v>388</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C456" s="4">
         <v>0</v>
@@ -6851,7 +6857,7 @@
         <v>388</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C457" s="4">
         <v>0</v>
@@ -6862,7 +6868,7 @@
         <v>388</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C458" s="4">
         <v>0</v>
@@ -6873,7 +6879,7 @@
         <v>388</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C459" s="4">
         <v>0</v>
@@ -6884,7 +6890,7 @@
         <v>388</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C460" s="4">
         <v>0</v>
@@ -6895,7 +6901,7 @@
         <v>388</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6906,7 +6912,7 @@
         <v>388</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6917,7 +6923,7 @@
         <v>388</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6928,7 +6934,7 @@
         <v>388</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6939,7 +6945,7 @@
         <v>388</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6950,7 +6956,7 @@
         <v>388</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -6961,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -6972,7 +6978,7 @@
         <v>388</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C468" s="4">
         <v>0</v>
@@ -6983,42 +6989,42 @@
         <v>388</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C469" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7"/>
+      <c r="A470" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="C470" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="A472" s="8"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="C473" s="4">
         <v>0</v>
@@ -7026,10 +7032,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -7037,10 +7043,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C475" s="4">
         <v>0</v>
@@ -7048,10 +7054,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7070,10 +7076,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7081,10 +7087,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7092,10 +7098,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7103,19 +7109,30 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
-      <c r="C482">
-        <f>SUM(C7:C481)</f>
-        <v>20</v>
+    <row r="482" spans="1:3" ht="21">
+      <c r="A482" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C482" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="C483">
+        <f>SUM(C7:C482)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7499,68 +7516,68 @@
     <hyperlink ref="B415" r:id="rId377"/>
     <hyperlink ref="B416" r:id="rId378"/>
     <hyperlink ref="B417" r:id="rId379"/>
-    <hyperlink ref="B418" r:id="rId380"/>
-    <hyperlink ref="B419" r:id="rId381"/>
-    <hyperlink ref="B420" r:id="rId382"/>
-    <hyperlink ref="B421" r:id="rId383"/>
-    <hyperlink ref="B422" r:id="rId384"/>
-    <hyperlink ref="B423" r:id="rId385"/>
-    <hyperlink ref="B424" r:id="rId386"/>
-    <hyperlink ref="B425" r:id="rId387"/>
-    <hyperlink ref="B426" r:id="rId388"/>
-    <hyperlink ref="B427" r:id="rId389"/>
-    <hyperlink ref="B428" r:id="rId390"/>
-    <hyperlink ref="B429" r:id="rId391"/>
-    <hyperlink ref="B430" r:id="rId392"/>
-    <hyperlink ref="B431" r:id="rId393"/>
-    <hyperlink ref="B432" r:id="rId394"/>
-    <hyperlink ref="B433" r:id="rId395"/>
-    <hyperlink ref="B434" r:id="rId396"/>
-    <hyperlink ref="B435" r:id="rId397"/>
-    <hyperlink ref="B436" r:id="rId398"/>
-    <hyperlink ref="B437" r:id="rId399"/>
-    <hyperlink ref="B438" r:id="rId400"/>
-    <hyperlink ref="B439" r:id="rId401"/>
-    <hyperlink ref="B440" r:id="rId402"/>
-    <hyperlink ref="B441" r:id="rId403"/>
-    <hyperlink ref="B442" r:id="rId404"/>
-    <hyperlink ref="B443" r:id="rId405"/>
-    <hyperlink ref="B444" r:id="rId406"/>
-    <hyperlink ref="B445" r:id="rId407"/>
-    <hyperlink ref="B446" r:id="rId408"/>
-    <hyperlink ref="B447" r:id="rId409"/>
-    <hyperlink ref="B448" r:id="rId410"/>
-    <hyperlink ref="B449" r:id="rId411"/>
-    <hyperlink ref="B451" r:id="rId412"/>
-    <hyperlink ref="B450" r:id="rId413"/>
-    <hyperlink ref="B452" r:id="rId414"/>
-    <hyperlink ref="B453" r:id="rId415"/>
-    <hyperlink ref="B454" r:id="rId416"/>
-    <hyperlink ref="B455" r:id="rId417"/>
-    <hyperlink ref="B456" r:id="rId418"/>
-    <hyperlink ref="B457" r:id="rId419"/>
-    <hyperlink ref="B458" r:id="rId420"/>
-    <hyperlink ref="B459" r:id="rId421"/>
-    <hyperlink ref="B460" r:id="rId422"/>
-    <hyperlink ref="B461" r:id="rId423"/>
-    <hyperlink ref="B462" r:id="rId424"/>
-    <hyperlink ref="B469" r:id="rId425"/>
-    <hyperlink ref="B468" r:id="rId426"/>
-    <hyperlink ref="B467" r:id="rId427"/>
-    <hyperlink ref="B466" r:id="rId428"/>
-    <hyperlink ref="B465" r:id="rId429"/>
-    <hyperlink ref="B464" r:id="rId430"/>
-    <hyperlink ref="B463" r:id="rId431"/>
-    <hyperlink ref="B472" r:id="rId432"/>
-    <hyperlink ref="B473" r:id="rId433"/>
-    <hyperlink ref="B474" r:id="rId434"/>
-    <hyperlink ref="B475" r:id="rId435"/>
-    <hyperlink ref="B476" r:id="rId436"/>
-    <hyperlink ref="B477" r:id="rId437"/>
-    <hyperlink ref="B478" r:id="rId438"/>
-    <hyperlink ref="B481" r:id="rId439"/>
-    <hyperlink ref="B479" r:id="rId440"/>
-    <hyperlink ref="B480" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B419" r:id="rId380" display="Friends Pairing Problem"/>
+    <hyperlink ref="B420" r:id="rId381"/>
+    <hyperlink ref="B421" r:id="rId382"/>
+    <hyperlink ref="B422" r:id="rId383"/>
+    <hyperlink ref="B423" r:id="rId384"/>
+    <hyperlink ref="B424" r:id="rId385"/>
+    <hyperlink ref="B425" r:id="rId386"/>
+    <hyperlink ref="B426" r:id="rId387"/>
+    <hyperlink ref="B427" r:id="rId388"/>
+    <hyperlink ref="B428" r:id="rId389"/>
+    <hyperlink ref="B429" r:id="rId390"/>
+    <hyperlink ref="B430" r:id="rId391"/>
+    <hyperlink ref="B431" r:id="rId392"/>
+    <hyperlink ref="B432" r:id="rId393"/>
+    <hyperlink ref="B433" r:id="rId394"/>
+    <hyperlink ref="B434" r:id="rId395"/>
+    <hyperlink ref="B435" r:id="rId396"/>
+    <hyperlink ref="B436" r:id="rId397"/>
+    <hyperlink ref="B437" r:id="rId398"/>
+    <hyperlink ref="B438" r:id="rId399"/>
+    <hyperlink ref="B439" r:id="rId400"/>
+    <hyperlink ref="B440" r:id="rId401"/>
+    <hyperlink ref="B441" r:id="rId402"/>
+    <hyperlink ref="B442" r:id="rId403"/>
+    <hyperlink ref="B443" r:id="rId404"/>
+    <hyperlink ref="B444" r:id="rId405"/>
+    <hyperlink ref="B445" r:id="rId406"/>
+    <hyperlink ref="B446" r:id="rId407"/>
+    <hyperlink ref="B447" r:id="rId408"/>
+    <hyperlink ref="B448" r:id="rId409"/>
+    <hyperlink ref="B449" r:id="rId410"/>
+    <hyperlink ref="B450" r:id="rId411"/>
+    <hyperlink ref="B452" r:id="rId412"/>
+    <hyperlink ref="B451" r:id="rId413"/>
+    <hyperlink ref="B453" r:id="rId414"/>
+    <hyperlink ref="B454" r:id="rId415"/>
+    <hyperlink ref="B455" r:id="rId416"/>
+    <hyperlink ref="B456" r:id="rId417"/>
+    <hyperlink ref="B457" r:id="rId418"/>
+    <hyperlink ref="B458" r:id="rId419"/>
+    <hyperlink ref="B459" r:id="rId420"/>
+    <hyperlink ref="B460" r:id="rId421"/>
+    <hyperlink ref="B461" r:id="rId422"/>
+    <hyperlink ref="B462" r:id="rId423"/>
+    <hyperlink ref="B463" r:id="rId424"/>
+    <hyperlink ref="B470" r:id="rId425"/>
+    <hyperlink ref="B469" r:id="rId426"/>
+    <hyperlink ref="B468" r:id="rId427"/>
+    <hyperlink ref="B467" r:id="rId428"/>
+    <hyperlink ref="B466" r:id="rId429"/>
+    <hyperlink ref="B465" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B473" r:id="rId432"/>
+    <hyperlink ref="B474" r:id="rId433"/>
+    <hyperlink ref="B475" r:id="rId434"/>
+    <hyperlink ref="B476" r:id="rId435"/>
+    <hyperlink ref="B477" r:id="rId436"/>
+    <hyperlink ref="B478" r:id="rId437"/>
+    <hyperlink ref="B479" r:id="rId438"/>
+    <hyperlink ref="B482" r:id="rId439"/>
+    <hyperlink ref="B480" r:id="rId440"/>
+    <hyperlink ref="B481" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
     <hyperlink ref="B356" r:id="rId442"/>
     <hyperlink ref="B2" r:id="rId443"/>
     <hyperlink ref="B335" r:id="rId444"/>
@@ -7568,6 +7585,7 @@
     <hyperlink ref="B106" r:id="rId446"/>
     <hyperlink ref="B6" r:id="rId447" display="Rotate an array by k elemnts"/>
     <hyperlink ref="B104" r:id="rId448"/>
+    <hyperlink ref="B418" r:id="rId449"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Friends Pairing Problem </t>
+  </si>
+  <si>
+    <t>Maximum XOR value of a pair from a range</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1970,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C483"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7019,15 +7022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="5" t="s">
+    <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A473" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B473" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C473" s="4">
-        <v>0</v>
+      <c r="B473" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C473" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -7035,7 +7038,7 @@
         <v>447</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C474" s="4">
         <v>0</v>
@@ -7046,7 +7049,7 @@
         <v>447</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="4">
         <v>0</v>
@@ -7057,7 +7060,7 @@
         <v>447</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7068,7 +7071,7 @@
         <v>447</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7079,7 +7082,7 @@
         <v>447</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7090,7 +7093,7 @@
         <v>447</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7101,7 +7104,7 @@
         <v>447</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7112,7 +7115,7 @@
         <v>447</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7123,16 +7126,27 @@
         <v>447</v>
       </c>
       <c r="B482" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C482" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="21">
+      <c r="A483" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B483" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C482" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="C483">
-        <f>SUM(C7:C482)</f>
-        <v>23</v>
+      <c r="C483" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="C484">
+        <f>SUM(C7:C483)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7568,16 +7582,16 @@
     <hyperlink ref="B466" r:id="rId429"/>
     <hyperlink ref="B465" r:id="rId430"/>
     <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B473" r:id="rId432"/>
-    <hyperlink ref="B474" r:id="rId433"/>
-    <hyperlink ref="B475" r:id="rId434"/>
-    <hyperlink ref="B476" r:id="rId435"/>
-    <hyperlink ref="B477" r:id="rId436"/>
-    <hyperlink ref="B478" r:id="rId437"/>
-    <hyperlink ref="B479" r:id="rId438"/>
-    <hyperlink ref="B482" r:id="rId439"/>
-    <hyperlink ref="B480" r:id="rId440"/>
-    <hyperlink ref="B481" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B474" r:id="rId432"/>
+    <hyperlink ref="B475" r:id="rId433"/>
+    <hyperlink ref="B476" r:id="rId434"/>
+    <hyperlink ref="B477" r:id="rId435"/>
+    <hyperlink ref="B478" r:id="rId436"/>
+    <hyperlink ref="B479" r:id="rId437"/>
+    <hyperlink ref="B480" r:id="rId438"/>
+    <hyperlink ref="B483" r:id="rId439"/>
+    <hyperlink ref="B481" r:id="rId440"/>
+    <hyperlink ref="B482" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
     <hyperlink ref="B356" r:id="rId442"/>
     <hyperlink ref="B2" r:id="rId443"/>
     <hyperlink ref="B335" r:id="rId444"/>
@@ -7586,6 +7600,7 @@
     <hyperlink ref="B6" r:id="rId447" display="Rotate an array by k elemnts"/>
     <hyperlink ref="B104" r:id="rId448"/>
     <hyperlink ref="B418" r:id="rId449"/>
+    <hyperlink ref="B473" r:id="rId450"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1371,9 +1371,6 @@
     <t>Bit Manipulation</t>
   </si>
   <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
     <t>Find the two non-repeating elements in an array of repeating elements</t>
   </si>
   <si>
@@ -1429,6 +1426,12 @@
   </si>
   <si>
     <t>Maximum XOR value of a pair from a range</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Count Subarray with given Xor</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1973,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C484"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2004,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2012,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2023,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -3072,7 +3075,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3094,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -5548,7 +5551,7 @@
         <v>319</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -6431,7 +6434,7 @@
         <v>388</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6442,7 +6445,7 @@
         <v>388</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6459,37 +6462,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="5" t="s">
+    <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A421" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C421" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="5" t="s">
+      <c r="C421" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A422" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B422" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C422" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="5" t="s">
+      <c r="C422" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A423" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C423" s="4">
-        <v>0</v>
+      <c r="C423" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -7027,32 +7030,32 @@
         <v>447</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="5" t="s">
+    <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A474" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B474" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C474" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="5" t="s">
+      <c r="B474" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C474" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A475" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B475" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C475" s="4">
-        <v>0</v>
+      <c r="B475" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C475" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -7060,7 +7063,7 @@
         <v>447</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7071,7 +7074,7 @@
         <v>447</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7082,7 +7085,7 @@
         <v>447</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7093,7 +7096,7 @@
         <v>447</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7104,7 +7107,7 @@
         <v>447</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7115,7 +7118,7 @@
         <v>447</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7126,7 +7129,7 @@
         <v>447</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7137,16 +7140,27 @@
         <v>447</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
-      <c r="C484">
-        <f>SUM(C7:C483)</f>
-        <v>24</v>
+    <row r="484" spans="1:3" ht="21">
+      <c r="A484" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C484" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="C485">
+        <f>SUM(C7:C484)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7582,25 +7596,26 @@
     <hyperlink ref="B466" r:id="rId429"/>
     <hyperlink ref="B465" r:id="rId430"/>
     <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B474" r:id="rId432"/>
-    <hyperlink ref="B475" r:id="rId433"/>
-    <hyperlink ref="B476" r:id="rId434"/>
-    <hyperlink ref="B477" r:id="rId435"/>
-    <hyperlink ref="B478" r:id="rId436"/>
-    <hyperlink ref="B479" r:id="rId437"/>
-    <hyperlink ref="B480" r:id="rId438"/>
-    <hyperlink ref="B483" r:id="rId439"/>
-    <hyperlink ref="B481" r:id="rId440"/>
-    <hyperlink ref="B482" r:id="rId441" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId442"/>
-    <hyperlink ref="B2" r:id="rId443"/>
-    <hyperlink ref="B335" r:id="rId444"/>
-    <hyperlink ref="B5" r:id="rId445"/>
-    <hyperlink ref="B106" r:id="rId446"/>
-    <hyperlink ref="B6" r:id="rId447" display="Rotate an array by k elemnts"/>
-    <hyperlink ref="B104" r:id="rId448"/>
-    <hyperlink ref="B418" r:id="rId449"/>
-    <hyperlink ref="B473" r:id="rId450"/>
+    <hyperlink ref="B476" r:id="rId432"/>
+    <hyperlink ref="B477" r:id="rId433"/>
+    <hyperlink ref="B478" r:id="rId434"/>
+    <hyperlink ref="B479" r:id="rId435"/>
+    <hyperlink ref="B480" r:id="rId436"/>
+    <hyperlink ref="B481" r:id="rId437"/>
+    <hyperlink ref="B484" r:id="rId438"/>
+    <hyperlink ref="B482" r:id="rId439"/>
+    <hyperlink ref="B483" r:id="rId440" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId441"/>
+    <hyperlink ref="B2" r:id="rId442"/>
+    <hyperlink ref="B335" r:id="rId443"/>
+    <hyperlink ref="B5" r:id="rId444"/>
+    <hyperlink ref="B106" r:id="rId445"/>
+    <hyperlink ref="B6" r:id="rId446" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B104" r:id="rId447"/>
+    <hyperlink ref="B418" r:id="rId448"/>
+    <hyperlink ref="B473" r:id="rId449"/>
+    <hyperlink ref="B474" r:id="rId450"/>
+    <hyperlink ref="B475" r:id="rId451"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1236,24 +1236,12 @@
     <t>Longest Increasing Subsequence</t>
   </si>
   <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
     <t>LCS (Longest Common Subsequence) of three strings</t>
   </si>
   <si>
     <t>Maximum Sum Increasing Subsequence</t>
   </si>
   <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
     <t>Egg Dropping Problem</t>
   </si>
   <si>
@@ -1432,6 +1420,21 @@
   </si>
   <si>
     <t>Count Subarray with given Xor</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K (prod knapsack)</t>
+  </si>
+  <si>
+    <t>Maximum XOR With an Element From Array (See my LeetCode Submission)</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one (Similar to bruteforce LIS)</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive (See GFG)</t>
+  </si>
+  <si>
+    <t>Constrained Subsequence Sum (Nice Pb)</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,6 +1578,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1590,7 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1660,6 +1675,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1968,7 +1999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1976,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C485"/>
+  <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1996,7 +2027,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2007,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2015,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2026,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -3075,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3097,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -5551,7 +5582,7 @@
         <v>319</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -6434,7 +6465,7 @@
         <v>388</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6445,7 +6476,7 @@
         <v>388</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6495,103 +6526,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="5" t="s">
+    <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A424" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B424" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="C424" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="5" t="s">
+      <c r="C424" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A425" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C425" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="5" t="s">
+      <c r="C425" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A426" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B426" s="6" t="s">
+      <c r="B426" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="C426" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="21">
-      <c r="A427" s="5" t="s">
+      <c r="C426" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A427" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B427" s="6" t="s">
+      <c r="B427" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C427" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
-      <c r="A428" s="5" t="s">
+      <c r="C427" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A428" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B428" s="6" t="s">
+      <c r="B428" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="C428" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="21">
-      <c r="A429" s="5" t="s">
+      <c r="C428" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A429" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B429" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C429" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="21">
-      <c r="A430" s="5" t="s">
+      <c r="B429" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C429" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A430" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="B430" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C430" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="5" t="s">
+      <c r="B430" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C430" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A431" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="B431" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C431" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="5" t="s">
+      <c r="B431" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="C431" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A432" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B432" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C432" s="4">
-        <v>0</v>
+      <c r="B432" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C432" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
@@ -6599,43 +6630,43 @@
         <v>388</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="5" t="s">
+    <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A434" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B434" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C434" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="5" t="s">
+      <c r="B434" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C434" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A435" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B435" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C435" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="5" t="s">
+      <c r="B435" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C435" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A436" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B436" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C436" s="4">
-        <v>0</v>
+      <c r="B436" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C436" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
@@ -6643,7 +6674,7 @@
         <v>388</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C437" s="4">
         <v>0</v>
@@ -6654,7 +6685,7 @@
         <v>388</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C438" s="4">
         <v>0</v>
@@ -6665,7 +6696,7 @@
         <v>388</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C439" s="4">
         <v>0</v>
@@ -6676,7 +6707,7 @@
         <v>388</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C440" s="4">
         <v>0</v>
@@ -6687,7 +6718,7 @@
         <v>388</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C441" s="4">
         <v>0</v>
@@ -6698,7 +6729,7 @@
         <v>388</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C442" s="4">
         <v>0</v>
@@ -6709,7 +6740,7 @@
         <v>388</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C443" s="4">
         <v>0</v>
@@ -6720,7 +6751,7 @@
         <v>388</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C444" s="4">
         <v>0</v>
@@ -6731,7 +6762,7 @@
         <v>388</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C445" s="4">
         <v>0</v>
@@ -6742,7 +6773,7 @@
         <v>388</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C446" s="4">
         <v>0</v>
@@ -6753,7 +6784,7 @@
         <v>388</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C447" s="4">
         <v>0</v>
@@ -6764,7 +6795,7 @@
         <v>388</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C448" s="4">
         <v>0</v>
@@ -6775,7 +6806,7 @@
         <v>388</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C449" s="4">
         <v>0</v>
@@ -6786,7 +6817,7 @@
         <v>388</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C450" s="4">
         <v>0</v>
@@ -6797,7 +6828,7 @@
         <v>388</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C451" s="4">
         <v>0</v>
@@ -6808,7 +6839,7 @@
         <v>388</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C452" s="4">
         <v>0</v>
@@ -6819,7 +6850,7 @@
         <v>388</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C453" s="4">
         <v>0</v>
@@ -6830,7 +6861,7 @@
         <v>388</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C454" s="4">
         <v>0</v>
@@ -6841,7 +6872,7 @@
         <v>388</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C455" s="4">
         <v>0</v>
@@ -6852,7 +6883,7 @@
         <v>388</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C456" s="4">
         <v>0</v>
@@ -6863,7 +6894,7 @@
         <v>388</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C457" s="4">
         <v>0</v>
@@ -6874,7 +6905,7 @@
         <v>388</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C458" s="4">
         <v>0</v>
@@ -6885,7 +6916,7 @@
         <v>388</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C459" s="4">
         <v>0</v>
@@ -6896,7 +6927,7 @@
         <v>388</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C460" s="4">
         <v>0</v>
@@ -6907,7 +6938,7 @@
         <v>388</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6918,7 +6949,7 @@
         <v>388</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6929,7 +6960,7 @@
         <v>388</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6940,7 +6971,7 @@
         <v>388</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6951,7 +6982,7 @@
         <v>388</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6962,7 +6993,7 @@
         <v>388</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -6973,7 +7004,7 @@
         <v>388</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -6984,7 +7015,7 @@
         <v>388</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C468" s="4">
         <v>0</v>
@@ -6995,7 +7026,7 @@
         <v>388</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C469" s="4">
         <v>0</v>
@@ -7006,7 +7037,7 @@
         <v>388</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C470" s="4">
         <v>0</v>
@@ -7027,10 +7058,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7038,10 +7069,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7049,32 +7080,32 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C476" s="4">
-        <v>0</v>
+    <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A476" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="B476" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C476" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7082,10 +7113,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7093,10 +7124,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7104,10 +7135,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B480" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7115,10 +7146,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7126,10 +7157,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7137,10 +7168,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7148,19 +7179,30 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="C485">
-        <f>SUM(C7:C484)</f>
-        <v>29</v>
+    <row r="485" spans="1:3" ht="21">
+      <c r="A485" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C485" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="C486">
+        <f>SUM(C7:C485)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7554,68 +7596,69 @@
     <hyperlink ref="B426" r:id="rId387"/>
     <hyperlink ref="B427" r:id="rId388"/>
     <hyperlink ref="B428" r:id="rId389"/>
-    <hyperlink ref="B429" r:id="rId390"/>
-    <hyperlink ref="B430" r:id="rId391"/>
-    <hyperlink ref="B431" r:id="rId392"/>
-    <hyperlink ref="B432" r:id="rId393"/>
-    <hyperlink ref="B433" r:id="rId394"/>
-    <hyperlink ref="B434" r:id="rId395"/>
-    <hyperlink ref="B435" r:id="rId396"/>
-    <hyperlink ref="B436" r:id="rId397"/>
-    <hyperlink ref="B437" r:id="rId398"/>
-    <hyperlink ref="B438" r:id="rId399"/>
-    <hyperlink ref="B439" r:id="rId400"/>
-    <hyperlink ref="B440" r:id="rId401"/>
-    <hyperlink ref="B441" r:id="rId402"/>
-    <hyperlink ref="B442" r:id="rId403"/>
-    <hyperlink ref="B443" r:id="rId404"/>
-    <hyperlink ref="B444" r:id="rId405"/>
-    <hyperlink ref="B445" r:id="rId406"/>
-    <hyperlink ref="B446" r:id="rId407"/>
-    <hyperlink ref="B447" r:id="rId408"/>
-    <hyperlink ref="B448" r:id="rId409"/>
-    <hyperlink ref="B449" r:id="rId410"/>
-    <hyperlink ref="B450" r:id="rId411"/>
-    <hyperlink ref="B452" r:id="rId412"/>
-    <hyperlink ref="B451" r:id="rId413"/>
-    <hyperlink ref="B453" r:id="rId414"/>
-    <hyperlink ref="B454" r:id="rId415"/>
-    <hyperlink ref="B455" r:id="rId416"/>
-    <hyperlink ref="B456" r:id="rId417"/>
-    <hyperlink ref="B457" r:id="rId418"/>
-    <hyperlink ref="B458" r:id="rId419"/>
-    <hyperlink ref="B459" r:id="rId420"/>
-    <hyperlink ref="B460" r:id="rId421"/>
-    <hyperlink ref="B461" r:id="rId422"/>
-    <hyperlink ref="B462" r:id="rId423"/>
-    <hyperlink ref="B463" r:id="rId424"/>
-    <hyperlink ref="B470" r:id="rId425"/>
-    <hyperlink ref="B469" r:id="rId426"/>
-    <hyperlink ref="B468" r:id="rId427"/>
-    <hyperlink ref="B467" r:id="rId428"/>
-    <hyperlink ref="B466" r:id="rId429"/>
-    <hyperlink ref="B465" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B476" r:id="rId432"/>
-    <hyperlink ref="B477" r:id="rId433"/>
-    <hyperlink ref="B478" r:id="rId434"/>
-    <hyperlink ref="B479" r:id="rId435"/>
-    <hyperlink ref="B480" r:id="rId436"/>
-    <hyperlink ref="B481" r:id="rId437"/>
-    <hyperlink ref="B484" r:id="rId438"/>
-    <hyperlink ref="B482" r:id="rId439"/>
-    <hyperlink ref="B483" r:id="rId440" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId441"/>
-    <hyperlink ref="B2" r:id="rId442"/>
-    <hyperlink ref="B335" r:id="rId443"/>
-    <hyperlink ref="B5" r:id="rId444"/>
-    <hyperlink ref="B106" r:id="rId445"/>
-    <hyperlink ref="B6" r:id="rId446" display="Rotate an array by k elemnts"/>
-    <hyperlink ref="B104" r:id="rId447"/>
-    <hyperlink ref="B418" r:id="rId448"/>
-    <hyperlink ref="B473" r:id="rId449"/>
-    <hyperlink ref="B474" r:id="rId450"/>
-    <hyperlink ref="B475" r:id="rId451"/>
+    <hyperlink ref="B429" r:id="rId390" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId391" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId392" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B433" r:id="rId393"/>
+    <hyperlink ref="B434" r:id="rId394"/>
+    <hyperlink ref="B435" r:id="rId395"/>
+    <hyperlink ref="B436" r:id="rId396"/>
+    <hyperlink ref="B437" r:id="rId397"/>
+    <hyperlink ref="B438" r:id="rId398"/>
+    <hyperlink ref="B439" r:id="rId399"/>
+    <hyperlink ref="B440" r:id="rId400"/>
+    <hyperlink ref="B441" r:id="rId401"/>
+    <hyperlink ref="B442" r:id="rId402"/>
+    <hyperlink ref="B443" r:id="rId403"/>
+    <hyperlink ref="B444" r:id="rId404"/>
+    <hyperlink ref="B445" r:id="rId405"/>
+    <hyperlink ref="B446" r:id="rId406"/>
+    <hyperlink ref="B447" r:id="rId407"/>
+    <hyperlink ref="B448" r:id="rId408"/>
+    <hyperlink ref="B449" r:id="rId409"/>
+    <hyperlink ref="B450" r:id="rId410"/>
+    <hyperlink ref="B452" r:id="rId411"/>
+    <hyperlink ref="B451" r:id="rId412"/>
+    <hyperlink ref="B453" r:id="rId413"/>
+    <hyperlink ref="B454" r:id="rId414"/>
+    <hyperlink ref="B455" r:id="rId415"/>
+    <hyperlink ref="B456" r:id="rId416"/>
+    <hyperlink ref="B457" r:id="rId417"/>
+    <hyperlink ref="B458" r:id="rId418"/>
+    <hyperlink ref="B459" r:id="rId419"/>
+    <hyperlink ref="B460" r:id="rId420"/>
+    <hyperlink ref="B461" r:id="rId421"/>
+    <hyperlink ref="B462" r:id="rId422"/>
+    <hyperlink ref="B463" r:id="rId423"/>
+    <hyperlink ref="B470" r:id="rId424"/>
+    <hyperlink ref="B469" r:id="rId425"/>
+    <hyperlink ref="B468" r:id="rId426"/>
+    <hyperlink ref="B467" r:id="rId427"/>
+    <hyperlink ref="B466" r:id="rId428"/>
+    <hyperlink ref="B465" r:id="rId429"/>
+    <hyperlink ref="B464" r:id="rId430"/>
+    <hyperlink ref="B477" r:id="rId431"/>
+    <hyperlink ref="B478" r:id="rId432"/>
+    <hyperlink ref="B479" r:id="rId433"/>
+    <hyperlink ref="B480" r:id="rId434"/>
+    <hyperlink ref="B481" r:id="rId435"/>
+    <hyperlink ref="B482" r:id="rId436"/>
+    <hyperlink ref="B485" r:id="rId437"/>
+    <hyperlink ref="B483" r:id="rId438"/>
+    <hyperlink ref="B484" r:id="rId439" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId440"/>
+    <hyperlink ref="B2" r:id="rId441"/>
+    <hyperlink ref="B335" r:id="rId442"/>
+    <hyperlink ref="B5" r:id="rId443"/>
+    <hyperlink ref="B106" r:id="rId444"/>
+    <hyperlink ref="B6" r:id="rId445" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B104" r:id="rId446"/>
+    <hyperlink ref="B418" r:id="rId447"/>
+    <hyperlink ref="B473" r:id="rId448"/>
+    <hyperlink ref="B474" r:id="rId449"/>
+    <hyperlink ref="B475" r:id="rId450"/>
+    <hyperlink ref="B476" r:id="rId451" display="Maximum XOR With an Element From Array"/>
+    <hyperlink ref="B432" r:id="rId452" display="Constrained Subsequence Sum"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -531,9 +531,6 @@
     <t>level order traversal</t>
   </si>
   <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
     <t>Height of a tree</t>
   </si>
   <si>
@@ -1257,24 +1254,15 @@
     <t>Min Cost PathProblem</t>
   </si>
   <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
     <t>Minimum number of jumps to reach end</t>
   </si>
   <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
     <t>Minimum removals from array to make max –min &lt;= K</t>
   </si>
   <si>
     <t>Longest Common Substring</t>
   </si>
   <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
     <t>Count Balanced Binary Trees of Height h</t>
   </si>
   <si>
@@ -1290,27 +1278,15 @@
     <t>Word Break Problem</t>
   </si>
   <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
     <t>Longest Palindromic Subsequence</t>
   </si>
   <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
     <t>Longest alternating subsequence</t>
   </si>
   <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
     <t>Coin game winner where every player has three choices</t>
   </si>
   <si>
@@ -1323,9 +1299,6 @@
     <t>Optimal Strategy for a Game</t>
   </si>
   <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
     <t>Palindrome PartitioningProblem</t>
   </si>
   <si>
@@ -1435,6 +1408,33 @@
   </si>
   <si>
     <t>Constrained Subsequence Sum (Nice Pb)</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string (see gfg)</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag (Knapsack)</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game (See my Sol in gfg)</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem (Bipartite / gfg sol)</t>
+  </si>
+  <si>
+    <t>House Robber III (See leetcode Sol)</t>
+  </si>
+  <si>
+    <t>Partition problem (Sum/2 knapsack)</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String (V.I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling </t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree (See gfg)</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +1590,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1605,7 +1617,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1691,6 +1703,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2009,15 +2037,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
@@ -2027,7 +2055,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2038,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2046,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2057,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -3106,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3128,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3893,15 +3921,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A178" s="28" t="s">
+    <row r="178" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A178" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="30">
-        <v>0</v>
+      <c r="C178" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="18" customFormat="1" ht="21">
@@ -3915,15 +3943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A180" s="15" t="s">
+    <row r="180" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A180" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C180" s="17">
-        <v>0</v>
+      <c r="B180" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C180" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3931,7 +3959,7 @@
         <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="4">
         <v>0</v>
@@ -3942,7 +3970,7 @@
         <v>166</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" s="4">
         <v>0</v>
@@ -3953,7 +3981,7 @@
         <v>166</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="4">
         <v>0</v>
@@ -3964,7 +3992,7 @@
         <v>166</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" s="4">
         <v>0</v>
@@ -3975,7 +4003,7 @@
         <v>166</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" s="4">
         <v>0</v>
@@ -3986,7 +4014,7 @@
         <v>166</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3997,7 +4025,7 @@
         <v>166</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -4008,7 +4036,7 @@
         <v>166</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="17">
         <v>1</v>
@@ -4019,7 +4047,7 @@
         <v>166</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4030,7 +4058,7 @@
         <v>166</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -4041,7 +4069,7 @@
         <v>166</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4052,7 +4080,7 @@
         <v>166</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4063,7 +4091,7 @@
         <v>166</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4074,7 +4102,7 @@
         <v>166</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4085,7 +4113,7 @@
         <v>166</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4096,7 +4124,7 @@
         <v>166</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4107,7 +4135,7 @@
         <v>166</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4118,7 +4146,7 @@
         <v>166</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4129,7 +4157,7 @@
         <v>166</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4140,7 +4168,7 @@
         <v>166</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4151,7 +4179,7 @@
         <v>166</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4162,7 +4190,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4173,7 +4201,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4184,7 +4212,7 @@
         <v>166</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4195,7 +4223,7 @@
         <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4206,7 +4234,7 @@
         <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4217,7 +4245,7 @@
         <v>166</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4228,7 +4256,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4239,7 +4267,7 @@
         <v>166</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4250,7 +4278,7 @@
         <v>166</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -4261,7 +4289,7 @@
         <v>166</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -4283,10 +4311,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4294,10 +4322,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4305,10 +4333,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4316,10 +4344,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4327,10 +4355,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4338,10 +4366,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4349,10 +4377,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4360,10 +4388,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4371,10 +4399,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4382,10 +4410,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4393,10 +4421,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4404,10 +4432,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4415,10 +4443,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4426,10 +4454,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4437,10 +4465,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4448,10 +4476,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4459,10 +4487,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4470,10 +4498,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4481,10 +4509,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4492,10 +4520,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4503,10 +4531,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4514,10 +4542,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4537,10 +4565,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4548,10 +4576,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4559,10 +4587,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4570,10 +4598,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4581,10 +4609,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4592,10 +4620,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4603,10 +4631,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4614,10 +4642,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4625,10 +4653,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4636,10 +4664,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4647,10 +4675,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4658,10 +4686,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4669,10 +4697,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4680,10 +4708,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4691,10 +4719,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4702,10 +4730,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4713,10 +4741,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4724,10 +4752,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4735,10 +4763,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4746,10 +4774,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4757,10 +4785,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4768,10 +4796,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4779,10 +4807,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4790,10 +4818,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4801,10 +4829,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4812,10 +4840,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4823,10 +4851,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4834,10 +4862,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4845,10 +4873,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4856,10 +4884,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4867,10 +4895,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4878,10 +4906,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4889,10 +4917,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4900,7 +4928,7 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>82</v>
@@ -4911,10 +4939,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C272" s="4">
         <v>0</v>
@@ -4934,10 +4962,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -4945,10 +4973,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -4956,10 +4984,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -4967,10 +4995,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -4978,10 +5006,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -4989,10 +5017,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5000,10 +5028,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5011,10 +5039,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5022,10 +5050,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5033,10 +5061,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5044,10 +5072,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5055,10 +5083,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5066,10 +5094,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5077,10 +5105,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5088,10 +5116,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5099,10 +5127,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5110,10 +5138,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5121,10 +5149,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5132,10 +5160,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C293" s="4">
         <v>0</v>
@@ -5155,10 +5183,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5166,10 +5194,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5177,10 +5205,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5188,10 +5216,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5199,10 +5227,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5210,10 +5238,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5221,10 +5249,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5232,10 +5260,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5243,10 +5271,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5254,10 +5282,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5265,10 +5293,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5276,10 +5304,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5287,10 +5315,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5298,10 +5326,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5309,10 +5337,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5320,10 +5348,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5331,10 +5359,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5342,10 +5370,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5353,10 +5381,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5364,10 +5392,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5375,10 +5403,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5386,10 +5414,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5397,10 +5425,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5408,10 +5436,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5419,10 +5447,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5430,10 +5458,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5441,10 +5469,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5452,10 +5480,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5463,10 +5491,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5474,10 +5502,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5485,10 +5513,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5496,10 +5524,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5507,10 +5535,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5518,10 +5546,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5529,10 +5557,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5540,10 +5568,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5551,10 +5579,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5562,10 +5590,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C333" s="4">
         <v>0</v>
@@ -5579,10 +5607,10 @@
     </row>
     <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A335" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -5590,10 +5618,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5601,10 +5629,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5612,10 +5640,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5623,10 +5651,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5634,10 +5662,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5645,10 +5673,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5656,10 +5684,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5667,10 +5695,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5678,10 +5706,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5689,10 +5717,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5700,10 +5728,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5711,10 +5739,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5722,10 +5750,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5733,10 +5761,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5744,10 +5772,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5755,10 +5783,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5766,10 +5794,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5777,10 +5805,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C353" s="4">
         <v>0</v>
@@ -5800,10 +5828,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5811,10 +5839,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5822,10 +5850,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5833,10 +5861,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5844,10 +5872,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5855,10 +5883,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5866,10 +5894,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5877,10 +5905,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5888,10 +5916,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5899,10 +5927,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5910,10 +5938,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5921,10 +5949,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5932,10 +5960,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -5943,10 +5971,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -5954,10 +5982,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -5965,10 +5993,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -5976,10 +6004,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -5987,10 +6015,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -5998,10 +6026,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6009,10 +6037,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6020,10 +6048,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6031,10 +6059,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6042,10 +6070,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6053,10 +6081,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6064,10 +6092,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6075,10 +6103,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6086,10 +6114,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6097,10 +6125,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6108,10 +6136,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6119,10 +6147,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6130,10 +6158,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6141,10 +6169,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6152,10 +6180,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6163,10 +6191,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6174,10 +6202,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6185,10 +6213,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6196,10 +6224,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6207,10 +6235,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6218,10 +6246,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6229,10 +6257,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6240,10 +6268,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6251,10 +6279,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6262,10 +6290,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6273,10 +6301,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C399" s="4">
         <v>0</v>
@@ -6296,10 +6324,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6307,10 +6335,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6318,10 +6346,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6329,7 +6357,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>84</v>
@@ -6340,10 +6368,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6351,10 +6379,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C407" s="4">
         <v>0</v>
@@ -6374,10 +6402,10 @@
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B410" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B410" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6385,10 +6413,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6396,10 +6424,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6407,10 +6435,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6418,10 +6446,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6429,10 +6457,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6440,10 +6468,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6451,10 +6479,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6462,10 +6490,10 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6473,10 +6501,10 @@
     </row>
     <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A419" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6484,10 +6512,10 @@
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
@@ -6495,10 +6523,10 @@
     </row>
     <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A421" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C421" s="30">
         <v>1</v>
@@ -6506,10 +6534,10 @@
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C422" s="13">
         <v>1</v>
@@ -6517,10 +6545,10 @@
     </row>
     <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A423" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C423" s="13">
         <v>1</v>
@@ -6528,10 +6556,10 @@
     </row>
     <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A424" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B424" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C424" s="30">
         <v>1</v>
@@ -6539,10 +6567,10 @@
     </row>
     <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A425" s="33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C425" s="35">
         <v>0</v>
@@ -6550,10 +6578,10 @@
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6561,10 +6589,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6572,10 +6600,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6583,10 +6611,10 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6594,10 +6622,10 @@
     </row>
     <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A430" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6605,10 +6633,10 @@
     </row>
     <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A431" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6616,10 +6644,10 @@
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6627,10 +6655,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6638,10 +6666,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6649,10 +6677,10 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
@@ -6660,285 +6688,285 @@
     </row>
     <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A436" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C436" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B437" s="6" t="s">
+    <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A437" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B437" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C437" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A438" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B438" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C438" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A439" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B439" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C437" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B438" s="6" t="s">
+      <c r="C439" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A440" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B440" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C440" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A441" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B441" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C438" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B439" s="6" t="s">
+      <c r="C441" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A442" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B442" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="C439" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B440" s="6" t="s">
+      <c r="C442" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A443" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B443" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C443" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A444" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B444" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C440" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B441" s="6" t="s">
+      <c r="C444" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A445" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B445" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="C441" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B442" s="6" t="s">
+      <c r="C445" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A446" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B446" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="C442" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B443" s="6" t="s">
+      <c r="C446" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A447" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B447" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="C443" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B444" s="6" t="s">
+      <c r="C447" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A448" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B448" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C444" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B445" s="6" t="s">
+      <c r="C448" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A449" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B449" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C449" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A450" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B450" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="C450" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A451" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B451" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C445" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B446" s="6" t="s">
+      <c r="C451" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A452" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B452" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C452" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A453" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B453" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C446" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B447" s="6" t="s">
+      <c r="C453" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A454" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B454" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C447" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B448" s="6" t="s">
+      <c r="C454" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A455" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C455" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A456" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B456" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="C448" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B449" s="6" t="s">
+      <c r="C456" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A457" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B457" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C449" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B450" s="6" t="s">
+      <c r="C457" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A458" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B458" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="C450" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B451" s="6" t="s">
+      <c r="C458" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A459" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B459" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C451" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B452" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C452" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C453" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B454" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C454" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C455" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C456" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C457" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C458" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C459" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C460" s="4">
-        <v>0</v>
+      <c r="C459" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A460" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="B460" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C461" s="4">
         <v>0</v>
@@ -6946,10 +6974,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C462" s="4">
         <v>0</v>
@@ -6957,10 +6985,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C463" s="4">
         <v>0</v>
@@ -6968,10 +6996,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C464" s="4">
         <v>0</v>
@@ -6979,10 +7007,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -6990,10 +7018,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -7001,10 +7029,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -7012,10 +7040,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C468" s="4">
         <v>0</v>
@@ -7023,10 +7051,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C469" s="4">
         <v>0</v>
@@ -7034,10 +7062,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C470" s="4">
         <v>0</v>
@@ -7058,10 +7086,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7069,10 +7097,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7080,10 +7108,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7091,10 +7119,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7102,10 +7130,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7113,10 +7141,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7124,10 +7152,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7135,10 +7163,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7146,10 +7174,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7157,10 +7185,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7168,10 +7196,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7179,10 +7207,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7190,10 +7218,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B485" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7202,7 +7230,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -7365,300 +7393,300 @@
     <hyperlink ref="B177" r:id="rId156"/>
     <hyperlink ref="B178" r:id="rId157"/>
     <hyperlink ref="B179" r:id="rId158"/>
-    <hyperlink ref="B180" r:id="rId159"/>
-    <hyperlink ref="B181" r:id="rId160"/>
-    <hyperlink ref="B182" r:id="rId161"/>
-    <hyperlink ref="B183" r:id="rId162"/>
-    <hyperlink ref="B184" r:id="rId163"/>
-    <hyperlink ref="B185" r:id="rId164"/>
-    <hyperlink ref="B186" r:id="rId165"/>
-    <hyperlink ref="B187" r:id="rId166"/>
-    <hyperlink ref="B188" r:id="rId167"/>
-    <hyperlink ref="B189" r:id="rId168"/>
-    <hyperlink ref="B190" r:id="rId169"/>
-    <hyperlink ref="B191" r:id="rId170"/>
-    <hyperlink ref="B192" r:id="rId171"/>
-    <hyperlink ref="B193" r:id="rId172"/>
-    <hyperlink ref="B194" r:id="rId173"/>
-    <hyperlink ref="B195" r:id="rId174"/>
-    <hyperlink ref="B196" r:id="rId175"/>
-    <hyperlink ref="B197" r:id="rId176" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId177"/>
-    <hyperlink ref="B199" r:id="rId178"/>
-    <hyperlink ref="B200" r:id="rId179"/>
-    <hyperlink ref="B201" r:id="rId180"/>
-    <hyperlink ref="B202" r:id="rId181"/>
-    <hyperlink ref="B203" r:id="rId182" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId183"/>
-    <hyperlink ref="B205" r:id="rId184"/>
-    <hyperlink ref="B206" r:id="rId185"/>
-    <hyperlink ref="B207" r:id="rId186"/>
-    <hyperlink ref="B208" r:id="rId187"/>
-    <hyperlink ref="B209" r:id="rId188"/>
-    <hyperlink ref="B210" r:id="rId189"/>
-    <hyperlink ref="B211" r:id="rId190"/>
-    <hyperlink ref="B214" r:id="rId191"/>
-    <hyperlink ref="B215" r:id="rId192"/>
-    <hyperlink ref="B216" r:id="rId193"/>
-    <hyperlink ref="B217" r:id="rId194"/>
-    <hyperlink ref="B218" r:id="rId195"/>
-    <hyperlink ref="B219" r:id="rId196"/>
-    <hyperlink ref="B220" r:id="rId197"/>
-    <hyperlink ref="B221" r:id="rId198"/>
-    <hyperlink ref="B222" r:id="rId199"/>
-    <hyperlink ref="B223" r:id="rId200"/>
-    <hyperlink ref="B224" r:id="rId201"/>
-    <hyperlink ref="B225" r:id="rId202"/>
-    <hyperlink ref="B226" r:id="rId203"/>
-    <hyperlink ref="B227" r:id="rId204"/>
-    <hyperlink ref="B228" r:id="rId205"/>
-    <hyperlink ref="B229" r:id="rId206"/>
-    <hyperlink ref="B230" r:id="rId207"/>
-    <hyperlink ref="B231" r:id="rId208"/>
-    <hyperlink ref="B232" r:id="rId209"/>
-    <hyperlink ref="B233" r:id="rId210"/>
-    <hyperlink ref="B234" r:id="rId211"/>
-    <hyperlink ref="B235" r:id="rId212"/>
-    <hyperlink ref="B238" r:id="rId213"/>
-    <hyperlink ref="B239" r:id="rId214"/>
-    <hyperlink ref="B240" r:id="rId215"/>
-    <hyperlink ref="B241" r:id="rId216"/>
-    <hyperlink ref="B242" r:id="rId217"/>
-    <hyperlink ref="B243" r:id="rId218"/>
-    <hyperlink ref="B244" r:id="rId219"/>
-    <hyperlink ref="B245" r:id="rId220"/>
-    <hyperlink ref="B246" r:id="rId221"/>
-    <hyperlink ref="B247" r:id="rId222"/>
-    <hyperlink ref="B248" r:id="rId223"/>
-    <hyperlink ref="B249" r:id="rId224"/>
-    <hyperlink ref="B250" r:id="rId225"/>
-    <hyperlink ref="B251" r:id="rId226"/>
-    <hyperlink ref="B252" r:id="rId227"/>
-    <hyperlink ref="B253" r:id="rId228"/>
-    <hyperlink ref="B254" r:id="rId229"/>
-    <hyperlink ref="B255" r:id="rId230"/>
-    <hyperlink ref="B256" r:id="rId231"/>
-    <hyperlink ref="B257" r:id="rId232" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId233"/>
-    <hyperlink ref="B259" r:id="rId234"/>
-    <hyperlink ref="B260" r:id="rId235"/>
-    <hyperlink ref="B261" r:id="rId236"/>
-    <hyperlink ref="B262" r:id="rId237"/>
-    <hyperlink ref="B263" r:id="rId238"/>
-    <hyperlink ref="B264" r:id="rId239"/>
-    <hyperlink ref="B265" r:id="rId240"/>
-    <hyperlink ref="B266" r:id="rId241"/>
-    <hyperlink ref="B267" r:id="rId242"/>
-    <hyperlink ref="B268" r:id="rId243"/>
-    <hyperlink ref="B269" r:id="rId244"/>
-    <hyperlink ref="B270" r:id="rId245"/>
-    <hyperlink ref="B271" r:id="rId246"/>
-    <hyperlink ref="B272" r:id="rId247"/>
-    <hyperlink ref="B275" r:id="rId248"/>
-    <hyperlink ref="B276" r:id="rId249"/>
-    <hyperlink ref="B277" r:id="rId250"/>
-    <hyperlink ref="B278" r:id="rId251"/>
-    <hyperlink ref="B279" r:id="rId252"/>
-    <hyperlink ref="B280" r:id="rId253"/>
-    <hyperlink ref="B281" r:id="rId254"/>
-    <hyperlink ref="B282" r:id="rId255"/>
-    <hyperlink ref="B283" r:id="rId256"/>
-    <hyperlink ref="B284" r:id="rId257"/>
-    <hyperlink ref="B285" r:id="rId258"/>
-    <hyperlink ref="B286" r:id="rId259"/>
-    <hyperlink ref="B287" r:id="rId260"/>
-    <hyperlink ref="B288" r:id="rId261"/>
-    <hyperlink ref="B289" r:id="rId262"/>
-    <hyperlink ref="B290" r:id="rId263"/>
-    <hyperlink ref="B291" r:id="rId264"/>
-    <hyperlink ref="B292" r:id="rId265"/>
-    <hyperlink ref="B293" r:id="rId266"/>
-    <hyperlink ref="B296" r:id="rId267"/>
-    <hyperlink ref="B297" r:id="rId268"/>
-    <hyperlink ref="B298" r:id="rId269"/>
-    <hyperlink ref="B299" r:id="rId270"/>
-    <hyperlink ref="B300" r:id="rId271"/>
-    <hyperlink ref="B301" r:id="rId272"/>
-    <hyperlink ref="B302" r:id="rId273"/>
-    <hyperlink ref="B303" r:id="rId274"/>
-    <hyperlink ref="B304" r:id="rId275"/>
-    <hyperlink ref="B305" r:id="rId276"/>
-    <hyperlink ref="B306" r:id="rId277" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId278"/>
-    <hyperlink ref="B308" r:id="rId279"/>
-    <hyperlink ref="B309" r:id="rId280"/>
-    <hyperlink ref="B310" r:id="rId281"/>
-    <hyperlink ref="B311" r:id="rId282"/>
-    <hyperlink ref="B312" r:id="rId283"/>
-    <hyperlink ref="B313" r:id="rId284"/>
-    <hyperlink ref="B314" r:id="rId285"/>
-    <hyperlink ref="B315" r:id="rId286"/>
-    <hyperlink ref="B316" r:id="rId287"/>
-    <hyperlink ref="B317" r:id="rId288"/>
-    <hyperlink ref="B318" r:id="rId289"/>
-    <hyperlink ref="B319" r:id="rId290"/>
-    <hyperlink ref="B320" r:id="rId291"/>
-    <hyperlink ref="B321" r:id="rId292"/>
-    <hyperlink ref="B322" r:id="rId293"/>
-    <hyperlink ref="B323" r:id="rId294"/>
-    <hyperlink ref="B324" r:id="rId295"/>
-    <hyperlink ref="B325" r:id="rId296"/>
-    <hyperlink ref="B326" r:id="rId297"/>
-    <hyperlink ref="B327" r:id="rId298"/>
-    <hyperlink ref="B328" r:id="rId299"/>
-    <hyperlink ref="B329" r:id="rId300"/>
-    <hyperlink ref="B330" r:id="rId301"/>
-    <hyperlink ref="B331" r:id="rId302"/>
-    <hyperlink ref="B332" r:id="rId303"/>
-    <hyperlink ref="B333" r:id="rId304"/>
-    <hyperlink ref="B336" r:id="rId305"/>
-    <hyperlink ref="B337" r:id="rId306"/>
-    <hyperlink ref="B338" r:id="rId307"/>
-    <hyperlink ref="B339" r:id="rId308"/>
-    <hyperlink ref="B340" r:id="rId309"/>
-    <hyperlink ref="B341" r:id="rId310"/>
-    <hyperlink ref="B342" r:id="rId311"/>
-    <hyperlink ref="B343" r:id="rId312"/>
-    <hyperlink ref="B344" r:id="rId313"/>
-    <hyperlink ref="B345" r:id="rId314"/>
-    <hyperlink ref="B346" r:id="rId315"/>
-    <hyperlink ref="B347" r:id="rId316"/>
-    <hyperlink ref="B348" r:id="rId317"/>
-    <hyperlink ref="B349" r:id="rId318"/>
-    <hyperlink ref="B350" r:id="rId319"/>
-    <hyperlink ref="B351" r:id="rId320"/>
-    <hyperlink ref="B352" r:id="rId321"/>
-    <hyperlink ref="B353" r:id="rId322"/>
-    <hyperlink ref="B357" r:id="rId323"/>
-    <hyperlink ref="B358" r:id="rId324"/>
-    <hyperlink ref="B359" r:id="rId325"/>
-    <hyperlink ref="B360" r:id="rId326"/>
-    <hyperlink ref="B361" r:id="rId327"/>
-    <hyperlink ref="B362" r:id="rId328"/>
-    <hyperlink ref="B363" r:id="rId329"/>
-    <hyperlink ref="B364" r:id="rId330"/>
-    <hyperlink ref="B365" r:id="rId331"/>
-    <hyperlink ref="B366" r:id="rId332"/>
-    <hyperlink ref="B367" r:id="rId333"/>
-    <hyperlink ref="B368" r:id="rId334"/>
-    <hyperlink ref="B369" r:id="rId335"/>
-    <hyperlink ref="B370" r:id="rId336"/>
-    <hyperlink ref="B371" r:id="rId337"/>
-    <hyperlink ref="B372" r:id="rId338"/>
-    <hyperlink ref="B373" r:id="rId339"/>
-    <hyperlink ref="B374" r:id="rId340"/>
-    <hyperlink ref="B375" r:id="rId341"/>
-    <hyperlink ref="B376" r:id="rId342"/>
-    <hyperlink ref="B377" r:id="rId343"/>
-    <hyperlink ref="B378" r:id="rId344"/>
-    <hyperlink ref="B379" r:id="rId345" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId346"/>
-    <hyperlink ref="B381" r:id="rId347"/>
-    <hyperlink ref="B382" r:id="rId348"/>
-    <hyperlink ref="B383" r:id="rId349"/>
-    <hyperlink ref="B384" r:id="rId350"/>
-    <hyperlink ref="B385" r:id="rId351"/>
-    <hyperlink ref="B386" r:id="rId352"/>
-    <hyperlink ref="B387" r:id="rId353"/>
-    <hyperlink ref="B388" r:id="rId354"/>
-    <hyperlink ref="B389" r:id="rId355"/>
-    <hyperlink ref="B390" r:id="rId356"/>
-    <hyperlink ref="B391" r:id="rId357"/>
-    <hyperlink ref="B392" r:id="rId358"/>
-    <hyperlink ref="B393" r:id="rId359"/>
-    <hyperlink ref="B394" r:id="rId360"/>
-    <hyperlink ref="B396" r:id="rId361"/>
-    <hyperlink ref="B395" r:id="rId362"/>
-    <hyperlink ref="B397" r:id="rId363"/>
-    <hyperlink ref="B398" r:id="rId364"/>
-    <hyperlink ref="B399" r:id="rId365"/>
-    <hyperlink ref="B402" r:id="rId366"/>
-    <hyperlink ref="B403" r:id="rId367"/>
-    <hyperlink ref="B404" r:id="rId368"/>
-    <hyperlink ref="B405" r:id="rId369"/>
-    <hyperlink ref="B406" r:id="rId370"/>
-    <hyperlink ref="B407" r:id="rId371"/>
-    <hyperlink ref="B410" r:id="rId372"/>
-    <hyperlink ref="B411" r:id="rId373"/>
-    <hyperlink ref="B412" r:id="rId374"/>
-    <hyperlink ref="B413" r:id="rId375"/>
-    <hyperlink ref="B414" r:id="rId376"/>
-    <hyperlink ref="B415" r:id="rId377"/>
-    <hyperlink ref="B416" r:id="rId378"/>
-    <hyperlink ref="B417" r:id="rId379"/>
-    <hyperlink ref="B419" r:id="rId380" display="Friends Pairing Problem"/>
-    <hyperlink ref="B420" r:id="rId381"/>
-    <hyperlink ref="B421" r:id="rId382"/>
-    <hyperlink ref="B422" r:id="rId383"/>
-    <hyperlink ref="B423" r:id="rId384"/>
-    <hyperlink ref="B424" r:id="rId385"/>
-    <hyperlink ref="B425" r:id="rId386"/>
-    <hyperlink ref="B426" r:id="rId387"/>
-    <hyperlink ref="B427" r:id="rId388"/>
-    <hyperlink ref="B428" r:id="rId389"/>
-    <hyperlink ref="B429" r:id="rId390" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId391" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId392" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B433" r:id="rId393"/>
-    <hyperlink ref="B434" r:id="rId394"/>
-    <hyperlink ref="B435" r:id="rId395"/>
-    <hyperlink ref="B436" r:id="rId396"/>
-    <hyperlink ref="B437" r:id="rId397"/>
-    <hyperlink ref="B438" r:id="rId398"/>
-    <hyperlink ref="B439" r:id="rId399"/>
-    <hyperlink ref="B440" r:id="rId400"/>
-    <hyperlink ref="B441" r:id="rId401"/>
-    <hyperlink ref="B442" r:id="rId402"/>
-    <hyperlink ref="B443" r:id="rId403"/>
-    <hyperlink ref="B444" r:id="rId404"/>
-    <hyperlink ref="B445" r:id="rId405"/>
-    <hyperlink ref="B446" r:id="rId406"/>
-    <hyperlink ref="B447" r:id="rId407"/>
-    <hyperlink ref="B448" r:id="rId408"/>
-    <hyperlink ref="B449" r:id="rId409"/>
-    <hyperlink ref="B450" r:id="rId410"/>
-    <hyperlink ref="B452" r:id="rId411"/>
-    <hyperlink ref="B451" r:id="rId412"/>
-    <hyperlink ref="B453" r:id="rId413"/>
-    <hyperlink ref="B454" r:id="rId414"/>
-    <hyperlink ref="B455" r:id="rId415"/>
-    <hyperlink ref="B456" r:id="rId416"/>
-    <hyperlink ref="B457" r:id="rId417"/>
-    <hyperlink ref="B458" r:id="rId418"/>
-    <hyperlink ref="B459" r:id="rId419"/>
-    <hyperlink ref="B460" r:id="rId420"/>
-    <hyperlink ref="B461" r:id="rId421"/>
-    <hyperlink ref="B462" r:id="rId422"/>
-    <hyperlink ref="B463" r:id="rId423"/>
-    <hyperlink ref="B470" r:id="rId424"/>
-    <hyperlink ref="B469" r:id="rId425"/>
-    <hyperlink ref="B468" r:id="rId426"/>
-    <hyperlink ref="B467" r:id="rId427"/>
-    <hyperlink ref="B466" r:id="rId428"/>
-    <hyperlink ref="B465" r:id="rId429"/>
-    <hyperlink ref="B464" r:id="rId430"/>
-    <hyperlink ref="B477" r:id="rId431"/>
-    <hyperlink ref="B478" r:id="rId432"/>
-    <hyperlink ref="B479" r:id="rId433"/>
-    <hyperlink ref="B480" r:id="rId434"/>
-    <hyperlink ref="B481" r:id="rId435"/>
-    <hyperlink ref="B482" r:id="rId436"/>
-    <hyperlink ref="B485" r:id="rId437"/>
-    <hyperlink ref="B483" r:id="rId438"/>
-    <hyperlink ref="B484" r:id="rId439" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId440"/>
-    <hyperlink ref="B2" r:id="rId441"/>
-    <hyperlink ref="B335" r:id="rId442"/>
-    <hyperlink ref="B5" r:id="rId443"/>
-    <hyperlink ref="B106" r:id="rId444"/>
-    <hyperlink ref="B6" r:id="rId445" display="Rotate an array by k elemnts"/>
-    <hyperlink ref="B104" r:id="rId446"/>
-    <hyperlink ref="B418" r:id="rId447"/>
-    <hyperlink ref="B473" r:id="rId448"/>
-    <hyperlink ref="B474" r:id="rId449"/>
-    <hyperlink ref="B475" r:id="rId450"/>
-    <hyperlink ref="B476" r:id="rId451" display="Maximum XOR With an Element From Array"/>
-    <hyperlink ref="B432" r:id="rId452" display="Constrained Subsequence Sum"/>
+    <hyperlink ref="B181" r:id="rId159"/>
+    <hyperlink ref="B182" r:id="rId160"/>
+    <hyperlink ref="B183" r:id="rId161"/>
+    <hyperlink ref="B184" r:id="rId162"/>
+    <hyperlink ref="B185" r:id="rId163"/>
+    <hyperlink ref="B186" r:id="rId164"/>
+    <hyperlink ref="B187" r:id="rId165"/>
+    <hyperlink ref="B188" r:id="rId166"/>
+    <hyperlink ref="B189" r:id="rId167"/>
+    <hyperlink ref="B190" r:id="rId168"/>
+    <hyperlink ref="B191" r:id="rId169"/>
+    <hyperlink ref="B192" r:id="rId170"/>
+    <hyperlink ref="B193" r:id="rId171"/>
+    <hyperlink ref="B194" r:id="rId172"/>
+    <hyperlink ref="B195" r:id="rId173"/>
+    <hyperlink ref="B196" r:id="rId174"/>
+    <hyperlink ref="B197" r:id="rId175" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId176"/>
+    <hyperlink ref="B199" r:id="rId177"/>
+    <hyperlink ref="B200" r:id="rId178"/>
+    <hyperlink ref="B201" r:id="rId179"/>
+    <hyperlink ref="B202" r:id="rId180"/>
+    <hyperlink ref="B203" r:id="rId181" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId182"/>
+    <hyperlink ref="B205" r:id="rId183"/>
+    <hyperlink ref="B206" r:id="rId184"/>
+    <hyperlink ref="B207" r:id="rId185"/>
+    <hyperlink ref="B208" r:id="rId186"/>
+    <hyperlink ref="B209" r:id="rId187"/>
+    <hyperlink ref="B210" r:id="rId188"/>
+    <hyperlink ref="B211" r:id="rId189"/>
+    <hyperlink ref="B214" r:id="rId190"/>
+    <hyperlink ref="B215" r:id="rId191"/>
+    <hyperlink ref="B216" r:id="rId192"/>
+    <hyperlink ref="B217" r:id="rId193"/>
+    <hyperlink ref="B218" r:id="rId194"/>
+    <hyperlink ref="B219" r:id="rId195"/>
+    <hyperlink ref="B220" r:id="rId196"/>
+    <hyperlink ref="B221" r:id="rId197"/>
+    <hyperlink ref="B222" r:id="rId198"/>
+    <hyperlink ref="B223" r:id="rId199"/>
+    <hyperlink ref="B224" r:id="rId200"/>
+    <hyperlink ref="B225" r:id="rId201"/>
+    <hyperlink ref="B226" r:id="rId202"/>
+    <hyperlink ref="B227" r:id="rId203"/>
+    <hyperlink ref="B228" r:id="rId204"/>
+    <hyperlink ref="B229" r:id="rId205"/>
+    <hyperlink ref="B230" r:id="rId206"/>
+    <hyperlink ref="B231" r:id="rId207"/>
+    <hyperlink ref="B232" r:id="rId208"/>
+    <hyperlink ref="B233" r:id="rId209"/>
+    <hyperlink ref="B234" r:id="rId210"/>
+    <hyperlink ref="B235" r:id="rId211"/>
+    <hyperlink ref="B238" r:id="rId212"/>
+    <hyperlink ref="B239" r:id="rId213"/>
+    <hyperlink ref="B240" r:id="rId214"/>
+    <hyperlink ref="B241" r:id="rId215"/>
+    <hyperlink ref="B242" r:id="rId216"/>
+    <hyperlink ref="B243" r:id="rId217"/>
+    <hyperlink ref="B244" r:id="rId218"/>
+    <hyperlink ref="B245" r:id="rId219"/>
+    <hyperlink ref="B246" r:id="rId220"/>
+    <hyperlink ref="B247" r:id="rId221"/>
+    <hyperlink ref="B248" r:id="rId222"/>
+    <hyperlink ref="B249" r:id="rId223"/>
+    <hyperlink ref="B250" r:id="rId224"/>
+    <hyperlink ref="B251" r:id="rId225"/>
+    <hyperlink ref="B252" r:id="rId226"/>
+    <hyperlink ref="B253" r:id="rId227"/>
+    <hyperlink ref="B254" r:id="rId228"/>
+    <hyperlink ref="B255" r:id="rId229"/>
+    <hyperlink ref="B256" r:id="rId230"/>
+    <hyperlink ref="B257" r:id="rId231" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId232"/>
+    <hyperlink ref="B259" r:id="rId233"/>
+    <hyperlink ref="B260" r:id="rId234"/>
+    <hyperlink ref="B261" r:id="rId235"/>
+    <hyperlink ref="B262" r:id="rId236"/>
+    <hyperlink ref="B263" r:id="rId237"/>
+    <hyperlink ref="B264" r:id="rId238"/>
+    <hyperlink ref="B265" r:id="rId239"/>
+    <hyperlink ref="B266" r:id="rId240"/>
+    <hyperlink ref="B267" r:id="rId241"/>
+    <hyperlink ref="B268" r:id="rId242"/>
+    <hyperlink ref="B269" r:id="rId243"/>
+    <hyperlink ref="B270" r:id="rId244"/>
+    <hyperlink ref="B271" r:id="rId245"/>
+    <hyperlink ref="B272" r:id="rId246"/>
+    <hyperlink ref="B275" r:id="rId247"/>
+    <hyperlink ref="B276" r:id="rId248"/>
+    <hyperlink ref="B277" r:id="rId249"/>
+    <hyperlink ref="B278" r:id="rId250"/>
+    <hyperlink ref="B279" r:id="rId251"/>
+    <hyperlink ref="B280" r:id="rId252"/>
+    <hyperlink ref="B281" r:id="rId253"/>
+    <hyperlink ref="B282" r:id="rId254"/>
+    <hyperlink ref="B283" r:id="rId255"/>
+    <hyperlink ref="B284" r:id="rId256"/>
+    <hyperlink ref="B285" r:id="rId257"/>
+    <hyperlink ref="B286" r:id="rId258"/>
+    <hyperlink ref="B287" r:id="rId259"/>
+    <hyperlink ref="B288" r:id="rId260"/>
+    <hyperlink ref="B289" r:id="rId261"/>
+    <hyperlink ref="B290" r:id="rId262"/>
+    <hyperlink ref="B291" r:id="rId263"/>
+    <hyperlink ref="B292" r:id="rId264"/>
+    <hyperlink ref="B293" r:id="rId265"/>
+    <hyperlink ref="B296" r:id="rId266"/>
+    <hyperlink ref="B297" r:id="rId267"/>
+    <hyperlink ref="B298" r:id="rId268"/>
+    <hyperlink ref="B299" r:id="rId269"/>
+    <hyperlink ref="B300" r:id="rId270"/>
+    <hyperlink ref="B301" r:id="rId271"/>
+    <hyperlink ref="B302" r:id="rId272"/>
+    <hyperlink ref="B303" r:id="rId273"/>
+    <hyperlink ref="B304" r:id="rId274"/>
+    <hyperlink ref="B305" r:id="rId275"/>
+    <hyperlink ref="B306" r:id="rId276" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId277"/>
+    <hyperlink ref="B308" r:id="rId278"/>
+    <hyperlink ref="B309" r:id="rId279"/>
+    <hyperlink ref="B310" r:id="rId280"/>
+    <hyperlink ref="B311" r:id="rId281"/>
+    <hyperlink ref="B312" r:id="rId282"/>
+    <hyperlink ref="B313" r:id="rId283"/>
+    <hyperlink ref="B314" r:id="rId284"/>
+    <hyperlink ref="B315" r:id="rId285"/>
+    <hyperlink ref="B316" r:id="rId286"/>
+    <hyperlink ref="B317" r:id="rId287"/>
+    <hyperlink ref="B318" r:id="rId288"/>
+    <hyperlink ref="B319" r:id="rId289"/>
+    <hyperlink ref="B320" r:id="rId290"/>
+    <hyperlink ref="B321" r:id="rId291"/>
+    <hyperlink ref="B322" r:id="rId292"/>
+    <hyperlink ref="B323" r:id="rId293"/>
+    <hyperlink ref="B324" r:id="rId294"/>
+    <hyperlink ref="B325" r:id="rId295"/>
+    <hyperlink ref="B326" r:id="rId296"/>
+    <hyperlink ref="B327" r:id="rId297"/>
+    <hyperlink ref="B328" r:id="rId298"/>
+    <hyperlink ref="B329" r:id="rId299"/>
+    <hyperlink ref="B330" r:id="rId300"/>
+    <hyperlink ref="B331" r:id="rId301"/>
+    <hyperlink ref="B332" r:id="rId302"/>
+    <hyperlink ref="B333" r:id="rId303"/>
+    <hyperlink ref="B336" r:id="rId304"/>
+    <hyperlink ref="B337" r:id="rId305"/>
+    <hyperlink ref="B338" r:id="rId306"/>
+    <hyperlink ref="B339" r:id="rId307"/>
+    <hyperlink ref="B340" r:id="rId308"/>
+    <hyperlink ref="B341" r:id="rId309"/>
+    <hyperlink ref="B342" r:id="rId310"/>
+    <hyperlink ref="B343" r:id="rId311"/>
+    <hyperlink ref="B344" r:id="rId312"/>
+    <hyperlink ref="B345" r:id="rId313"/>
+    <hyperlink ref="B346" r:id="rId314"/>
+    <hyperlink ref="B347" r:id="rId315"/>
+    <hyperlink ref="B348" r:id="rId316"/>
+    <hyperlink ref="B349" r:id="rId317"/>
+    <hyperlink ref="B350" r:id="rId318"/>
+    <hyperlink ref="B351" r:id="rId319"/>
+    <hyperlink ref="B352" r:id="rId320"/>
+    <hyperlink ref="B353" r:id="rId321"/>
+    <hyperlink ref="B357" r:id="rId322"/>
+    <hyperlink ref="B358" r:id="rId323"/>
+    <hyperlink ref="B359" r:id="rId324"/>
+    <hyperlink ref="B360" r:id="rId325"/>
+    <hyperlink ref="B361" r:id="rId326"/>
+    <hyperlink ref="B362" r:id="rId327"/>
+    <hyperlink ref="B363" r:id="rId328"/>
+    <hyperlink ref="B364" r:id="rId329"/>
+    <hyperlink ref="B365" r:id="rId330"/>
+    <hyperlink ref="B366" r:id="rId331"/>
+    <hyperlink ref="B367" r:id="rId332"/>
+    <hyperlink ref="B368" r:id="rId333"/>
+    <hyperlink ref="B369" r:id="rId334"/>
+    <hyperlink ref="B370" r:id="rId335"/>
+    <hyperlink ref="B371" r:id="rId336"/>
+    <hyperlink ref="B372" r:id="rId337"/>
+    <hyperlink ref="B373" r:id="rId338"/>
+    <hyperlink ref="B374" r:id="rId339"/>
+    <hyperlink ref="B375" r:id="rId340"/>
+    <hyperlink ref="B376" r:id="rId341"/>
+    <hyperlink ref="B377" r:id="rId342"/>
+    <hyperlink ref="B378" r:id="rId343"/>
+    <hyperlink ref="B379" r:id="rId344" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId345"/>
+    <hyperlink ref="B381" r:id="rId346"/>
+    <hyperlink ref="B382" r:id="rId347"/>
+    <hyperlink ref="B383" r:id="rId348"/>
+    <hyperlink ref="B384" r:id="rId349"/>
+    <hyperlink ref="B385" r:id="rId350"/>
+    <hyperlink ref="B386" r:id="rId351"/>
+    <hyperlink ref="B387" r:id="rId352"/>
+    <hyperlink ref="B388" r:id="rId353"/>
+    <hyperlink ref="B389" r:id="rId354"/>
+    <hyperlink ref="B390" r:id="rId355"/>
+    <hyperlink ref="B391" r:id="rId356"/>
+    <hyperlink ref="B392" r:id="rId357"/>
+    <hyperlink ref="B393" r:id="rId358"/>
+    <hyperlink ref="B394" r:id="rId359"/>
+    <hyperlink ref="B396" r:id="rId360"/>
+    <hyperlink ref="B395" r:id="rId361"/>
+    <hyperlink ref="B397" r:id="rId362"/>
+    <hyperlink ref="B398" r:id="rId363"/>
+    <hyperlink ref="B399" r:id="rId364"/>
+    <hyperlink ref="B402" r:id="rId365"/>
+    <hyperlink ref="B403" r:id="rId366"/>
+    <hyperlink ref="B404" r:id="rId367"/>
+    <hyperlink ref="B405" r:id="rId368"/>
+    <hyperlink ref="B406" r:id="rId369"/>
+    <hyperlink ref="B407" r:id="rId370"/>
+    <hyperlink ref="B410" r:id="rId371"/>
+    <hyperlink ref="B411" r:id="rId372"/>
+    <hyperlink ref="B412" r:id="rId373"/>
+    <hyperlink ref="B413" r:id="rId374"/>
+    <hyperlink ref="B414" r:id="rId375"/>
+    <hyperlink ref="B415" r:id="rId376"/>
+    <hyperlink ref="B416" r:id="rId377"/>
+    <hyperlink ref="B417" r:id="rId378"/>
+    <hyperlink ref="B419" r:id="rId379" display="Friends Pairing Problem"/>
+    <hyperlink ref="B420" r:id="rId380"/>
+    <hyperlink ref="B421" r:id="rId381"/>
+    <hyperlink ref="B422" r:id="rId382"/>
+    <hyperlink ref="B423" r:id="rId383"/>
+    <hyperlink ref="B424" r:id="rId384"/>
+    <hyperlink ref="B425" r:id="rId385"/>
+    <hyperlink ref="B426" r:id="rId386"/>
+    <hyperlink ref="B427" r:id="rId387"/>
+    <hyperlink ref="B428" r:id="rId388"/>
+    <hyperlink ref="B429" r:id="rId389" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId390" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId391" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B433" r:id="rId392"/>
+    <hyperlink ref="B434" r:id="rId393"/>
+    <hyperlink ref="B435" r:id="rId394"/>
+    <hyperlink ref="B436" r:id="rId395"/>
+    <hyperlink ref="B437" r:id="rId396"/>
+    <hyperlink ref="B438" r:id="rId397" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B439" r:id="rId398"/>
+    <hyperlink ref="B440" r:id="rId399" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B441" r:id="rId400"/>
+    <hyperlink ref="B442" r:id="rId401"/>
+    <hyperlink ref="B443" r:id="rId402" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B444" r:id="rId403"/>
+    <hyperlink ref="B445" r:id="rId404"/>
+    <hyperlink ref="B446" r:id="rId405"/>
+    <hyperlink ref="B447" r:id="rId406"/>
+    <hyperlink ref="B448" r:id="rId407"/>
+    <hyperlink ref="B449" r:id="rId408" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B450" r:id="rId409" display="Partition problem"/>
+    <hyperlink ref="B452" r:id="rId410" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B451" r:id="rId411"/>
+    <hyperlink ref="B453" r:id="rId412"/>
+    <hyperlink ref="B454" r:id="rId413"/>
+    <hyperlink ref="B455" r:id="rId414"/>
+    <hyperlink ref="B456" r:id="rId415"/>
+    <hyperlink ref="B457" r:id="rId416"/>
+    <hyperlink ref="B458" r:id="rId417"/>
+    <hyperlink ref="B459" r:id="rId418"/>
+    <hyperlink ref="B460" r:id="rId419" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B461" r:id="rId420"/>
+    <hyperlink ref="B462" r:id="rId421"/>
+    <hyperlink ref="B463" r:id="rId422"/>
+    <hyperlink ref="B470" r:id="rId423"/>
+    <hyperlink ref="B469" r:id="rId424"/>
+    <hyperlink ref="B468" r:id="rId425"/>
+    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B466" r:id="rId427"/>
+    <hyperlink ref="B465" r:id="rId428"/>
+    <hyperlink ref="B464" r:id="rId429"/>
+    <hyperlink ref="B477" r:id="rId430"/>
+    <hyperlink ref="B478" r:id="rId431"/>
+    <hyperlink ref="B479" r:id="rId432"/>
+    <hyperlink ref="B480" r:id="rId433"/>
+    <hyperlink ref="B481" r:id="rId434"/>
+    <hyperlink ref="B482" r:id="rId435"/>
+    <hyperlink ref="B485" r:id="rId436"/>
+    <hyperlink ref="B483" r:id="rId437"/>
+    <hyperlink ref="B484" r:id="rId438" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId439"/>
+    <hyperlink ref="B2" r:id="rId440"/>
+    <hyperlink ref="B335" r:id="rId441"/>
+    <hyperlink ref="B5" r:id="rId442"/>
+    <hyperlink ref="B106" r:id="rId443"/>
+    <hyperlink ref="B6" r:id="rId444" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B104" r:id="rId445"/>
+    <hyperlink ref="B418" r:id="rId446"/>
+    <hyperlink ref="B473" r:id="rId447"/>
+    <hyperlink ref="B474" r:id="rId448"/>
+    <hyperlink ref="B475" r:id="rId449"/>
+    <hyperlink ref="B476" r:id="rId450" display="Maximum XOR With an Element From Array"/>
+    <hyperlink ref="B432" r:id="rId451" display="Constrained Subsequence Sum"/>
+    <hyperlink ref="B180" r:id="rId452" display="House Robber III"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -2027,7 +2027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="B464" sqref="B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6961,15 +6961,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="5" t="s">
+    <row r="461" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A461" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B461" s="6" t="s">
+      <c r="B461" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="C461" s="4">
-        <v>0</v>
+      <c r="C461" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
@@ -7230,7 +7230,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1302,9 +1302,6 @@
     <t>Palindrome PartitioningProblem</t>
   </si>
   <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
     <t>Mobile Numeric Keypad Problem [ IMP ]</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>Optimal Binary Search Tree (See gfg)</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem (Tough, IMP)</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2038,7 +2038,7 @@
   <dimension ref="A1:C486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="B464" sqref="B464"/>
+      <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3156,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C180" s="39">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>318</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>387</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>387</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>387</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6625,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>387</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>387</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>387</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>387</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6768,7 +6768,7 @@
         <v>387</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C443" s="30">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>387</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C449" s="39">
         <v>1</v>
@@ -6845,7 +6845,7 @@
         <v>387</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>387</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C452" s="35">
         <v>1</v>
@@ -6900,7 +6900,7 @@
         <v>387</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C455" s="13">
         <v>1</v>
@@ -6955,7 +6955,7 @@
         <v>387</v>
       </c>
       <c r="B460" s="46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C460" s="47">
         <v>1</v>
@@ -6972,37 +6972,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="5" t="s">
+    <row r="462" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A462" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B462" s="6" t="s">
+      <c r="B462" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C462" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A463" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B463" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="C462" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="5" t="s">
+      <c r="C463" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A464" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B463" s="6" t="s">
+      <c r="B464" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C463" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C464" s="4">
-        <v>0</v>
+      <c r="C464" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
@@ -7010,7 +7010,7 @@
         <v>387</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C465" s="4">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>387</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C466" s="4">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>387</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C467" s="4">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>387</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C468" s="4">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>387</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C469" s="4">
         <v>0</v>
@@ -7065,7 +7065,7 @@
         <v>387</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C470" s="4">
         <v>0</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7108,10 +7108,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B477" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7174,10 +7174,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7218,10 +7218,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7230,7 +7230,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7655,7 +7655,7 @@
     <hyperlink ref="B459" r:id="rId418"/>
     <hyperlink ref="B460" r:id="rId419" display="Optimal Binary Search Tree"/>
     <hyperlink ref="B461" r:id="rId420"/>
-    <hyperlink ref="B462" r:id="rId421"/>
+    <hyperlink ref="B462" r:id="rId421" display="Word Wrap Problem"/>
     <hyperlink ref="B463" r:id="rId422"/>
     <hyperlink ref="B470" r:id="rId423"/>
     <hyperlink ref="B469" r:id="rId424"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1314,9 +1314,6 @@
     <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
   </si>
   <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
     <t>Maximum profit by buying and selling a share at most k times</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>Word Wrap Problem (Tough, IMP)</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix (Done under basic algo folder c++)</t>
   </si>
 </sst>
 </file>
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2190,15 +2190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
+      <c r="C16" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -3134,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3156,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C180" s="39">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>318</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>387</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>387</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>387</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6625,7 +6625,7 @@
         <v>387</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>387</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>387</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>387</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>387</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6768,7 +6768,7 @@
         <v>387</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C443" s="30">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>387</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C449" s="39">
         <v>1</v>
@@ -6845,7 +6845,7 @@
         <v>387</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>387</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C452" s="35">
         <v>1</v>
@@ -6900,7 +6900,7 @@
         <v>387</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C455" s="13">
         <v>1</v>
@@ -6955,7 +6955,7 @@
         <v>387</v>
       </c>
       <c r="B460" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C460" s="47">
         <v>1</v>
@@ -6977,7 +6977,7 @@
         <v>387</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C462" s="13">
         <v>1</v>
@@ -7027,26 +7027,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="5" t="s">
+    <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A467" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B467" s="6" t="s">
+      <c r="B467" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C467" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A468" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B468" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C467" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C468" s="4">
-        <v>0</v>
+      <c r="C468" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
@@ -7054,7 +7054,7 @@
         <v>387</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C469" s="4">
         <v>0</v>
@@ -7065,7 +7065,7 @@
         <v>387</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C470" s="4">
         <v>0</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7108,10 +7108,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B477" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7163,10 +7163,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7174,10 +7174,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7218,10 +7218,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7230,7 +7230,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7660,7 +7660,7 @@
     <hyperlink ref="B470" r:id="rId423"/>
     <hyperlink ref="B469" r:id="rId424"/>
     <hyperlink ref="B468" r:id="rId425"/>
-    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B467" r:id="rId426" display="Maximum sum rectangle in a 2D matrix"/>
     <hyperlink ref="B466" r:id="rId427"/>
     <hyperlink ref="B465" r:id="rId428"/>
     <hyperlink ref="B464" r:id="rId429"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -1548,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1602,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1617,7 +1623,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1719,6 +1725,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2027,7 +2041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2037,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7005,26 +7019,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5" t="s">
+    <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A465" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="B465" s="6" t="s">
+      <c r="B465" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="C465" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="5" t="s">
+      <c r="C465" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A466" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="B466" s="6" t="s">
+      <c r="B466" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="C466" s="4">
-        <v>0</v>
+      <c r="C466" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
@@ -7049,26 +7063,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
+    <row r="469" spans="1:3" s="52" customFormat="1" ht="21">
+      <c r="A469" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="B469" s="6" t="s">
+      <c r="B469" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="C469" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="A470" s="5" t="s">
+      <c r="C469" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A470" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="B470" s="6" t="s">
+      <c r="B470" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C470" s="4">
-        <v>0</v>
+      <c r="C470" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
@@ -7230,7 +7244,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7689,5 +7703,6 @@
     <hyperlink ref="B180" r:id="rId452" display="House Robber III"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId453"/>
 </worksheet>
 </file>
--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -552,9 +552,6 @@
     <t>Left View of a tree</t>
   </si>
   <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
     <t>Top View of a tree</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>Maximum sum rectangle in a 2D matrix (Done under basic algo folder c++)</t>
+  </si>
+  <si>
+    <t>Right View of Tree (Same as left view)</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,6 +1608,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1623,7 +1635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,6 +1745,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2041,7 +2069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2051,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B474" sqref="B474"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2069,7 +2097,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2080,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2088,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2099,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2611,7 +2639,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="31" customFormat="1" ht="21">
@@ -2622,7 +2650,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="31" customFormat="1" ht="21">
@@ -2633,7 +2661,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -3148,7 +3176,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3170,7 +3198,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3962,87 +3990,87 @@
         <v>166</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C180" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:3" s="60" customFormat="1" ht="21">
+      <c r="A181" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
-      <c r="A182" s="5" t="s">
+      <c r="C181" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="56" customFormat="1" ht="21">
+      <c r="A182" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
-      <c r="A183" s="5" t="s">
+      <c r="C182" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="56" customFormat="1" ht="21">
+      <c r="A183" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
-      <c r="A184" s="5" t="s">
+      <c r="C183" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="56" customFormat="1" ht="21">
+      <c r="A184" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="5" t="s">
+      <c r="C184" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A185" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="5" t="s">
+      <c r="C185" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A186" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C186" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A187" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C187" s="4">
-        <v>0</v>
+      <c r="C187" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
@@ -4050,7 +4078,7 @@
         <v>166</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="17">
         <v>1</v>
@@ -4061,7 +4089,7 @@
         <v>166</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4072,7 +4100,7 @@
         <v>166</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -4083,7 +4111,7 @@
         <v>166</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4094,7 +4122,7 @@
         <v>166</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4105,7 +4133,7 @@
         <v>166</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4116,7 +4144,7 @@
         <v>166</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4127,7 +4155,7 @@
         <v>166</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4138,7 +4166,7 @@
         <v>166</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4149,7 +4177,7 @@
         <v>166</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4160,7 +4188,7 @@
         <v>166</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4171,7 +4199,7 @@
         <v>166</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4182,7 +4210,7 @@
         <v>166</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4193,7 +4221,7 @@
         <v>166</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4204,7 +4232,7 @@
         <v>166</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4215,7 +4243,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4226,7 +4254,7 @@
         <v>166</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4237,7 +4265,7 @@
         <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4248,7 +4276,7 @@
         <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4259,7 +4287,7 @@
         <v>166</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4270,7 +4298,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4281,7 +4309,7 @@
         <v>166</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4292,7 +4320,7 @@
         <v>166</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -4303,7 +4331,7 @@
         <v>166</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -4325,10 +4353,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4336,10 +4364,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4347,10 +4375,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4358,10 +4386,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4369,10 +4397,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4380,10 +4408,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4391,10 +4419,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4402,10 +4430,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4413,10 +4441,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4424,10 +4452,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4435,10 +4463,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4446,10 +4474,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4457,10 +4485,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4468,10 +4496,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4479,10 +4507,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4490,10 +4518,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4501,10 +4529,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4512,10 +4540,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4523,10 +4551,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4534,10 +4562,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4545,10 +4573,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4556,10 +4584,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4579,10 +4607,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4590,10 +4618,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4601,10 +4629,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4612,10 +4640,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4623,10 +4651,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4634,10 +4662,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4645,10 +4673,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4656,10 +4684,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4667,10 +4695,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4678,10 +4706,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4689,10 +4717,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4700,10 +4728,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4711,10 +4739,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4722,10 +4750,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4733,10 +4761,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4744,10 +4772,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4755,10 +4783,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4766,10 +4794,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4777,10 +4805,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4788,10 +4816,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4799,10 +4827,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4810,10 +4838,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4821,10 +4849,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4832,10 +4860,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4843,10 +4871,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4854,10 +4882,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4865,10 +4893,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4876,10 +4904,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4887,10 +4915,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4898,10 +4926,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4909,10 +4937,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4920,10 +4948,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4931,10 +4959,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4942,7 +4970,7 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>82</v>
@@ -4953,10 +4981,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C272" s="4">
         <v>0</v>
@@ -4976,10 +5004,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -4987,10 +5015,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -4998,10 +5026,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -5009,10 +5037,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -5020,10 +5048,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -5031,10 +5059,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5042,10 +5070,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5053,10 +5081,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5064,10 +5092,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5075,10 +5103,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5086,10 +5114,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5097,10 +5125,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5108,10 +5136,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5119,10 +5147,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5130,10 +5158,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5141,10 +5169,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5152,10 +5180,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5163,10 +5191,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5174,10 +5202,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C293" s="4">
         <v>0</v>
@@ -5197,10 +5225,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5208,10 +5236,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5219,10 +5247,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5230,10 +5258,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5241,10 +5269,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5252,10 +5280,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5263,10 +5291,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5274,10 +5302,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5285,10 +5313,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5296,10 +5324,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5307,10 +5335,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5318,10 +5346,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5329,10 +5357,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5340,10 +5368,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5351,10 +5379,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5362,10 +5390,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5373,10 +5401,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5384,10 +5412,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5395,10 +5423,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5406,10 +5434,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5417,10 +5445,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5428,10 +5456,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5439,10 +5467,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5450,10 +5478,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5461,10 +5489,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5472,10 +5500,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5483,10 +5511,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5494,10 +5522,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5505,10 +5533,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5516,10 +5544,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5527,10 +5555,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5538,10 +5566,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5549,10 +5577,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5560,10 +5588,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5571,10 +5599,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5582,10 +5610,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5593,10 +5621,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5604,10 +5632,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C333" s="4">
         <v>0</v>
@@ -5621,10 +5649,10 @@
     </row>
     <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A335" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -5632,10 +5660,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5643,10 +5671,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5654,10 +5682,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5665,10 +5693,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5676,10 +5704,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5687,10 +5715,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5698,10 +5726,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5709,10 +5737,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5720,10 +5748,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5731,10 +5759,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5742,10 +5770,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5753,10 +5781,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5764,10 +5792,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5775,10 +5803,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5786,10 +5814,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5797,10 +5825,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5808,10 +5836,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5819,10 +5847,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C353" s="4">
         <v>0</v>
@@ -5842,10 +5870,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5853,10 +5881,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5864,10 +5892,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5875,10 +5903,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5886,10 +5914,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5897,10 +5925,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5908,10 +5936,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5919,10 +5947,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5930,10 +5958,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5941,10 +5969,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5952,10 +5980,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5963,10 +5991,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5974,10 +6002,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -5985,10 +6013,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -5996,10 +6024,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -6007,10 +6035,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -6018,10 +6046,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -6029,10 +6057,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -6040,10 +6068,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6051,10 +6079,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6062,10 +6090,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6073,10 +6101,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6084,10 +6112,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6095,10 +6123,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6106,10 +6134,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6117,10 +6145,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6128,10 +6156,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6139,10 +6167,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6150,10 +6178,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6161,10 +6189,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6172,10 +6200,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6183,10 +6211,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6194,10 +6222,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6205,10 +6233,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6216,10 +6244,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6227,10 +6255,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6238,10 +6266,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6249,10 +6277,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6260,10 +6288,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6271,10 +6299,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6282,10 +6310,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6293,10 +6321,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6304,10 +6332,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6315,10 +6343,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C399" s="4">
         <v>0</v>
@@ -6338,10 +6366,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6349,10 +6377,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6360,10 +6388,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6371,7 +6399,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>84</v>
@@ -6382,10 +6410,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6393,10 +6421,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C407" s="4">
         <v>0</v>
@@ -6416,10 +6444,10 @@
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B410" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="B410" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6427,10 +6455,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6438,10 +6466,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6449,10 +6477,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6460,10 +6488,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6471,10 +6499,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6482,10 +6510,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6493,10 +6521,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6504,10 +6532,10 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6515,10 +6543,10 @@
     </row>
     <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A419" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6526,10 +6554,10 @@
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
@@ -6537,10 +6565,10 @@
     </row>
     <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A421" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C421" s="30">
         <v>1</v>
@@ -6548,10 +6576,10 @@
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C422" s="13">
         <v>1</v>
@@ -6559,10 +6587,10 @@
     </row>
     <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A423" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C423" s="13">
         <v>1</v>
@@ -6570,10 +6598,10 @@
     </row>
     <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A424" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B424" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C424" s="30">
         <v>1</v>
@@ -6581,10 +6609,10 @@
     </row>
     <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A425" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C425" s="35">
         <v>0</v>
@@ -6592,10 +6620,10 @@
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6603,10 +6631,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6614,10 +6642,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6625,10 +6653,10 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6636,10 +6664,10 @@
     </row>
     <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A430" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6647,10 +6675,10 @@
     </row>
     <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A431" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6658,10 +6686,10 @@
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6669,10 +6697,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6680,10 +6708,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6691,10 +6719,10 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
@@ -6702,10 +6730,10 @@
     </row>
     <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A436" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C436" s="17">
         <v>1</v>
@@ -6713,10 +6741,10 @@
     </row>
     <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A437" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B437" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C437" s="30">
         <v>1</v>
@@ -6724,10 +6752,10 @@
     </row>
     <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A438" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6735,10 +6763,10 @@
     </row>
     <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A439" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B439" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C439" s="30">
         <v>1</v>
@@ -6746,10 +6774,10 @@
     </row>
     <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A440" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6757,10 +6785,10 @@
     </row>
     <row r="441" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A441" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B441" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C441" s="30">
         <v>1</v>
@@ -6768,10 +6796,10 @@
     </row>
     <row r="442" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A442" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C442" s="35">
         <v>1</v>
@@ -6779,10 +6807,10 @@
     </row>
     <row r="443" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A443" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C443" s="30">
         <v>1</v>
@@ -6790,10 +6818,10 @@
     </row>
     <row r="444" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A444" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B444" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C444" s="13">
         <v>1</v>
@@ -6801,10 +6829,10 @@
     </row>
     <row r="445" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A445" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C445" s="35">
         <v>1</v>
@@ -6812,10 +6840,10 @@
     </row>
     <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A446" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B446" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C446" s="30">
         <v>1</v>
@@ -6823,10 +6851,10 @@
     </row>
     <row r="447" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A447" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B447" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C447" s="30">
         <v>1</v>
@@ -6834,10 +6862,10 @@
     </row>
     <row r="448" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A448" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C448" s="13">
         <v>1</v>
@@ -6845,10 +6873,10 @@
     </row>
     <row r="449" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A449" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C449" s="39">
         <v>1</v>
@@ -6856,10 +6884,10 @@
     </row>
     <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A450" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6867,10 +6895,10 @@
     </row>
     <row r="451" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A451" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B451" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C451" s="30">
         <v>1</v>
@@ -6878,10 +6906,10 @@
     </row>
     <row r="452" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A452" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C452" s="35">
         <v>1</v>
@@ -6889,10 +6917,10 @@
     </row>
     <row r="453" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A453" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B453" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C453" s="30">
         <v>1</v>
@@ -6900,10 +6928,10 @@
     </row>
     <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A454" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C454" s="13">
         <v>1</v>
@@ -6911,10 +6939,10 @@
     </row>
     <row r="455" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A455" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C455" s="13">
         <v>1</v>
@@ -6922,10 +6950,10 @@
     </row>
     <row r="456" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A456" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C456" s="43">
         <v>1</v>
@@ -6933,10 +6961,10 @@
     </row>
     <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A457" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C457" s="13">
         <v>1</v>
@@ -6944,10 +6972,10 @@
     </row>
     <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A458" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C458" s="13">
         <v>1</v>
@@ -6955,10 +6983,10 @@
     </row>
     <row r="459" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A459" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C459" s="13">
         <v>1</v>
@@ -6966,10 +6994,10 @@
     </row>
     <row r="460" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A460" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B460" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C460" s="47">
         <v>1</v>
@@ -6977,10 +7005,10 @@
     </row>
     <row r="461" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A461" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C461" s="35">
         <v>1</v>
@@ -6988,10 +7016,10 @@
     </row>
     <row r="462" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A462" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C462" s="13">
         <v>1</v>
@@ -6999,10 +7027,10 @@
     </row>
     <row r="463" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A463" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C463" s="43">
         <v>1</v>
@@ -7010,10 +7038,10 @@
     </row>
     <row r="464" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A464" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C464" s="13">
         <v>1</v>
@@ -7021,10 +7049,10 @@
     </row>
     <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A465" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B465" s="46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C465" s="47">
         <v>1</v>
@@ -7032,10 +7060,10 @@
     </row>
     <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A466" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B466" s="46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C466" s="47">
         <v>1</v>
@@ -7043,10 +7071,10 @@
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A467" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C467" s="13">
         <v>1</v>
@@ -7054,10 +7082,10 @@
     </row>
     <row r="468" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A468" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C468" s="13">
         <v>1</v>
@@ -7065,10 +7093,10 @@
     </row>
     <row r="469" spans="1:3" s="52" customFormat="1" ht="21">
       <c r="A469" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B469" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C469" s="51">
         <v>1</v>
@@ -7076,10 +7104,10 @@
     </row>
     <row r="470" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A470" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B470" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C470" s="30">
         <v>1</v>
@@ -7100,10 +7128,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7111,10 +7139,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7122,10 +7150,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7133,10 +7161,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7144,10 +7172,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B477" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7155,10 +7183,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7166,10 +7194,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7177,10 +7205,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7188,10 +7216,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7199,10 +7227,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7210,10 +7238,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7221,10 +7249,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7232,10 +7260,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7244,7 +7272,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7412,7 +7440,7 @@
     <hyperlink ref="B183" r:id="rId161"/>
     <hyperlink ref="B184" r:id="rId162"/>
     <hyperlink ref="B185" r:id="rId163"/>
-    <hyperlink ref="B186" r:id="rId164"/>
+    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
     <hyperlink ref="B187" r:id="rId165"/>
     <hyperlink ref="B188" r:id="rId166"/>
     <hyperlink ref="B189" r:id="rId167"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -54,9 +54,6 @@
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>Next Permutation</t>
   </si>
   <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
     <t>find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
@@ -1435,6 +1426,15 @@
   </si>
   <si>
     <t>Right View of Tree (Same as left view)</t>
+  </si>
+  <si>
+    <t>Kth Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion (Basic Algo/MergeSort inversion)</t>
+  </si>
+  <si>
+    <t>Smallest Range II [IMP]</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2108,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2177,36 +2177,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="C13" s="43">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -2259,43 +2259,43 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A20" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A21" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
+      <c r="C21" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="17">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="54" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A54" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" s="30">
         <v>1</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="55" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A55" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="30">
         <v>1</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="56" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A56" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="C56" s="30">
         <v>1</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="99" spans="1:3" ht="21">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C100" s="4">
         <v>0</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4">
         <v>0</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="104" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A104" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="106" spans="1:3" s="21" customFormat="1" ht="23.4">
       <c r="A106" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="107" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A107" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C107" s="13">
         <v>1</v>
@@ -3217,10 +3217,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C139" s="4">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="142" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A142" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C142" s="17">
         <v>1</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C173" s="4">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="177" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A177" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C177" s="17">
         <v>1</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="178" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A178" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C178" s="17">
         <v>1</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="179" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A179" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="C179" s="17">
         <v>1</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="180" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A180" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C180" s="39">
         <v>1</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="181" spans="1:3" s="60" customFormat="1" ht="21">
       <c r="A181" s="57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C181" s="59">
         <v>1</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="182" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A182" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C182" s="55">
         <v>1</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="183" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A183" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C183" s="55">
         <v>1</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="184" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A184" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C184" s="55">
         <v>1</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="185" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A185" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C185" s="13">
         <v>1</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A186" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C186" s="13">
         <v>1</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="187" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A187" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C187" s="13">
         <v>1</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A188" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C188" s="17">
         <v>1</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4629,10 +4629,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4662,10 +4662,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4673,10 +4673,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4706,10 +4706,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4838,10 +4838,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C271" s="4">
         <v>0</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C272" s="4">
         <v>0</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C293" s="4">
         <v>0</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5236,10 +5236,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5269,10 +5269,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5324,10 +5324,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5423,10 +5423,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C333" s="4">
         <v>0</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A335" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5825,10 +5825,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C353" s="4">
         <v>0</v>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6233,10 +6233,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6255,10 +6255,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6266,10 +6266,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6310,10 +6310,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6332,10 +6332,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6343,10 +6343,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C399" s="4">
         <v>0</v>
@@ -6366,10 +6366,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6377,10 +6377,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6388,10 +6388,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B404" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C407" s="4">
         <v>0</v>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6455,10 +6455,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B412" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6477,10 +6477,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6488,10 +6488,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6543,10 +6543,10 @@
     </row>
     <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A419" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
@@ -6565,10 +6565,10 @@
     </row>
     <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A421" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C421" s="30">
         <v>1</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C422" s="13">
         <v>1</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A423" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C423" s="13">
         <v>1</v>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A424" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B424" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C424" s="30">
         <v>1</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A425" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C425" s="35">
         <v>0</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6664,10 +6664,10 @@
     </row>
     <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A430" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6675,10 +6675,10 @@
     </row>
     <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A431" s="37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
@@ -6730,10 +6730,10 @@
     </row>
     <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A436" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C436" s="17">
         <v>1</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A437" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B437" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C437" s="30">
         <v>1</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A438" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A439" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B439" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C439" s="30">
         <v>1</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A440" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="441" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A441" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B441" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C441" s="30">
         <v>1</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="442" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A442" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C442" s="35">
         <v>1</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="443" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A443" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C443" s="30">
         <v>1</v>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="444" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A444" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B444" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C444" s="13">
         <v>1</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="445" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A445" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C445" s="35">
         <v>1</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A446" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B446" s="29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C446" s="30">
         <v>1</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="447" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A447" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B447" s="29" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C447" s="30">
         <v>1</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="448" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A448" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C448" s="13">
         <v>1</v>
@@ -6873,10 +6873,10 @@
     </row>
     <row r="449" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A449" s="37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C449" s="39">
         <v>1</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A450" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="451" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A451" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B451" s="29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C451" s="30">
         <v>1</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="452" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A452" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C452" s="35">
         <v>1</v>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="453" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A453" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B453" s="29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C453" s="30">
         <v>1</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A454" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C454" s="13">
         <v>1</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="455" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A455" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C455" s="13">
         <v>1</v>
@@ -6950,10 +6950,10 @@
     </row>
     <row r="456" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A456" s="41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C456" s="43">
         <v>1</v>
@@ -6961,10 +6961,10 @@
     </row>
     <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A457" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C457" s="13">
         <v>1</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A458" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C458" s="13">
         <v>1</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="459" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A459" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C459" s="13">
         <v>1</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="460" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A460" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B460" s="46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C460" s="47">
         <v>1</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="461" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A461" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C461" s="35">
         <v>1</v>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="462" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A462" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C462" s="13">
         <v>1</v>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="463" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A463" s="41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C463" s="43">
         <v>1</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="464" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A464" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C464" s="13">
         <v>1</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A465" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B465" s="46" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C465" s="47">
         <v>1</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A466" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B466" s="46" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C466" s="47">
         <v>1</v>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A467" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C467" s="13">
         <v>1</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="468" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A468" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C468" s="13">
         <v>1</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="469" spans="1:3" s="52" customFormat="1" ht="21">
       <c r="A469" s="49" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B469" s="50" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C469" s="51">
         <v>1</v>
@@ -7104,10 +7104,10 @@
     </row>
     <row r="470" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A470" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B470" s="29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C470" s="30">
         <v>1</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7183,10 +7183,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B479" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7272,7 +7272,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -7282,453 +7282,453 @@
     <hyperlink ref="B9" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId6" display="Smallest Range II"/>
     <hyperlink ref="B13" r:id="rId7"/>
     <hyperlink ref="B14" r:id="rId8"/>
     <hyperlink ref="B15" r:id="rId9"/>
     <hyperlink ref="B16" r:id="rId10"/>
     <hyperlink ref="B17" r:id="rId11"/>
     <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-    <hyperlink ref="B27" r:id="rId21"/>
-    <hyperlink ref="B28" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B32" r:id="rId26"/>
-    <hyperlink ref="B33" r:id="rId27"/>
-    <hyperlink ref="B34" r:id="rId28"/>
-    <hyperlink ref="B35" r:id="rId29"/>
-    <hyperlink ref="B36" r:id="rId30"/>
-    <hyperlink ref="B37" r:id="rId31"/>
-    <hyperlink ref="B38" r:id="rId32"/>
-    <hyperlink ref="B39" r:id="rId33"/>
-    <hyperlink ref="B42" r:id="rId34"/>
-    <hyperlink ref="B43" r:id="rId35"/>
-    <hyperlink ref="B44" r:id="rId36"/>
-    <hyperlink ref="B45" r:id="rId37"/>
-    <hyperlink ref="B46" r:id="rId38"/>
-    <hyperlink ref="B47" r:id="rId39"/>
-    <hyperlink ref="B48" r:id="rId40"/>
-    <hyperlink ref="B49" r:id="rId41"/>
-    <hyperlink ref="B50" r:id="rId42"/>
-    <hyperlink ref="B51" r:id="rId43"/>
-    <hyperlink ref="B54" r:id="rId44"/>
-    <hyperlink ref="B55" r:id="rId45"/>
-    <hyperlink ref="B56" r:id="rId46"/>
-    <hyperlink ref="B58" r:id="rId47"/>
-    <hyperlink ref="B59" r:id="rId48"/>
-    <hyperlink ref="B60" r:id="rId49"/>
-    <hyperlink ref="B61" r:id="rId50"/>
-    <hyperlink ref="B62" r:id="rId51"/>
-    <hyperlink ref="B63" r:id="rId52"/>
-    <hyperlink ref="B64" r:id="rId53"/>
-    <hyperlink ref="B65" r:id="rId54"/>
-    <hyperlink ref="B66" r:id="rId55"/>
-    <hyperlink ref="B67" r:id="rId56"/>
-    <hyperlink ref="B68" r:id="rId57"/>
-    <hyperlink ref="B69" r:id="rId58"/>
-    <hyperlink ref="B70" r:id="rId59"/>
-    <hyperlink ref="B71" r:id="rId60"/>
-    <hyperlink ref="B72" r:id="rId61"/>
-    <hyperlink ref="B73" r:id="rId62"/>
-    <hyperlink ref="B74" r:id="rId63"/>
-    <hyperlink ref="B75" r:id="rId64"/>
-    <hyperlink ref="B76" r:id="rId65"/>
-    <hyperlink ref="B77" r:id="rId66"/>
-    <hyperlink ref="B78" r:id="rId67"/>
-    <hyperlink ref="B79" r:id="rId68"/>
-    <hyperlink ref="B80" r:id="rId69"/>
-    <hyperlink ref="B81" r:id="rId70"/>
-    <hyperlink ref="B82" r:id="rId71"/>
-    <hyperlink ref="B83" r:id="rId72"/>
-    <hyperlink ref="B84" r:id="rId73"/>
-    <hyperlink ref="B85" r:id="rId74"/>
-    <hyperlink ref="B86" r:id="rId75"/>
-    <hyperlink ref="B87" r:id="rId76"/>
-    <hyperlink ref="B88" r:id="rId77"/>
-    <hyperlink ref="B89" r:id="rId78"/>
-    <hyperlink ref="B90" r:id="rId79"/>
-    <hyperlink ref="B91" r:id="rId80"/>
-    <hyperlink ref="B92" r:id="rId81"/>
-    <hyperlink ref="B93" r:id="rId82"/>
-    <hyperlink ref="B94" r:id="rId83"/>
-    <hyperlink ref="B95" r:id="rId84"/>
-    <hyperlink ref="B96" r:id="rId85"/>
-    <hyperlink ref="B99" r:id="rId86"/>
-    <hyperlink ref="B100" r:id="rId87"/>
-    <hyperlink ref="B101" r:id="rId88"/>
-    <hyperlink ref="B102" r:id="rId89"/>
-    <hyperlink ref="B105" r:id="rId90" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId91"/>
-    <hyperlink ref="B108" r:id="rId92"/>
-    <hyperlink ref="B109" r:id="rId93"/>
-    <hyperlink ref="B110" r:id="rId94"/>
-    <hyperlink ref="B111" r:id="rId95"/>
-    <hyperlink ref="B113" r:id="rId96"/>
-    <hyperlink ref="B114" r:id="rId97"/>
-    <hyperlink ref="B115" r:id="rId98"/>
-    <hyperlink ref="B116" r:id="rId99"/>
-    <hyperlink ref="B117" r:id="rId100"/>
-    <hyperlink ref="B118" r:id="rId101"/>
-    <hyperlink ref="B119" r:id="rId102"/>
-    <hyperlink ref="B120" r:id="rId103"/>
-    <hyperlink ref="B121" r:id="rId104"/>
-    <hyperlink ref="B122" r:id="rId105"/>
-    <hyperlink ref="B123" r:id="rId106"/>
-    <hyperlink ref="B124" r:id="rId107"/>
-    <hyperlink ref="B125" r:id="rId108"/>
-    <hyperlink ref="B126" r:id="rId109"/>
-    <hyperlink ref="B127" r:id="rId110"/>
-    <hyperlink ref="B128" r:id="rId111"/>
-    <hyperlink ref="B129" r:id="rId112"/>
-    <hyperlink ref="B130" r:id="rId113"/>
-    <hyperlink ref="B131" r:id="rId114"/>
-    <hyperlink ref="B132" r:id="rId115"/>
-    <hyperlink ref="B133" r:id="rId116"/>
-    <hyperlink ref="B134" r:id="rId117"/>
-    <hyperlink ref="B135" r:id="rId118"/>
-    <hyperlink ref="B136" r:id="rId119"/>
-    <hyperlink ref="B103" r:id="rId120"/>
-    <hyperlink ref="B112" r:id="rId121"/>
-    <hyperlink ref="B139" r:id="rId122"/>
-    <hyperlink ref="B140" r:id="rId123"/>
-    <hyperlink ref="B141" r:id="rId124"/>
-    <hyperlink ref="B142" r:id="rId125"/>
-    <hyperlink ref="B143" r:id="rId126"/>
-    <hyperlink ref="B144" r:id="rId127"/>
-    <hyperlink ref="B145" r:id="rId128"/>
-    <hyperlink ref="B146" r:id="rId129"/>
-    <hyperlink ref="B147" r:id="rId130"/>
-    <hyperlink ref="B148" r:id="rId131"/>
-    <hyperlink ref="B149" r:id="rId132"/>
-    <hyperlink ref="B150" r:id="rId133"/>
-    <hyperlink ref="B151" r:id="rId134"/>
-    <hyperlink ref="B152" r:id="rId135"/>
-    <hyperlink ref="B153" r:id="rId136"/>
-    <hyperlink ref="B154" r:id="rId137"/>
-    <hyperlink ref="B155" r:id="rId138"/>
-    <hyperlink ref="B156" r:id="rId139"/>
-    <hyperlink ref="B157" r:id="rId140"/>
-    <hyperlink ref="B158" r:id="rId141"/>
-    <hyperlink ref="B159" r:id="rId142"/>
-    <hyperlink ref="B160" r:id="rId143"/>
-    <hyperlink ref="B161" r:id="rId144"/>
-    <hyperlink ref="B162" r:id="rId145"/>
-    <hyperlink ref="B163" r:id="rId146"/>
-    <hyperlink ref="B166" r:id="rId147"/>
-    <hyperlink ref="B167" r:id="rId148"/>
-    <hyperlink ref="B168" r:id="rId149"/>
-    <hyperlink ref="B169" r:id="rId150"/>
-    <hyperlink ref="B170" r:id="rId151"/>
-    <hyperlink ref="B171" r:id="rId152"/>
-    <hyperlink ref="B172" r:id="rId153"/>
-    <hyperlink ref="B173" r:id="rId154"/>
-    <hyperlink ref="B174" r:id="rId155"/>
-    <hyperlink ref="B177" r:id="rId156"/>
-    <hyperlink ref="B178" r:id="rId157"/>
-    <hyperlink ref="B179" r:id="rId158"/>
-    <hyperlink ref="B181" r:id="rId159"/>
-    <hyperlink ref="B182" r:id="rId160"/>
-    <hyperlink ref="B183" r:id="rId161"/>
-    <hyperlink ref="B184" r:id="rId162"/>
-    <hyperlink ref="B185" r:id="rId163"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165"/>
-    <hyperlink ref="B188" r:id="rId166"/>
-    <hyperlink ref="B189" r:id="rId167"/>
-    <hyperlink ref="B190" r:id="rId168"/>
-    <hyperlink ref="B191" r:id="rId169"/>
-    <hyperlink ref="B192" r:id="rId170"/>
-    <hyperlink ref="B193" r:id="rId171"/>
-    <hyperlink ref="B194" r:id="rId172"/>
-    <hyperlink ref="B195" r:id="rId173"/>
-    <hyperlink ref="B196" r:id="rId174"/>
-    <hyperlink ref="B197" r:id="rId175" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId176"/>
-    <hyperlink ref="B199" r:id="rId177"/>
-    <hyperlink ref="B200" r:id="rId178"/>
-    <hyperlink ref="B201" r:id="rId179"/>
-    <hyperlink ref="B202" r:id="rId180"/>
-    <hyperlink ref="B203" r:id="rId181" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId182"/>
-    <hyperlink ref="B205" r:id="rId183"/>
-    <hyperlink ref="B206" r:id="rId184"/>
-    <hyperlink ref="B207" r:id="rId185"/>
-    <hyperlink ref="B208" r:id="rId186"/>
-    <hyperlink ref="B209" r:id="rId187"/>
-    <hyperlink ref="B210" r:id="rId188"/>
-    <hyperlink ref="B211" r:id="rId189"/>
-    <hyperlink ref="B214" r:id="rId190"/>
-    <hyperlink ref="B215" r:id="rId191"/>
-    <hyperlink ref="B216" r:id="rId192"/>
-    <hyperlink ref="B217" r:id="rId193"/>
-    <hyperlink ref="B218" r:id="rId194"/>
-    <hyperlink ref="B219" r:id="rId195"/>
-    <hyperlink ref="B220" r:id="rId196"/>
-    <hyperlink ref="B221" r:id="rId197"/>
-    <hyperlink ref="B222" r:id="rId198"/>
-    <hyperlink ref="B223" r:id="rId199"/>
-    <hyperlink ref="B224" r:id="rId200"/>
-    <hyperlink ref="B225" r:id="rId201"/>
-    <hyperlink ref="B226" r:id="rId202"/>
-    <hyperlink ref="B227" r:id="rId203"/>
-    <hyperlink ref="B228" r:id="rId204"/>
-    <hyperlink ref="B229" r:id="rId205"/>
-    <hyperlink ref="B230" r:id="rId206"/>
-    <hyperlink ref="B231" r:id="rId207"/>
-    <hyperlink ref="B232" r:id="rId208"/>
-    <hyperlink ref="B233" r:id="rId209"/>
-    <hyperlink ref="B234" r:id="rId210"/>
-    <hyperlink ref="B235" r:id="rId211"/>
-    <hyperlink ref="B238" r:id="rId212"/>
-    <hyperlink ref="B239" r:id="rId213"/>
-    <hyperlink ref="B240" r:id="rId214"/>
-    <hyperlink ref="B241" r:id="rId215"/>
-    <hyperlink ref="B242" r:id="rId216"/>
-    <hyperlink ref="B243" r:id="rId217"/>
-    <hyperlink ref="B244" r:id="rId218"/>
-    <hyperlink ref="B245" r:id="rId219"/>
-    <hyperlink ref="B246" r:id="rId220"/>
-    <hyperlink ref="B247" r:id="rId221"/>
-    <hyperlink ref="B248" r:id="rId222"/>
-    <hyperlink ref="B249" r:id="rId223"/>
-    <hyperlink ref="B250" r:id="rId224"/>
-    <hyperlink ref="B251" r:id="rId225"/>
-    <hyperlink ref="B252" r:id="rId226"/>
-    <hyperlink ref="B253" r:id="rId227"/>
-    <hyperlink ref="B254" r:id="rId228"/>
-    <hyperlink ref="B255" r:id="rId229"/>
-    <hyperlink ref="B256" r:id="rId230"/>
-    <hyperlink ref="B257" r:id="rId231" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId232"/>
-    <hyperlink ref="B259" r:id="rId233"/>
-    <hyperlink ref="B260" r:id="rId234"/>
-    <hyperlink ref="B261" r:id="rId235"/>
-    <hyperlink ref="B262" r:id="rId236"/>
-    <hyperlink ref="B263" r:id="rId237"/>
-    <hyperlink ref="B264" r:id="rId238"/>
-    <hyperlink ref="B265" r:id="rId239"/>
-    <hyperlink ref="B266" r:id="rId240"/>
-    <hyperlink ref="B267" r:id="rId241"/>
-    <hyperlink ref="B268" r:id="rId242"/>
-    <hyperlink ref="B269" r:id="rId243"/>
-    <hyperlink ref="B270" r:id="rId244"/>
-    <hyperlink ref="B271" r:id="rId245"/>
-    <hyperlink ref="B272" r:id="rId246"/>
-    <hyperlink ref="B275" r:id="rId247"/>
-    <hyperlink ref="B276" r:id="rId248"/>
-    <hyperlink ref="B277" r:id="rId249"/>
-    <hyperlink ref="B278" r:id="rId250"/>
-    <hyperlink ref="B279" r:id="rId251"/>
-    <hyperlink ref="B280" r:id="rId252"/>
-    <hyperlink ref="B281" r:id="rId253"/>
-    <hyperlink ref="B282" r:id="rId254"/>
-    <hyperlink ref="B283" r:id="rId255"/>
-    <hyperlink ref="B284" r:id="rId256"/>
-    <hyperlink ref="B285" r:id="rId257"/>
-    <hyperlink ref="B286" r:id="rId258"/>
-    <hyperlink ref="B287" r:id="rId259"/>
-    <hyperlink ref="B288" r:id="rId260"/>
-    <hyperlink ref="B289" r:id="rId261"/>
-    <hyperlink ref="B290" r:id="rId262"/>
-    <hyperlink ref="B291" r:id="rId263"/>
-    <hyperlink ref="B292" r:id="rId264"/>
-    <hyperlink ref="B293" r:id="rId265"/>
-    <hyperlink ref="B296" r:id="rId266"/>
-    <hyperlink ref="B297" r:id="rId267"/>
-    <hyperlink ref="B298" r:id="rId268"/>
-    <hyperlink ref="B299" r:id="rId269"/>
-    <hyperlink ref="B300" r:id="rId270"/>
-    <hyperlink ref="B301" r:id="rId271"/>
-    <hyperlink ref="B302" r:id="rId272"/>
-    <hyperlink ref="B303" r:id="rId273"/>
-    <hyperlink ref="B304" r:id="rId274"/>
-    <hyperlink ref="B305" r:id="rId275"/>
-    <hyperlink ref="B306" r:id="rId276" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId277"/>
-    <hyperlink ref="B308" r:id="rId278"/>
-    <hyperlink ref="B309" r:id="rId279"/>
-    <hyperlink ref="B310" r:id="rId280"/>
-    <hyperlink ref="B311" r:id="rId281"/>
-    <hyperlink ref="B312" r:id="rId282"/>
-    <hyperlink ref="B313" r:id="rId283"/>
-    <hyperlink ref="B314" r:id="rId284"/>
-    <hyperlink ref="B315" r:id="rId285"/>
-    <hyperlink ref="B316" r:id="rId286"/>
-    <hyperlink ref="B317" r:id="rId287"/>
-    <hyperlink ref="B318" r:id="rId288"/>
-    <hyperlink ref="B319" r:id="rId289"/>
-    <hyperlink ref="B320" r:id="rId290"/>
-    <hyperlink ref="B321" r:id="rId291"/>
-    <hyperlink ref="B322" r:id="rId292"/>
-    <hyperlink ref="B323" r:id="rId293"/>
-    <hyperlink ref="B324" r:id="rId294"/>
-    <hyperlink ref="B325" r:id="rId295"/>
-    <hyperlink ref="B326" r:id="rId296"/>
-    <hyperlink ref="B327" r:id="rId297"/>
-    <hyperlink ref="B328" r:id="rId298"/>
-    <hyperlink ref="B329" r:id="rId299"/>
-    <hyperlink ref="B330" r:id="rId300"/>
-    <hyperlink ref="B331" r:id="rId301"/>
-    <hyperlink ref="B332" r:id="rId302"/>
-    <hyperlink ref="B333" r:id="rId303"/>
-    <hyperlink ref="B336" r:id="rId304"/>
-    <hyperlink ref="B337" r:id="rId305"/>
-    <hyperlink ref="B338" r:id="rId306"/>
-    <hyperlink ref="B339" r:id="rId307"/>
-    <hyperlink ref="B340" r:id="rId308"/>
-    <hyperlink ref="B341" r:id="rId309"/>
-    <hyperlink ref="B342" r:id="rId310"/>
-    <hyperlink ref="B343" r:id="rId311"/>
-    <hyperlink ref="B344" r:id="rId312"/>
-    <hyperlink ref="B345" r:id="rId313"/>
-    <hyperlink ref="B346" r:id="rId314"/>
-    <hyperlink ref="B347" r:id="rId315"/>
-    <hyperlink ref="B348" r:id="rId316"/>
-    <hyperlink ref="B349" r:id="rId317"/>
-    <hyperlink ref="B350" r:id="rId318"/>
-    <hyperlink ref="B351" r:id="rId319"/>
-    <hyperlink ref="B352" r:id="rId320"/>
-    <hyperlink ref="B353" r:id="rId321"/>
-    <hyperlink ref="B357" r:id="rId322"/>
-    <hyperlink ref="B358" r:id="rId323"/>
-    <hyperlink ref="B359" r:id="rId324"/>
-    <hyperlink ref="B360" r:id="rId325"/>
-    <hyperlink ref="B361" r:id="rId326"/>
-    <hyperlink ref="B362" r:id="rId327"/>
-    <hyperlink ref="B363" r:id="rId328"/>
-    <hyperlink ref="B364" r:id="rId329"/>
-    <hyperlink ref="B365" r:id="rId330"/>
-    <hyperlink ref="B366" r:id="rId331"/>
-    <hyperlink ref="B367" r:id="rId332"/>
-    <hyperlink ref="B368" r:id="rId333"/>
-    <hyperlink ref="B369" r:id="rId334"/>
-    <hyperlink ref="B370" r:id="rId335"/>
-    <hyperlink ref="B371" r:id="rId336"/>
-    <hyperlink ref="B372" r:id="rId337"/>
-    <hyperlink ref="B373" r:id="rId338"/>
-    <hyperlink ref="B374" r:id="rId339"/>
-    <hyperlink ref="B375" r:id="rId340"/>
-    <hyperlink ref="B376" r:id="rId341"/>
-    <hyperlink ref="B377" r:id="rId342"/>
-    <hyperlink ref="B378" r:id="rId343"/>
-    <hyperlink ref="B379" r:id="rId344" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId345"/>
-    <hyperlink ref="B381" r:id="rId346"/>
-    <hyperlink ref="B382" r:id="rId347"/>
-    <hyperlink ref="B383" r:id="rId348"/>
-    <hyperlink ref="B384" r:id="rId349"/>
-    <hyperlink ref="B385" r:id="rId350"/>
-    <hyperlink ref="B386" r:id="rId351"/>
-    <hyperlink ref="B387" r:id="rId352"/>
-    <hyperlink ref="B388" r:id="rId353"/>
-    <hyperlink ref="B389" r:id="rId354"/>
-    <hyperlink ref="B390" r:id="rId355"/>
-    <hyperlink ref="B391" r:id="rId356"/>
-    <hyperlink ref="B392" r:id="rId357"/>
-    <hyperlink ref="B393" r:id="rId358"/>
-    <hyperlink ref="B394" r:id="rId359"/>
-    <hyperlink ref="B396" r:id="rId360"/>
-    <hyperlink ref="B395" r:id="rId361"/>
-    <hyperlink ref="B397" r:id="rId362"/>
-    <hyperlink ref="B398" r:id="rId363"/>
-    <hyperlink ref="B399" r:id="rId364"/>
-    <hyperlink ref="B402" r:id="rId365"/>
-    <hyperlink ref="B403" r:id="rId366"/>
-    <hyperlink ref="B404" r:id="rId367"/>
-    <hyperlink ref="B405" r:id="rId368"/>
-    <hyperlink ref="B406" r:id="rId369"/>
-    <hyperlink ref="B407" r:id="rId370"/>
-    <hyperlink ref="B410" r:id="rId371"/>
-    <hyperlink ref="B411" r:id="rId372"/>
-    <hyperlink ref="B412" r:id="rId373"/>
-    <hyperlink ref="B413" r:id="rId374"/>
-    <hyperlink ref="B414" r:id="rId375"/>
-    <hyperlink ref="B415" r:id="rId376"/>
-    <hyperlink ref="B416" r:id="rId377"/>
-    <hyperlink ref="B417" r:id="rId378"/>
-    <hyperlink ref="B419" r:id="rId379" display="Friends Pairing Problem"/>
-    <hyperlink ref="B420" r:id="rId380"/>
-    <hyperlink ref="B421" r:id="rId381"/>
-    <hyperlink ref="B422" r:id="rId382"/>
-    <hyperlink ref="B423" r:id="rId383"/>
-    <hyperlink ref="B424" r:id="rId384"/>
-    <hyperlink ref="B425" r:id="rId385"/>
-    <hyperlink ref="B426" r:id="rId386"/>
-    <hyperlink ref="B427" r:id="rId387"/>
-    <hyperlink ref="B428" r:id="rId388"/>
-    <hyperlink ref="B429" r:id="rId389" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId390" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId391" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B433" r:id="rId392"/>
-    <hyperlink ref="B434" r:id="rId393"/>
-    <hyperlink ref="B435" r:id="rId394"/>
-    <hyperlink ref="B436" r:id="rId395"/>
-    <hyperlink ref="B437" r:id="rId396"/>
-    <hyperlink ref="B438" r:id="rId397" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B439" r:id="rId398"/>
-    <hyperlink ref="B440" r:id="rId399" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B441" r:id="rId400"/>
-    <hyperlink ref="B442" r:id="rId401"/>
-    <hyperlink ref="B443" r:id="rId402" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B444" r:id="rId403"/>
-    <hyperlink ref="B445" r:id="rId404"/>
-    <hyperlink ref="B446" r:id="rId405"/>
-    <hyperlink ref="B447" r:id="rId406"/>
-    <hyperlink ref="B448" r:id="rId407"/>
-    <hyperlink ref="B449" r:id="rId408" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B450" r:id="rId409" display="Partition problem"/>
-    <hyperlink ref="B452" r:id="rId410" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B451" r:id="rId411"/>
-    <hyperlink ref="B453" r:id="rId412"/>
-    <hyperlink ref="B454" r:id="rId413"/>
-    <hyperlink ref="B455" r:id="rId414"/>
-    <hyperlink ref="B456" r:id="rId415"/>
-    <hyperlink ref="B457" r:id="rId416"/>
-    <hyperlink ref="B458" r:id="rId417"/>
-    <hyperlink ref="B459" r:id="rId418"/>
-    <hyperlink ref="B460" r:id="rId419" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B461" r:id="rId420"/>
-    <hyperlink ref="B462" r:id="rId421" display="Word Wrap Problem"/>
-    <hyperlink ref="B463" r:id="rId422"/>
-    <hyperlink ref="B470" r:id="rId423"/>
-    <hyperlink ref="B469" r:id="rId424"/>
-    <hyperlink ref="B468" r:id="rId425"/>
-    <hyperlink ref="B467" r:id="rId426" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B466" r:id="rId427"/>
-    <hyperlink ref="B465" r:id="rId428"/>
-    <hyperlink ref="B464" r:id="rId429"/>
-    <hyperlink ref="B477" r:id="rId430"/>
-    <hyperlink ref="B478" r:id="rId431"/>
-    <hyperlink ref="B479" r:id="rId432"/>
-    <hyperlink ref="B480" r:id="rId433"/>
-    <hyperlink ref="B481" r:id="rId434"/>
-    <hyperlink ref="B482" r:id="rId435"/>
-    <hyperlink ref="B485" r:id="rId436"/>
-    <hyperlink ref="B483" r:id="rId437"/>
-    <hyperlink ref="B484" r:id="rId438" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId439"/>
-    <hyperlink ref="B2" r:id="rId440"/>
-    <hyperlink ref="B335" r:id="rId441"/>
-    <hyperlink ref="B5" r:id="rId442"/>
-    <hyperlink ref="B106" r:id="rId443"/>
-    <hyperlink ref="B6" r:id="rId444" display="Rotate an array by k elemnts"/>
-    <hyperlink ref="B104" r:id="rId445"/>
-    <hyperlink ref="B418" r:id="rId446"/>
-    <hyperlink ref="B473" r:id="rId447"/>
-    <hyperlink ref="B474" r:id="rId448"/>
-    <hyperlink ref="B475" r:id="rId449"/>
-    <hyperlink ref="B476" r:id="rId450" display="Maximum XOR With an Element From Array"/>
-    <hyperlink ref="B432" r:id="rId451" display="Constrained Subsequence Sum"/>
-    <hyperlink ref="B180" r:id="rId452" display="House Robber III"/>
+    <hyperlink ref="B20" r:id="rId13" display="Count Inversion"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B25" r:id="rId18"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="B27" r:id="rId20"/>
+    <hyperlink ref="B28" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
+    <hyperlink ref="B30" r:id="rId23"/>
+    <hyperlink ref="B31" r:id="rId24"/>
+    <hyperlink ref="B32" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B37" r:id="rId30"/>
+    <hyperlink ref="B38" r:id="rId31"/>
+    <hyperlink ref="B39" r:id="rId32"/>
+    <hyperlink ref="B42" r:id="rId33"/>
+    <hyperlink ref="B43" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B45" r:id="rId36"/>
+    <hyperlink ref="B46" r:id="rId37"/>
+    <hyperlink ref="B47" r:id="rId38"/>
+    <hyperlink ref="B48" r:id="rId39"/>
+    <hyperlink ref="B49" r:id="rId40"/>
+    <hyperlink ref="B50" r:id="rId41"/>
+    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B54" r:id="rId43"/>
+    <hyperlink ref="B55" r:id="rId44"/>
+    <hyperlink ref="B56" r:id="rId45"/>
+    <hyperlink ref="B58" r:id="rId46"/>
+    <hyperlink ref="B59" r:id="rId47"/>
+    <hyperlink ref="B60" r:id="rId48"/>
+    <hyperlink ref="B61" r:id="rId49"/>
+    <hyperlink ref="B62" r:id="rId50"/>
+    <hyperlink ref="B63" r:id="rId51"/>
+    <hyperlink ref="B64" r:id="rId52"/>
+    <hyperlink ref="B65" r:id="rId53"/>
+    <hyperlink ref="B66" r:id="rId54"/>
+    <hyperlink ref="B67" r:id="rId55"/>
+    <hyperlink ref="B68" r:id="rId56"/>
+    <hyperlink ref="B69" r:id="rId57"/>
+    <hyperlink ref="B70" r:id="rId58"/>
+    <hyperlink ref="B71" r:id="rId59"/>
+    <hyperlink ref="B72" r:id="rId60"/>
+    <hyperlink ref="B73" r:id="rId61"/>
+    <hyperlink ref="B74" r:id="rId62"/>
+    <hyperlink ref="B75" r:id="rId63"/>
+    <hyperlink ref="B76" r:id="rId64"/>
+    <hyperlink ref="B77" r:id="rId65"/>
+    <hyperlink ref="B78" r:id="rId66"/>
+    <hyperlink ref="B79" r:id="rId67"/>
+    <hyperlink ref="B80" r:id="rId68"/>
+    <hyperlink ref="B81" r:id="rId69"/>
+    <hyperlink ref="B82" r:id="rId70"/>
+    <hyperlink ref="B83" r:id="rId71"/>
+    <hyperlink ref="B84" r:id="rId72"/>
+    <hyperlink ref="B85" r:id="rId73"/>
+    <hyperlink ref="B86" r:id="rId74"/>
+    <hyperlink ref="B87" r:id="rId75"/>
+    <hyperlink ref="B88" r:id="rId76"/>
+    <hyperlink ref="B89" r:id="rId77"/>
+    <hyperlink ref="B90" r:id="rId78"/>
+    <hyperlink ref="B91" r:id="rId79"/>
+    <hyperlink ref="B92" r:id="rId80"/>
+    <hyperlink ref="B93" r:id="rId81"/>
+    <hyperlink ref="B94" r:id="rId82"/>
+    <hyperlink ref="B95" r:id="rId83"/>
+    <hyperlink ref="B96" r:id="rId84"/>
+    <hyperlink ref="B99" r:id="rId85"/>
+    <hyperlink ref="B100" r:id="rId86"/>
+    <hyperlink ref="B101" r:id="rId87"/>
+    <hyperlink ref="B102" r:id="rId88"/>
+    <hyperlink ref="B105" r:id="rId89" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId90"/>
+    <hyperlink ref="B108" r:id="rId91"/>
+    <hyperlink ref="B109" r:id="rId92"/>
+    <hyperlink ref="B110" r:id="rId93"/>
+    <hyperlink ref="B111" r:id="rId94"/>
+    <hyperlink ref="B113" r:id="rId95"/>
+    <hyperlink ref="B114" r:id="rId96"/>
+    <hyperlink ref="B115" r:id="rId97"/>
+    <hyperlink ref="B116" r:id="rId98"/>
+    <hyperlink ref="B117" r:id="rId99"/>
+    <hyperlink ref="B118" r:id="rId100"/>
+    <hyperlink ref="B119" r:id="rId101"/>
+    <hyperlink ref="B120" r:id="rId102"/>
+    <hyperlink ref="B121" r:id="rId103"/>
+    <hyperlink ref="B122" r:id="rId104"/>
+    <hyperlink ref="B123" r:id="rId105"/>
+    <hyperlink ref="B124" r:id="rId106"/>
+    <hyperlink ref="B125" r:id="rId107"/>
+    <hyperlink ref="B126" r:id="rId108"/>
+    <hyperlink ref="B127" r:id="rId109"/>
+    <hyperlink ref="B128" r:id="rId110"/>
+    <hyperlink ref="B129" r:id="rId111"/>
+    <hyperlink ref="B130" r:id="rId112"/>
+    <hyperlink ref="B131" r:id="rId113"/>
+    <hyperlink ref="B132" r:id="rId114"/>
+    <hyperlink ref="B133" r:id="rId115"/>
+    <hyperlink ref="B134" r:id="rId116"/>
+    <hyperlink ref="B135" r:id="rId117"/>
+    <hyperlink ref="B136" r:id="rId118"/>
+    <hyperlink ref="B103" r:id="rId119"/>
+    <hyperlink ref="B112" r:id="rId120"/>
+    <hyperlink ref="B139" r:id="rId121"/>
+    <hyperlink ref="B140" r:id="rId122"/>
+    <hyperlink ref="B141" r:id="rId123"/>
+    <hyperlink ref="B142" r:id="rId124"/>
+    <hyperlink ref="B143" r:id="rId125"/>
+    <hyperlink ref="B144" r:id="rId126"/>
+    <hyperlink ref="B145" r:id="rId127"/>
+    <hyperlink ref="B146" r:id="rId128"/>
+    <hyperlink ref="B147" r:id="rId129"/>
+    <hyperlink ref="B148" r:id="rId130"/>
+    <hyperlink ref="B149" r:id="rId131"/>
+    <hyperlink ref="B150" r:id="rId132"/>
+    <hyperlink ref="B151" r:id="rId133"/>
+    <hyperlink ref="B152" r:id="rId134"/>
+    <hyperlink ref="B153" r:id="rId135"/>
+    <hyperlink ref="B154" r:id="rId136"/>
+    <hyperlink ref="B155" r:id="rId137"/>
+    <hyperlink ref="B156" r:id="rId138"/>
+    <hyperlink ref="B157" r:id="rId139"/>
+    <hyperlink ref="B158" r:id="rId140"/>
+    <hyperlink ref="B159" r:id="rId141"/>
+    <hyperlink ref="B160" r:id="rId142"/>
+    <hyperlink ref="B161" r:id="rId143"/>
+    <hyperlink ref="B162" r:id="rId144"/>
+    <hyperlink ref="B163" r:id="rId145"/>
+    <hyperlink ref="B166" r:id="rId146"/>
+    <hyperlink ref="B167" r:id="rId147"/>
+    <hyperlink ref="B168" r:id="rId148"/>
+    <hyperlink ref="B169" r:id="rId149"/>
+    <hyperlink ref="B170" r:id="rId150"/>
+    <hyperlink ref="B171" r:id="rId151"/>
+    <hyperlink ref="B172" r:id="rId152"/>
+    <hyperlink ref="B173" r:id="rId153"/>
+    <hyperlink ref="B174" r:id="rId154"/>
+    <hyperlink ref="B177" r:id="rId155"/>
+    <hyperlink ref="B178" r:id="rId156"/>
+    <hyperlink ref="B179" r:id="rId157"/>
+    <hyperlink ref="B181" r:id="rId158"/>
+    <hyperlink ref="B182" r:id="rId159"/>
+    <hyperlink ref="B183" r:id="rId160"/>
+    <hyperlink ref="B184" r:id="rId161"/>
+    <hyperlink ref="B185" r:id="rId162"/>
+    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId164"/>
+    <hyperlink ref="B188" r:id="rId165"/>
+    <hyperlink ref="B189" r:id="rId166"/>
+    <hyperlink ref="B190" r:id="rId167"/>
+    <hyperlink ref="B191" r:id="rId168"/>
+    <hyperlink ref="B192" r:id="rId169"/>
+    <hyperlink ref="B193" r:id="rId170"/>
+    <hyperlink ref="B194" r:id="rId171"/>
+    <hyperlink ref="B195" r:id="rId172"/>
+    <hyperlink ref="B196" r:id="rId173"/>
+    <hyperlink ref="B197" r:id="rId174" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId175"/>
+    <hyperlink ref="B199" r:id="rId176"/>
+    <hyperlink ref="B200" r:id="rId177"/>
+    <hyperlink ref="B201" r:id="rId178"/>
+    <hyperlink ref="B202" r:id="rId179"/>
+    <hyperlink ref="B203" r:id="rId180" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId181"/>
+    <hyperlink ref="B205" r:id="rId182"/>
+    <hyperlink ref="B206" r:id="rId183"/>
+    <hyperlink ref="B207" r:id="rId184"/>
+    <hyperlink ref="B208" r:id="rId185"/>
+    <hyperlink ref="B209" r:id="rId186"/>
+    <hyperlink ref="B210" r:id="rId187"/>
+    <hyperlink ref="B211" r:id="rId188"/>
+    <hyperlink ref="B214" r:id="rId189"/>
+    <hyperlink ref="B215" r:id="rId190"/>
+    <hyperlink ref="B216" r:id="rId191"/>
+    <hyperlink ref="B217" r:id="rId192"/>
+    <hyperlink ref="B218" r:id="rId193"/>
+    <hyperlink ref="B219" r:id="rId194"/>
+    <hyperlink ref="B220" r:id="rId195"/>
+    <hyperlink ref="B221" r:id="rId196"/>
+    <hyperlink ref="B222" r:id="rId197"/>
+    <hyperlink ref="B223" r:id="rId198"/>
+    <hyperlink ref="B224" r:id="rId199"/>
+    <hyperlink ref="B225" r:id="rId200"/>
+    <hyperlink ref="B226" r:id="rId201"/>
+    <hyperlink ref="B227" r:id="rId202"/>
+    <hyperlink ref="B228" r:id="rId203"/>
+    <hyperlink ref="B229" r:id="rId204"/>
+    <hyperlink ref="B230" r:id="rId205"/>
+    <hyperlink ref="B231" r:id="rId206"/>
+    <hyperlink ref="B232" r:id="rId207"/>
+    <hyperlink ref="B233" r:id="rId208"/>
+    <hyperlink ref="B234" r:id="rId209"/>
+    <hyperlink ref="B235" r:id="rId210"/>
+    <hyperlink ref="B238" r:id="rId211"/>
+    <hyperlink ref="B239" r:id="rId212"/>
+    <hyperlink ref="B240" r:id="rId213"/>
+    <hyperlink ref="B241" r:id="rId214"/>
+    <hyperlink ref="B242" r:id="rId215"/>
+    <hyperlink ref="B243" r:id="rId216"/>
+    <hyperlink ref="B244" r:id="rId217"/>
+    <hyperlink ref="B245" r:id="rId218"/>
+    <hyperlink ref="B246" r:id="rId219"/>
+    <hyperlink ref="B247" r:id="rId220"/>
+    <hyperlink ref="B248" r:id="rId221"/>
+    <hyperlink ref="B249" r:id="rId222"/>
+    <hyperlink ref="B250" r:id="rId223"/>
+    <hyperlink ref="B251" r:id="rId224"/>
+    <hyperlink ref="B252" r:id="rId225"/>
+    <hyperlink ref="B253" r:id="rId226"/>
+    <hyperlink ref="B254" r:id="rId227"/>
+    <hyperlink ref="B255" r:id="rId228"/>
+    <hyperlink ref="B256" r:id="rId229"/>
+    <hyperlink ref="B257" r:id="rId230" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId231"/>
+    <hyperlink ref="B259" r:id="rId232"/>
+    <hyperlink ref="B260" r:id="rId233"/>
+    <hyperlink ref="B261" r:id="rId234"/>
+    <hyperlink ref="B262" r:id="rId235"/>
+    <hyperlink ref="B263" r:id="rId236"/>
+    <hyperlink ref="B264" r:id="rId237"/>
+    <hyperlink ref="B265" r:id="rId238"/>
+    <hyperlink ref="B266" r:id="rId239"/>
+    <hyperlink ref="B267" r:id="rId240"/>
+    <hyperlink ref="B268" r:id="rId241"/>
+    <hyperlink ref="B269" r:id="rId242"/>
+    <hyperlink ref="B270" r:id="rId243"/>
+    <hyperlink ref="B271" r:id="rId244"/>
+    <hyperlink ref="B272" r:id="rId245"/>
+    <hyperlink ref="B275" r:id="rId246"/>
+    <hyperlink ref="B276" r:id="rId247"/>
+    <hyperlink ref="B277" r:id="rId248"/>
+    <hyperlink ref="B278" r:id="rId249"/>
+    <hyperlink ref="B279" r:id="rId250"/>
+    <hyperlink ref="B280" r:id="rId251"/>
+    <hyperlink ref="B281" r:id="rId252"/>
+    <hyperlink ref="B282" r:id="rId253"/>
+    <hyperlink ref="B283" r:id="rId254"/>
+    <hyperlink ref="B284" r:id="rId255"/>
+    <hyperlink ref="B285" r:id="rId256"/>
+    <hyperlink ref="B286" r:id="rId257"/>
+    <hyperlink ref="B287" r:id="rId258"/>
+    <hyperlink ref="B288" r:id="rId259"/>
+    <hyperlink ref="B289" r:id="rId260"/>
+    <hyperlink ref="B290" r:id="rId261"/>
+    <hyperlink ref="B291" r:id="rId262"/>
+    <hyperlink ref="B292" r:id="rId263"/>
+    <hyperlink ref="B293" r:id="rId264"/>
+    <hyperlink ref="B296" r:id="rId265"/>
+    <hyperlink ref="B297" r:id="rId266"/>
+    <hyperlink ref="B298" r:id="rId267"/>
+    <hyperlink ref="B299" r:id="rId268"/>
+    <hyperlink ref="B300" r:id="rId269"/>
+    <hyperlink ref="B301" r:id="rId270"/>
+    <hyperlink ref="B302" r:id="rId271"/>
+    <hyperlink ref="B303" r:id="rId272"/>
+    <hyperlink ref="B304" r:id="rId273"/>
+    <hyperlink ref="B305" r:id="rId274"/>
+    <hyperlink ref="B306" r:id="rId275" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId276"/>
+    <hyperlink ref="B308" r:id="rId277"/>
+    <hyperlink ref="B309" r:id="rId278"/>
+    <hyperlink ref="B310" r:id="rId279"/>
+    <hyperlink ref="B311" r:id="rId280"/>
+    <hyperlink ref="B312" r:id="rId281"/>
+    <hyperlink ref="B313" r:id="rId282"/>
+    <hyperlink ref="B314" r:id="rId283"/>
+    <hyperlink ref="B315" r:id="rId284"/>
+    <hyperlink ref="B316" r:id="rId285"/>
+    <hyperlink ref="B317" r:id="rId286"/>
+    <hyperlink ref="B318" r:id="rId287"/>
+    <hyperlink ref="B319" r:id="rId288"/>
+    <hyperlink ref="B320" r:id="rId289"/>
+    <hyperlink ref="B321" r:id="rId290"/>
+    <hyperlink ref="B322" r:id="rId291"/>
+    <hyperlink ref="B323" r:id="rId292"/>
+    <hyperlink ref="B324" r:id="rId293"/>
+    <hyperlink ref="B325" r:id="rId294"/>
+    <hyperlink ref="B326" r:id="rId295"/>
+    <hyperlink ref="B327" r:id="rId296"/>
+    <hyperlink ref="B328" r:id="rId297"/>
+    <hyperlink ref="B329" r:id="rId298"/>
+    <hyperlink ref="B330" r:id="rId299"/>
+    <hyperlink ref="B331" r:id="rId300"/>
+    <hyperlink ref="B332" r:id="rId301"/>
+    <hyperlink ref="B333" r:id="rId302"/>
+    <hyperlink ref="B336" r:id="rId303"/>
+    <hyperlink ref="B337" r:id="rId304"/>
+    <hyperlink ref="B338" r:id="rId305"/>
+    <hyperlink ref="B339" r:id="rId306"/>
+    <hyperlink ref="B340" r:id="rId307"/>
+    <hyperlink ref="B341" r:id="rId308"/>
+    <hyperlink ref="B342" r:id="rId309"/>
+    <hyperlink ref="B343" r:id="rId310"/>
+    <hyperlink ref="B344" r:id="rId311"/>
+    <hyperlink ref="B345" r:id="rId312"/>
+    <hyperlink ref="B346" r:id="rId313"/>
+    <hyperlink ref="B347" r:id="rId314"/>
+    <hyperlink ref="B348" r:id="rId315"/>
+    <hyperlink ref="B349" r:id="rId316"/>
+    <hyperlink ref="B350" r:id="rId317"/>
+    <hyperlink ref="B351" r:id="rId318"/>
+    <hyperlink ref="B352" r:id="rId319"/>
+    <hyperlink ref="B353" r:id="rId320"/>
+    <hyperlink ref="B357" r:id="rId321"/>
+    <hyperlink ref="B358" r:id="rId322"/>
+    <hyperlink ref="B359" r:id="rId323"/>
+    <hyperlink ref="B360" r:id="rId324"/>
+    <hyperlink ref="B361" r:id="rId325"/>
+    <hyperlink ref="B362" r:id="rId326"/>
+    <hyperlink ref="B363" r:id="rId327"/>
+    <hyperlink ref="B364" r:id="rId328"/>
+    <hyperlink ref="B365" r:id="rId329"/>
+    <hyperlink ref="B366" r:id="rId330"/>
+    <hyperlink ref="B367" r:id="rId331"/>
+    <hyperlink ref="B368" r:id="rId332"/>
+    <hyperlink ref="B369" r:id="rId333"/>
+    <hyperlink ref="B370" r:id="rId334"/>
+    <hyperlink ref="B371" r:id="rId335"/>
+    <hyperlink ref="B372" r:id="rId336"/>
+    <hyperlink ref="B373" r:id="rId337"/>
+    <hyperlink ref="B374" r:id="rId338"/>
+    <hyperlink ref="B375" r:id="rId339"/>
+    <hyperlink ref="B376" r:id="rId340"/>
+    <hyperlink ref="B377" r:id="rId341"/>
+    <hyperlink ref="B378" r:id="rId342"/>
+    <hyperlink ref="B379" r:id="rId343" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId344"/>
+    <hyperlink ref="B381" r:id="rId345"/>
+    <hyperlink ref="B382" r:id="rId346"/>
+    <hyperlink ref="B383" r:id="rId347"/>
+    <hyperlink ref="B384" r:id="rId348"/>
+    <hyperlink ref="B385" r:id="rId349"/>
+    <hyperlink ref="B386" r:id="rId350"/>
+    <hyperlink ref="B387" r:id="rId351"/>
+    <hyperlink ref="B388" r:id="rId352"/>
+    <hyperlink ref="B389" r:id="rId353"/>
+    <hyperlink ref="B390" r:id="rId354"/>
+    <hyperlink ref="B391" r:id="rId355"/>
+    <hyperlink ref="B392" r:id="rId356"/>
+    <hyperlink ref="B393" r:id="rId357"/>
+    <hyperlink ref="B394" r:id="rId358"/>
+    <hyperlink ref="B396" r:id="rId359"/>
+    <hyperlink ref="B395" r:id="rId360"/>
+    <hyperlink ref="B397" r:id="rId361"/>
+    <hyperlink ref="B398" r:id="rId362"/>
+    <hyperlink ref="B399" r:id="rId363"/>
+    <hyperlink ref="B402" r:id="rId364"/>
+    <hyperlink ref="B403" r:id="rId365"/>
+    <hyperlink ref="B404" r:id="rId366"/>
+    <hyperlink ref="B405" r:id="rId367"/>
+    <hyperlink ref="B406" r:id="rId368"/>
+    <hyperlink ref="B407" r:id="rId369"/>
+    <hyperlink ref="B410" r:id="rId370"/>
+    <hyperlink ref="B411" r:id="rId371"/>
+    <hyperlink ref="B412" r:id="rId372"/>
+    <hyperlink ref="B413" r:id="rId373"/>
+    <hyperlink ref="B414" r:id="rId374"/>
+    <hyperlink ref="B415" r:id="rId375"/>
+    <hyperlink ref="B416" r:id="rId376"/>
+    <hyperlink ref="B417" r:id="rId377"/>
+    <hyperlink ref="B419" r:id="rId378" display="Friends Pairing Problem"/>
+    <hyperlink ref="B420" r:id="rId379"/>
+    <hyperlink ref="B421" r:id="rId380"/>
+    <hyperlink ref="B422" r:id="rId381"/>
+    <hyperlink ref="B423" r:id="rId382"/>
+    <hyperlink ref="B424" r:id="rId383"/>
+    <hyperlink ref="B425" r:id="rId384"/>
+    <hyperlink ref="B426" r:id="rId385"/>
+    <hyperlink ref="B427" r:id="rId386"/>
+    <hyperlink ref="B428" r:id="rId387"/>
+    <hyperlink ref="B429" r:id="rId388" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId389" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId390" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B433" r:id="rId391"/>
+    <hyperlink ref="B434" r:id="rId392"/>
+    <hyperlink ref="B435" r:id="rId393"/>
+    <hyperlink ref="B436" r:id="rId394"/>
+    <hyperlink ref="B437" r:id="rId395"/>
+    <hyperlink ref="B438" r:id="rId396" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B439" r:id="rId397"/>
+    <hyperlink ref="B440" r:id="rId398" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B441" r:id="rId399"/>
+    <hyperlink ref="B442" r:id="rId400"/>
+    <hyperlink ref="B443" r:id="rId401" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B444" r:id="rId402"/>
+    <hyperlink ref="B445" r:id="rId403"/>
+    <hyperlink ref="B446" r:id="rId404"/>
+    <hyperlink ref="B447" r:id="rId405"/>
+    <hyperlink ref="B448" r:id="rId406"/>
+    <hyperlink ref="B449" r:id="rId407" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B450" r:id="rId408" display="Partition problem"/>
+    <hyperlink ref="B452" r:id="rId409" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B451" r:id="rId410"/>
+    <hyperlink ref="B453" r:id="rId411"/>
+    <hyperlink ref="B454" r:id="rId412"/>
+    <hyperlink ref="B455" r:id="rId413"/>
+    <hyperlink ref="B456" r:id="rId414"/>
+    <hyperlink ref="B457" r:id="rId415"/>
+    <hyperlink ref="B458" r:id="rId416"/>
+    <hyperlink ref="B459" r:id="rId417"/>
+    <hyperlink ref="B460" r:id="rId418" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B461" r:id="rId419"/>
+    <hyperlink ref="B462" r:id="rId420" display="Word Wrap Problem"/>
+    <hyperlink ref="B463" r:id="rId421"/>
+    <hyperlink ref="B470" r:id="rId422"/>
+    <hyperlink ref="B469" r:id="rId423"/>
+    <hyperlink ref="B468" r:id="rId424"/>
+    <hyperlink ref="B467" r:id="rId425" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B466" r:id="rId426"/>
+    <hyperlink ref="B465" r:id="rId427"/>
+    <hyperlink ref="B464" r:id="rId428"/>
+    <hyperlink ref="B477" r:id="rId429"/>
+    <hyperlink ref="B478" r:id="rId430"/>
+    <hyperlink ref="B479" r:id="rId431"/>
+    <hyperlink ref="B480" r:id="rId432"/>
+    <hyperlink ref="B481" r:id="rId433"/>
+    <hyperlink ref="B482" r:id="rId434"/>
+    <hyperlink ref="B485" r:id="rId435"/>
+    <hyperlink ref="B483" r:id="rId436"/>
+    <hyperlink ref="B484" r:id="rId437" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B356" r:id="rId438"/>
+    <hyperlink ref="B2" r:id="rId439"/>
+    <hyperlink ref="B335" r:id="rId440"/>
+    <hyperlink ref="B5" r:id="rId441"/>
+    <hyperlink ref="B106" r:id="rId442"/>
+    <hyperlink ref="B6" r:id="rId443" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B104" r:id="rId444"/>
+    <hyperlink ref="B418" r:id="rId445"/>
+    <hyperlink ref="B473" r:id="rId446"/>
+    <hyperlink ref="B474" r:id="rId447"/>
+    <hyperlink ref="B475" r:id="rId448"/>
+    <hyperlink ref="B476" r:id="rId449" display="Maximum XOR With an Element From Array"/>
+    <hyperlink ref="B432" r:id="rId450" display="Constrained Subsequence Sum"/>
+    <hyperlink ref="B180" r:id="rId451" display="House Robber III"/>
+    <hyperlink ref="B19" r:id="rId452"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId453"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -75,9 +75,6 @@
     <t>find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
     <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Find factorial of a large number</t>
   </si>
   <si>
-    <t xml:space="preserve">find maximum product subarray </t>
-  </si>
-  <si>
     <t>Find longest coinsecutive subsequence</t>
   </si>
   <si>
@@ -1435,6 +1429,12 @@
   </si>
   <si>
     <t>Smallest Range II [IMP]</t>
+  </si>
+  <si>
+    <t>find maximum product subarray (Basic algo/Kadanes)</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays (3 pointer)</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2108,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -2207,18 +2207,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
+      <c r="C14" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2270,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C20" s="43">
         <v>1</v>
@@ -2298,37 +2298,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A24" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
+      <c r="C24" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="21">
@@ -2336,98 +2336,98 @@
         <v>3</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A27" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="5" t="s">
+      <c r="C27" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="5" t="s">
+      <c r="C28" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A29" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="5" t="s">
+      <c r="C29" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A30" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="5" t="s">
+      <c r="C30" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A31" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="5" t="s">
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="5" t="s">
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A33" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B33" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
+      <c r="C33" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2435,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="54" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A54" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="30">
         <v>1</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="55" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A55" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C55" s="30">
         <v>1</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="56" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A56" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C56" s="30">
         <v>1</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -3118,10 +3118,10 @@
     </row>
     <row r="99" spans="1:3" ht="21">
       <c r="A99" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C100" s="4">
         <v>0</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C102" s="4">
         <v>0</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="104" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A104" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C104" s="13">
         <v>1</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="106" spans="1:3" s="21" customFormat="1" ht="23.4">
       <c r="A106" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C106" s="26">
         <v>1</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="107" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A107" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C107" s="13">
         <v>1</v>
@@ -3217,10 +3217,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3503,10 +3503,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C139" s="4">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="142" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A142" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C142" s="17">
         <v>1</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3646,10 +3646,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C173" s="4">
         <v>0</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="177" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A177" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C177" s="17">
         <v>1</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="178" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A178" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="C178" s="17">
         <v>1</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="179" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A179" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C179" s="17">
         <v>1</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="180" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A180" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C180" s="39">
         <v>1</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="181" spans="1:3" s="60" customFormat="1" ht="21">
       <c r="A181" s="57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C181" s="59">
         <v>1</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="182" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A182" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C182" s="55">
         <v>1</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="183" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A183" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C183" s="55">
         <v>1</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="184" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A184" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C184" s="55">
         <v>1</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="185" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A185" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C185" s="13">
         <v>1</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A186" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C186" s="13">
         <v>1</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="187" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A187" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C187" s="13">
         <v>1</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A188" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C188" s="17">
         <v>1</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4629,10 +4629,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4662,10 +4662,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4673,10 +4673,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4706,10 +4706,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4838,10 +4838,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C271" s="4">
         <v>0</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C272" s="4">
         <v>0</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C293" s="4">
         <v>0</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5236,10 +5236,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C298" s="4">
         <v>0</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5269,10 +5269,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5324,10 +5324,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5423,10 +5423,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C333" s="4">
         <v>0</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A335" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C335" s="19">
         <v>1</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5693,10 +5693,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5737,10 +5737,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5748,10 +5748,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5825,10 +5825,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C353" s="4">
         <v>0</v>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6233,10 +6233,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6255,10 +6255,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6266,10 +6266,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6310,10 +6310,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6321,10 +6321,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6332,10 +6332,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6343,10 +6343,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C399" s="4">
         <v>0</v>
@@ -6366,10 +6366,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6377,10 +6377,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6388,10 +6388,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C407" s="4">
         <v>0</v>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6455,10 +6455,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B411" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6477,10 +6477,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6488,10 +6488,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6521,10 +6521,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6532,10 +6532,10 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6543,10 +6543,10 @@
     </row>
     <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A419" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C419" s="13">
         <v>1</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
@@ -6565,10 +6565,10 @@
     </row>
     <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A421" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C421" s="30">
         <v>1</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C422" s="13">
         <v>1</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A423" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C423" s="13">
         <v>1</v>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A424" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B424" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C424" s="30">
         <v>1</v>
@@ -6609,10 +6609,10 @@
     </row>
     <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A425" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C425" s="35">
         <v>0</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6664,10 +6664,10 @@
     </row>
     <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A430" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B430" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C430" s="30">
         <v>1</v>
@@ -6675,10 +6675,10 @@
     </row>
     <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A431" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C431" s="39">
         <v>1</v>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6708,10 +6708,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
@@ -6730,10 +6730,10 @@
     </row>
     <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A436" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C436" s="17">
         <v>1</v>
@@ -6741,10 +6741,10 @@
     </row>
     <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A437" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B437" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C437" s="30">
         <v>1</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A438" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A439" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B439" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C439" s="30">
         <v>1</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A440" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="441" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A441" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B441" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C441" s="30">
         <v>1</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="442" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A442" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C442" s="35">
         <v>1</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="443" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A443" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C443" s="30">
         <v>1</v>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="444" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A444" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B444" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C444" s="13">
         <v>1</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="445" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A445" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C445" s="35">
         <v>1</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A446" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B446" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C446" s="30">
         <v>1</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="447" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A447" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B447" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C447" s="30">
         <v>1</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="448" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A448" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C448" s="13">
         <v>1</v>
@@ -6873,10 +6873,10 @@
     </row>
     <row r="449" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A449" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C449" s="39">
         <v>1</v>
@@ -6884,10 +6884,10 @@
     </row>
     <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A450" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="451" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A451" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B451" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C451" s="30">
         <v>1</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="452" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A452" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C452" s="35">
         <v>1</v>
@@ -6917,10 +6917,10 @@
     </row>
     <row r="453" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A453" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B453" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C453" s="30">
         <v>1</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A454" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C454" s="13">
         <v>1</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="455" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A455" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C455" s="13">
         <v>1</v>
@@ -6950,10 +6950,10 @@
     </row>
     <row r="456" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A456" s="41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C456" s="43">
         <v>1</v>
@@ -6961,10 +6961,10 @@
     </row>
     <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A457" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C457" s="13">
         <v>1</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A458" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C458" s="13">
         <v>1</v>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="459" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A459" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C459" s="13">
         <v>1</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="460" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A460" s="45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B460" s="46" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C460" s="47">
         <v>1</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="461" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A461" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C461" s="35">
         <v>1</v>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="462" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A462" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C462" s="13">
         <v>1</v>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="463" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A463" s="41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C463" s="43">
         <v>1</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="464" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A464" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C464" s="13">
         <v>1</v>
@@ -7049,10 +7049,10 @@
     </row>
     <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A465" s="45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B465" s="46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C465" s="47">
         <v>1</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A466" s="45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B466" s="46" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C466" s="47">
         <v>1</v>
@@ -7071,10 +7071,10 @@
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A467" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C467" s="13">
         <v>1</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="468" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A468" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C468" s="13">
         <v>1</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="469" spans="1:3" s="52" customFormat="1" ht="21">
       <c r="A469" s="49" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B469" s="50" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C469" s="51">
         <v>1</v>
@@ -7104,10 +7104,10 @@
     </row>
     <row r="470" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A470" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B470" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C470" s="30">
         <v>1</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A475" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C475" s="13">
         <v>1</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A476" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B476" s="38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C476" s="39">
         <v>1</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7183,10 +7183,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B478" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C485" s="4">
         <v>0</v>
@@ -7272,7 +7272,7 @@
     <row r="486" spans="1:3">
       <c r="C486">
         <f>SUM(C7:C485)</f>
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -7291,11 +7291,11 @@
     <hyperlink ref="B18" r:id="rId12"/>
     <hyperlink ref="B20" r:id="rId13" display="Count Inversion"/>
     <hyperlink ref="B21" r:id="rId14"/>
-    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId15" display="find common elements In 3 sorted arrays"/>
     <hyperlink ref="B23" r:id="rId16"/>
     <hyperlink ref="B24" r:id="rId17"/>
     <hyperlink ref="B25" r:id="rId18"/>
-    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="B26" r:id="rId19" display="find maximum product subarray "/>
     <hyperlink ref="B27" r:id="rId20"/>
     <hyperlink ref="B28" r:id="rId21"/>
     <hyperlink ref="B29" r:id="rId22"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -93,21 +93,12 @@
     <t>Maximum profit by buying and selling a share atmost twice</t>
   </si>
   <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
     <t>Find the triplet that sum to a given value</t>
   </si>
   <si>
     <t>Trapping Rain water problem</t>
   </si>
   <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
     <t>Three way partitioning of an array around a given value</t>
   </si>
   <si>
@@ -1435,6 +1426,12 @@
   </si>
   <si>
     <t>find common elements In 3 sorted arrays (3 pointer)</t>
+  </si>
+  <si>
+    <t>Sum of Subarrays</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2077,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C486"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2108,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2116,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2127,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2193,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -2270,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2281,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C20" s="43">
         <v>1</v>
@@ -2303,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C22" s="43">
         <v>1</v>
@@ -2347,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2386,14 +2383,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="44" customFormat="1" ht="21">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="43">
+      <c r="B30" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C30" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2402,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="43">
         <v>1</v>
@@ -2413,20 +2410,20 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="44" customFormat="1" ht="21">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="43">
+      <c r="B33" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C33" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2435,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2446,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2457,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2468,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2479,42 +2476,42 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
+      <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -2522,10 +2519,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2533,10 +2530,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2544,10 +2541,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2555,10 +2552,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2566,10 +2563,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2577,10 +2574,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2588,10 +2585,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2599,44 +2596,44 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A53" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="4">
-        <v>0</v>
+      <c r="C53" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A54" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="30">
         <v>1</v>
@@ -2644,32 +2641,32 @@
     </row>
     <row r="55" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A55" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>45</v>
-      </c>
       <c r="C55" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A56" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="30">
-        <v>1</v>
+    <row r="56" spans="1:3" ht="21">
+      <c r="A56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2677,10 +2674,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2688,10 +2685,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2699,10 +2696,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2710,10 +2707,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2721,10 +2718,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2743,10 +2740,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -2754,10 +2751,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -2765,10 +2762,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2776,10 +2773,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2787,10 +2784,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2809,10 +2806,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -2820,10 +2817,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2831,10 +2828,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -2842,10 +2839,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -2853,10 +2850,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -2864,10 +2861,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2875,10 +2872,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -2886,10 +2883,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -2897,10 +2894,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -2908,10 +2905,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2919,10 +2916,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -2930,10 +2927,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
@@ -2941,10 +2938,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2952,10 +2949,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2963,10 +2960,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2974,10 +2971,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2985,10 +2982,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -2996,10 +2993,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -3007,10 +3004,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -3018,10 +3015,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -3029,10 +3026,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -3040,10 +3037,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -3051,10 +3048,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -3062,10 +3059,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -3073,10 +3070,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -3084,44 +3081,44 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="21">
+      <c r="A97" s="8"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="21">
+      <c r="A98" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="8"/>
-      <c r="B98" s="7"/>
       <c r="C98" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="21">
       <c r="A99" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
@@ -3129,10 +3126,10 @@
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="C100" s="4">
         <v>0</v>
@@ -3140,10 +3137,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -3151,76 +3148,76 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A103" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="21">
+      <c r="A104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="21" customFormat="1" ht="23.4">
+      <c r="A105" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A106" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="C106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21">
+      <c r="A107" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A104" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C104" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="21" customFormat="1" ht="23.4">
-      <c r="A106" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C106" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A107" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1</v>
+      <c r="C107" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -3228,10 +3225,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -3239,10 +3236,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -3250,10 +3247,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -3261,10 +3258,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
@@ -3272,10 +3269,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
@@ -3283,10 +3280,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -3294,10 +3291,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -3305,10 +3302,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
@@ -3316,10 +3313,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -3327,10 +3324,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
@@ -3338,10 +3335,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -3349,10 +3346,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -3360,10 +3357,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3371,10 +3368,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
@@ -3382,10 +3379,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
@@ -3393,10 +3390,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -3404,10 +3401,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3415,10 +3412,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -3426,10 +3423,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -3437,10 +3434,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
@@ -3448,10 +3445,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -3459,10 +3456,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -3470,10 +3467,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
@@ -3481,10 +3478,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -3492,10 +3489,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
@@ -3503,10 +3500,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
@@ -3514,43 +3511,43 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="21">
+      <c r="B137" s="7"/>
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="21">
+      <c r="A138" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="C137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
       <c r="C138" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C139" s="4">
         <v>0</v>
@@ -3558,43 +3555,43 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A141" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="21">
+      <c r="A142" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A142" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="17">
-        <v>1</v>
+      <c r="C142" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3602,10 +3599,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3613,10 +3610,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
@@ -3624,10 +3621,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3635,10 +3632,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3646,10 +3643,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -3657,10 +3654,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
@@ -3668,10 +3665,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3679,10 +3676,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3690,10 +3687,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3701,10 +3698,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
@@ -3712,10 +3709,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
@@ -3723,10 +3720,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
@@ -3734,10 +3731,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3745,10 +3742,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
@@ -3756,10 +3753,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
@@ -3767,10 +3764,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3778,10 +3775,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
@@ -3800,10 +3797,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3811,10 +3808,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
@@ -3822,10 +3819,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3833,10 +3830,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
@@ -3844,10 +3841,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3855,10 +3852,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
@@ -3866,10 +3863,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -3877,10 +3874,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3888,10 +3885,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3899,10 +3896,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
@@ -3910,10 +3907,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
@@ -3921,43 +3918,43 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="21">
+      <c r="B175" s="7"/>
+      <c r="C175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A176" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="C175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="7"/>
-      <c r="C176" s="4">
-        <v>0</v>
+      <c r="C176" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A177" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C177" s="17">
         <v>1</v>
@@ -3965,54 +3962,54 @@
     </row>
     <row r="178" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A178" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="C178" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A179" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="C179" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="60" customFormat="1" ht="21">
+      <c r="A180" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B180" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="56" customFormat="1" ht="21">
+      <c r="A181" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A179" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C179" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="40" customFormat="1" ht="21">
-      <c r="A180" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B180" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="C180" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="60" customFormat="1" ht="21">
-      <c r="A181" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B181" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C181" s="59">
+      <c r="C181" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A182" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C182" s="55">
         <v>1</v>
@@ -4020,32 +4017,32 @@
     </row>
     <row r="183" spans="1:3" s="56" customFormat="1" ht="21">
       <c r="A183" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C183" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="56" customFormat="1" ht="21">
-      <c r="A184" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B184" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C184" s="55">
+    <row r="184" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A184" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C184" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A185" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>169</v>
+        <v>461</v>
       </c>
       <c r="C185" s="13">
         <v>1</v>
@@ -4053,43 +4050,43 @@
     </row>
     <row r="186" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A186" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>464</v>
+        <v>167</v>
       </c>
       <c r="C186" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A187" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C187" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A188" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C188" s="17">
-        <v>1</v>
+    <row r="187" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A187" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="21">
+      <c r="A188" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -4097,10 +4094,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
@@ -4108,10 +4105,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -4119,10 +4116,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -4130,10 +4127,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
@@ -4141,10 +4138,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -4152,10 +4149,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -4163,10 +4160,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -4174,10 +4171,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -4185,10 +4182,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -4196,10 +4193,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
@@ -4207,10 +4204,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -4218,10 +4215,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
@@ -4229,10 +4226,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -4240,10 +4237,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
@@ -4251,10 +4248,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -4262,10 +4259,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
@@ -4273,10 +4270,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -4284,10 +4281,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -4295,10 +4292,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -4306,10 +4303,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -4317,22 +4314,18 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="A211" s="8"/>
+      <c r="B211" s="7"/>
       <c r="C211" s="4">
         <v>0</v>
       </c>
@@ -4345,18 +4338,22 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
+      <c r="A213" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
@@ -4364,10 +4361,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -4375,10 +4372,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -4386,10 +4383,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -4397,10 +4394,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -4408,10 +4405,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -4419,10 +4416,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -4430,10 +4427,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -4441,10 +4438,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
@@ -4452,10 +4449,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
@@ -4463,10 +4460,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -4474,10 +4471,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -4485,10 +4482,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4496,10 +4493,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4507,10 +4504,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4518,10 +4515,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4529,10 +4526,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4540,10 +4537,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -4551,10 +4548,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4562,10 +4559,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -4573,22 +4570,17 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="B235" s="7"/>
       <c r="C235" s="4">
         <v>0</v>
       </c>
@@ -4600,17 +4592,22 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="7"/>
+      <c r="A237" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="C237" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4618,10 +4615,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4629,10 +4626,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4640,10 +4637,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4651,10 +4648,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4662,10 +4659,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4673,10 +4670,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4684,10 +4681,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4695,10 +4692,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4706,10 +4703,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4717,10 +4714,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4728,10 +4725,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4739,10 +4736,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4761,10 +4758,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4772,10 +4769,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4794,10 +4791,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4805,10 +4802,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4816,10 +4813,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4827,10 +4824,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4838,10 +4835,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4849,10 +4846,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4860,10 +4857,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4871,10 +4868,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4893,10 +4890,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4904,10 +4901,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4915,10 +4912,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4926,10 +4923,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4937,10 +4934,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4948,10 +4945,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4959,10 +4956,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="C270" s="4">
         <v>0</v>
@@ -4970,22 +4967,17 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C271" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>252</v>
-      </c>
+      <c r="B272" s="7"/>
       <c r="C272" s="4">
         <v>0</v>
       </c>
@@ -4997,17 +4989,22 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="7"/>
+      <c r="A274" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="C274" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -5015,10 +5012,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -5026,10 +5023,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -5037,10 +5034,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -5048,10 +5045,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5070,10 +5067,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5081,10 +5078,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5092,10 +5089,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5103,10 +5100,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5125,10 +5122,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5136,10 +5133,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5147,10 +5144,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5158,10 +5155,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5169,10 +5166,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5180,10 +5177,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5191,22 +5188,17 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>272</v>
-      </c>
+      <c r="B293" s="7"/>
       <c r="C293" s="4">
         <v>0</v>
       </c>
@@ -5217,18 +5209,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="7"/>
-      <c r="C295" s="4">
-        <v>0</v>
+    <row r="295" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A295" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B295" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C295" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5236,32 +5233,32 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="C297" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C298" s="4">
+    <row r="298" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A298" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B298" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C298" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5269,10 +5266,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5280,10 +5277,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5291,10 +5288,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5302,10 +5299,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5313,10 +5310,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5324,10 +5321,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5335,10 +5332,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5346,10 +5343,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5357,10 +5354,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5368,10 +5365,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>287</v>
+        <v>270</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5379,10 +5376,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5390,10 +5387,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5401,10 +5398,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5412,10 +5409,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5423,10 +5420,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5434,10 +5431,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5445,10 +5442,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5456,10 +5453,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5467,10 +5464,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5478,10 +5475,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5489,10 +5486,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5500,10 +5497,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5511,10 +5508,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5522,10 +5519,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5533,10 +5530,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5544,10 +5541,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5555,10 +5552,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5566,10 +5563,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5577,10 +5574,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5588,10 +5585,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5599,10 +5596,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5610,10 +5607,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5621,49 +5618,49 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B332" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="21">
+      <c r="B333" s="7"/>
+      <c r="C333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="20" customFormat="1" ht="18">
+      <c r="A334" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C334" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="21">
+      <c r="A335" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C332" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
-      <c r="A333" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C333" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="7"/>
-      <c r="C334" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" s="20" customFormat="1" ht="18">
-      <c r="A335" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B335" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C335" s="19">
-        <v>1</v>
+      <c r="C335" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5671,10 +5668,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5682,10 +5679,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5715,10 +5712,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5726,10 +5723,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>321</v>
+        <v>309</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5759,10 +5756,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5770,10 +5767,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5792,10 +5789,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5803,10 +5800,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5825,10 +5822,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5836,22 +5833,17 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>330</v>
-      </c>
+      <c r="B353" s="7"/>
       <c r="C353" s="4">
         <v>0</v>
       </c>
@@ -5863,17 +5855,22 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
+      <c r="A355" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="C355" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5881,10 +5878,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5892,10 +5889,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5903,10 +5900,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5914,10 +5911,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5925,10 +5922,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5936,10 +5933,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5947,10 +5944,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5958,10 +5955,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5969,10 +5966,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5980,10 +5977,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5991,10 +5988,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -6002,10 +5999,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -6013,10 +6010,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -6024,10 +6021,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -6035,10 +6032,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -6046,10 +6043,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -6057,10 +6054,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -6068,10 +6065,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6079,10 +6076,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6090,10 +6087,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6101,10 +6098,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6112,10 +6109,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6123,10 +6120,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6134,10 +6131,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6145,10 +6142,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6156,10 +6153,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6167,10 +6164,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6178,10 +6175,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6189,10 +6186,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6211,10 +6208,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6222,10 +6219,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6233,10 +6230,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6244,10 +6241,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6255,10 +6252,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6266,10 +6263,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6277,10 +6274,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6288,10 +6285,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6299,10 +6296,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6310,10 +6307,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6321,10 +6318,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6332,22 +6329,17 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="B399" s="7"/>
       <c r="C399" s="4">
         <v>0</v>
       </c>
@@ -6359,17 +6351,22 @@
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="7"/>
+      <c r="A401" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="C401" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6377,10 +6374,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6388,10 +6385,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="C404" s="4">
         <v>0</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6410,22 +6407,17 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="B407" s="7"/>
       <c r="C407" s="4">
         <v>0</v>
       </c>
@@ -6436,18 +6428,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="7"/>
-      <c r="C409" s="4">
-        <v>0</v>
+    <row r="409" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A409" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C409" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6455,10 +6452,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B411" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6466,10 +6463,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6477,10 +6474,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6488,10 +6485,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6499,10 +6496,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6510,10 +6507,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6521,10 +6518,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>261</v>
+        <v>378</v>
+      </c>
+      <c r="B417" s="32" t="s">
+        <v>440</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6532,98 +6529,98 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B418" s="32" t="s">
-        <v>443</v>
+        <v>378</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A419" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B419" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C419" s="13">
+    <row r="419" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A419" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B419" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C419" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A421" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B421" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="C421" s="30">
+    <row r="421" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A421" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C421" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B422" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C422" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A423" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B423" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C423" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A424" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B424" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="C422" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A423" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B423" s="12" t="s">
+      <c r="C424" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A425" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B425" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C423" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A424" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B424" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="C424" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" s="36" customFormat="1" ht="21">
-      <c r="A425" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B425" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C425" s="35">
-        <v>0</v>
+      <c r="C425" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6631,10 +6628,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6642,10 +6639,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6653,43 +6650,43 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B429" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C429" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A430" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B430" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="C429" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A430" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B430" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="C430" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" s="40" customFormat="1" ht="21">
-      <c r="A431" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="B431" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C431" s="39">
+      <c r="C430" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A431" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C431" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6697,10 +6694,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6708,10 +6705,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6719,32 +6716,32 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="18" customFormat="1" ht="21">
-      <c r="A436" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B436" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C436" s="17">
+    <row r="436" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A436" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B436" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C436" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A437" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B437" s="29" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="C437" s="30">
         <v>1</v>
@@ -6752,10 +6749,10 @@
     </row>
     <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A438" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6763,10 +6760,10 @@
     </row>
     <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A439" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B439" s="29" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="C439" s="30">
         <v>1</v>
@@ -6774,197 +6771,197 @@
     </row>
     <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A440" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A441" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B441" s="29" t="s">
+    <row r="441" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A441" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B441" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C441" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A442" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B442" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C442" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A443" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C443" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A444" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B444" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C441" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" s="36" customFormat="1" ht="21">
-      <c r="A442" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B442" s="34" t="s">
+      <c r="C444" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A445" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B445" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C442" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A443" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B443" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="C443" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A444" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B444" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C444" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" s="36" customFormat="1" ht="21">
-      <c r="A445" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B445" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C445" s="35">
+      <c r="C445" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A446" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B446" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C446" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A447" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B447" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C447" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A448" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B448" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C448" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" s="40" customFormat="1" ht="21">
-      <c r="A449" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="B449" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="C449" s="39">
+    <row r="447" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A447" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C447" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A448" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B448" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="C448" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A449" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B449" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C449" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A450" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A451" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B451" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="C451" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" s="36" customFormat="1" ht="21">
-      <c r="A452" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B452" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="C452" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A453" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B453" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="C453" s="30">
+    <row r="451" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A451" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B451" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C451" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A452" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B452" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C452" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A453" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C453" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A454" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="C454" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A455" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B455" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C455" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" s="44" customFormat="1" ht="21">
-      <c r="A456" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="B456" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C456" s="43">
+    <row r="455" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A455" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B455" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C455" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A456" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C456" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A457" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C457" s="13">
         <v>1</v>
@@ -6972,166 +6969,166 @@
     </row>
     <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A458" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B458" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C458" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A459" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="B459" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C459" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" s="36" customFormat="1" ht="21">
+      <c r="A460" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B460" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C460" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A461" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C461" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A462" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B462" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="C458" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A459" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B459" s="12" t="s">
+      <c r="C462" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A463" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B463" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C459" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" s="48" customFormat="1" ht="21">
-      <c r="A460" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B460" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="C460" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" s="36" customFormat="1" ht="21">
-      <c r="A461" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B461" s="34" t="s">
+      <c r="C463" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A464" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="B464" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="C461" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A462" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B462" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C462" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" s="44" customFormat="1" ht="21">
-      <c r="A463" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="B463" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="C463" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A464" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B464" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C464" s="13">
+      <c r="C464" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A465" s="45" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B465" s="46" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C465" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="48" customFormat="1" ht="21">
-      <c r="A466" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B466" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="C466" s="47">
+    <row r="466" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A466" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C466" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A467" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="C467" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A468" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B468" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C468" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" s="52" customFormat="1" ht="21">
-      <c r="A469" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="B469" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="C469" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" s="31" customFormat="1" ht="21">
-      <c r="A470" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="B470" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="C470" s="30">
-        <v>1</v>
+    <row r="468" spans="1:3" s="52" customFormat="1" ht="21">
+      <c r="A468" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B468" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C468" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" s="31" customFormat="1" ht="21">
+      <c r="A469" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B469" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C469" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21">
+      <c r="B470" s="7"/>
+      <c r="C470" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
+      <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="8"/>
-      <c r="B472" s="7"/>
-      <c r="C472" s="4">
-        <v>0</v>
+    <row r="472" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A472" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C472" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7139,43 +7136,43 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B474" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C474" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A475" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="B475" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="C474" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" s="14" customFormat="1" ht="21">
-      <c r="A475" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B475" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C475" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" s="40" customFormat="1" ht="21">
-      <c r="A476" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B476" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="C476" s="39">
-        <v>1</v>
+      <c r="C475" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="21">
+      <c r="A476" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C476" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7183,10 +7180,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B478" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7194,10 +7191,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7205,10 +7202,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7216,10 +7213,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7227,10 +7224,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7238,10 +7235,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7249,30 +7246,19 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C485" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="C486">
-        <f>SUM(C7:C485)</f>
-        <v>106</v>
+    <row r="485" spans="1:3">
+      <c r="C485">
+        <f>SUM(C7:C484)</f>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7308,7 +7294,7 @@
     <hyperlink ref="B36" r:id="rId29"/>
     <hyperlink ref="B37" r:id="rId30"/>
     <hyperlink ref="B38" r:id="rId31"/>
-    <hyperlink ref="B39" r:id="rId32"/>
+    <hyperlink ref="B41" r:id="rId32"/>
     <hyperlink ref="B42" r:id="rId33"/>
     <hyperlink ref="B43" r:id="rId34"/>
     <hyperlink ref="B44" r:id="rId35"/>
@@ -7318,10 +7304,10 @@
     <hyperlink ref="B48" r:id="rId39"/>
     <hyperlink ref="B49" r:id="rId40"/>
     <hyperlink ref="B50" r:id="rId41"/>
-    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B53" r:id="rId42"/>
     <hyperlink ref="B54" r:id="rId43"/>
     <hyperlink ref="B55" r:id="rId44"/>
-    <hyperlink ref="B56" r:id="rId45"/>
+    <hyperlink ref="B57" r:id="rId45"/>
     <hyperlink ref="B58" r:id="rId46"/>
     <hyperlink ref="B59" r:id="rId47"/>
     <hyperlink ref="B60" r:id="rId48"/>
@@ -7360,17 +7346,17 @@
     <hyperlink ref="B93" r:id="rId81"/>
     <hyperlink ref="B94" r:id="rId82"/>
     <hyperlink ref="B95" r:id="rId83"/>
-    <hyperlink ref="B96" r:id="rId84"/>
+    <hyperlink ref="B98" r:id="rId84"/>
     <hyperlink ref="B99" r:id="rId85"/>
     <hyperlink ref="B100" r:id="rId86"/>
     <hyperlink ref="B101" r:id="rId87"/>
-    <hyperlink ref="B102" r:id="rId88"/>
-    <hyperlink ref="B105" r:id="rId89" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B104" r:id="rId88" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B106" r:id="rId89"/>
     <hyperlink ref="B107" r:id="rId90"/>
     <hyperlink ref="B108" r:id="rId91"/>
     <hyperlink ref="B109" r:id="rId92"/>
     <hyperlink ref="B110" r:id="rId93"/>
-    <hyperlink ref="B111" r:id="rId94"/>
+    <hyperlink ref="B112" r:id="rId94"/>
     <hyperlink ref="B113" r:id="rId95"/>
     <hyperlink ref="B114" r:id="rId96"/>
     <hyperlink ref="B115" r:id="rId97"/>
@@ -7394,9 +7380,9 @@
     <hyperlink ref="B133" r:id="rId115"/>
     <hyperlink ref="B134" r:id="rId116"/>
     <hyperlink ref="B135" r:id="rId117"/>
-    <hyperlink ref="B136" r:id="rId118"/>
-    <hyperlink ref="B103" r:id="rId119"/>
-    <hyperlink ref="B112" r:id="rId120"/>
+    <hyperlink ref="B102" r:id="rId118"/>
+    <hyperlink ref="B111" r:id="rId119"/>
+    <hyperlink ref="B138" r:id="rId120"/>
     <hyperlink ref="B139" r:id="rId121"/>
     <hyperlink ref="B140" r:id="rId122"/>
     <hyperlink ref="B141" r:id="rId123"/>
@@ -7421,7 +7407,7 @@
     <hyperlink ref="B160" r:id="rId142"/>
     <hyperlink ref="B161" r:id="rId143"/>
     <hyperlink ref="B162" r:id="rId144"/>
-    <hyperlink ref="B163" r:id="rId145"/>
+    <hyperlink ref="B165" r:id="rId145"/>
     <hyperlink ref="B166" r:id="rId146"/>
     <hyperlink ref="B167" r:id="rId147"/>
     <hyperlink ref="B168" r:id="rId148"/>
@@ -7430,16 +7416,16 @@
     <hyperlink ref="B171" r:id="rId151"/>
     <hyperlink ref="B172" r:id="rId152"/>
     <hyperlink ref="B173" r:id="rId153"/>
-    <hyperlink ref="B174" r:id="rId154"/>
+    <hyperlink ref="B176" r:id="rId154"/>
     <hyperlink ref="B177" r:id="rId155"/>
     <hyperlink ref="B178" r:id="rId156"/>
-    <hyperlink ref="B179" r:id="rId157"/>
+    <hyperlink ref="B180" r:id="rId157"/>
     <hyperlink ref="B181" r:id="rId158"/>
     <hyperlink ref="B182" r:id="rId159"/>
     <hyperlink ref="B183" r:id="rId160"/>
     <hyperlink ref="B184" r:id="rId161"/>
-    <hyperlink ref="B185" r:id="rId162"/>
-    <hyperlink ref="B186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="B185" r:id="rId162" display="Right View of Tree"/>
+    <hyperlink ref="B186" r:id="rId163"/>
     <hyperlink ref="B187" r:id="rId164"/>
     <hyperlink ref="B188" r:id="rId165"/>
     <hyperlink ref="B189" r:id="rId166"/>
@@ -7449,14 +7435,14 @@
     <hyperlink ref="B193" r:id="rId170"/>
     <hyperlink ref="B194" r:id="rId171"/>
     <hyperlink ref="B195" r:id="rId172"/>
-    <hyperlink ref="B196" r:id="rId173"/>
-    <hyperlink ref="B197" r:id="rId174" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B196" r:id="rId173" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B197" r:id="rId174"/>
     <hyperlink ref="B198" r:id="rId175"/>
     <hyperlink ref="B199" r:id="rId176"/>
     <hyperlink ref="B200" r:id="rId177"/>
     <hyperlink ref="B201" r:id="rId178"/>
-    <hyperlink ref="B202" r:id="rId179"/>
-    <hyperlink ref="B203" r:id="rId180" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B202" r:id="rId179" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B203" r:id="rId180"/>
     <hyperlink ref="B204" r:id="rId181"/>
     <hyperlink ref="B205" r:id="rId182"/>
     <hyperlink ref="B206" r:id="rId183"/>
@@ -7464,7 +7450,7 @@
     <hyperlink ref="B208" r:id="rId185"/>
     <hyperlink ref="B209" r:id="rId186"/>
     <hyperlink ref="B210" r:id="rId187"/>
-    <hyperlink ref="B211" r:id="rId188"/>
+    <hyperlink ref="B213" r:id="rId188"/>
     <hyperlink ref="B214" r:id="rId189"/>
     <hyperlink ref="B215" r:id="rId190"/>
     <hyperlink ref="B216" r:id="rId191"/>
@@ -7486,7 +7472,7 @@
     <hyperlink ref="B232" r:id="rId207"/>
     <hyperlink ref="B233" r:id="rId208"/>
     <hyperlink ref="B234" r:id="rId209"/>
-    <hyperlink ref="B235" r:id="rId210"/>
+    <hyperlink ref="B237" r:id="rId210"/>
     <hyperlink ref="B238" r:id="rId211"/>
     <hyperlink ref="B239" r:id="rId212"/>
     <hyperlink ref="B240" r:id="rId213"/>
@@ -7505,8 +7491,8 @@
     <hyperlink ref="B253" r:id="rId226"/>
     <hyperlink ref="B254" r:id="rId227"/>
     <hyperlink ref="B255" r:id="rId228"/>
-    <hyperlink ref="B256" r:id="rId229"/>
-    <hyperlink ref="B257" r:id="rId230" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B256" r:id="rId229" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B257" r:id="rId230"/>
     <hyperlink ref="B258" r:id="rId231"/>
     <hyperlink ref="B259" r:id="rId232"/>
     <hyperlink ref="B260" r:id="rId233"/>
@@ -7521,7 +7507,7 @@
     <hyperlink ref="B269" r:id="rId242"/>
     <hyperlink ref="B270" r:id="rId243"/>
     <hyperlink ref="B271" r:id="rId244"/>
-    <hyperlink ref="B272" r:id="rId245"/>
+    <hyperlink ref="B274" r:id="rId245"/>
     <hyperlink ref="B275" r:id="rId246"/>
     <hyperlink ref="B276" r:id="rId247"/>
     <hyperlink ref="B277" r:id="rId248"/>
@@ -7540,7 +7526,7 @@
     <hyperlink ref="B290" r:id="rId261"/>
     <hyperlink ref="B291" r:id="rId262"/>
     <hyperlink ref="B292" r:id="rId263"/>
-    <hyperlink ref="B293" r:id="rId264"/>
+    <hyperlink ref="B295" r:id="rId264"/>
     <hyperlink ref="B296" r:id="rId265"/>
     <hyperlink ref="B297" r:id="rId266"/>
     <hyperlink ref="B298" r:id="rId267"/>
@@ -7550,8 +7536,8 @@
     <hyperlink ref="B302" r:id="rId271"/>
     <hyperlink ref="B303" r:id="rId272"/>
     <hyperlink ref="B304" r:id="rId273"/>
-    <hyperlink ref="B305" r:id="rId274"/>
-    <hyperlink ref="B306" r:id="rId275" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B305" r:id="rId274" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B306" r:id="rId275"/>
     <hyperlink ref="B307" r:id="rId276"/>
     <hyperlink ref="B308" r:id="rId277"/>
     <hyperlink ref="B309" r:id="rId278"/>
@@ -7578,7 +7564,7 @@
     <hyperlink ref="B330" r:id="rId299"/>
     <hyperlink ref="B331" r:id="rId300"/>
     <hyperlink ref="B332" r:id="rId301"/>
-    <hyperlink ref="B333" r:id="rId302"/>
+    <hyperlink ref="B335" r:id="rId302"/>
     <hyperlink ref="B336" r:id="rId303"/>
     <hyperlink ref="B337" r:id="rId304"/>
     <hyperlink ref="B338" r:id="rId305"/>
@@ -7596,7 +7582,7 @@
     <hyperlink ref="B350" r:id="rId317"/>
     <hyperlink ref="B351" r:id="rId318"/>
     <hyperlink ref="B352" r:id="rId319"/>
-    <hyperlink ref="B353" r:id="rId320"/>
+    <hyperlink ref="B356" r:id="rId320"/>
     <hyperlink ref="B357" r:id="rId321"/>
     <hyperlink ref="B358" r:id="rId322"/>
     <hyperlink ref="B359" r:id="rId323"/>
@@ -7618,8 +7604,8 @@
     <hyperlink ref="B375" r:id="rId339"/>
     <hyperlink ref="B376" r:id="rId340"/>
     <hyperlink ref="B377" r:id="rId341"/>
-    <hyperlink ref="B378" r:id="rId342"/>
-    <hyperlink ref="B379" r:id="rId343" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B378" r:id="rId342" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B379" r:id="rId343"/>
     <hyperlink ref="B380" r:id="rId344"/>
     <hyperlink ref="B381" r:id="rId345"/>
     <hyperlink ref="B382" r:id="rId346"/>
@@ -7634,18 +7620,18 @@
     <hyperlink ref="B391" r:id="rId355"/>
     <hyperlink ref="B392" r:id="rId356"/>
     <hyperlink ref="B393" r:id="rId357"/>
-    <hyperlink ref="B394" r:id="rId358"/>
-    <hyperlink ref="B396" r:id="rId359"/>
-    <hyperlink ref="B395" r:id="rId360"/>
+    <hyperlink ref="B395" r:id="rId358"/>
+    <hyperlink ref="B394" r:id="rId359"/>
+    <hyperlink ref="B396" r:id="rId360"/>
     <hyperlink ref="B397" r:id="rId361"/>
     <hyperlink ref="B398" r:id="rId362"/>
-    <hyperlink ref="B399" r:id="rId363"/>
+    <hyperlink ref="B401" r:id="rId363"/>
     <hyperlink ref="B402" r:id="rId364"/>
     <hyperlink ref="B403" r:id="rId365"/>
     <hyperlink ref="B404" r:id="rId366"/>
     <hyperlink ref="B405" r:id="rId367"/>
     <hyperlink ref="B406" r:id="rId368"/>
-    <hyperlink ref="B407" r:id="rId369"/>
+    <hyperlink ref="B409" r:id="rId369"/>
     <hyperlink ref="B410" r:id="rId370"/>
     <hyperlink ref="B411" r:id="rId371"/>
     <hyperlink ref="B412" r:id="rId372"/>
@@ -7653,8 +7639,8 @@
     <hyperlink ref="B414" r:id="rId374"/>
     <hyperlink ref="B415" r:id="rId375"/>
     <hyperlink ref="B416" r:id="rId376"/>
-    <hyperlink ref="B417" r:id="rId377"/>
-    <hyperlink ref="B419" r:id="rId378" display="Friends Pairing Problem"/>
+    <hyperlink ref="B418" r:id="rId377" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId378"/>
     <hyperlink ref="B420" r:id="rId379"/>
     <hyperlink ref="B421" r:id="rId380"/>
     <hyperlink ref="B422" r:id="rId381"/>
@@ -7663,74 +7649,73 @@
     <hyperlink ref="B425" r:id="rId384"/>
     <hyperlink ref="B426" r:id="rId385"/>
     <hyperlink ref="B427" r:id="rId386"/>
-    <hyperlink ref="B428" r:id="rId387"/>
-    <hyperlink ref="B429" r:id="rId388" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId389" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId390" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B428" r:id="rId387" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B429" r:id="rId388" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B430" r:id="rId389" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId390"/>
     <hyperlink ref="B433" r:id="rId391"/>
     <hyperlink ref="B434" r:id="rId392"/>
     <hyperlink ref="B435" r:id="rId393"/>
     <hyperlink ref="B436" r:id="rId394"/>
-    <hyperlink ref="B437" r:id="rId395"/>
-    <hyperlink ref="B438" r:id="rId396" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B439" r:id="rId397"/>
-    <hyperlink ref="B440" r:id="rId398" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B437" r:id="rId395" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId396"/>
+    <hyperlink ref="B439" r:id="rId397" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId398"/>
     <hyperlink ref="B441" r:id="rId399"/>
-    <hyperlink ref="B442" r:id="rId400"/>
-    <hyperlink ref="B443" r:id="rId401" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B442" r:id="rId400" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId401"/>
     <hyperlink ref="B444" r:id="rId402"/>
     <hyperlink ref="B445" r:id="rId403"/>
     <hyperlink ref="B446" r:id="rId404"/>
     <hyperlink ref="B447" r:id="rId405"/>
-    <hyperlink ref="B448" r:id="rId406"/>
-    <hyperlink ref="B449" r:id="rId407" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B450" r:id="rId408" display="Partition problem"/>
-    <hyperlink ref="B452" r:id="rId409" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B451" r:id="rId410"/>
+    <hyperlink ref="B448" r:id="rId406" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId407" display="Partition problem"/>
+    <hyperlink ref="B451" r:id="rId408" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B450" r:id="rId409"/>
+    <hyperlink ref="B452" r:id="rId410"/>
     <hyperlink ref="B453" r:id="rId411"/>
     <hyperlink ref="B454" r:id="rId412"/>
     <hyperlink ref="B455" r:id="rId413"/>
     <hyperlink ref="B456" r:id="rId414"/>
     <hyperlink ref="B457" r:id="rId415"/>
     <hyperlink ref="B458" r:id="rId416"/>
-    <hyperlink ref="B459" r:id="rId417"/>
-    <hyperlink ref="B460" r:id="rId418" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B461" r:id="rId419"/>
-    <hyperlink ref="B462" r:id="rId420" display="Word Wrap Problem"/>
-    <hyperlink ref="B463" r:id="rId421"/>
-    <hyperlink ref="B470" r:id="rId422"/>
-    <hyperlink ref="B469" r:id="rId423"/>
-    <hyperlink ref="B468" r:id="rId424"/>
-    <hyperlink ref="B467" r:id="rId425" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B466" r:id="rId426"/>
-    <hyperlink ref="B465" r:id="rId427"/>
-    <hyperlink ref="B464" r:id="rId428"/>
+    <hyperlink ref="B459" r:id="rId417" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId418"/>
+    <hyperlink ref="B461" r:id="rId419" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId420"/>
+    <hyperlink ref="B469" r:id="rId421"/>
+    <hyperlink ref="B468" r:id="rId422"/>
+    <hyperlink ref="B467" r:id="rId423"/>
+    <hyperlink ref="B466" r:id="rId424" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B465" r:id="rId425"/>
+    <hyperlink ref="B464" r:id="rId426"/>
+    <hyperlink ref="B463" r:id="rId427"/>
+    <hyperlink ref="B476" r:id="rId428"/>
     <hyperlink ref="B477" r:id="rId429"/>
     <hyperlink ref="B478" r:id="rId430"/>
     <hyperlink ref="B479" r:id="rId431"/>
     <hyperlink ref="B480" r:id="rId432"/>
     <hyperlink ref="B481" r:id="rId433"/>
-    <hyperlink ref="B482" r:id="rId434"/>
-    <hyperlink ref="B485" r:id="rId435"/>
-    <hyperlink ref="B483" r:id="rId436"/>
-    <hyperlink ref="B484" r:id="rId437" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId438"/>
-    <hyperlink ref="B2" r:id="rId439"/>
-    <hyperlink ref="B335" r:id="rId440"/>
-    <hyperlink ref="B5" r:id="rId441"/>
-    <hyperlink ref="B106" r:id="rId442"/>
-    <hyperlink ref="B6" r:id="rId443" display="Rotate an array by k elemnts"/>
-    <hyperlink ref="B104" r:id="rId444"/>
-    <hyperlink ref="B418" r:id="rId445"/>
+    <hyperlink ref="B484" r:id="rId434"/>
+    <hyperlink ref="B482" r:id="rId435"/>
+    <hyperlink ref="B483" r:id="rId436" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B355" r:id="rId437"/>
+    <hyperlink ref="B2" r:id="rId438"/>
+    <hyperlink ref="B334" r:id="rId439"/>
+    <hyperlink ref="B5" r:id="rId440"/>
+    <hyperlink ref="B105" r:id="rId441"/>
+    <hyperlink ref="B6" r:id="rId442" display="Rotate an array by k elemnts"/>
+    <hyperlink ref="B103" r:id="rId443"/>
+    <hyperlink ref="B417" r:id="rId444"/>
+    <hyperlink ref="B472" r:id="rId445"/>
     <hyperlink ref="B473" r:id="rId446"/>
     <hyperlink ref="B474" r:id="rId447"/>
-    <hyperlink ref="B475" r:id="rId448"/>
-    <hyperlink ref="B476" r:id="rId449" display="Maximum XOR With an Element From Array"/>
-    <hyperlink ref="B432" r:id="rId450" display="Constrained Subsequence Sum"/>
-    <hyperlink ref="B180" r:id="rId451" display="House Robber III"/>
-    <hyperlink ref="B19" r:id="rId452"/>
+    <hyperlink ref="B475" r:id="rId448" display="Maximum XOR With an Element From Array"/>
+    <hyperlink ref="B431" r:id="rId449" display="Constrained Subsequence Sum"/>
+    <hyperlink ref="B179" r:id="rId450" display="House Robber III"/>
+    <hyperlink ref="B19" r:id="rId451"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId453"/>
+  <pageSetup orientation="portrait" r:id="rId452"/>
 </worksheet>
 </file>
--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -633,18 +633,9 @@
     <t>Convert Binary tree into BST</t>
   </si>
   <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
     <t>Merge two BST [ V.V.V&gt;IMP ]</t>
   </si>
   <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
     <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
   </si>
   <si>
@@ -660,9 +651,6 @@
     <t>Given "n" appointments, find the conflicting appointments</t>
   </si>
   <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
     <t>Check whether BST contains Dead end</t>
   </si>
   <si>
@@ -1432,6 +1420,18 @@
   </si>
   <si>
     <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST (inorder traverse + foriming BST from sorted array)</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST (Right -&gt; node -&gt; left: rev inorder);</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST (normal inorder)</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not (same concept of bulding BST from preorder)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1758,6 +1758,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2066,7 +2072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2076,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2105,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="24" customFormat="1" ht="21">
@@ -2113,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -2124,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -2190,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -2267,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
@@ -2278,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C20" s="43">
         <v>1</v>
@@ -2300,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C22" s="43">
         <v>1</v>
@@ -2344,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2388,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
@@ -2421,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C33" s="13">
         <v>1</v>
@@ -3162,7 +3168,7 @@
         <v>84</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C103" s="13">
         <v>1</v>
@@ -3184,7 +3190,7 @@
         <v>84</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C105" s="26">
         <v>1</v>
@@ -3531,37 +3537,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A138" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="8" t="s">
+      <c r="C138" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A139" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
+      <c r="C139" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A140" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="4">
-        <v>0</v>
+      <c r="C140" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="18" customFormat="1" ht="21">
@@ -3575,58 +3581,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A142" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
-      <c r="A143" s="8" t="s">
+      <c r="C142" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A143" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="8" t="s">
+      <c r="C143" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A144" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
-      <c r="A145" s="8" t="s">
+      <c r="C144" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A145" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
-      <c r="A146" s="8" t="s">
+      <c r="C145" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A146" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="43">
         <v>0</v>
       </c>
     </row>
@@ -3976,7 +3982,7 @@
         <v>158</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C179" s="39">
         <v>1</v>
@@ -4042,7 +4048,7 @@
         <v>158</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C185" s="13">
         <v>1</v>
@@ -4070,26 +4076,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A188" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="5" t="s">
+      <c r="C188" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A189" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="4">
-        <v>0</v>
+      <c r="C189" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -4103,14 +4109,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A191" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4337,147 +4343,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A213" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="5" t="s">
+      <c r="C213" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A214" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C214" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="5" t="s">
+      <c r="C214" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A215" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
-      <c r="A216" s="5" t="s">
+      <c r="C215" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="40" customFormat="1" ht="21">
+      <c r="A216" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="5" t="s">
+      <c r="C216" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A217" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="5" t="s">
+      <c r="C217" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A218" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C218" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="5" t="s">
+      <c r="C218" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A219" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="C219" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="5" t="s">
+      <c r="C219" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A220" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C220" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="5" t="s">
+      <c r="C220" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A221" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C221" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21">
-      <c r="A222" s="5" t="s">
+      <c r="C221" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A222" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="C222" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A223" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B223" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C222" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
-      <c r="A223" s="5" t="s">
+      <c r="C223" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A224" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C223" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="5" t="s">
+      <c r="B224" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C224" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A225" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C224" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C225" s="4">
-        <v>0</v>
+      <c r="B225" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="C225" s="43">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4485,7 +4491,7 @@
         <v>192</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
@@ -4496,7 +4502,7 @@
         <v>192</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -4507,7 +4513,7 @@
         <v>192</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
@@ -4518,7 +4524,7 @@
         <v>192</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
@@ -4529,20 +4535,20 @@
         <v>192</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:3" s="44" customFormat="1" ht="21">
+      <c r="A231" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C231" s="4">
+      <c r="B231" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C231" s="43">
         <v>0</v>
       </c>
     </row>
@@ -4551,21 +4557,21 @@
         <v>192</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:3" s="48" customFormat="1" ht="21">
+      <c r="A233" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C233" s="4">
-        <v>0</v>
+      <c r="B233" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C233" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
@@ -4573,7 +4579,7 @@
         <v>192</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4593,10 +4599,10 @@
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="A237" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C237" s="4">
         <v>0</v>
@@ -4604,10 +4610,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C238" s="4">
         <v>0</v>
@@ -4615,10 +4621,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4626,10 +4632,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4637,10 +4643,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C241" s="4">
         <v>0</v>
@@ -4648,10 +4654,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C242" s="4">
         <v>0</v>
@@ -4659,10 +4665,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4670,10 +4676,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4681,10 +4687,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C245" s="4">
         <v>0</v>
@@ -4692,10 +4698,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4703,10 +4709,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C247" s="4">
         <v>0</v>
@@ -4714,10 +4720,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C248" s="4">
         <v>0</v>
@@ -4725,10 +4731,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C249" s="4">
         <v>0</v>
@@ -4736,10 +4742,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4747,10 +4753,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C251" s="4">
         <v>0</v>
@@ -4758,10 +4764,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C252" s="4">
         <v>0</v>
@@ -4769,10 +4775,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4780,10 +4786,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C254" s="4">
         <v>0</v>
@@ -4791,10 +4797,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4802,10 +4808,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4813,10 +4819,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C257" s="4">
         <v>0</v>
@@ -4824,10 +4830,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C258" s="4">
         <v>0</v>
@@ -4835,10 +4841,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C259" s="4">
         <v>0</v>
@@ -4846,10 +4852,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -4857,10 +4863,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C261" s="4">
         <v>0</v>
@@ -4868,10 +4874,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C262" s="4">
         <v>0</v>
@@ -4879,10 +4885,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C263" s="4">
         <v>0</v>
@@ -4890,10 +4896,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C264" s="4">
         <v>0</v>
@@ -4901,10 +4907,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C265" s="4">
         <v>0</v>
@@ -4912,10 +4918,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C266" s="4">
         <v>0</v>
@@ -4923,10 +4929,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C267" s="4">
         <v>0</v>
@@ -4934,10 +4940,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C268" s="4">
         <v>0</v>
@@ -4945,10 +4951,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C269" s="4">
         <v>0</v>
@@ -4956,7 +4962,7 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>74</v>
@@ -4967,10 +4973,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C271" s="4">
         <v>0</v>
@@ -4990,10 +4996,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C274" s="4">
         <v>0</v>
@@ -5001,10 +5007,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C275" s="4">
         <v>0</v>
@@ -5012,10 +5018,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C276" s="4">
         <v>0</v>
@@ -5023,10 +5029,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="C277" s="4">
         <v>0</v>
@@ -5034,10 +5040,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C278" s="4">
         <v>0</v>
@@ -5045,10 +5051,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C279" s="4">
         <v>0</v>
@@ -5056,10 +5062,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -5067,10 +5073,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C281" s="4">
         <v>0</v>
@@ -5078,10 +5084,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C282" s="4">
         <v>0</v>
@@ -5089,10 +5095,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C283" s="4">
         <v>0</v>
@@ -5100,10 +5106,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C284" s="4">
         <v>0</v>
@@ -5111,10 +5117,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C285" s="4">
         <v>0</v>
@@ -5122,10 +5128,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C286" s="4">
         <v>0</v>
@@ -5133,10 +5139,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C287" s="4">
         <v>0</v>
@@ -5144,10 +5150,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C288" s="4">
         <v>0</v>
@@ -5155,10 +5161,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C289" s="4">
         <v>0</v>
@@ -5166,10 +5172,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C290" s="4">
         <v>0</v>
@@ -5177,10 +5183,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C291" s="4">
         <v>0</v>
@@ -5188,10 +5194,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C292" s="4">
         <v>0</v>
@@ -5211,10 +5217,10 @@
     </row>
     <row r="295" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A295" s="41" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C295" s="43">
         <v>1</v>
@@ -5222,10 +5228,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C296" s="4">
         <v>0</v>
@@ -5233,10 +5239,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C297" s="4">
         <v>0</v>
@@ -5244,10 +5250,10 @@
     </row>
     <row r="298" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A298" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B298" s="38" t="s">
         <v>270</v>
-      </c>
-      <c r="B298" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="C298" s="39">
         <v>0</v>
@@ -5255,10 +5261,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C299" s="4">
         <v>0</v>
@@ -5266,10 +5272,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C300" s="4">
         <v>0</v>
@@ -5277,10 +5283,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -5288,10 +5294,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C302" s="4">
         <v>0</v>
@@ -5299,10 +5305,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C303" s="4">
         <v>0</v>
@@ -5310,10 +5316,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C304" s="4">
         <v>0</v>
@@ -5321,10 +5327,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C305" s="4">
         <v>0</v>
@@ -5332,10 +5338,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C306" s="4">
         <v>0</v>
@@ -5343,10 +5349,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C307" s="4">
         <v>0</v>
@@ -5354,10 +5360,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -5365,10 +5371,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C309" s="4">
         <v>0</v>
@@ -5376,10 +5382,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -5387,10 +5393,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C311" s="4">
         <v>0</v>
@@ -5398,10 +5404,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C312" s="4">
         <v>0</v>
@@ -5409,10 +5415,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C313" s="4">
         <v>0</v>
@@ -5420,10 +5426,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C314" s="4">
         <v>0</v>
@@ -5431,10 +5437,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C315" s="4">
         <v>0</v>
@@ -5442,10 +5448,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C316" s="4">
         <v>0</v>
@@ -5453,10 +5459,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C317" s="4">
         <v>0</v>
@@ -5464,10 +5470,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C318" s="4">
         <v>0</v>
@@ -5475,10 +5481,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C319" s="4">
         <v>0</v>
@@ -5486,10 +5492,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C320" s="4">
         <v>0</v>
@@ -5497,10 +5503,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C321" s="4">
         <v>0</v>
@@ -5508,10 +5514,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C322" s="4">
         <v>0</v>
@@ -5519,10 +5525,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C323" s="4">
         <v>0</v>
@@ -5530,10 +5536,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C324" s="4">
         <v>0</v>
@@ -5541,10 +5547,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C325" s="4">
         <v>0</v>
@@ -5552,10 +5558,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C326" s="4">
         <v>0</v>
@@ -5563,10 +5569,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C327" s="4">
         <v>0</v>
@@ -5574,10 +5580,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C328" s="4">
         <v>0</v>
@@ -5585,10 +5591,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C329" s="4">
         <v>0</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C330" s="4">
         <v>0</v>
@@ -5607,10 +5613,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C331" s="4">
         <v>0</v>
@@ -5618,10 +5624,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C332" s="4">
         <v>0</v>
@@ -5635,10 +5641,10 @@
     </row>
     <row r="334" spans="1:3" s="20" customFormat="1" ht="18">
       <c r="A334" s="19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C334" s="19">
         <v>1</v>
@@ -5646,10 +5652,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C335" s="4">
         <v>0</v>
@@ -5657,10 +5663,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C336" s="4">
         <v>0</v>
@@ -5668,10 +5674,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C337" s="4">
         <v>0</v>
@@ -5679,10 +5685,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="C338" s="4">
         <v>0</v>
@@ -5690,10 +5696,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C339" s="4">
         <v>0</v>
@@ -5701,10 +5707,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C340" s="4">
         <v>0</v>
@@ -5712,10 +5718,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C341" s="4">
         <v>0</v>
@@ -5723,10 +5729,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C342" s="4">
         <v>0</v>
@@ -5734,10 +5740,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C343" s="4">
         <v>0</v>
@@ -5745,10 +5751,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C344" s="4">
         <v>0</v>
@@ -5756,10 +5762,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C345" s="4">
         <v>0</v>
@@ -5767,10 +5773,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C346" s="4">
         <v>0</v>
@@ -5778,10 +5784,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -5789,10 +5795,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C348" s="4">
         <v>0</v>
@@ -5800,10 +5806,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C349" s="4">
         <v>0</v>
@@ -5811,10 +5817,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C350" s="4">
         <v>0</v>
@@ -5822,10 +5828,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C351" s="4">
         <v>0</v>
@@ -5833,10 +5839,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C352" s="4">
         <v>0</v>
@@ -5856,10 +5862,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C355" s="4">
         <v>0</v>
@@ -5867,10 +5873,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C356" s="4">
         <v>0</v>
@@ -5878,10 +5884,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C357" s="4">
         <v>0</v>
@@ -5889,10 +5895,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="C358" s="4">
         <v>0</v>
@@ -5900,10 +5906,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -5911,10 +5917,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C360" s="4">
         <v>0</v>
@@ -5922,10 +5928,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C361" s="4">
         <v>0</v>
@@ -5933,10 +5939,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C362" s="4">
         <v>0</v>
@@ -5944,10 +5950,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C363" s="4">
         <v>0</v>
@@ -5955,10 +5961,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C364" s="4">
         <v>0</v>
@@ -5966,10 +5972,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C365" s="4">
         <v>0</v>
@@ -5977,10 +5983,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C366" s="4">
         <v>0</v>
@@ -5988,10 +5994,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C367" s="4">
         <v>0</v>
@@ -5999,10 +6005,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C368" s="4">
         <v>0</v>
@@ -6010,10 +6016,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C369" s="4">
         <v>0</v>
@@ -6021,10 +6027,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C370" s="4">
         <v>0</v>
@@ -6032,10 +6038,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C371" s="4">
         <v>0</v>
@@ -6043,10 +6049,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C372" s="4">
         <v>0</v>
@@ -6054,10 +6060,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C373" s="4">
         <v>0</v>
@@ -6065,10 +6071,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C374" s="4">
         <v>0</v>
@@ -6076,10 +6082,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -6087,10 +6093,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C376" s="4">
         <v>0</v>
@@ -6098,10 +6104,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C377" s="4">
         <v>0</v>
@@ -6109,10 +6115,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C378" s="4">
         <v>0</v>
@@ -6120,10 +6126,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C379" s="4">
         <v>0</v>
@@ -6131,10 +6137,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C380" s="4">
         <v>0</v>
@@ -6142,10 +6148,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -6153,10 +6159,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C382" s="4">
         <v>0</v>
@@ -6164,10 +6170,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C383" s="4">
         <v>0</v>
@@ -6175,10 +6181,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C384" s="4">
         <v>0</v>
@@ -6186,10 +6192,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C385" s="4">
         <v>0</v>
@@ -6197,10 +6203,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C386" s="4">
         <v>0</v>
@@ -6208,10 +6214,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C387" s="4">
         <v>0</v>
@@ -6219,10 +6225,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -6230,10 +6236,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C389" s="4">
         <v>0</v>
@@ -6241,10 +6247,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C390" s="4">
         <v>0</v>
@@ -6252,10 +6258,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C391" s="4">
         <v>0</v>
@@ -6263,10 +6269,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C392" s="4">
         <v>0</v>
@@ -6274,10 +6280,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C393" s="4">
         <v>0</v>
@@ -6285,10 +6291,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C394" s="4">
         <v>0</v>
@@ -6296,10 +6302,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C395" s="4">
         <v>0</v>
@@ -6307,10 +6313,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C396" s="4">
         <v>0</v>
@@ -6318,10 +6324,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C397" s="4">
         <v>0</v>
@@ -6329,10 +6335,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C398" s="4">
         <v>0</v>
@@ -6352,10 +6358,10 @@
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C401" s="4">
         <v>0</v>
@@ -6363,10 +6369,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C402" s="4">
         <v>0</v>
@@ -6374,10 +6380,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C403" s="4">
         <v>0</v>
@@ -6385,7 +6391,7 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>76</v>
@@ -6396,10 +6402,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B405" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="C405" s="4">
         <v>0</v>
@@ -6407,10 +6413,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C406" s="4">
         <v>0</v>
@@ -6430,10 +6436,10 @@
     </row>
     <row r="409" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A409" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C409" s="13">
         <v>1</v>
@@ -6441,10 +6447,10 @@
     </row>
     <row r="410" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A410" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C410" s="13">
         <v>1</v>
@@ -6452,10 +6458,10 @@
     </row>
     <row r="411" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A411" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C411" s="13">
         <v>1</v>
@@ -6463,10 +6469,10 @@
     </row>
     <row r="412" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A412" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B412" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="C412" s="13">
         <v>1</v>
@@ -6474,10 +6480,10 @@
     </row>
     <row r="413" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A413" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C413" s="13">
         <v>1</v>
@@ -6485,10 +6491,10 @@
     </row>
     <row r="414" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A414" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C414" s="13">
         <v>1</v>
@@ -6496,10 +6502,10 @@
     </row>
     <row r="415" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A415" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C415" s="13">
         <v>1</v>
@@ -6507,10 +6513,10 @@
     </row>
     <row r="416" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A416" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C416" s="13">
         <v>1</v>
@@ -6518,10 +6524,10 @@
     </row>
     <row r="417" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A417" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B417" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C417" s="13">
         <v>1</v>
@@ -6529,10 +6535,10 @@
     </row>
     <row r="418" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A418" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C418" s="13">
         <v>1</v>
@@ -6540,10 +6546,10 @@
     </row>
     <row r="419" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A419" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B419" s="29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C419" s="30">
         <v>1</v>
@@ -6551,10 +6557,10 @@
     </row>
     <row r="420" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A420" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C420" s="30">
         <v>1</v>
@@ -6562,10 +6568,10 @@
     </row>
     <row r="421" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A421" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C421" s="13">
         <v>1</v>
@@ -6573,10 +6579,10 @@
     </row>
     <row r="422" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A422" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C422" s="13">
         <v>1</v>
@@ -6584,10 +6590,10 @@
     </row>
     <row r="423" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A423" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B423" s="29" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C423" s="30">
         <v>1</v>
@@ -6595,10 +6601,10 @@
     </row>
     <row r="424" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A424" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C424" s="35">
         <v>0</v>
@@ -6606,10 +6612,10 @@
     </row>
     <row r="425" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A425" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B425" s="29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C425" s="30">
         <v>1</v>
@@ -6617,10 +6623,10 @@
     </row>
     <row r="426" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A426" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B426" s="29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C426" s="30">
         <v>1</v>
@@ -6628,10 +6634,10 @@
     </row>
     <row r="427" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A427" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B427" s="29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C427" s="30">
         <v>1</v>
@@ -6639,10 +6645,10 @@
     </row>
     <row r="428" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A428" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B428" s="29" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C428" s="30">
         <v>1</v>
@@ -6650,10 +6656,10 @@
     </row>
     <row r="429" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A429" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B429" s="29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C429" s="30">
         <v>1</v>
@@ -6661,10 +6667,10 @@
     </row>
     <row r="430" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A430" s="37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C430" s="39">
         <v>1</v>
@@ -6672,10 +6678,10 @@
     </row>
     <row r="431" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A431" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C431" s="17">
         <v>1</v>
@@ -6683,10 +6689,10 @@
     </row>
     <row r="432" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A432" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C432" s="17">
         <v>1</v>
@@ -6694,10 +6700,10 @@
     </row>
     <row r="433" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A433" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C433" s="17">
         <v>1</v>
@@ -6705,10 +6711,10 @@
     </row>
     <row r="434" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A434" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C434" s="17">
         <v>1</v>
@@ -6716,10 +6722,10 @@
     </row>
     <row r="435" spans="1:3" s="18" customFormat="1" ht="21">
       <c r="A435" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C435" s="17">
         <v>1</v>
@@ -6727,10 +6733,10 @@
     </row>
     <row r="436" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A436" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B436" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C436" s="30">
         <v>1</v>
@@ -6738,10 +6744,10 @@
     </row>
     <row r="437" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A437" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B437" s="29" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C437" s="30">
         <v>1</v>
@@ -6749,10 +6755,10 @@
     </row>
     <row r="438" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A438" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B438" s="29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C438" s="30">
         <v>1</v>
@@ -6760,10 +6766,10 @@
     </row>
     <row r="439" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A439" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B439" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C439" s="30">
         <v>1</v>
@@ -6771,10 +6777,10 @@
     </row>
     <row r="440" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A440" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B440" s="29" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C440" s="30">
         <v>1</v>
@@ -6782,10 +6788,10 @@
     </row>
     <row r="441" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A441" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B441" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C441" s="35">
         <v>1</v>
@@ -6793,10 +6799,10 @@
     </row>
     <row r="442" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A442" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B442" s="29" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C442" s="30">
         <v>1</v>
@@ -6804,10 +6810,10 @@
     </row>
     <row r="443" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A443" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B443" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C443" s="13">
         <v>1</v>
@@ -6815,10 +6821,10 @@
     </row>
     <row r="444" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A444" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B444" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C444" s="35">
         <v>1</v>
@@ -6826,10 +6832,10 @@
     </row>
     <row r="445" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A445" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B445" s="29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C445" s="30">
         <v>1</v>
@@ -6837,10 +6843,10 @@
     </row>
     <row r="446" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A446" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B446" s="29" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C446" s="30">
         <v>1</v>
@@ -6848,10 +6854,10 @@
     </row>
     <row r="447" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A447" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B447" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C447" s="13">
         <v>1</v>
@@ -6859,10 +6865,10 @@
     </row>
     <row r="448" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A448" s="37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C448" s="39">
         <v>1</v>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="449" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A449" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B449" s="29" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C449" s="30">
         <v>1</v>
@@ -6881,10 +6887,10 @@
     </row>
     <row r="450" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A450" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B450" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C450" s="30">
         <v>1</v>
@@ -6892,10 +6898,10 @@
     </row>
     <row r="451" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A451" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C451" s="35">
         <v>1</v>
@@ -6903,10 +6909,10 @@
     </row>
     <row r="452" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A452" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B452" s="29" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C452" s="30">
         <v>1</v>
@@ -6914,10 +6920,10 @@
     </row>
     <row r="453" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A453" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B453" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C453" s="13">
         <v>1</v>
@@ -6925,10 +6931,10 @@
     </row>
     <row r="454" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A454" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B454" s="12" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C454" s="13">
         <v>1</v>
@@ -6936,10 +6942,10 @@
     </row>
     <row r="455" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A455" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C455" s="43">
         <v>1</v>
@@ -6947,10 +6953,10 @@
     </row>
     <row r="456" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A456" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B456" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C456" s="13">
         <v>1</v>
@@ -6958,10 +6964,10 @@
     </row>
     <row r="457" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A457" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C457" s="13">
         <v>1</v>
@@ -6969,10 +6975,10 @@
     </row>
     <row r="458" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A458" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C458" s="13">
         <v>1</v>
@@ -6980,10 +6986,10 @@
     </row>
     <row r="459" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A459" s="45" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B459" s="46" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C459" s="47">
         <v>1</v>
@@ -6991,10 +6997,10 @@
     </row>
     <row r="460" spans="1:3" s="36" customFormat="1" ht="21">
       <c r="A460" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C460" s="35">
         <v>1</v>
@@ -7002,10 +7008,10 @@
     </row>
     <row r="461" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A461" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B461" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C461" s="13">
         <v>1</v>
@@ -7013,10 +7019,10 @@
     </row>
     <row r="462" spans="1:3" s="44" customFormat="1" ht="21">
       <c r="A462" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C462" s="43">
         <v>1</v>
@@ -7024,10 +7030,10 @@
     </row>
     <row r="463" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A463" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B463" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C463" s="13">
         <v>1</v>
@@ -7035,10 +7041,10 @@
     </row>
     <row r="464" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A464" s="45" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B464" s="46" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C464" s="47">
         <v>1</v>
@@ -7046,10 +7052,10 @@
     </row>
     <row r="465" spans="1:3" s="48" customFormat="1" ht="21">
       <c r="A465" s="45" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B465" s="46" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C465" s="47">
         <v>1</v>
@@ -7057,10 +7063,10 @@
     </row>
     <row r="466" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A466" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C466" s="13">
         <v>1</v>
@@ -7068,10 +7074,10 @@
     </row>
     <row r="467" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A467" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B467" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C467" s="13">
         <v>1</v>
@@ -7079,10 +7085,10 @@
     </row>
     <row r="468" spans="1:3" s="52" customFormat="1" ht="21">
       <c r="A468" s="49" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B468" s="50" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C468" s="51">
         <v>1</v>
@@ -7090,10 +7096,10 @@
     </row>
     <row r="469" spans="1:3" s="31" customFormat="1" ht="21">
       <c r="A469" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B469" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C469" s="30">
         <v>1</v>
@@ -7114,10 +7120,10 @@
     </row>
     <row r="472" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A472" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B472" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C472" s="13">
         <v>1</v>
@@ -7125,10 +7131,10 @@
     </row>
     <row r="473" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A473" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C473" s="13">
         <v>1</v>
@@ -7136,10 +7142,10 @@
     </row>
     <row r="474" spans="1:3" s="14" customFormat="1" ht="21">
       <c r="A474" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C474" s="13">
         <v>1</v>
@@ -7147,10 +7153,10 @@
     </row>
     <row r="475" spans="1:3" s="40" customFormat="1" ht="21">
       <c r="A475" s="37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B475" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C475" s="39">
         <v>1</v>
@@ -7158,10 +7164,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C476" s="4">
         <v>0</v>
@@ -7169,10 +7175,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C477" s="4">
         <v>0</v>
@@ -7180,10 +7186,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C478" s="4">
         <v>0</v>
@@ -7191,10 +7197,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B479" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="C479" s="4">
         <v>0</v>
@@ -7202,10 +7208,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C480" s="4">
         <v>0</v>
@@ -7213,10 +7219,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C481" s="4">
         <v>0</v>
@@ -7224,10 +7230,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C482" s="4">
         <v>0</v>
@@ -7235,10 +7241,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C483" s="4">
         <v>0</v>
@@ -7246,10 +7252,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C484" s="4">
         <v>0</v>
@@ -7258,7 +7264,7 @@
     <row r="485" spans="1:3">
       <c r="C485">
         <f>SUM(C7:C484)</f>
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7459,16 +7465,16 @@
     <hyperlink ref="B219" r:id="rId194"/>
     <hyperlink ref="B220" r:id="rId195"/>
     <hyperlink ref="B221" r:id="rId196"/>
-    <hyperlink ref="B222" r:id="rId197"/>
+    <hyperlink ref="B222" r:id="rId197" display="Convert a normal BST into a Balanced BST"/>
     <hyperlink ref="B223" r:id="rId198"/>
-    <hyperlink ref="B224" r:id="rId199"/>
-    <hyperlink ref="B225" r:id="rId200"/>
+    <hyperlink ref="B224" r:id="rId199" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B225" r:id="rId200" display="Find Kth smallest element in a BST"/>
     <hyperlink ref="B226" r:id="rId201"/>
     <hyperlink ref="B227" r:id="rId202"/>
     <hyperlink ref="B228" r:id="rId203"/>
     <hyperlink ref="B229" r:id="rId204"/>
     <hyperlink ref="B230" r:id="rId205"/>
-    <hyperlink ref="B231" r:id="rId206"/>
+    <hyperlink ref="B231" r:id="rId206" display="Check preorder is valid or not"/>
     <hyperlink ref="B232" r:id="rId207"/>
     <hyperlink ref="B233" r:id="rId208"/>
     <hyperlink ref="B234" r:id="rId209"/>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Check preorder is valid or not (same concept of bulding BST from preorder)</t>
+  </si>
+  <si>
+    <t>Rearrange the array such that a[i]=a[a[i]] in O(1) extra space</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2082,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2488,10 +2491,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
-      <c r="B39" s="7"/>
-      <c r="C39" s="4">
-        <v>0</v>
+    <row r="39" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -7264,7 +7272,7 @@
     <row r="485" spans="1:3">
       <c r="C485">
         <f>SUM(C7:C484)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7720,8 +7728,9 @@
     <hyperlink ref="B431" r:id="rId449" display="Constrained Subsequence Sum"/>
     <hyperlink ref="B179" r:id="rId450" display="House Robber III"/>
     <hyperlink ref="B19" r:id="rId451"/>
+    <hyperlink ref="B39" r:id="rId452"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId452"/>
+  <pageSetup orientation="portrait" r:id="rId453"/>
 </worksheet>
 </file>
--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -2075,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2085,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/SDE/FINAL450.xlsx
+++ b/SDE/FINAL450.xlsx
@@ -2075,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2480,15 +2480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="4">
-        <v>0</v>
+      <c r="C38" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="18" customFormat="1" ht="21">
@@ -7272,7 +7272,7 @@
     <row r="485" spans="1:3">
       <c r="C485">
         <f>SUM(C7:C484)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
